--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E1838C-4C48-42A3-A8B5-C11836209DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9F9E37-514F-4004-A23C-B44F620B5CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -124,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor1002, Actor2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rewardTitle|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +175,14 @@
   </si>
   <si>
     <t>bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1002, Actor2010, Actor1141, Actor0240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8028,7 +8028,13 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>400</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -8336,12 +8342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F99DA2-EABB-4D74-8370-957E4E392B1E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -8378,7 +8383,7 @@
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -8387,10 +8392,10 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -8444,19 +8449,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
         <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -8510,19 +8515,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
         <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -8576,19 +8581,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
         <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -8642,19 +8647,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
         <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -8708,25 +8713,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -8774,25 +8779,25 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
         <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
       </c>
       <c r="N7">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -8840,25 +8845,25 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
         <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
       </c>
       <c r="N8">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -8906,19 +8911,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
         <v>34</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
       </c>
       <c r="N9">
         <v>10.999000000000001</v>
@@ -8972,16 +8977,16 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
         <v>34</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -9035,16 +9040,16 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
         <v>34</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -9098,16 +9103,16 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
         <v>34</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -9161,16 +9166,16 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
         <v>34</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -9224,22 +9229,22 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
         <v>34</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9287,22 +9292,22 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
         <v>34</v>
-      </c>
-      <c r="M15" t="s">
-        <v>36</v>
       </c>
       <c r="N15">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -9350,22 +9355,22 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
         <v>34</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
       </c>
       <c r="N16">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -9413,16 +9418,16 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
         <v>34</v>
-      </c>
-      <c r="M17" t="s">
-        <v>36</v>
       </c>
       <c r="N17">
         <v>10.999000000000001</v>
@@ -9476,16 +9481,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
         <v>34</v>
-      </c>
-      <c r="M18" t="s">
-        <v>36</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -9539,16 +9544,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
         <v>34</v>
-      </c>
-      <c r="M19" t="s">
-        <v>36</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -9602,16 +9607,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
         <v>34</v>
-      </c>
-      <c r="M20" t="s">
-        <v>36</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -9665,16 +9670,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
         <v>34</v>
-      </c>
-      <c r="M21" t="s">
-        <v>36</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -9728,22 +9733,22 @@
         <v>Ganfaul</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
         <v>34</v>
-      </c>
-      <c r="M22" t="s">
-        <v>36</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9791,22 +9796,22 @@
         <v>Ganfaul</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
         <v>34</v>
-      </c>
-      <c r="M23" t="s">
-        <v>36</v>
       </c>
       <c r="N23">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -9854,22 +9859,22 @@
         <v>Ganfaul</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
         <v>34</v>
-      </c>
-      <c r="M24" t="s">
-        <v>36</v>
       </c>
       <c r="N24">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9917,16 +9922,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
         <v>34</v>
-      </c>
-      <c r="M25" t="s">
-        <v>36</v>
       </c>
       <c r="N25">
         <v>10.999000000000001</v>
@@ -9954,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H26" t="str">
         <f>IF(ISBLANK(G26),"",
@@ -9977,10 +9982,10 @@
     TRIM(MID(G26,FIND(",",G26,FIND(",",G26)+1)+1,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)-FIND(",",G26,FIND(",",G26)+1)-1)),VLOOKUP(TRIM(MID(G26,FIND(",",G26,FIND(",",G26)+1)+1,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)-FIND(",",G26,FIND(",",G26)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G26,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G26,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J26" t="s">
         <v>3</v>
@@ -9989,10 +9994,10 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
         <v>34</v>
-      </c>
-      <c r="M26" t="s">
-        <v>36</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -10020,7 +10025,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H27" t="str">
         <f>IF(ISBLANK(G27),"",
@@ -10043,10 +10048,10 @@
     TRIM(MID(G27,FIND(",",G27,FIND(",",G27)+1)+1,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)-FIND(",",G27,FIND(",",G27)+1)-1)),VLOOKUP(TRIM(MID(G27,FIND(",",G27,FIND(",",G27)+1)+1,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)-FIND(",",G27,FIND(",",G27)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G27,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G27,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J27" t="s">
         <v>3</v>
@@ -10055,10 +10060,10 @@
         <v>4</v>
       </c>
       <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
         <v>34</v>
-      </c>
-      <c r="M27" t="s">
-        <v>36</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -10086,7 +10091,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H28" t="str">
         <f>IF(ISBLANK(G28),"",
@@ -10109,10 +10114,10 @@
     TRIM(MID(G28,FIND(",",G28,FIND(",",G28)+1)+1,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)-FIND(",",G28,FIND(",",G28)+1)-1)),VLOOKUP(TRIM(MID(G28,FIND(",",G28,FIND(",",G28)+1)+1,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)-FIND(",",G28,FIND(",",G28)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G28,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G28,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J28" t="s">
         <v>3</v>
@@ -10121,10 +10126,10 @@
         <v>4</v>
       </c>
       <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
         <v>34</v>
-      </c>
-      <c r="M28" t="s">
-        <v>36</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -10152,7 +10157,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H29" t="str">
         <f>IF(ISBLANK(G29),"",
@@ -10175,10 +10180,10 @@
     TRIM(MID(G29,FIND(",",G29,FIND(",",G29)+1)+1,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)-FIND(",",G29,FIND(",",G29)+1)-1)),VLOOKUP(TRIM(MID(G29,FIND(",",G29,FIND(",",G29)+1)+1,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)-FIND(",",G29,FIND(",",G29)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G29,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G29,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J29" t="s">
         <v>3</v>
@@ -10187,10 +10192,10 @@
         <v>4</v>
       </c>
       <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
         <v>34</v>
-      </c>
-      <c r="M29" t="s">
-        <v>36</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -10218,7 +10223,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H30" t="str">
         <f>IF(ISBLANK(G30),"",
@@ -10241,10 +10246,10 @@
     TRIM(MID(G30,FIND(",",G30,FIND(",",G30)+1)+1,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)-FIND(",",G30,FIND(",",G30)+1)-1)),VLOOKUP(TRIM(MID(G30,FIND(",",G30,FIND(",",G30)+1)+1,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)-FIND(",",G30,FIND(",",G30)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G30,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G30,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J30" t="s">
         <v>3</v>
@@ -10253,16 +10258,16 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
         <v>34</v>
-      </c>
-      <c r="M30" t="s">
-        <v>36</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -10284,7 +10289,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H31" t="str">
         <f>IF(ISBLANK(G31),"",
@@ -10307,10 +10312,10 @@
     TRIM(MID(G31,FIND(",",G31,FIND(",",G31)+1)+1,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)-FIND(",",G31,FIND(",",G31)+1)-1)),VLOOKUP(TRIM(MID(G31,FIND(",",G31,FIND(",",G31)+1)+1,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)-FIND(",",G31,FIND(",",G31)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G31,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G31,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J31" t="s">
         <v>3</v>
@@ -10319,16 +10324,16 @@
         <v>4</v>
       </c>
       <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
         <v>34</v>
-      </c>
-      <c r="M31" t="s">
-        <v>36</v>
       </c>
       <c r="N31">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -10350,7 +10355,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H32" t="str">
         <f>IF(ISBLANK(G32),"",
@@ -10373,10 +10378,10 @@
     TRIM(MID(G32,FIND(",",G32,FIND(",",G32)+1)+1,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)-FIND(",",G32,FIND(",",G32)+1)-1)),VLOOKUP(TRIM(MID(G32,FIND(",",G32,FIND(",",G32)+1)+1,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)-FIND(",",G32,FIND(",",G32)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G32,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G32,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J32" t="s">
         <v>3</v>
@@ -10385,16 +10390,16 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
         <v>34</v>
-      </c>
-      <c r="M32" t="s">
-        <v>36</v>
       </c>
       <c r="N32">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -10416,7 +10421,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H33" t="str">
         <f>IF(ISBLANK(G33),"",
@@ -10439,10 +10444,10 @@
     TRIM(MID(G33,FIND(",",G33,FIND(",",G33)+1)+1,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)-FIND(",",G33,FIND(",",G33)+1)-1)),VLOOKUP(TRIM(MID(G33,FIND(",",G33,FIND(",",G33)+1)+1,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)-FIND(",",G33,FIND(",",G33)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G33,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G33,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J33" t="s">
         <v>3</v>
@@ -10451,10 +10456,10 @@
         <v>4</v>
       </c>
       <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
         <v>34</v>
-      </c>
-      <c r="M33" t="s">
-        <v>36</v>
       </c>
       <c r="N33">
         <v>10.999000000000001</v>
@@ -10482,9 +10487,9 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" t="str">
+        <v>39</v>
+      </c>
+      <c r="H34">
         <f>IF(ISBLANK(G34),"",
 IF(ISERROR(FIND(",",G34)),
   IF(ISERROR(VLOOKUP(G34,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -10505,19 +10510,19 @@
     TRIM(MID(G34,FIND(",",G34,FIND(",",G34)+1)+1,FIND(",",G34,FIND(",",G34,FIND(",",G34)+1)+1)-FIND(",",G34,FIND(",",G34)+1)-1)),VLOOKUP(TRIM(MID(G34,FIND(",",G34,FIND(",",G34)+1)+1,FIND(",",G34,FIND(",",G34,FIND(",",G34)+1)+1)-FIND(",",G34,FIND(",",G34)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G34,FIND(",",G34,FIND(",",G34,FIND(",",G34)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G34,FIND(",",G34,FIND(",",G34,FIND(",",G34)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>JellyFishGirl</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
         <v>34</v>
-      </c>
-      <c r="M34" t="s">
-        <v>36</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -10545,9 +10550,9 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" t="str">
+        <v>39</v>
+      </c>
+      <c r="H35">
         <f>IF(ISBLANK(G35),"",
 IF(ISERROR(FIND(",",G35)),
   IF(ISERROR(VLOOKUP(G35,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -10568,19 +10573,19 @@
     TRIM(MID(G35,FIND(",",G35,FIND(",",G35)+1)+1,FIND(",",G35,FIND(",",G35,FIND(",",G35)+1)+1)-FIND(",",G35,FIND(",",G35)+1)-1)),VLOOKUP(TRIM(MID(G35,FIND(",",G35,FIND(",",G35)+1)+1,FIND(",",G35,FIND(",",G35,FIND(",",G35)+1)+1)-FIND(",",G35,FIND(",",G35)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G35,FIND(",",G35,FIND(",",G35,FIND(",",G35)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G35,FIND(",",G35,FIND(",",G35,FIND(",",G35)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>JellyFishGirl</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
         <v>34</v>
-      </c>
-      <c r="M35" t="s">
-        <v>36</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -10608,9 +10613,9 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" t="str">
+        <v>39</v>
+      </c>
+      <c r="H36">
         <f>IF(ISBLANK(G36),"",
 IF(ISERROR(FIND(",",G36)),
   IF(ISERROR(VLOOKUP(G36,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -10631,19 +10636,19 @@
     TRIM(MID(G36,FIND(",",G36,FIND(",",G36)+1)+1,FIND(",",G36,FIND(",",G36,FIND(",",G36)+1)+1)-FIND(",",G36,FIND(",",G36)+1)-1)),VLOOKUP(TRIM(MID(G36,FIND(",",G36,FIND(",",G36)+1)+1,FIND(",",G36,FIND(",",G36,FIND(",",G36)+1)+1)-FIND(",",G36,FIND(",",G36)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G36,FIND(",",G36,FIND(",",G36,FIND(",",G36)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G36,FIND(",",G36,FIND(",",G36,FIND(",",G36)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>JellyFishGirl</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
         <v>34</v>
-      </c>
-      <c r="M36" t="s">
-        <v>36</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -10671,9 +10676,9 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" t="str">
+        <v>39</v>
+      </c>
+      <c r="H37">
         <f>IF(ISBLANK(G37),"",
 IF(ISERROR(FIND(",",G37)),
   IF(ISERROR(VLOOKUP(G37,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -10694,19 +10699,19 @@
     TRIM(MID(G37,FIND(",",G37,FIND(",",G37)+1)+1,FIND(",",G37,FIND(",",G37,FIND(",",G37)+1)+1)-FIND(",",G37,FIND(",",G37)+1)-1)),VLOOKUP(TRIM(MID(G37,FIND(",",G37,FIND(",",G37)+1)+1,FIND(",",G37,FIND(",",G37,FIND(",",G37)+1)+1)-FIND(",",G37,FIND(",",G37)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G37,FIND(",",G37,FIND(",",G37,FIND(",",G37)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G37,FIND(",",G37,FIND(",",G37,FIND(",",G37)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>JellyFishGirl</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
         <v>34</v>
-      </c>
-      <c r="M37" t="s">
-        <v>36</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -10734,9 +10739,9 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" t="str">
+        <v>39</v>
+      </c>
+      <c r="H38">
         <f>IF(ISBLANK(G38),"",
 IF(ISERROR(FIND(",",G38)),
   IF(ISERROR(VLOOKUP(G38,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -10757,25 +10762,25 @@
     TRIM(MID(G38,FIND(",",G38,FIND(",",G38)+1)+1,FIND(",",G38,FIND(",",G38,FIND(",",G38)+1)+1)-FIND(",",G38,FIND(",",G38)+1)-1)),VLOOKUP(TRIM(MID(G38,FIND(",",G38,FIND(",",G38)+1)+1,FIND(",",G38,FIND(",",G38,FIND(",",G38)+1)+1)-FIND(",",G38,FIND(",",G38)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G38,FIND(",",G38,FIND(",",G38,FIND(",",G38)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G38,FIND(",",G38,FIND(",",G38,FIND(",",G38)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>JellyFishGirl</v>
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
         <v>34</v>
-      </c>
-      <c r="M38" t="s">
-        <v>36</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -10797,9 +10802,9 @@
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" t="str">
+        <v>39</v>
+      </c>
+      <c r="H39">
         <f>IF(ISBLANK(G39),"",
 IF(ISERROR(FIND(",",G39)),
   IF(ISERROR(VLOOKUP(G39,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -10820,25 +10825,25 @@
     TRIM(MID(G39,FIND(",",G39,FIND(",",G39)+1)+1,FIND(",",G39,FIND(",",G39,FIND(",",G39)+1)+1)-FIND(",",G39,FIND(",",G39)+1)-1)),VLOOKUP(TRIM(MID(G39,FIND(",",G39,FIND(",",G39)+1)+1,FIND(",",G39,FIND(",",G39,FIND(",",G39)+1)+1)-FIND(",",G39,FIND(",",G39)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G39,FIND(",",G39,FIND(",",G39,FIND(",",G39)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G39,FIND(",",G39,FIND(",",G39,FIND(",",G39)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>JellyFishGirl</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
         <v>34</v>
-      </c>
-      <c r="M39" t="s">
-        <v>36</v>
       </c>
       <c r="N39">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -10860,9 +10865,9 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" t="str">
+        <v>39</v>
+      </c>
+      <c r="H40">
         <f>IF(ISBLANK(G40),"",
 IF(ISERROR(FIND(",",G40)),
   IF(ISERROR(VLOOKUP(G40,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -10883,25 +10888,25 @@
     TRIM(MID(G40,FIND(",",G40,FIND(",",G40)+1)+1,FIND(",",G40,FIND(",",G40,FIND(",",G40)+1)+1)-FIND(",",G40,FIND(",",G40)+1)-1)),VLOOKUP(TRIM(MID(G40,FIND(",",G40,FIND(",",G40)+1)+1,FIND(",",G40,FIND(",",G40,FIND(",",G40)+1)+1)-FIND(",",G40,FIND(",",G40)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G40,FIND(",",G40,FIND(",",G40,FIND(",",G40)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G40,FIND(",",G40,FIND(",",G40,FIND(",",G40)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>JellyFishGirl</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
         <v>34</v>
-      </c>
-      <c r="M40" t="s">
-        <v>36</v>
       </c>
       <c r="N40">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -10923,9 +10928,9 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" t="str">
+        <v>39</v>
+      </c>
+      <c r="H41">
         <f>IF(ISBLANK(G41),"",
 IF(ISERROR(FIND(",",G41)),
   IF(ISERROR(VLOOKUP(G41,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -10946,19 +10951,19 @@
     TRIM(MID(G41,FIND(",",G41,FIND(",",G41)+1)+1,FIND(",",G41,FIND(",",G41,FIND(",",G41)+1)+1)-FIND(",",G41,FIND(",",G41)+1)-1)),VLOOKUP(TRIM(MID(G41,FIND(",",G41,FIND(",",G41)+1)+1,FIND(",",G41,FIND(",",G41,FIND(",",G41)+1)+1)-FIND(",",G41,FIND(",",G41)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G41,FIND(",",G41,FIND(",",G41,FIND(",",G41)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G41,FIND(",",G41,FIND(",",G41,FIND(",",G41)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>JellyFishGirl</v>
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
         <v>34</v>
-      </c>
-      <c r="M41" t="s">
-        <v>36</v>
       </c>
       <c r="N41">
         <v>10.999000000000001</v>
@@ -11012,16 +11017,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" t="s">
         <v>32</v>
       </c>
-      <c r="J42" t="s">
-        <v>38</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>34</v>
-      </c>
-      <c r="M42" t="s">
-        <v>36</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -11075,16 +11080,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" t="s">
         <v>32</v>
       </c>
-      <c r="J43" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>34</v>
-      </c>
-      <c r="M43" t="s">
-        <v>36</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -11138,16 +11143,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" t="s">
         <v>32</v>
       </c>
-      <c r="J44" t="s">
-        <v>38</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>34</v>
-      </c>
-      <c r="M44" t="s">
-        <v>36</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -11201,16 +11206,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" t="s">
         <v>32</v>
       </c>
-      <c r="J45" t="s">
-        <v>38</v>
-      </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>34</v>
-      </c>
-      <c r="M45" t="s">
-        <v>36</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -11264,22 +11269,22 @@
         <v>Ganfaul</v>
       </c>
       <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" t="s">
         <v>32</v>
       </c>
-      <c r="J46" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>34</v>
-      </c>
-      <c r="M46" t="s">
-        <v>36</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -11327,22 +11332,22 @@
         <v>Ganfaul</v>
       </c>
       <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" t="s">
         <v>32</v>
       </c>
-      <c r="J47" t="s">
-        <v>38</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>34</v>
-      </c>
-      <c r="M47" t="s">
-        <v>36</v>
       </c>
       <c r="N47">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -11390,22 +11395,22 @@
         <v>Ganfaul</v>
       </c>
       <c r="I48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" t="s">
         <v>32</v>
       </c>
-      <c r="J48" t="s">
-        <v>38</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>34</v>
-      </c>
-      <c r="M48" t="s">
-        <v>36</v>
       </c>
       <c r="N48">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -11453,16 +11458,16 @@
         <v>Ganfaul</v>
       </c>
       <c r="I49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" t="s">
         <v>32</v>
       </c>
-      <c r="J49" t="s">
-        <v>38</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>34</v>
-      </c>
-      <c r="M49" t="s">
-        <v>36</v>
       </c>
       <c r="N49">
         <v>10.999000000000001</v>
@@ -11516,16 +11521,16 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" t="s">
         <v>34</v>
-      </c>
-      <c r="M50" t="s">
-        <v>36</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -11579,16 +11584,16 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" t="s">
         <v>34</v>
-      </c>
-      <c r="M51" t="s">
-        <v>36</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -11642,16 +11647,16 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" t="s">
         <v>34</v>
-      </c>
-      <c r="M52" t="s">
-        <v>36</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -11705,16 +11710,16 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
         <v>34</v>
-      </c>
-      <c r="M53" t="s">
-        <v>36</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -11768,22 +11773,22 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" t="s">
         <v>34</v>
-      </c>
-      <c r="M54" t="s">
-        <v>36</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6</v>
       </c>
@@ -11831,22 +11836,22 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" t="s">
         <v>34</v>
-      </c>
-      <c r="M55" t="s">
-        <v>36</v>
       </c>
       <c r="N55">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6</v>
       </c>
@@ -11894,22 +11899,22 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" t="s">
         <v>34</v>
-      </c>
-      <c r="M56" t="s">
-        <v>36</v>
       </c>
       <c r="N56">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6</v>
       </c>
@@ -11957,29 +11962,23 @@
         <v>BigBatSuccubus</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" t="s">
         <v>34</v>
-      </c>
-      <c r="M57" t="s">
-        <v>36</v>
       </c>
       <c r="N57">
         <v>10.999000000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="N1:N57" xr:uid="{C242B5F0-CE81-45C6-A9B6-1B075F739F75}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="N1:N57" xr:uid="{C242B5F0-CE81-45C6-A9B6-1B075F739F75}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9F9E37-514F-4004-A23C-B44F620B5CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F922C2-3D2E-4E82-AB2D-E888ECA6020A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
@@ -154,10 +154,6 @@
     <t>InvasionUI_SatExpected</t>
   </si>
   <si>
-    <t>InvasionUI_rewardMore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dropId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvasionUI_RewardMore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8345,8 +8345,8 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -8354,6 +8354,8 @@
     <col min="2" max="2" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
     <col min="8" max="8" width="23.625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -8395,7 +8397,7 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -8455,13 +8457,13 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -8521,13 +8523,13 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -8587,13 +8589,13 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -8653,13 +8655,13 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -8719,13 +8721,13 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -8785,13 +8787,13 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>3.9990000000000001</v>
@@ -8851,13 +8853,13 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>8.9990000000000006</v>
@@ -8917,13 +8919,13 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>10.999000000000001</v>
@@ -8980,13 +8982,13 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -9043,13 +9045,13 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -9106,13 +9108,13 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -9169,13 +9171,13 @@
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -9232,13 +9234,13 @@
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -9295,13 +9297,13 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>3.9990000000000001</v>
@@ -9358,13 +9360,13 @@
         <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>8.9990000000000006</v>
@@ -9421,13 +9423,13 @@
         <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>10.999000000000001</v>
@@ -9484,13 +9486,13 @@
         <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -9547,13 +9549,13 @@
         <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -9610,13 +9612,13 @@
         <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -9673,13 +9675,13 @@
         <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -9736,13 +9738,13 @@
         <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -9799,13 +9801,13 @@
         <v>27</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>3.9990000000000001</v>
@@ -9862,13 +9864,13 @@
         <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>8.9990000000000006</v>
@@ -9925,13 +9927,13 @@
         <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>10.999000000000001</v>
@@ -9959,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" t="str">
         <f>IF(ISBLANK(G26),"",
@@ -9994,10 +9996,10 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -10025,7 +10027,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27" t="str">
         <f>IF(ISBLANK(G27),"",
@@ -10060,10 +10062,10 @@
         <v>4</v>
       </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -10091,7 +10093,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" t="str">
         <f>IF(ISBLANK(G28),"",
@@ -10126,10 +10128,10 @@
         <v>4</v>
       </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -10157,7 +10159,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29" t="str">
         <f>IF(ISBLANK(G29),"",
@@ -10192,10 +10194,10 @@
         <v>4</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -10223,7 +10225,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" t="str">
         <f>IF(ISBLANK(G30),"",
@@ -10258,10 +10260,10 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -10289,7 +10291,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31" t="str">
         <f>IF(ISBLANK(G31),"",
@@ -10324,10 +10326,10 @@
         <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>3.9990000000000001</v>
@@ -10355,7 +10357,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" t="str">
         <f>IF(ISBLANK(G32),"",
@@ -10390,10 +10392,10 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>8.9990000000000006</v>
@@ -10421,7 +10423,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33" t="str">
         <f>IF(ISBLANK(G33),"",
@@ -10456,10 +10458,10 @@
         <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>10.999000000000001</v>
@@ -10487,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <f>IF(ISBLANK(G34),"",
@@ -10516,13 +10518,13 @@
         <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -10550,7 +10552,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35">
         <f>IF(ISBLANK(G35),"",
@@ -10579,13 +10581,13 @@
         <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L35" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -10613,7 +10615,7 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <f>IF(ISBLANK(G36),"",
@@ -10642,13 +10644,13 @@
         <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L36" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -10676,7 +10678,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <f>IF(ISBLANK(G37),"",
@@ -10705,13 +10707,13 @@
         <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -10739,7 +10741,7 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38">
         <f>IF(ISBLANK(G38),"",
@@ -10768,13 +10770,13 @@
         <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -10802,7 +10804,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <f>IF(ISBLANK(G39),"",
@@ -10831,13 +10833,13 @@
         <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L39" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N39">
         <v>3.9990000000000001</v>
@@ -10865,7 +10867,7 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <f>IF(ISBLANK(G40),"",
@@ -10894,13 +10896,13 @@
         <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L40" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>8.9990000000000006</v>
@@ -10928,7 +10930,7 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <f>IF(ISBLANK(G41),"",
@@ -10957,13 +10959,13 @@
         <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L41" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N41">
         <v>10.999000000000001</v>
@@ -11020,13 +11022,13 @@
         <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L42" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -11083,13 +11085,13 @@
         <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L43" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -11146,13 +11148,13 @@
         <v>30</v>
       </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L44" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -11209,13 +11211,13 @@
         <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -11272,13 +11274,13 @@
         <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L46" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -11335,13 +11337,13 @@
         <v>30</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L47" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N47">
         <v>3.9990000000000001</v>
@@ -11398,13 +11400,13 @@
         <v>30</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L48" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>8.9990000000000006</v>
@@ -11461,13 +11463,13 @@
         <v>30</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L49" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N49">
         <v>10.999000000000001</v>
@@ -11524,13 +11526,13 @@
         <v>31</v>
       </c>
       <c r="J50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L50" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -11587,13 +11589,13 @@
         <v>31</v>
       </c>
       <c r="J51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L51" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -11650,13 +11652,13 @@
         <v>31</v>
       </c>
       <c r="J52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L52" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -11713,13 +11715,13 @@
         <v>31</v>
       </c>
       <c r="J53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L53" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -11776,13 +11778,13 @@
         <v>31</v>
       </c>
       <c r="J54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L54" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -11839,13 +11841,13 @@
         <v>31</v>
       </c>
       <c r="J55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L55" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N55">
         <v>3.9990000000000001</v>
@@ -11902,13 +11904,13 @@
         <v>31</v>
       </c>
       <c r="J56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L56" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N56">
         <v>8.9990000000000006</v>
@@ -11965,13 +11967,13 @@
         <v>31</v>
       </c>
       <c r="J57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L57" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N57">
         <v>10.999000000000001</v>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F922C2-3D2E-4E82-AB2D-E888ECA6020A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7E552-73D3-4CAE-B460-10DEB15FEBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="42">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,18 +109,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업데이트순번</t>
   </si>
   <si>
     <t>Actor0201, Actor0030, Actor3021, Actor2128, Actor3114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor2103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +175,22 @@
   </si>
   <si>
     <t>InvasionUI_RewardMore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2103, Actor0007, Actor2011, Actor1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0201, Actor2015, Actor2120, Actor0113, Actor0104, Actor3231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0201, Actor3019, Actor1029, Actor1109, Actor2238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2103, Actor3021, Actor0024, Actor0125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8028,13 +8036,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>400</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -8353,7 +8355,7 @@
   <cols>
     <col min="2" max="2" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
@@ -8385,7 +8387,7 @@
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -8394,13 +8396,13 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -8425,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <f>IF(ISBLANK(G2),"",
@@ -8451,19 +8453,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -8491,7 +8493,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <f>IF(ISBLANK(G3),"",
@@ -8517,19 +8519,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -8557,7 +8559,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <f>IF(ISBLANK(G4),"",
@@ -8583,19 +8585,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -8623,7 +8625,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <f>IF(ISBLANK(G5),"",
@@ -8649,19 +8651,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -8689,7 +8691,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <f>IF(ISBLANK(G6),"",
@@ -8715,19 +8717,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -8755,7 +8757,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <f>IF(ISBLANK(G7),"",
@@ -8781,19 +8783,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>3.9990000000000001</v>
@@ -8821,7 +8823,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <f>IF(ISBLANK(G8),"",
@@ -8847,19 +8849,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>8.9990000000000006</v>
@@ -8887,7 +8889,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <f>IF(ISBLANK(G9),"",
@@ -8913,19 +8915,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>10.999000000000001</v>
@@ -8953,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H10" t="str">
         <f>IF(ISBLANK(G10),"",
@@ -8976,19 +8978,19 @@
     TRIM(MID(G10,FIND(",",G10,FIND(",",G10)+1)+1,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)-FIND(",",G10,FIND(",",G10)+1)-1)),VLOOKUP(TRIM(MID(G10,FIND(",",G10,FIND(",",G10)+1)+1,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)-FIND(",",G10,FIND(",",G10)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G10,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G10,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -9016,7 +9018,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H11" t="str">
         <f>IF(ISBLANK(G11),"",
@@ -9039,19 +9041,19 @@
     TRIM(MID(G11,FIND(",",G11,FIND(",",G11)+1)+1,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)-FIND(",",G11,FIND(",",G11)+1)-1)),VLOOKUP(TRIM(MID(G11,FIND(",",G11,FIND(",",G11)+1)+1,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)-FIND(",",G11,FIND(",",G11)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G11,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G11,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -9079,7 +9081,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H12" t="str">
         <f>IF(ISBLANK(G12),"",
@@ -9102,19 +9104,19 @@
     TRIM(MID(G12,FIND(",",G12,FIND(",",G12)+1)+1,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)-FIND(",",G12,FIND(",",G12)+1)-1)),VLOOKUP(TRIM(MID(G12,FIND(",",G12,FIND(",",G12)+1)+1,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)-FIND(",",G12,FIND(",",G12)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G12,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G12,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -9142,7 +9144,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H13" t="str">
         <f>IF(ISBLANK(G13),"",
@@ -9165,19 +9167,19 @@
     TRIM(MID(G13,FIND(",",G13,FIND(",",G13)+1)+1,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)-FIND(",",G13,FIND(",",G13)+1)-1)),VLOOKUP(TRIM(MID(G13,FIND(",",G13,FIND(",",G13)+1)+1,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)-FIND(",",G13,FIND(",",G13)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G13,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G13,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -9205,7 +9207,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H14" t="str">
         <f>IF(ISBLANK(G14),"",
@@ -9228,19 +9230,19 @@
     TRIM(MID(G14,FIND(",",G14,FIND(",",G14)+1)+1,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)-FIND(",",G14,FIND(",",G14)+1)-1)),VLOOKUP(TRIM(MID(G14,FIND(",",G14,FIND(",",G14)+1)+1,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)-FIND(",",G14,FIND(",",G14)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G14,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G14,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -9268,7 +9270,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H15" t="str">
         <f>IF(ISBLANK(G15),"",
@@ -9291,19 +9293,19 @@
     TRIM(MID(G15,FIND(",",G15,FIND(",",G15)+1)+1,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)-FIND(",",G15,FIND(",",G15)+1)-1)),VLOOKUP(TRIM(MID(G15,FIND(",",G15,FIND(",",G15)+1)+1,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)-FIND(",",G15,FIND(",",G15)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G15,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G15,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>3.9990000000000001</v>
@@ -9331,7 +9333,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H16" t="str">
         <f>IF(ISBLANK(G16),"",
@@ -9354,19 +9356,19 @@
     TRIM(MID(G16,FIND(",",G16,FIND(",",G16)+1)+1,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)-FIND(",",G16,FIND(",",G16)+1)-1)),VLOOKUP(TRIM(MID(G16,FIND(",",G16,FIND(",",G16)+1)+1,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)-FIND(",",G16,FIND(",",G16)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G16,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G16,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>8.9990000000000006</v>
@@ -9394,7 +9396,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H17" t="str">
         <f>IF(ISBLANK(G17),"",
@@ -9417,19 +9419,19 @@
     TRIM(MID(G17,FIND(",",G17,FIND(",",G17)+1)+1,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)-FIND(",",G17,FIND(",",G17)+1)-1)),VLOOKUP(TRIM(MID(G17,FIND(",",G17,FIND(",",G17)+1)+1,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)-FIND(",",G17,FIND(",",G17)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G17,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G17,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>10.999000000000001</v>
@@ -9457,9 +9459,9 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="str">
+        <v>39</v>
+      </c>
+      <c r="H18">
         <f>IF(ISBLANK(G18),"",
 IF(ISERROR(FIND(",",G18)),
   IF(ISERROR(VLOOKUP(G18,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -9480,19 +9482,19 @@
     TRIM(MID(G18,FIND(",",G18,FIND(",",G18)+1)+1,FIND(",",G18,FIND(",",G18,FIND(",",G18)+1)+1)-FIND(",",G18,FIND(",",G18)+1)-1)),VLOOKUP(TRIM(MID(G18,FIND(",",G18,FIND(",",G18)+1)+1,FIND(",",G18,FIND(",",G18,FIND(",",G18)+1)+1)-FIND(",",G18,FIND(",",G18)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G18,FIND(",",G18,FIND(",",G18,FIND(",",G18)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G18,FIND(",",G18,FIND(",",G18,FIND(",",G18)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -9520,9 +9522,9 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="str">
+        <v>39</v>
+      </c>
+      <c r="H19">
         <f>IF(ISBLANK(G19),"",
 IF(ISERROR(FIND(",",G19)),
   IF(ISERROR(VLOOKUP(G19,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -9543,19 +9545,19 @@
     TRIM(MID(G19,FIND(",",G19,FIND(",",G19)+1)+1,FIND(",",G19,FIND(",",G19,FIND(",",G19)+1)+1)-FIND(",",G19,FIND(",",G19)+1)-1)),VLOOKUP(TRIM(MID(G19,FIND(",",G19,FIND(",",G19)+1)+1,FIND(",",G19,FIND(",",G19,FIND(",",G19)+1)+1)-FIND(",",G19,FIND(",",G19)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G19,FIND(",",G19,FIND(",",G19,FIND(",",G19)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G19,FIND(",",G19,FIND(",",G19,FIND(",",G19)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -9583,9 +9585,9 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="str">
+        <v>39</v>
+      </c>
+      <c r="H20">
         <f>IF(ISBLANK(G20),"",
 IF(ISERROR(FIND(",",G20)),
   IF(ISERROR(VLOOKUP(G20,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -9606,19 +9608,19 @@
     TRIM(MID(G20,FIND(",",G20,FIND(",",G20)+1)+1,FIND(",",G20,FIND(",",G20,FIND(",",G20)+1)+1)-FIND(",",G20,FIND(",",G20)+1)-1)),VLOOKUP(TRIM(MID(G20,FIND(",",G20,FIND(",",G20)+1)+1,FIND(",",G20,FIND(",",G20,FIND(",",G20)+1)+1)-FIND(",",G20,FIND(",",G20)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G20,FIND(",",G20,FIND(",",G20,FIND(",",G20)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G20,FIND(",",G20,FIND(",",G20,FIND(",",G20)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -9646,9 +9648,9 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="str">
+        <v>39</v>
+      </c>
+      <c r="H21">
         <f>IF(ISBLANK(G21),"",
 IF(ISERROR(FIND(",",G21)),
   IF(ISERROR(VLOOKUP(G21,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -9669,19 +9671,19 @@
     TRIM(MID(G21,FIND(",",G21,FIND(",",G21)+1)+1,FIND(",",G21,FIND(",",G21,FIND(",",G21)+1)+1)-FIND(",",G21,FIND(",",G21)+1)-1)),VLOOKUP(TRIM(MID(G21,FIND(",",G21,FIND(",",G21)+1)+1,FIND(",",G21,FIND(",",G21,FIND(",",G21)+1)+1)-FIND(",",G21,FIND(",",G21)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G21,FIND(",",G21,FIND(",",G21,FIND(",",G21)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G21,FIND(",",G21,FIND(",",G21,FIND(",",G21)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -9709,9 +9711,9 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="str">
+        <v>39</v>
+      </c>
+      <c r="H22">
         <f>IF(ISBLANK(G22),"",
 IF(ISERROR(FIND(",",G22)),
   IF(ISERROR(VLOOKUP(G22,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -9732,19 +9734,19 @@
     TRIM(MID(G22,FIND(",",G22,FIND(",",G22)+1)+1,FIND(",",G22,FIND(",",G22,FIND(",",G22)+1)+1)-FIND(",",G22,FIND(",",G22)+1)-1)),VLOOKUP(TRIM(MID(G22,FIND(",",G22,FIND(",",G22)+1)+1,FIND(",",G22,FIND(",",G22,FIND(",",G22)+1)+1)-FIND(",",G22,FIND(",",G22)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G22,FIND(",",G22,FIND(",",G22,FIND(",",G22)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G22,FIND(",",G22,FIND(",",G22,FIND(",",G22)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -9772,9 +9774,9 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="str">
+        <v>39</v>
+      </c>
+      <c r="H23">
         <f>IF(ISBLANK(G23),"",
 IF(ISERROR(FIND(",",G23)),
   IF(ISERROR(VLOOKUP(G23,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -9795,19 +9797,19 @@
     TRIM(MID(G23,FIND(",",G23,FIND(",",G23)+1)+1,FIND(",",G23,FIND(",",G23,FIND(",",G23)+1)+1)-FIND(",",G23,FIND(",",G23)+1)-1)),VLOOKUP(TRIM(MID(G23,FIND(",",G23,FIND(",",G23)+1)+1,FIND(",",G23,FIND(",",G23,FIND(",",G23)+1)+1)-FIND(",",G23,FIND(",",G23)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G23,FIND(",",G23,FIND(",",G23,FIND(",",G23)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G23,FIND(",",G23,FIND(",",G23,FIND(",",G23)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>3.9990000000000001</v>
@@ -9835,9 +9837,9 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="str">
+        <v>39</v>
+      </c>
+      <c r="H24">
         <f>IF(ISBLANK(G24),"",
 IF(ISERROR(FIND(",",G24)),
   IF(ISERROR(VLOOKUP(G24,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -9858,19 +9860,19 @@
     TRIM(MID(G24,FIND(",",G24,FIND(",",G24)+1)+1,FIND(",",G24,FIND(",",G24,FIND(",",G24)+1)+1)-FIND(",",G24,FIND(",",G24)+1)-1)),VLOOKUP(TRIM(MID(G24,FIND(",",G24,FIND(",",G24)+1)+1,FIND(",",G24,FIND(",",G24,FIND(",",G24)+1)+1)-FIND(",",G24,FIND(",",G24)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G24,FIND(",",G24,FIND(",",G24,FIND(",",G24)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G24,FIND(",",G24,FIND(",",G24,FIND(",",G24)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>8.9990000000000006</v>
@@ -9898,9 +9900,9 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="str">
+        <v>39</v>
+      </c>
+      <c r="H25">
         <f>IF(ISBLANK(G25),"",
 IF(ISERROR(FIND(",",G25)),
   IF(ISERROR(VLOOKUP(G25,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -9921,19 +9923,19 @@
     TRIM(MID(G25,FIND(",",G25,FIND(",",G25)+1)+1,FIND(",",G25,FIND(",",G25,FIND(",",G25)+1)+1)-FIND(",",G25,FIND(",",G25)+1)-1)),VLOOKUP(TRIM(MID(G25,FIND(",",G25,FIND(",",G25)+1)+1,FIND(",",G25,FIND(",",G25,FIND(",",G25)+1)+1)-FIND(",",G25,FIND(",",G25)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G25,FIND(",",G25,FIND(",",G25,FIND(",",G25)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G25,FIND(",",G25,FIND(",",G25,FIND(",",G25)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>10.999000000000001</v>
@@ -9961,7 +9963,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H26" t="str">
         <f>IF(ISBLANK(G26),"",
@@ -9987,7 +9989,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
         <v>3</v>
@@ -9996,10 +9998,10 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -10027,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H27" t="str">
         <f>IF(ISBLANK(G27),"",
@@ -10053,7 +10055,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
         <v>3</v>
@@ -10062,10 +10064,10 @@
         <v>4</v>
       </c>
       <c r="L27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -10093,7 +10095,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H28" t="str">
         <f>IF(ISBLANK(G28),"",
@@ -10119,7 +10121,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J28" t="s">
         <v>3</v>
@@ -10128,10 +10130,10 @@
         <v>4</v>
       </c>
       <c r="L28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -10159,7 +10161,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H29" t="str">
         <f>IF(ISBLANK(G29),"",
@@ -10185,7 +10187,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J29" t="s">
         <v>3</v>
@@ -10194,10 +10196,10 @@
         <v>4</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -10225,7 +10227,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H30" t="str">
         <f>IF(ISBLANK(G30),"",
@@ -10251,7 +10253,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
         <v>3</v>
@@ -10260,10 +10262,10 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -10291,7 +10293,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H31" t="str">
         <f>IF(ISBLANK(G31),"",
@@ -10317,7 +10319,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J31" t="s">
         <v>3</v>
@@ -10326,10 +10328,10 @@
         <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>3.9990000000000001</v>
@@ -10357,7 +10359,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H32" t="str">
         <f>IF(ISBLANK(G32),"",
@@ -10383,7 +10385,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
         <v>3</v>
@@ -10392,10 +10394,10 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>8.9990000000000006</v>
@@ -10423,7 +10425,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H33" t="str">
         <f>IF(ISBLANK(G33),"",
@@ -10449,7 +10451,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
         <v>3</v>
@@ -10458,10 +10460,10 @@
         <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>10.999000000000001</v>
@@ -10489,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <f>IF(ISBLANK(G34),"",
@@ -10515,16 +10517,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -10552,7 +10554,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <f>IF(ISBLANK(G35),"",
@@ -10578,16 +10580,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -10615,7 +10617,7 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <f>IF(ISBLANK(G36),"",
@@ -10641,16 +10643,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -10678,7 +10680,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <f>IF(ISBLANK(G37),"",
@@ -10704,16 +10706,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -10741,7 +10743,7 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <f>IF(ISBLANK(G38),"",
@@ -10767,16 +10769,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -10804,7 +10806,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <f>IF(ISBLANK(G39),"",
@@ -10830,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>3.9990000000000001</v>
@@ -10867,7 +10869,7 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <f>IF(ISBLANK(G40),"",
@@ -10893,16 +10895,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>8.9990000000000006</v>
@@ -10930,7 +10932,7 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <f>IF(ISBLANK(G41),"",
@@ -10956,16 +10958,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>10.999000000000001</v>
@@ -10993,9 +10995,9 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="str">
+        <v>40</v>
+      </c>
+      <c r="H42">
         <f>IF(ISBLANK(G42),"",
 IF(ISERROR(FIND(",",G42)),
   IF(ISERROR(VLOOKUP(G42,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -11016,19 +11018,19 @@
     TRIM(MID(G42,FIND(",",G42,FIND(",",G42)+1)+1,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)-FIND(",",G42,FIND(",",G42)+1)-1)),VLOOKUP(TRIM(MID(G42,FIND(",",G42,FIND(",",G42)+1)+1,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)-FIND(",",G42,FIND(",",G42)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G42,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G42,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -11056,9 +11058,9 @@
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" t="str">
+        <v>40</v>
+      </c>
+      <c r="H43">
         <f>IF(ISBLANK(G43),"",
 IF(ISERROR(FIND(",",G43)),
   IF(ISERROR(VLOOKUP(G43,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -11079,19 +11081,19 @@
     TRIM(MID(G43,FIND(",",G43,FIND(",",G43)+1)+1,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)-FIND(",",G43,FIND(",",G43)+1)-1)),VLOOKUP(TRIM(MID(G43,FIND(",",G43,FIND(",",G43)+1)+1,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)-FIND(",",G43,FIND(",",G43)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G43,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G43,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -11119,9 +11121,9 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" t="str">
+        <v>40</v>
+      </c>
+      <c r="H44">
         <f>IF(ISBLANK(G44),"",
 IF(ISERROR(FIND(",",G44)),
   IF(ISERROR(VLOOKUP(G44,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -11142,19 +11144,19 @@
     TRIM(MID(G44,FIND(",",G44,FIND(",",G44)+1)+1,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)-FIND(",",G44,FIND(",",G44)+1)-1)),VLOOKUP(TRIM(MID(G44,FIND(",",G44,FIND(",",G44)+1)+1,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)-FIND(",",G44,FIND(",",G44)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G44,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G44,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -11182,9 +11184,9 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" t="str">
+        <v>40</v>
+      </c>
+      <c r="H45">
         <f>IF(ISBLANK(G45),"",
 IF(ISERROR(FIND(",",G45)),
   IF(ISERROR(VLOOKUP(G45,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -11205,19 +11207,19 @@
     TRIM(MID(G45,FIND(",",G45,FIND(",",G45)+1)+1,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)-FIND(",",G45,FIND(",",G45)+1)-1)),VLOOKUP(TRIM(MID(G45,FIND(",",G45,FIND(",",G45)+1)+1,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)-FIND(",",G45,FIND(",",G45)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G45,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G45,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -11245,9 +11247,9 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" t="str">
+        <v>40</v>
+      </c>
+      <c r="H46">
         <f>IF(ISBLANK(G46),"",
 IF(ISERROR(FIND(",",G46)),
   IF(ISERROR(VLOOKUP(G46,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -11268,19 +11270,19 @@
     TRIM(MID(G46,FIND(",",G46,FIND(",",G46)+1)+1,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)-FIND(",",G46,FIND(",",G46)+1)-1)),VLOOKUP(TRIM(MID(G46,FIND(",",G46,FIND(",",G46)+1)+1,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)-FIND(",",G46,FIND(",",G46)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G46,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G46,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -11308,9 +11310,9 @@
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" t="str">
+        <v>40</v>
+      </c>
+      <c r="H47">
         <f>IF(ISBLANK(G47),"",
 IF(ISERROR(FIND(",",G47)),
   IF(ISERROR(VLOOKUP(G47,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -11331,19 +11333,19 @@
     TRIM(MID(G47,FIND(",",G47,FIND(",",G47)+1)+1,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)-FIND(",",G47,FIND(",",G47)+1)-1)),VLOOKUP(TRIM(MID(G47,FIND(",",G47,FIND(",",G47)+1)+1,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)-FIND(",",G47,FIND(",",G47)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G47,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G47,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>3.9990000000000001</v>
@@ -11371,9 +11373,9 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" t="str">
+        <v>40</v>
+      </c>
+      <c r="H48">
         <f>IF(ISBLANK(G48),"",
 IF(ISERROR(FIND(",",G48)),
   IF(ISERROR(VLOOKUP(G48,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -11394,19 +11396,19 @@
     TRIM(MID(G48,FIND(",",G48,FIND(",",G48)+1)+1,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)-FIND(",",G48,FIND(",",G48)+1)-1)),VLOOKUP(TRIM(MID(G48,FIND(",",G48,FIND(",",G48)+1)+1,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)-FIND(",",G48,FIND(",",G48)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G48,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G48,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>8.9990000000000006</v>
@@ -11434,9 +11436,9 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" t="str">
+        <v>40</v>
+      </c>
+      <c r="H49">
         <f>IF(ISBLANK(G49),"",
 IF(ISERROR(FIND(",",G49)),
   IF(ISERROR(VLOOKUP(G49,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -11457,19 +11459,19 @@
     TRIM(MID(G49,FIND(",",G49,FIND(",",G49)+1)+1,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)-FIND(",",G49,FIND(",",G49)+1)-1)),VLOOKUP(TRIM(MID(G49,FIND(",",G49,FIND(",",G49)+1)+1,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)-FIND(",",G49,FIND(",",G49)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G49,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G49,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N49">
         <v>10.999000000000001</v>
@@ -11497,7 +11499,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H50" t="str">
         <f>IF(ISBLANK(G50),"",
@@ -11520,19 +11522,19 @@
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" t="s">
         <v>31</v>
-      </c>
-      <c r="J50" t="s">
-        <v>36</v>
-      </c>
-      <c r="L50" t="s">
-        <v>39</v>
-      </c>
-      <c r="M50" t="s">
-        <v>33</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -11560,7 +11562,7 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H51" t="str">
         <f>IF(ISBLANK(G51),"",
@@ -11583,19 +11585,19 @@
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" t="s">
         <v>31</v>
-      </c>
-      <c r="J51" t="s">
-        <v>36</v>
-      </c>
-      <c r="L51" t="s">
-        <v>39</v>
-      </c>
-      <c r="M51" t="s">
-        <v>33</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -11623,7 +11625,7 @@
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H52" t="str">
         <f>IF(ISBLANK(G52),"",
@@ -11646,19 +11648,19 @@
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52" t="s">
         <v>31</v>
-      </c>
-      <c r="J52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" t="s">
-        <v>39</v>
-      </c>
-      <c r="M52" t="s">
-        <v>33</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -11686,7 +11688,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H53" t="str">
         <f>IF(ISBLANK(G53),"",
@@ -11709,19 +11711,19 @@
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" t="s">
         <v>31</v>
-      </c>
-      <c r="J53" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" t="s">
-        <v>39</v>
-      </c>
-      <c r="M53" t="s">
-        <v>33</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -11749,7 +11751,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H54" t="str">
         <f>IF(ISBLANK(G54),"",
@@ -11772,19 +11774,19 @@
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54" t="s">
         <v>31</v>
-      </c>
-      <c r="J54" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" t="s">
-        <v>39</v>
-      </c>
-      <c r="M54" t="s">
-        <v>33</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -11812,7 +11814,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H55" t="str">
         <f>IF(ISBLANK(G55),"",
@@ -11835,19 +11837,19 @@
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55" t="s">
         <v>31</v>
-      </c>
-      <c r="J55" t="s">
-        <v>36</v>
-      </c>
-      <c r="L55" t="s">
-        <v>39</v>
-      </c>
-      <c r="M55" t="s">
-        <v>33</v>
       </c>
       <c r="N55">
         <v>3.9990000000000001</v>
@@ -11875,7 +11877,7 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H56" t="str">
         <f>IF(ISBLANK(G56),"",
@@ -11898,19 +11900,19 @@
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56" t="s">
         <v>31</v>
-      </c>
-      <c r="J56" t="s">
-        <v>36</v>
-      </c>
-      <c r="L56" t="s">
-        <v>39</v>
-      </c>
-      <c r="M56" t="s">
-        <v>33</v>
       </c>
       <c r="N56">
         <v>8.9990000000000006</v>
@@ -11938,7 +11940,7 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H57" t="str">
         <f>IF(ISBLANK(G57),"",
@@ -11961,19 +11963,19 @@
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus</v>
+        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57" t="s">
         <v>31</v>
-      </c>
-      <c r="J57" t="s">
-        <v>36</v>
-      </c>
-      <c r="L57" t="s">
-        <v>39</v>
-      </c>
-      <c r="M57" t="s">
-        <v>33</v>
       </c>
       <c r="N57">
         <v>10.999000000000001</v>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7E552-73D3-4CAE-B460-10DEB15FEBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ADF7BE-2471-4847-8961-44365F850985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,6 @@
     <t>업데이트순번</t>
   </si>
   <si>
-    <t>Actor0201, Actor0030, Actor3021, Actor2128, Actor3114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rewardTitle|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,6 +187,10 @@
   </si>
   <si>
     <t>Actor2103, Actor3021, Actor0024, Actor0125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0201, Actor0030, Actor3022, Actor2128, Actor3114</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +537,7 @@
             <v>Ganfaul</v>
           </cell>
           <cell r="AB2">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC2" t="str">
             <v>Portrait_Ganfaul</v>
@@ -712,7 +712,7 @@
             <v>Yuki</v>
           </cell>
           <cell r="AB3">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC3" t="str">
             <v>Portrait_Yuki</v>
@@ -884,7 +884,7 @@
             <v>BigBatSuccubus</v>
           </cell>
           <cell r="AB4">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC4" t="str">
             <v>Portrait_BigBatSuccubus</v>
@@ -1059,7 +1059,7 @@
             <v>Bei</v>
           </cell>
           <cell r="AB5">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC5" t="str">
             <v>Portrait_Bei</v>
@@ -1234,7 +1234,7 @@
             <v>JellyFishGirl</v>
           </cell>
           <cell r="AB6">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC6" t="str">
             <v>Portrait_JellyFishGirl</v>
@@ -1570,7 +1570,7 @@
             <v>EarthMage</v>
           </cell>
           <cell r="AB8">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC8" t="str">
             <v>Portrait_EarthMage</v>
@@ -1742,7 +1742,7 @@
             <v>DynaMob</v>
           </cell>
           <cell r="AB9">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC9" t="str">
             <v>Portrait_DynaMob</v>
@@ -1917,7 +1917,7 @@
             <v>SciFiWarrior</v>
           </cell>
           <cell r="AB10">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC10" t="str">
             <v>Portrait_SciFiWarrior</v>
@@ -2092,7 +2092,7 @@
             <v>ChaosElemental</v>
           </cell>
           <cell r="AB11">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC11" t="str">
             <v>Portrait_ChaosElemental</v>
@@ -2267,7 +2267,7 @@
             <v>SuperHero</v>
           </cell>
           <cell r="AB12">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC12" t="str">
             <v>Portrait_SuperHero</v>
@@ -2442,7 +2442,7 @@
             <v>Meryl</v>
           </cell>
           <cell r="AB13">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC13" t="str">
             <v>Portrait_Meryl</v>
@@ -2617,7 +2617,7 @@
             <v>GreekWarrior</v>
           </cell>
           <cell r="AB14">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC14" t="str">
             <v>Portrait_GreekWarrior</v>
@@ -2792,7 +2792,7 @@
             <v>Akai</v>
           </cell>
           <cell r="AB15">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC15" t="str">
             <v>Portrait_Akai</v>
@@ -2964,7 +2964,7 @@
             <v>Yuka</v>
           </cell>
           <cell r="AB16">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC16" t="str">
             <v>Portrait_Yuka</v>
@@ -3139,7 +3139,7 @@
             <v>SteampunkRobot</v>
           </cell>
           <cell r="AB17">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC17" t="str">
             <v>Portrait_SteampunkRobot</v>
@@ -3311,7 +3311,7 @@
             <v>Kachujin</v>
           </cell>
           <cell r="AB18">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC18" t="str">
             <v>Portrait_Kachujin</v>
@@ -3483,7 +3483,7 @@
             <v>Medea</v>
           </cell>
           <cell r="AB19">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC19" t="str">
             <v>Portrait_Medea</v>
@@ -3655,7 +3655,7 @@
             <v>Lola</v>
           </cell>
           <cell r="AB20">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC20" t="str">
             <v>Portrait_Lola</v>
@@ -3830,7 +3830,7 @@
             <v>RockElemental</v>
           </cell>
           <cell r="AB21">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC21" t="str">
             <v>Portrait_RockElemental</v>
@@ -4002,7 +4002,7 @@
             <v>Soldier</v>
           </cell>
           <cell r="AB22">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC22" t="str">
             <v>Portrait_Soldier</v>
@@ -4177,7 +4177,7 @@
             <v>DualWarrior</v>
           </cell>
           <cell r="AB23">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC23" t="str">
             <v>Portrait_DualWarrior</v>
@@ -4513,7 +4513,7 @@
             <v>GloryArmor</v>
           </cell>
           <cell r="AB25">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC25" t="str">
             <v>Portrait_GloryArmor</v>
@@ -4689,7 +4689,7 @@
             <v>RpgKnight</v>
           </cell>
           <cell r="AB26">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC26" t="str">
             <v>Portrait_RpgKnight</v>
@@ -4864,7 +4864,7 @@
             <v>DemonHuntress</v>
           </cell>
           <cell r="AB27">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC27" t="str">
             <v>Portrait_DemonHuntress</v>
@@ -5200,7 +5200,7 @@
             <v>MobileFemale</v>
           </cell>
           <cell r="AB29">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC29" t="str">
             <v>Portrait_MobileFemale</v>
@@ -5372,7 +5372,7 @@
             <v>CyborgCharacter</v>
           </cell>
           <cell r="AB30">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC30" t="str">
             <v>Portrait_CyborgCharacter</v>
@@ -5545,7 +5545,7 @@
             <v>SandWarrior</v>
           </cell>
           <cell r="AB31">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC31" t="str">
             <v>Portrait_SandWarrior</v>
@@ -5720,7 +5720,7 @@
             <v>BladeFanDancer</v>
           </cell>
           <cell r="AB32">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC32" t="str">
             <v>Portrait_BladeFanDancer</v>
@@ -6056,7 +6056,7 @@
             <v>Syria</v>
           </cell>
           <cell r="AB34">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC34" t="str">
             <v>Portrait_Syria</v>
@@ -6395,7 +6395,7 @@
             <v>Linhi</v>
           </cell>
           <cell r="AB36">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC36" t="str">
             <v>Portrait_Linhi</v>
@@ -6570,7 +6570,7 @@
             <v>NecromancerFour</v>
           </cell>
           <cell r="AB37">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC37" t="str">
             <v>Portrait_NecromancerFour</v>
@@ -6745,7 +6745,7 @@
             <v>GirlWarrior</v>
           </cell>
           <cell r="AB38">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC38" t="str">
             <v>Portrait_GirlWarrior</v>
@@ -6920,7 +6920,7 @@
             <v>GirlArcher</v>
           </cell>
           <cell r="AB39">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC39" t="str">
             <v>Portrait_GirlArcher</v>
@@ -7095,7 +7095,7 @@
             <v>EnergyShieldRobot</v>
           </cell>
           <cell r="AB40">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC40" t="str">
             <v>Portrait_EnergyShieldRobot</v>
@@ -7267,7 +7267,7 @@
             <v>IceMagician</v>
           </cell>
           <cell r="AB41">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC41" t="str">
             <v>Portrait_IceMagician</v>
@@ -7442,7 +7442,7 @@
             <v>AngelicWarrior</v>
           </cell>
           <cell r="AB42">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC42" t="str">
             <v>Portrait_AngelicWarrior</v>
@@ -7614,7 +7614,7 @@
             <v>UnicornCharacter</v>
           </cell>
           <cell r="AB43">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC43" t="str">
             <v>Portrait_UnicornCharacter</v>
@@ -7788,7 +7788,7 @@
             <v>KeepSeries</v>
           </cell>
           <cell r="AB44">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC44" t="str">
             <v>Portrait_KeepSeries</v>
@@ -7953,7 +7953,7 @@
             <v>Ayuko</v>
           </cell>
           <cell r="AB45">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="AC45" t="str">
             <v>Portrait_Ayuko</v>
@@ -8032,6 +8032,5076 @@
           </cell>
           <cell r="BF45" t="str">
             <v/>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Actor0201m</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>CharLowName_Ganfaul</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>CharName_Ganfaul</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>CharStory_Ganfaul</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>CharDesc_Ganfaul</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>CharUltimate_Ganfaul</v>
+          </cell>
+          <cell r="H46" t="str">
+            <v>간파울</v>
+          </cell>
+          <cell r="I46" t="str">
+            <v>약 20여년 전 결류자의 세계 1차 멸망 시도 당시 19살이었던 소년은 죽음의 폭풍이 덮쳐올 때 마법에 대한 뛰어난 직관으로 마법식을 재구축하여 인체 변형 마법으로 변환한다. 겨우 죽음에서 피할 수 있었지만 주변의 마물과 생체 조직이 섞이면서 몸의 일부분이 마물화되었다. 마법협회에서 그의 재능을 알아보고 영입하여 지금에 이르렀다.
+마법협회 회장과 함께 일하며 제2의 결류자가 나타나 2차 멸망을 시도할 때 이를 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.</v>
+          </cell>
+          <cell r="J46" t="str">
+            <v>적을 꿰뚫어버리는 강력한 한 방의 마법을 구사한다.</v>
+          </cell>
+          <cell r="K46" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;다섯갈래 폭풍&lt;/color&gt;&lt;/size&gt;
+마법 갈래를 5개로 파생시키는 장판을 생성합니다. 장판 위에 서있을 때 해당 효과를 적용받을 수 있습니다.</v>
+          </cell>
+          <cell r="L46">
+            <v>2</v>
+          </cell>
+          <cell r="M46">
+            <v>0.94899999999999995</v>
+          </cell>
+          <cell r="N46">
+            <v>1.0329999999999999</v>
+          </cell>
+          <cell r="Q46">
+            <v>0.70599999999999996</v>
+          </cell>
+          <cell r="U46">
+            <v>3.5</v>
+          </cell>
+          <cell r="V46">
+            <v>0</v>
+          </cell>
+          <cell r="W46">
+            <v>150</v>
+          </cell>
+          <cell r="X46">
+            <v>0</v>
+          </cell>
+          <cell r="Y46">
+            <v>0</v>
+          </cell>
+          <cell r="Z46">
+            <v>0</v>
+          </cell>
+          <cell r="AA46" t="str">
+            <v>Ganfaul</v>
+          </cell>
+          <cell r="AC46" t="str">
+            <v>Portrait_Ganfaul</v>
+          </cell>
+          <cell r="AD46">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE46" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF46" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG46" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH46" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI46">
+            <v>-99</v>
+          </cell>
+          <cell r="AK46">
+            <v>0</v>
+          </cell>
+          <cell r="AL46">
+            <v>0</v>
+          </cell>
+          <cell r="AM46">
+            <v>0</v>
+          </cell>
+          <cell r="AN46">
+            <v>0</v>
+          </cell>
+          <cell r="AO46">
+            <v>0</v>
+          </cell>
+          <cell r="AP46">
+            <v>0</v>
+          </cell>
+          <cell r="AQ46">
+            <v>0</v>
+          </cell>
+          <cell r="AR46">
+            <v>0.31359999999999999</v>
+          </cell>
+          <cell r="AS46">
+            <v>0.18379999999999999</v>
+          </cell>
+          <cell r="AT46">
+            <v>289</v>
+          </cell>
+          <cell r="AU46">
+            <v>521</v>
+          </cell>
+          <cell r="BB46" t="str">
+            <v/>
+          </cell>
+          <cell r="BC46">
+            <v>75</v>
+          </cell>
+          <cell r="BD46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Actor1002m</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>CharLowName_Yuki</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>CharName_Yuki</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>CharStory_Yuki</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>CharDesc_Yuki</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>CharUltimate_Yuki</v>
+          </cell>
+          <cell r="H47" t="str">
+            <v>소하</v>
+          </cell>
+          <cell r="I47" t="str">
+            <v>간파울이 구조한 첫 번째 생존자. 아이돌을 꿈꾸던 시골 소녀였는데 제2의 결류자가 세상을 멸망시키려 하면서 꿈이 사라져버렸다.
+멸망의 날 부모님을 찾으러 갔다가 마물화된 허수아비들에게 둘러쌓여 위험에 처한 순간 간파울이 나타났다. 이후 간신히 시골집에 도착하니 부모님은 마물들을 피해 떠난 뒤였고 간파울을 따라 여정을 시작한다. 간파울이 구해온 플라즈마탄이 장착된 총을 사용한다. 간파울을 부르는 호칭은 아저씨.</v>
+          </cell>
+          <cell r="J47" t="str">
+            <v>범위 공격으로 다수의 적을 효과적으로 처리할 수 있다.</v>
+          </cell>
+          <cell r="K47" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;디지털 변환&lt;/color&gt;&lt;/size&gt;
+주변의 총알을 원자 단위로 분해해서 소멸시키고 적에게 다소 피해를 입힙니다. 근거리 공격이나 범위형 공격은 막아낼 수 없습니다.</v>
+          </cell>
+          <cell r="L47">
+            <v>0</v>
+          </cell>
+          <cell r="M47">
+            <v>0.86099999999999999</v>
+          </cell>
+          <cell r="N47">
+            <v>0.80600000000000005</v>
+          </cell>
+          <cell r="Q47">
+            <v>0.81100000000000005</v>
+          </cell>
+          <cell r="U47">
+            <v>3.3</v>
+          </cell>
+          <cell r="V47">
+            <v>1</v>
+          </cell>
+          <cell r="W47">
+            <v>125</v>
+          </cell>
+          <cell r="X47">
+            <v>0</v>
+          </cell>
+          <cell r="Y47">
+            <v>0</v>
+          </cell>
+          <cell r="Z47">
+            <v>0</v>
+          </cell>
+          <cell r="AA47" t="str">
+            <v>Yuki</v>
+          </cell>
+          <cell r="AC47" t="str">
+            <v>Portrait_Yuki</v>
+          </cell>
+          <cell r="AD47">
+            <v>0.25</v>
+          </cell>
+          <cell r="AE47" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF47" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG47" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH47" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI47">
+            <v>-55</v>
+          </cell>
+          <cell r="AK47">
+            <v>0</v>
+          </cell>
+          <cell r="AL47">
+            <v>0</v>
+          </cell>
+          <cell r="AM47">
+            <v>0</v>
+          </cell>
+          <cell r="AN47">
+            <v>0</v>
+          </cell>
+          <cell r="AO47">
+            <v>0</v>
+          </cell>
+          <cell r="AP47">
+            <v>0</v>
+          </cell>
+          <cell r="AQ47">
+            <v>0</v>
+          </cell>
+          <cell r="AR47">
+            <v>0.23669999999999999</v>
+          </cell>
+          <cell r="AS47">
+            <v>0.13120000000000001</v>
+          </cell>
+          <cell r="AT47">
+            <v>411</v>
+          </cell>
+          <cell r="AU47">
+            <v>685</v>
+          </cell>
+          <cell r="BB47" t="str">
+            <v/>
+          </cell>
+          <cell r="BC47">
+            <v>85</v>
+          </cell>
+          <cell r="BD47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Actor2103m</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>CharLowName_BigBatSuccubus</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>CharName_BigBatSuccubus</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>CharStory_BigBatSuccubus</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>CharDesc_BigBatSuccubus</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>CharUltimate_BigBatSuccubus</v>
+          </cell>
+          <cell r="H48" t="str">
+            <v>데브샤</v>
+          </cell>
+          <cell r="I48" t="str">
+            <v>1차 멸망 시도에서 죽음의 폭풍의 근원지 중 하나에 나라의 수도가 직격으로 맞으며 나라의 전반적인 기능이 마비되었다. 이후 결류자가 보여준 융합마법을 응용한 유전마법공학의 산발적인 발전으로 세계 곳곳에서 암암리에 연구소들이 난립하기 시작했고 나라의 감시 기능이 거의 작동하지 않는 본국에서는 훨씬 더 불법적인 연구가 성행하게 된다.
+당시 10대였던 데브샤는 배고픔을 이겨내기 위해 자발적으로 임상 실험에 참여하고 생물학적 변이로 인간의 힘을 능가하는 근력과 초인적인 체격을 얻었다. 변형된 능력을 이용해 용병으로 활동하며 해외 파견으로 동쪽의 나라에서 잠시 와서 일하던 도중 2차 멸망 사건이 일어나게 되었고 사람들을 돕던 도중 간파울과 만나게 되었다. 불완전한 변형 상태를 제어하기 위해 유전마법공학의 권위자를 찾아 해결책을 얻으려 한다.</v>
+          </cell>
+          <cell r="J48" t="str">
+            <v>꽃잎을 응축하여 만든 탄환 여러 발을 빠르게 난사한다.</v>
+          </cell>
+          <cell r="K48" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;자연의 분노&lt;/color&gt;&lt;/size&gt;
+자연의 힘을 담은 구체를 던져 자연재해를 일으킵니다. 발사하는 동안 짧은 시간이지만 움직일 수 없으며 구체는 벽을 통과할 수 있습니다.</v>
+          </cell>
+          <cell r="L48">
+            <v>1</v>
+          </cell>
+          <cell r="M48">
+            <v>0.90700000000000003</v>
+          </cell>
+          <cell r="N48">
+            <v>0.91200000000000003</v>
+          </cell>
+          <cell r="Q48">
+            <v>0.624</v>
+          </cell>
+          <cell r="U48">
+            <v>3.5</v>
+          </cell>
+          <cell r="V48">
+            <v>2</v>
+          </cell>
+          <cell r="W48">
+            <v>135</v>
+          </cell>
+          <cell r="X48">
+            <v>8.3000000000000007</v>
+          </cell>
+          <cell r="Y48">
+            <v>0</v>
+          </cell>
+          <cell r="Z48">
+            <v>0</v>
+          </cell>
+          <cell r="AA48" t="str">
+            <v>BigBatSuccubus</v>
+          </cell>
+          <cell r="AC48" t="str">
+            <v>Portrait_BigBatSuccubus</v>
+          </cell>
+          <cell r="AD48">
+            <v>0.15</v>
+          </cell>
+          <cell r="AE48" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF48" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG48" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH48" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI48">
+            <v>-73</v>
+          </cell>
+          <cell r="AK48">
+            <v>0</v>
+          </cell>
+          <cell r="AL48">
+            <v>0</v>
+          </cell>
+          <cell r="AM48">
+            <v>0</v>
+          </cell>
+          <cell r="AN48">
+            <v>0</v>
+          </cell>
+          <cell r="AO48">
+            <v>0</v>
+          </cell>
+          <cell r="AP48">
+            <v>0</v>
+          </cell>
+          <cell r="AQ48">
+            <v>0</v>
+          </cell>
+          <cell r="AR48">
+            <v>0.28689999999999999</v>
+          </cell>
+          <cell r="AS48">
+            <v>0.17280000000000001</v>
+          </cell>
+          <cell r="AT48">
+            <v>325</v>
+          </cell>
+          <cell r="AU48">
+            <v>604</v>
+          </cell>
+          <cell r="BB48" t="str">
+            <v/>
+          </cell>
+          <cell r="BC48">
+            <v>93</v>
+          </cell>
+          <cell r="BD48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Actor0104m</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>CharLowName_Bei</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>CharName_Bei</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>CharStory_Bei</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>CharDesc_Bei</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>CharUltimate_Bei</v>
+          </cell>
+          <cell r="H49" t="str">
+            <v>베이</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v>유복한 가정, 자상한 남자친구, 착한 외모 등 남부러울 것 없었던 대기업 부설 마법 연구소 5년차 연구원. 연구소 내에서도 남들에게 뒤처지는 것이 싫어 자기 몫을 열심히 하다보니 어느새 말단에서 벗어나 동기들보다 빠르게 승진하고 주변으로부터 인정 받고 있다. 그러던 중 2차 멸망 시도가 발생하고 연구소에서 관리하던 마과학 동력에너지원, 마법 스크롤 등이 대거 탈취되었다. 회사의 긴급 호출로 출근하니 광역수사대에서 사람이 나와서 조사를 좀 하겠다고 한다.
+그러면서 보여준 건 자신의 남자친구가 자신의 계정으로 회사 자료를 탐색한 사실, 회사 연구소 보안을 일시적으로 해제하고 침입한 사람들의 행적에 함께 찍힌 것이었다. 그리고 남자친구가 결류자 추종자 중 한 사람으로 광역수사대에서 지난 3년간 행적을 추적하고 있었던 요주의 인물이라고 한다. 도저히 믿기지 않는 사실에 남자친구에게 연락을 해보는데 답이 없다. 남자친구가 자신을 이용하기 위해 만났을 거라는 주장을 부정하며 그의 행방을 찾기 위해 직접 연구소 밖을 나선다.</v>
+          </cell>
+          <cell r="J49" t="str">
+            <v>푸른 불씨를 던져 부딪히는 자리에 장판을 생성한다. 이 마법 장판은 불꽃을 더 많이 겹치게 할수록 더 많은 데미지를 입힌다.</v>
+          </cell>
+          <cell r="K49" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;빛나는 거미줄&lt;/color&gt;&lt;/size&gt;
+마법의 실로 짠 거미줄을 발사합니다. 거미줄에 걸린 적은 이동할 수 없습니다.</v>
+          </cell>
+          <cell r="L49">
+            <v>1</v>
+          </cell>
+          <cell r="M49">
+            <v>0.92200000000000004</v>
+          </cell>
+          <cell r="N49">
+            <v>0.93799999999999994</v>
+          </cell>
+          <cell r="Q49">
+            <v>0.88200000000000001</v>
+          </cell>
+          <cell r="U49">
+            <v>3.5</v>
+          </cell>
+          <cell r="V49">
+            <v>0</v>
+          </cell>
+          <cell r="W49">
+            <v>140</v>
+          </cell>
+          <cell r="X49">
+            <v>6.7</v>
+          </cell>
+          <cell r="Y49">
+            <v>0</v>
+          </cell>
+          <cell r="Z49">
+            <v>0</v>
+          </cell>
+          <cell r="AA49" t="str">
+            <v>Bei</v>
+          </cell>
+          <cell r="AC49" t="str">
+            <v>Portrait_Bei</v>
+          </cell>
+          <cell r="AD49">
+            <v>0.2</v>
+          </cell>
+          <cell r="AE49" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF49" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG49" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH49" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI49">
+            <v>-78</v>
+          </cell>
+          <cell r="AK49">
+            <v>0</v>
+          </cell>
+          <cell r="AL49">
+            <v>0</v>
+          </cell>
+          <cell r="AM49">
+            <v>0</v>
+          </cell>
+          <cell r="AN49">
+            <v>0</v>
+          </cell>
+          <cell r="AO49">
+            <v>0</v>
+          </cell>
+          <cell r="AP49">
+            <v>0</v>
+          </cell>
+          <cell r="AQ49">
+            <v>0</v>
+          </cell>
+          <cell r="AR49">
+            <v>0.25459999999999999</v>
+          </cell>
+          <cell r="AS49">
+            <v>0.1605</v>
+          </cell>
+          <cell r="AT49">
+            <v>325</v>
+          </cell>
+          <cell r="AU49">
+            <v>604</v>
+          </cell>
+          <cell r="BB49" t="str">
+            <v/>
+          </cell>
+          <cell r="BC49">
+            <v>85</v>
+          </cell>
+          <cell r="BD49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Actor1005m</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>CharLowName_JellyFishGirl</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>CharName_JellyFishGirl</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>CharStory_JellyFishGirl</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>CharDesc_JellyFishGirl</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>CharUltimate_JellyFishGirl</v>
+          </cell>
+          <cell r="H50" t="str">
+            <v>젤리아</v>
+          </cell>
+          <cell r="I50" t="str">
+            <v>멸망의 날 직장 나간 엄마와는 통화가 되지를 않고 아빠가 아수라장을 뚫고 찾아와 피난길에 나섰다. 며칠에 걸쳐 아빠와 함께 간 곳은 항구 도시로 피난민들을 안전한 옆나라로 밀항해서 보내준다 한다. 그러고는 배를 타기 위해서 버스로 좀 더 외진 곳으로 이동해야 한다고 했다. 그렇게 아빠와 함께 버스를 타고 이동하는 도중 버스가 잠시 멈춰서고 무장한 복면 쓴 괴한들이 버스에 올라타더니 젤리아를 납치하려 했다. 아빠는 저항하다가 그 자리에서 총에 맞고 쓰러진다.
+그렇게 범죄조직의 차로 강제로 태워지려고 하는 찰나 차벽 너머로 번개 같은 선이 나타나더니 범죄자를 쓰러뜨린다. 순식간에 범죄자 모두를 처치하고 모습을 드러낸 건 테이슨이라 불리는 중년 남자였다. 버스 안에서는 장비를 짐칸에 실어놔서 도와줄 수 없었다고 미안해하며 잔뜩 겁 먹어있는 젤리아를 위로해준다. 이후 테이슨을 따라다니며 그가 만들어준 물총 같은 무기로 세상에서 살아남는 법을 배우고 있다.</v>
+          </cell>
+          <cell r="J50" t="str">
+            <v>물방울 여러 개를 쏘아 벽을 넘는 곡사 공격을 한다.</v>
+          </cell>
+          <cell r="K50" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;입자 장벽&lt;/color&gt;&lt;/size&gt;
+적과 자신 사이에 지나갈 수 없는 벽을 생성합니다.</v>
+          </cell>
+          <cell r="L50">
+            <v>0</v>
+          </cell>
+          <cell r="M50">
+            <v>0.83699999999999997</v>
+          </cell>
+          <cell r="N50">
+            <v>0.81799999999999995</v>
+          </cell>
+          <cell r="Q50">
+            <v>0.73199999999999998</v>
+          </cell>
+          <cell r="U50">
+            <v>2.8</v>
+          </cell>
+          <cell r="V50">
+            <v>1</v>
+          </cell>
+          <cell r="W50">
+            <v>120</v>
+          </cell>
+          <cell r="X50">
+            <v>7.5</v>
+          </cell>
+          <cell r="Y50">
+            <v>0</v>
+          </cell>
+          <cell r="Z50">
+            <v>0</v>
+          </cell>
+          <cell r="AA50" t="str">
+            <v>JellyFishGirl</v>
+          </cell>
+          <cell r="AC50" t="str">
+            <v>Portrait_JellyFishGirl</v>
+          </cell>
+          <cell r="AD50">
+            <v>0</v>
+          </cell>
+          <cell r="AE50" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF50" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG50" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH50" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI50">
+            <v>-53</v>
+          </cell>
+          <cell r="AK50">
+            <v>0</v>
+          </cell>
+          <cell r="AL50">
+            <v>0</v>
+          </cell>
+          <cell r="AM50">
+            <v>0</v>
+          </cell>
+          <cell r="AN50">
+            <v>0</v>
+          </cell>
+          <cell r="AO50">
+            <v>0</v>
+          </cell>
+          <cell r="AP50">
+            <v>0</v>
+          </cell>
+          <cell r="AQ50">
+            <v>0</v>
+          </cell>
+          <cell r="AR50">
+            <v>0.22120000000000001</v>
+          </cell>
+          <cell r="AS50">
+            <v>0.13819999999999999</v>
+          </cell>
+          <cell r="AT50">
+            <v>411</v>
+          </cell>
+          <cell r="AU50">
+            <v>685</v>
+          </cell>
+          <cell r="BB50" t="str">
+            <v/>
+          </cell>
+          <cell r="BC50">
+            <v>95</v>
+          </cell>
+          <cell r="BD50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Actor0007m</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>CharLowName_EarthMage</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>CharName_EarthMage</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>CharStory_EarthMage</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>CharDesc_EarthMage</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>CharUltimate_EarthMage</v>
+          </cell>
+          <cell r="H51" t="str">
+            <v>헤르윈</v>
+          </cell>
+          <cell r="I51" t="str">
+            <v>파일럿인 부모님과 함께 하늘에서 터전을 잡고 지내고 있으나 땅으로 내려가고 싶은 열망이 커서 자주 엄마와 다툰다. 어릴 적 기억에는 땅에서 지냈었는데 8살 무렵 세상엔 큰 혼돈이 오고 더 이상 땅에서 살 수가 없어서 부모님을 따라 마법을 동력으로 작동하는 비행선에 올랐다.
+비행선에는 대략 100여 가구가 지내고 있으며 지상에 있었을 당시 부와 권력을 가진 최상층의 집단이었다. 1차 멸망의 시기에 폭풍이 나라를 강타했고 상류 커뮤니티라 부르는 이들은 비행선을 띄워 살아남기 위해 탈출했다. 대략 20년의 비행선 생활 후 다시 제2의 결류자의 등장으로 세상은 다시 큰 위기에 처하고 비행선 생활에 신물이 난 헤르윈은 탈출 포드를 타고 지상으로 가는 버튼을 누른다.</v>
+          </cell>
+          <cell r="J51" t="str">
+            <v>직선 형태의 다발탄을 날려 높은 타격 횟수를 만들어낸다.</v>
+          </cell>
+          <cell r="K51" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;얼음 폭우&lt;/color&gt;&lt;/size&gt;
+매우 많은 얼음 화살을 하늘로부터 꽂히게 합니다.</v>
+          </cell>
+          <cell r="L51">
+            <v>0</v>
+          </cell>
+          <cell r="M51">
+            <v>0.84899999999999998</v>
+          </cell>
+          <cell r="N51">
+            <v>0.85099999999999998</v>
+          </cell>
+          <cell r="Q51">
+            <v>0.83199999999999996</v>
+          </cell>
+          <cell r="U51">
+            <v>3.2</v>
+          </cell>
+          <cell r="V51">
+            <v>0</v>
+          </cell>
+          <cell r="W51">
+            <v>110</v>
+          </cell>
+          <cell r="X51">
+            <v>0</v>
+          </cell>
+          <cell r="Y51">
+            <v>0</v>
+          </cell>
+          <cell r="Z51">
+            <v>0</v>
+          </cell>
+          <cell r="AA51" t="str">
+            <v>EarthMage</v>
+          </cell>
+          <cell r="AC51" t="str">
+            <v>Portrait_EarthMage</v>
+          </cell>
+          <cell r="AD51">
+            <v>0.15</v>
+          </cell>
+          <cell r="AE51" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF51" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG51" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH51" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI51">
+            <v>-57</v>
+          </cell>
+          <cell r="AK51">
+            <v>0</v>
+          </cell>
+          <cell r="AL51">
+            <v>0</v>
+          </cell>
+          <cell r="AM51">
+            <v>0</v>
+          </cell>
+          <cell r="AN51">
+            <v>0</v>
+          </cell>
+          <cell r="AO51">
+            <v>0</v>
+          </cell>
+          <cell r="AP51">
+            <v>0</v>
+          </cell>
+          <cell r="AQ51">
+            <v>0</v>
+          </cell>
+          <cell r="AR51">
+            <v>0.24229999999999999</v>
+          </cell>
+          <cell r="AS51">
+            <v>0.1386</v>
+          </cell>
+          <cell r="AT51">
+            <v>411</v>
+          </cell>
+          <cell r="AU51">
+            <v>685</v>
+          </cell>
+          <cell r="BB51" t="str">
+            <v/>
+          </cell>
+          <cell r="BC51">
+            <v>85</v>
+          </cell>
+          <cell r="BD51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Actor1108m</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>CharLowName_DynaMob</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>CharName_DynaMob</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>CharStory_DynaMob</v>
+          </cell>
+          <cell r="F52" t="str">
+            <v>CharDesc_DynaMob</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>CharUltimate_DynaMob</v>
+          </cell>
+          <cell r="H52" t="str">
+            <v>테이슨</v>
+          </cell>
+          <cell r="I52" t="str">
+            <v>배터리 공장에서 33년 근무한 베테랑 공돌이 아저씨. 제2의 결류자가 세계 2차 멸망을 일으킨 날 평소에도 그랬듯이 회사에서 야근하고 있었다. 밖의 상황을 보니 마물이 미쳐 날뛰고 있기에 테슬라 코일을 응용한 무기를 즉석에서 만들어내고 공장 주변에 출몰한 몬스터 무리들을 돌파하여 아내와 아이들이 있다던 대피소로 간다.
+대피소에 도착해보니 내부는 핏자국과 엉망진창으로 부서진 잔해물 뿐이다. 통신 가능한 무선 주파수를 찾아 정보를 들으니 불과 하루 전 엄청나게 많은 마물의 습격으로 피난민의 대다수가 사망하고 소수의 남은 사람들만 뿔뿔이 흩어진 상황. 좌절하고 있던 중 신호가 끊겨있던 아이의 위치 추적 알림을 확인한다. 희망을 버리지 않고 가족들을 찾는 여행은 계속 된다.</v>
+          </cell>
+          <cell r="J52" t="str">
+            <v>개조된 코일로 벽을 넘어 목표를 타격한다. 실체가 없는 적까지 공격할 수 있다.</v>
+          </cell>
+          <cell r="K52" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;오버 차지&lt;/color&gt;&lt;/size&gt;
+하드웨어의 제한을 일시적으로 해방하여 더 멀리 공격할 수 있게 합니다.</v>
+          </cell>
+          <cell r="L52">
+            <v>1</v>
+          </cell>
+          <cell r="M52">
+            <v>0.93100000000000005</v>
+          </cell>
+          <cell r="N52">
+            <v>0.97599999999999998</v>
+          </cell>
+          <cell r="Q52">
+            <v>0.71199999999999997</v>
+          </cell>
+          <cell r="U52">
+            <v>2.5</v>
+          </cell>
+          <cell r="V52">
+            <v>1</v>
+          </cell>
+          <cell r="W52">
+            <v>130</v>
+          </cell>
+          <cell r="X52">
+            <v>4.5</v>
+          </cell>
+          <cell r="Y52">
+            <v>180</v>
+          </cell>
+          <cell r="Z52">
+            <v>0</v>
+          </cell>
+          <cell r="AA52" t="str">
+            <v>DynaMob</v>
+          </cell>
+          <cell r="AC52" t="str">
+            <v>Portrait_DynaMob</v>
+          </cell>
+          <cell r="AD52">
+            <v>0</v>
+          </cell>
+          <cell r="AE52" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF52" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG52" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AH52" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI52">
+            <v>-76</v>
+          </cell>
+          <cell r="AK52">
+            <v>0</v>
+          </cell>
+          <cell r="AL52">
+            <v>0</v>
+          </cell>
+          <cell r="AM52">
+            <v>0</v>
+          </cell>
+          <cell r="AN52">
+            <v>0</v>
+          </cell>
+          <cell r="AO52">
+            <v>0</v>
+          </cell>
+          <cell r="AP52">
+            <v>0</v>
+          </cell>
+          <cell r="AQ52">
+            <v>0</v>
+          </cell>
+          <cell r="AR52">
+            <v>0.29570000000000002</v>
+          </cell>
+          <cell r="AS52">
+            <v>0.15359999999999999</v>
+          </cell>
+          <cell r="AT52">
+            <v>325</v>
+          </cell>
+          <cell r="AU52">
+            <v>604</v>
+          </cell>
+          <cell r="BB52" t="str">
+            <v/>
+          </cell>
+          <cell r="BC52">
+            <v>85</v>
+          </cell>
+          <cell r="BD52">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Actor1109m</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>CharLowName_SciFiWarrior</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>CharName_SciFiWarrior</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>CharStory_SciFiWarrior</v>
+          </cell>
+          <cell r="F53" t="str">
+            <v>CharDesc_SciFiWarrior</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>CharUltimate_SciFiWarrior</v>
+          </cell>
+          <cell r="H53" t="str">
+            <v>닉스</v>
+          </cell>
+          <cell r="I53" t="str">
+            <v>북쪽의 최첨단 과학기술 국가의 군인. 얼마 전 패망한 주변 마법 국가에서 신흥 군벌 세력이 등장하고 자국민을 납치하는 사건이 있었다. 무능한 지휘관으로 인해 소대가 전멸하고 혼자 살아남은 상황이었지만 단신으로 뛰어들어 인질들을 구출하고 납치범들을 각개격파한다. 이런 혁혁한 성과들을 바탕으로 젊은 나이에 대령까지 오른다. 당시 사건에서 인질이었던 사람이 찍은 영상이 유출됨에 따라 본국뿐아니라 해외까지 닉스 대령의 이름은 널리 퍼지게 되었다.
+제2차 멸망의 날 마법협회 등 국제기구나 주변의 다른 국가들과 협력하기는커녕 독단적인 결정을 내리는 정치인과 쿠테타를 일으키려는 군부 등 막장의 상황을 보고 이를 해결하려 해보지만 그의 힘은 아직 미약하다. 잠시 생각에 잠기다 수트를 챙겨입고 부대 밖으로 나온다.</v>
+          </cell>
+          <cell r="J53" t="str">
+            <v>광학 레이저 소총을 사용한다. 두 번의 일반적인 탄환을 날린 후 모든 몬스터를 꿰뚫는 강력한 관통 공격을 발사할 수 있다.</v>
+          </cell>
+          <cell r="K53" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;시공간 전송&lt;/color&gt;&lt;/size&gt;
+미래의 본부에 탄환 부스트를 요청합니다. 불안정한 위치에 구체의 이동이 이루어지는데 여기에 닿은 적들은 즉사하거나 큰 데미지를 입습니다. 부스트를 획득하면 5회 동안 강력한 관통샷을 발사할 수 있습니다.</v>
+          </cell>
+          <cell r="L53">
+            <v>1</v>
+          </cell>
+          <cell r="M53">
+            <v>0.96299999999999997</v>
+          </cell>
+          <cell r="N53">
+            <v>1.012</v>
+          </cell>
+          <cell r="Q53">
+            <v>0.77700000000000002</v>
+          </cell>
+          <cell r="U53">
+            <v>3.5</v>
+          </cell>
+          <cell r="V53">
+            <v>1</v>
+          </cell>
+          <cell r="W53">
+            <v>130</v>
+          </cell>
+          <cell r="X53">
+            <v>0</v>
+          </cell>
+          <cell r="Y53">
+            <v>0</v>
+          </cell>
+          <cell r="Z53">
+            <v>0</v>
+          </cell>
+          <cell r="AA53" t="str">
+            <v>SciFiWarrior</v>
+          </cell>
+          <cell r="AC53" t="str">
+            <v>Portrait_SciFiWarrior</v>
+          </cell>
+          <cell r="AD53">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE53" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF53" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG53" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH53" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI53">
+            <v>-74</v>
+          </cell>
+          <cell r="AK53">
+            <v>0</v>
+          </cell>
+          <cell r="AL53">
+            <v>0</v>
+          </cell>
+          <cell r="AM53">
+            <v>0</v>
+          </cell>
+          <cell r="AN53">
+            <v>0</v>
+          </cell>
+          <cell r="AO53">
+            <v>0</v>
+          </cell>
+          <cell r="AP53">
+            <v>0</v>
+          </cell>
+          <cell r="AQ53">
+            <v>0</v>
+          </cell>
+          <cell r="AR53">
+            <v>0.29749999999999999</v>
+          </cell>
+          <cell r="AS53">
+            <v>0.1691</v>
+          </cell>
+          <cell r="AT53">
+            <v>325</v>
+          </cell>
+          <cell r="AU53">
+            <v>604</v>
+          </cell>
+          <cell r="BB53" t="str">
+            <v/>
+          </cell>
+          <cell r="BC53">
+            <v>85</v>
+          </cell>
+          <cell r="BD53">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Actor2010m</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>CharLowName_ChaosElemental</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>CharName_ChaosElemental</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>CharStory_ChaosElemental</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>CharDesc_ChaosElemental</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>CharUltimate_ChaosElemental</v>
+          </cell>
+          <cell r="H54" t="str">
+            <v>그루퍼스</v>
+          </cell>
+          <cell r="I54" t="str">
+            <v>1차 멸망 이후 결류자를 추앙하는 조직을 쫓던 저널리스트. 최초의 결류자 등장 이후 융합마법은 연구가 폭발적으로 늘어나 다양한 분야에서 사용되기 시작하였다. 문제는 결류자를 추앙하는 그룹 역시 융합 마법을 이용해 다시 결류자가 원했던 인류 멸망을 꿈꾸는 것.
+저널리스트였던 그는 추앙하는 조직을 쫓다가 그들에게 발각된다. 그들은 융합 마법을 악의적으로 사용하여 그루퍼스를 무한히 바위를 조종하는 유체이탈 상태에 빠지게 한다. 그리하여 그루퍼스는 원래의 몸으로 되돌아갈 수 없는 상태가 되었다. 성대가 없어서 말은 할 수 없지만 글은 쓰고 이해할 수 있었다. 이것으로도 충분히 할 일은 할 수 있다며 자신의 몸을 기계국가의 자동 연명 장치에 연결해두고 다시 조직을 쫓는다.</v>
+          </cell>
+          <cell r="J54" t="str">
+            <v>일정 시간 후 세 방향으로 갈라지는 풀잎 다발을 날린다.</v>
+          </cell>
+          <cell r="K54" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;지구의 핵&lt;/color&gt;&lt;/size&gt;
+지구의 내핵의 힘을 본딴 구체를 만들어내어 생성한 자리에 강력한 데미지를 입힙니다. 시전하는 동안은 아무 행동을 할 수 없습니다.</v>
+          </cell>
+          <cell r="L54">
+            <v>0</v>
+          </cell>
+          <cell r="M54">
+            <v>0.878</v>
+          </cell>
+          <cell r="N54">
+            <v>0.85499999999999998</v>
+          </cell>
+          <cell r="Q54">
+            <v>0.75800000000000001</v>
+          </cell>
+          <cell r="U54">
+            <v>3</v>
+          </cell>
+          <cell r="V54">
+            <v>2</v>
+          </cell>
+          <cell r="W54">
+            <v>150</v>
+          </cell>
+          <cell r="X54">
+            <v>0</v>
+          </cell>
+          <cell r="Y54">
+            <v>0</v>
+          </cell>
+          <cell r="Z54">
+            <v>0</v>
+          </cell>
+          <cell r="AA54" t="str">
+            <v>ChaosElemental</v>
+          </cell>
+          <cell r="AC54" t="str">
+            <v>Portrait_ChaosElemental</v>
+          </cell>
+          <cell r="AD54">
+            <v>0.1</v>
+          </cell>
+          <cell r="AE54" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF54" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG54" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH54" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AI54">
+            <v>-51</v>
+          </cell>
+          <cell r="AK54">
+            <v>0</v>
+          </cell>
+          <cell r="AL54">
+            <v>0</v>
+          </cell>
+          <cell r="AM54">
+            <v>0</v>
+          </cell>
+          <cell r="AN54">
+            <v>0</v>
+          </cell>
+          <cell r="AO54">
+            <v>0</v>
+          </cell>
+          <cell r="AP54">
+            <v>0</v>
+          </cell>
+          <cell r="AQ54">
+            <v>0</v>
+          </cell>
+          <cell r="AR54">
+            <v>0.23350000000000001</v>
+          </cell>
+          <cell r="AS54">
+            <v>0.13869999999999999</v>
+          </cell>
+          <cell r="AT54">
+            <v>411</v>
+          </cell>
+          <cell r="AU54">
+            <v>685</v>
+          </cell>
+          <cell r="BB54" t="str">
+            <v/>
+          </cell>
+          <cell r="BC54">
+            <v>85</v>
+          </cell>
+          <cell r="BD54">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Actor2011m</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>CharLowName_SuperHero</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>CharName_SuperHero</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>CharStory_SuperHero</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>CharDesc_SuperHero</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>CharUltimate_SuperHero</v>
+          </cell>
+          <cell r="H55" t="str">
+            <v>클라크</v>
+          </cell>
+          <cell r="I55" t="str">
+            <v>폐허로 변한 연구소 근처에서 정체를 알 수 없는 액체를 뒤집어 쓴 후 초인적인 신체의 힘을 얻게 되었다. 어릴 적부터 동경해오던 슈퍼 히어로가 되겠다는 꿈을 이룰 때가 왔다고 생각하며 사람들을 구조하는데 힘을 쏟고 있다.
+구조를 시작한지 얼마 되지 않아 이름이 안 알려져있던 시절 약탈을 벌이던 사람들을 혼내준 후 이름을 묻는 주변 시민들에게 동경해왔던 슈퍼 히어로의 이름으로 자신을 칭한다. 과거 나약했던 자신의 모습은 앞으로 존재하지 않는다 생각하며 정의와 평화를 이루고자 한다.</v>
+          </cell>
+          <cell r="J55" t="str">
+            <v>두 눈에서 나오는 광선으로 적을 꿰뚫을 수 있다.</v>
+          </cell>
+          <cell r="K55" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;초고열 광선&lt;/color&gt;&lt;/size&gt;
+외계로부터 온 힘을 원천으로 강력한 광선을 만들어냅니다. 광선을 만들어내는 짧은 시간 동안은 무적이 됩니다.</v>
+          </cell>
+          <cell r="L55">
+            <v>0</v>
+          </cell>
+          <cell r="M55">
+            <v>0.89400000000000002</v>
+          </cell>
+          <cell r="N55">
+            <v>0.84199999999999997</v>
+          </cell>
+          <cell r="Q55">
+            <v>0.76100000000000001</v>
+          </cell>
+          <cell r="U55">
+            <v>3.5</v>
+          </cell>
+          <cell r="V55">
+            <v>2</v>
+          </cell>
+          <cell r="W55">
+            <v>140</v>
+          </cell>
+          <cell r="X55">
+            <v>0</v>
+          </cell>
+          <cell r="Y55">
+            <v>0</v>
+          </cell>
+          <cell r="Z55">
+            <v>0</v>
+          </cell>
+          <cell r="AA55" t="str">
+            <v>SuperHero</v>
+          </cell>
+          <cell r="AC55" t="str">
+            <v>Portrait_SuperHero</v>
+          </cell>
+          <cell r="AD55">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE55" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF55" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG55" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH55" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI55">
+            <v>-49</v>
+          </cell>
+          <cell r="AK55">
+            <v>0</v>
+          </cell>
+          <cell r="AL55">
+            <v>0</v>
+          </cell>
+          <cell r="AM55">
+            <v>0</v>
+          </cell>
+          <cell r="AN55">
+            <v>0</v>
+          </cell>
+          <cell r="AO55">
+            <v>0</v>
+          </cell>
+          <cell r="AP55">
+            <v>0</v>
+          </cell>
+          <cell r="AQ55">
+            <v>0</v>
+          </cell>
+          <cell r="AR55">
+            <v>0.2235</v>
+          </cell>
+          <cell r="AS55">
+            <v>0.14829999999999999</v>
+          </cell>
+          <cell r="AT55">
+            <v>411</v>
+          </cell>
+          <cell r="AU55">
+            <v>685</v>
+          </cell>
+          <cell r="BB55" t="str">
+            <v/>
+          </cell>
+          <cell r="BC55">
+            <v>85</v>
+          </cell>
+          <cell r="BD55">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Actor3212m</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>CharLowName_Meryl</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>CharName_Meryl</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>CharStory_Meryl</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>CharDesc_Meryl</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>CharUltimate_Meryl</v>
+          </cell>
+          <cell r="H56" t="str">
+            <v>메릴</v>
+          </cell>
+          <cell r="I56" t="str">
+            <v>기공에 일가견이 있던 아버지를 일찍 여의고 홀어머니 아래에서 오빠와 자랐다. 어릴 적이지만 아버지에게 배운 기공을 매일 오빠와 함께 수련했다. 최근 들어 평범한 회사를 다닌다고 하던 오빠가 잦은 출장 등으로 바빠지더니 연락이 끊겼다. 걱정에 가득 찬 어머니를 안심시키고 오빠를 찾아야겠다는 결심을 한다.
+실종 신고를 위해 길을 나서던 중 2차 멸망이 발생하여 거리에는 마물이 쏟아지고 있고 여기 저기 다친 사람들이 쓰러져있다. 혼돈스러운 상황에서 사람들이 실시간으로 올리는 영상들을 보는데 영상 속 간파울이라는 사람의 망토에 새겨진 무늬가 오빠가 회사에서 제작했다며 주고간 장갑에 새겨진 무늬와 같다는 것을 알게 된다. 비행기도 이동 마법진도 없는 상황에서 오빠의 행방을 찾기 위해 간파울이라는 사람을 찾아 지구 반대편으로 갈 마음을 먹는다.</v>
+          </cell>
+          <cell r="J56" t="str">
+            <v>주먹에 힘을 실어 응집된 파괴력으로 적을 공격한다. 벽을 관통하여 적에게 피해를 줄 수 있다.</v>
+          </cell>
+          <cell r="K56" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;찰나의 순간&lt;/color&gt;&lt;/size&gt;
+온 몸의 감각을 최대한 끌어올립니다. 마치 주변이 느려진 것처럼 보이게 됩니다.</v>
+          </cell>
+          <cell r="L56">
+            <v>2</v>
+          </cell>
+          <cell r="M56">
+            <v>1.0920000000000001</v>
+          </cell>
+          <cell r="N56">
+            <v>1.163</v>
+          </cell>
+          <cell r="Q56">
+            <v>0.72599999999999998</v>
+          </cell>
+          <cell r="U56">
+            <v>3.8</v>
+          </cell>
+          <cell r="V56">
+            <v>3</v>
+          </cell>
+          <cell r="W56">
+            <v>140</v>
+          </cell>
+          <cell r="X56">
+            <v>4.2</v>
+          </cell>
+          <cell r="Y56">
+            <v>0</v>
+          </cell>
+          <cell r="Z56">
+            <v>0</v>
+          </cell>
+          <cell r="AA56" t="str">
+            <v>Meryl</v>
+          </cell>
+          <cell r="AC56" t="str">
+            <v>Portrait_Meryl</v>
+          </cell>
+          <cell r="AD56">
+            <v>0</v>
+          </cell>
+          <cell r="AE56" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF56" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG56" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH56" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI56">
+            <v>-90</v>
+          </cell>
+          <cell r="AK56">
+            <v>2</v>
+          </cell>
+          <cell r="AL56">
+            <v>0</v>
+          </cell>
+          <cell r="AM56">
+            <v>0</v>
+          </cell>
+          <cell r="AN56">
+            <v>0</v>
+          </cell>
+          <cell r="AO56">
+            <v>0</v>
+          </cell>
+          <cell r="AP56">
+            <v>0</v>
+          </cell>
+          <cell r="AQ56">
+            <v>0</v>
+          </cell>
+          <cell r="AR56">
+            <v>0.31530000000000002</v>
+          </cell>
+          <cell r="AS56">
+            <v>0.17630000000000001</v>
+          </cell>
+          <cell r="AT56">
+            <v>289</v>
+          </cell>
+          <cell r="AU56">
+            <v>521</v>
+          </cell>
+          <cell r="BB56" t="str">
+            <v>BGM_Meryl</v>
+          </cell>
+          <cell r="BC56">
+            <v>85</v>
+          </cell>
+          <cell r="BD56">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Actor0113m</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>CharLowName_GreekWarrior</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>CharName_GreekWarrior</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>CharStory_GreekWarrior</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>CharDesc_GreekWarrior</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>CharUltimate_GreekWarrior</v>
+          </cell>
+          <cell r="H57" t="str">
+            <v>케이저</v>
+          </cell>
+          <cell r="I57" t="str">
+            <v>검과 마법 수련을 취미로 하던 아저씨. 하지만 20대에 이미 취미의 수준은 넘어섰던 듯 하다. 젊을 적부터 고대 및 중세 시대의 갑주들을 모아두곤 했었는데 본업인 개인 트레이너로 먹고 살기 바빠지면서 창고에 고이 모셔두었었다. 어릴 적 1차 결류자의 멸망의 날을 겪은 세대지만 그의 나라에는 직접적인 타격이 없었기에 피부에 와닿는 변화는 오지 않았다. 검과 마법을 수련하는 그를 보고는 이웃 사람들은 괜한 걱정이라며 덕후 취급을 한다.
+평소와 마찬가지로 출근하려고 집을 나서고 있는데 갑자기 하늘이 어두워지더니 죽음의 폭풍이 나타나고 거리에는 마물이 쏟아져나온다. 겁에 질린 사람들이 우왕좌왕 하고 있는 동안 집으로 미친 듯이 뛰어 되돌아와 갑옷과 무기가 있는 창고로 들어간다.</v>
+          </cell>
+          <cell r="J57" t="str">
+            <v>땅바닥에 칼을 꽂아 쓸어올리면서 광역으로 적을 공격한다. 범위 내의 적은 이 공격을 회피할 수 없다.</v>
+          </cell>
+          <cell r="K57" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;꺼지지 않는 불꽃&lt;/color&gt;&lt;/size&gt;
+마법의 힘으로 자신을 불태웁니다. 불꽃이 타오르는 동안 데미지는 입지만 죽지 않습니다.</v>
+          </cell>
+          <cell r="L57">
+            <v>1</v>
+          </cell>
+          <cell r="M57">
+            <v>1.0049999999999999</v>
+          </cell>
+          <cell r="N57">
+            <v>0.94099999999999995</v>
+          </cell>
+          <cell r="Q57">
+            <v>1.204</v>
+          </cell>
+          <cell r="U57">
+            <v>4</v>
+          </cell>
+          <cell r="V57">
+            <v>0</v>
+          </cell>
+          <cell r="W57">
+            <v>95</v>
+          </cell>
+          <cell r="X57">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="Y57">
+            <v>0</v>
+          </cell>
+          <cell r="Z57">
+            <v>0</v>
+          </cell>
+          <cell r="AA57" t="str">
+            <v>GreekWarrior</v>
+          </cell>
+          <cell r="AC57" t="str">
+            <v>Portrait_GreekWarrior</v>
+          </cell>
+          <cell r="AD57">
+            <v>0</v>
+          </cell>
+          <cell r="AE57" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF57" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AG57" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH57" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI57">
+            <v>-79</v>
+          </cell>
+          <cell r="AK57">
+            <v>0</v>
+          </cell>
+          <cell r="AL57">
+            <v>0</v>
+          </cell>
+          <cell r="AM57">
+            <v>0</v>
+          </cell>
+          <cell r="AN57">
+            <v>0</v>
+          </cell>
+          <cell r="AO57">
+            <v>0</v>
+          </cell>
+          <cell r="AP57">
+            <v>0</v>
+          </cell>
+          <cell r="AQ57">
+            <v>0</v>
+          </cell>
+          <cell r="AR57">
+            <v>0.2853</v>
+          </cell>
+          <cell r="AS57">
+            <v>0.16370000000000001</v>
+          </cell>
+          <cell r="AT57">
+            <v>325</v>
+          </cell>
+          <cell r="AU57">
+            <v>604</v>
+          </cell>
+          <cell r="BB57" t="str">
+            <v/>
+          </cell>
+          <cell r="BC57">
+            <v>85</v>
+          </cell>
+          <cell r="BD57">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Actor3114m</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>CharLowName_Akai</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>CharName_Akai</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>CharStory_Akai</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>CharDesc_Akai</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>CharUltimate_Akai</v>
+          </cell>
+          <cell r="H58" t="str">
+            <v>슬로니카</v>
+          </cell>
+          <cell r="I58" t="str">
+            <v>동쪽의 나라에서 온 아버지에게 활 쏘는 법을 배웠다. 아버지는 활 잘 쏘는 나라에서 활과 기공을 가르치다가 1차 멸망의 날에 평화로웠던 본국을 뒤로 하고 마물 퇴치를 위해 여기에 왔고 그러던 중 어머니를 만나 아예 정착하게 되었다고 한다. 그 당시 이웃나라와의 국경 부근에 죽음의 폭풍이 생겼지만 국민들의 단합 및 아버지 같은 외국인들의 도움으로 빠르게 마물들을 섬멸하여 나라는 안정화된다. 그러나 이웃나라는 마물들을 막지 못 하고 심지어 내전이 발생하면서 마물들의 본거지 중 하나가 되고 만다.
+20여년이 지나 간신히 평화를 찾은 듯 했던 어느 날 2차 멸망이 발생하고 더 많고 강력한 몬스터가 이웃나라로부터 쏟아져 나왔다. 아버지가 외출 중이라 슬로니카는 아버지에게 배운 활을 들고 가족을 지키려 한다.</v>
+          </cell>
+          <cell r="J58" t="str">
+            <v>한 번에 여러 화살을 넓은 방향으로 쏘아 다수를 상대한다.</v>
+          </cell>
+          <cell r="K58" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;불새&lt;/color&gt;&lt;/size&gt;
+벽을 관통하는 불새를 날려 적들에게 데미지를 입힙니다. 불새에 닿는 총알은 제거됩니다.</v>
+          </cell>
+          <cell r="L58">
+            <v>1</v>
+          </cell>
+          <cell r="M58">
+            <v>0.88800000000000001</v>
+          </cell>
+          <cell r="N58">
+            <v>0.93600000000000005</v>
+          </cell>
+          <cell r="Q58">
+            <v>0.72299999999999998</v>
+          </cell>
+          <cell r="U58">
+            <v>3.3</v>
+          </cell>
+          <cell r="V58">
+            <v>3</v>
+          </cell>
+          <cell r="W58">
+            <v>130</v>
+          </cell>
+          <cell r="X58">
+            <v>0</v>
+          </cell>
+          <cell r="Y58">
+            <v>0</v>
+          </cell>
+          <cell r="Z58">
+            <v>0</v>
+          </cell>
+          <cell r="AA58" t="str">
+            <v>Akai</v>
+          </cell>
+          <cell r="AC58" t="str">
+            <v>Portrait_Akai</v>
+          </cell>
+          <cell r="AD58">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE58" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF58" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG58" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH58" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI58">
+            <v>-70</v>
+          </cell>
+          <cell r="AK58">
+            <v>0</v>
+          </cell>
+          <cell r="AL58">
+            <v>0</v>
+          </cell>
+          <cell r="AM58">
+            <v>0</v>
+          </cell>
+          <cell r="AN58">
+            <v>0</v>
+          </cell>
+          <cell r="AO58">
+            <v>0</v>
+          </cell>
+          <cell r="AP58">
+            <v>0</v>
+          </cell>
+          <cell r="AQ58">
+            <v>0</v>
+          </cell>
+          <cell r="AR58">
+            <v>0.29580000000000001</v>
+          </cell>
+          <cell r="AS58">
+            <v>0.1714</v>
+          </cell>
+          <cell r="AT58">
+            <v>325</v>
+          </cell>
+          <cell r="AU58">
+            <v>604</v>
+          </cell>
+          <cell r="BB58" t="str">
+            <v/>
+          </cell>
+          <cell r="BC58">
+            <v>85</v>
+          </cell>
+          <cell r="BD58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Actor2015m</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>CharLowName_Yuka</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>CharName_Yuka</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>CharStory_Yuka</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>CharDesc_Yuka</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>CharUltimate_Yuka</v>
+          </cell>
+          <cell r="H59" t="str">
+            <v>솔</v>
+          </cell>
+          <cell r="I59" t="str">
+            <v>부모님에게는 뭔가 비밀이 있는 것 같았다. 그러던 중 우연히 부모님의 다이어리를 보게 되었다. 20여년 전 1차 멸망 즈음 부모님은 젊은 유학생이었는데 난장판이 된 길거리에서 연구소로 납치당해 인체실험의 대상자로 끌려간다. 같이 있었던 사람들이 이상한 주사를 맞고 괴물로 변하는 것을 보았다. 거기서 아버지는 같은 나라 사람이었던 어머니를 만나 주사를 맞기 전 연구자들을 때려눕히고 함께 탈출을 감행하여 연구소를 빠져나왔다고 한다. 그리고 모국으로 돌아와 정부에 피해 사실을 알렸지만 대응이 거의 없었다고 한다.
+여기까지가 외부에 발표된 기사 내용. 그러나 실상은 탈출은 가짜이며 아버지와 어머니 모두 주사를 맞았지만 변형이 양성화되지 않았고 실패작으로 간주되어 연구실 밖으로 폐기처분 대상자들과 함께 배출되었던 것이었다. 솔의 부모님은 당국으로부터 솔을 지키기 위해 거짓 진술했다고 한다. 그리고 그 힘은 딸인 솔이 서서히 자라며 나타나게 된다.</v>
+          </cell>
+          <cell r="J59" t="str">
+            <v>바람을 타고 벽을 투과하는 신호를 보내 부딪힌 곳의 땅 속으로부터 덩굴을 생성한다. 여러 덩굴이 겹치더라도 일정 주기에 따라 한 번의 데미지만 입힐 수 있습니다.</v>
+          </cell>
+          <cell r="K59" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;심판의 검&lt;/color&gt;&lt;/size&gt;
+하늘에서부터 세 개의 검을 꽂아내립니다. 일정 시간 후 더 강력한 검이 내려꽂히게 됩니다. 검은 땅 속 아래의 적까지 공격할 수 있습니다.</v>
+          </cell>
+          <cell r="L59">
+            <v>0</v>
+          </cell>
+          <cell r="M59">
+            <v>0.83199999999999996</v>
+          </cell>
+          <cell r="N59">
+            <v>0.83899999999999997</v>
+          </cell>
+          <cell r="Q59">
+            <v>0.95299999999999996</v>
+          </cell>
+          <cell r="U59">
+            <v>3.1</v>
+          </cell>
+          <cell r="V59">
+            <v>2</v>
+          </cell>
+          <cell r="W59">
+            <v>100</v>
+          </cell>
+          <cell r="X59">
+            <v>4.8</v>
+          </cell>
+          <cell r="Y59">
+            <v>0</v>
+          </cell>
+          <cell r="Z59">
+            <v>0</v>
+          </cell>
+          <cell r="AA59" t="str">
+            <v>Yuka</v>
+          </cell>
+          <cell r="AC59" t="str">
+            <v>Portrait_Yuka</v>
+          </cell>
+          <cell r="AD59">
+            <v>0</v>
+          </cell>
+          <cell r="AE59" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF59" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG59" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH59" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI59">
+            <v>-50</v>
+          </cell>
+          <cell r="AK59">
+            <v>0</v>
+          </cell>
+          <cell r="AL59">
+            <v>0</v>
+          </cell>
+          <cell r="AM59">
+            <v>0</v>
+          </cell>
+          <cell r="AN59">
+            <v>0</v>
+          </cell>
+          <cell r="AO59">
+            <v>0</v>
+          </cell>
+          <cell r="AP59">
+            <v>0</v>
+          </cell>
+          <cell r="AQ59">
+            <v>0</v>
+          </cell>
+          <cell r="AR59">
+            <v>0.23419999999999999</v>
+          </cell>
+          <cell r="AS59">
+            <v>0.12859999999999999</v>
+          </cell>
+          <cell r="AT59">
+            <v>411</v>
+          </cell>
+          <cell r="AU59">
+            <v>685</v>
+          </cell>
+          <cell r="BB59" t="str">
+            <v/>
+          </cell>
+          <cell r="BC59">
+            <v>85</v>
+          </cell>
+          <cell r="BD59">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Actor1216m</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>CharLowName_SteampunkRobot</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>CharName_SteampunkRobot</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>CharStory_SteampunkRobot</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>CharDesc_SteampunkRobot</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>CharUltimate_SteampunkRobot</v>
+          </cell>
+          <cell r="H60" t="str">
+            <v>프로토27</v>
+          </cell>
+          <cell r="I60" t="str">
+            <v>인류 최초 의식 수준 인공지능 만들기 프로젝트에서 프로토 타입 26번째를 만들 때 엄청난 비약적인 발전이 나타난다. 그런데 26번째 프로토 타입은 순식간에 1번부터 25번까지 인공지능 로봇을 장악하고 인류 말살 프로젝트를 진행하려 한다. 이때 연구자 중 한 사람이 간신히 27번째를 만들고 27번째 로봇은 자신의 손으로 26번까지의 로봇들을 모두 가동 중지시킨다. 이 로봇이 바로 프로토 27.
+프로토 27은 AI에게 전투능력을 부여하는 것은 인류에게 위협이 된다며 최소한의 자기방어용 능력만 남기고 비전투 상태로 자신을 변경한다. 그리고 스스로도 향후 10년 동안은 풀 수 없는 코드로 막는데 불과 며칠 뒤 제2차 결류자가 나타나면서 세상은 혼돈으로 변한다. 급변하는 상황 속에서 프로토 27은 나노 드론 프린팅 기술을 탑재하며 인류를 돕기 위해 연구실 밖으로 나온다.</v>
+          </cell>
+          <cell r="J60" t="str">
+            <v>느리게 흘러가는 전자기 파동을 발사한다. 적을 조우하면 위기 대응 내부 프로토콜에 의해 SP를 모두 채운다.</v>
+          </cell>
+          <cell r="K60" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;드론 호출&lt;/color&gt;&lt;/size&gt;
+입자 전달 기술로 공격형 드론을 설치합니다. 클론 생성 시 호출자의 공격력, 공격속도, 체력의 성장량을 인자로 전달 받습니다. 드론은 파괴 시 코어를 남기는데 이를 회수함으로써 다시 불러낼 수 있습니다. 최대 2기의 드론을 동시에 꺼낼 수 있습니다.</v>
+          </cell>
+          <cell r="L60">
+            <v>2</v>
+          </cell>
+          <cell r="M60">
+            <v>1.1719999999999999</v>
+          </cell>
+          <cell r="N60">
+            <v>1.1080000000000001</v>
+          </cell>
+          <cell r="Q60">
+            <v>0.61299999999999999</v>
+          </cell>
+          <cell r="U60">
+            <v>3.7</v>
+          </cell>
+          <cell r="V60">
+            <v>1</v>
+          </cell>
+          <cell r="W60">
+            <v>45</v>
+          </cell>
+          <cell r="X60">
+            <v>0</v>
+          </cell>
+          <cell r="Y60">
+            <v>0</v>
+          </cell>
+          <cell r="Z60">
+            <v>0</v>
+          </cell>
+          <cell r="AA60" t="str">
+            <v>SteampunkRobot</v>
+          </cell>
+          <cell r="AC60" t="str">
+            <v>Portrait_SteampunkRobot</v>
+          </cell>
+          <cell r="AD60">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE60" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF60" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG60" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH60" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI60">
+            <v>-95</v>
+          </cell>
+          <cell r="AK60">
+            <v>0</v>
+          </cell>
+          <cell r="AL60">
+            <v>0</v>
+          </cell>
+          <cell r="AM60">
+            <v>0</v>
+          </cell>
+          <cell r="AN60">
+            <v>0</v>
+          </cell>
+          <cell r="AO60">
+            <v>0</v>
+          </cell>
+          <cell r="AP60">
+            <v>0</v>
+          </cell>
+          <cell r="AQ60">
+            <v>0</v>
+          </cell>
+          <cell r="AR60">
+            <v>0.33579999999999999</v>
+          </cell>
+          <cell r="AS60">
+            <v>0.1915</v>
+          </cell>
+          <cell r="AT60">
+            <v>289</v>
+          </cell>
+          <cell r="AU60">
+            <v>521</v>
+          </cell>
+          <cell r="BB60" t="str">
+            <v>BGM_SteampunkRobot</v>
+          </cell>
+          <cell r="BC60">
+            <v>85</v>
+          </cell>
+          <cell r="BD60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Actor3117m</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>CharLowName_Kachujin</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>CharName_Kachujin</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>CharStory_Kachujin</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>CharDesc_Kachujin</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>CharUltimate_Kachujin</v>
+          </cell>
+          <cell r="H61" t="str">
+            <v>카츄진</v>
+          </cell>
+          <cell r="I61" t="str">
+            <v>1차 멸망도 2차 멸망도 카츄진이 살고 있는 작은 섬마을에는 큰 피해가 없었다. 육지 사람들도 항공과 배편이 끊기니 쉽게 들어올 수 없었다. 그렇지만 카츄진은 전세계가 마물들로 난리인데 자신과 상관 없다고 안전하고 편하게 사는 것은 무미건조한 인생이라 생각한다. 섬의 어른들이 육지 사람들을 배척하는 것도 이해하지만 카츄진의 마음은 바깥 세상에 가고 싶은 마음이 더욱 크다.
+2차 멸망 발생 며칠 후 해안가에 핏자국을 보고 따라가보니 부상으로 앉아서 응급치료하고 있는 의문의 또래 남자를 발견한다. 섬에서 가까운 육지 지역의 자경단 일원으로 마물과의 전투 중 위기에 몰려 무작위 이동마법을 사용하여 여기까지 오게 되었다고 한다. 잘 통하는 듯한 대화를 마치고 아쉬워하며 다음을 기약하고 헤어지려 하는데 남자가 실은 자신은 정부 소속이며 도심으로 쏟아지는 마물을 분산시키기 위해 극약처방으로 마물 무리를 지방으로 이동시키는 비밀 임무를 맡았다고 한다. 그러면서 여기 있으면 죽는다고 자신과 함께 육지로 가자고 한다. 카츄진은 잠시 망설이다 집에 있는 부모님과 조부모님을 두고 갈 수 없다며 집으로 달린다.</v>
+          </cell>
+          <cell r="J61" t="str">
+            <v>궤적을 그리며 적을 꿰뚫는 검의 기운을 던진다.</v>
+          </cell>
+          <cell r="K61" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;끈질긴 칼날&lt;/color&gt;&lt;/size&gt;
+일정 시간 동안 칼날에 힘을 실어 더 오래 적을 공격할 수 있도록 합니다.</v>
+          </cell>
+          <cell r="L61">
+            <v>1</v>
+          </cell>
+          <cell r="M61">
+            <v>0.93899999999999995</v>
+          </cell>
+          <cell r="N61">
+            <v>0.98199999999999998</v>
+          </cell>
+          <cell r="Q61">
+            <v>0.73399999999999999</v>
+          </cell>
+          <cell r="U61">
+            <v>3.7</v>
+          </cell>
+          <cell r="V61">
+            <v>3</v>
+          </cell>
+          <cell r="W61">
+            <v>115</v>
+          </cell>
+          <cell r="X61">
+            <v>5.3</v>
+          </cell>
+          <cell r="Y61">
+            <v>0</v>
+          </cell>
+          <cell r="Z61">
+            <v>0</v>
+          </cell>
+          <cell r="AA61" t="str">
+            <v>Kachujin</v>
+          </cell>
+          <cell r="AC61" t="str">
+            <v>Portrait_Kachujin</v>
+          </cell>
+          <cell r="AD61">
+            <v>0</v>
+          </cell>
+          <cell r="AE61" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF61" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG61" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH61" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI61">
+            <v>-69</v>
+          </cell>
+          <cell r="AK61">
+            <v>0</v>
+          </cell>
+          <cell r="AL61">
+            <v>0</v>
+          </cell>
+          <cell r="AM61">
+            <v>0</v>
+          </cell>
+          <cell r="AN61">
+            <v>0</v>
+          </cell>
+          <cell r="AO61">
+            <v>0</v>
+          </cell>
+          <cell r="AP61">
+            <v>0</v>
+          </cell>
+          <cell r="AQ61">
+            <v>0</v>
+          </cell>
+          <cell r="AR61">
+            <v>0.25480000000000003</v>
+          </cell>
+          <cell r="AS61">
+            <v>0.15820000000000001</v>
+          </cell>
+          <cell r="AT61">
+            <v>325</v>
+          </cell>
+          <cell r="AU61">
+            <v>604</v>
+          </cell>
+          <cell r="BB61" t="str">
+            <v/>
+          </cell>
+          <cell r="BC61">
+            <v>85</v>
+          </cell>
+          <cell r="BD61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Actor1218m</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>CharLowName_Medea</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>CharName_Medea</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>CharStory_Medea</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>CharDesc_Medea</v>
+          </cell>
+          <cell r="G62" t="str">
+            <v>CharUltimate_Medea</v>
+          </cell>
+          <cell r="H62" t="str">
+            <v>메디아</v>
+          </cell>
+          <cell r="I62" t="str">
+            <v>프로토27을 만든 연구소와 AI 경쟁을 벌이던 이웃나라 연구소는 최초 개발은 놓쳤지만 포기하지 않고 연구에 박차를 가한다. 결실을 눈 앞에 둔 어느 날 세계에 2차 멸망이 발생하며 연구소는 폐허가 되어버린다. 하지만 사람의 손길이 닿지 않을 뿐 부서지지 않은 컴퓨터에서 연산은 계속 되고 있었는데...
+얼마 후 인간의 개입이 없는 상태에서 새로운 AI가 탄생한다. 인간이 컨트롤 할 수 없다보니 폐허가 된 공장에서 로봇들을 찍어내기 시작하고 만들어낸 로봇들이 다시 일꾼이 되어 하루가 다르게 기계국가가 건설되어진다. 이후 기계가 인류를 창조하겠다는 일념으로 만든 최초의 인간이 바로 메디아. 보라색 피를 가진 그녀는 전투에 필요한 부분은 기계 파츠로 구성되어 있고 나머지는 현생 인류보다 우월하게 진화된 신체구조를 가지고 있다. 또한 성인의 모습을 하고 있지만 24세의 기억은 AI가 만들어낸 허구. 자신의 정체성에 의문을 품으며 연구소 밖으로 첫 발을 내딛는다.</v>
+          </cell>
+          <cell r="J62" t="str">
+            <v>벽에 튕기면서 다단히트를 할 수 있는 암흑물질을 발사한다.</v>
+          </cell>
+          <cell r="K62" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;새로운 물질&lt;/color&gt;&lt;/size&gt;
+지구에 존재하지 않는 물질로 이루어진 암석을 떨어뜨려 데미지를 입힙니다. 이후 물질이 사라지면서 적의 현재 HP에 비례한 데미지를 입힙니다.</v>
+          </cell>
+          <cell r="L62">
+            <v>2</v>
+          </cell>
+          <cell r="M62">
+            <v>1.147</v>
+          </cell>
+          <cell r="N62">
+            <v>1.0720000000000001</v>
+          </cell>
+          <cell r="Q62">
+            <v>0.72499999999999998</v>
+          </cell>
+          <cell r="U62">
+            <v>3.6</v>
+          </cell>
+          <cell r="V62">
+            <v>1</v>
+          </cell>
+          <cell r="W62">
+            <v>160</v>
+          </cell>
+          <cell r="X62">
+            <v>0</v>
+          </cell>
+          <cell r="Y62">
+            <v>0</v>
+          </cell>
+          <cell r="Z62">
+            <v>0</v>
+          </cell>
+          <cell r="AA62" t="str">
+            <v>Medea</v>
+          </cell>
+          <cell r="AC62" t="str">
+            <v>Portrait_Medea</v>
+          </cell>
+          <cell r="AD62">
+            <v>0.1</v>
+          </cell>
+          <cell r="AE62" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF62" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG62" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH62" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI62">
+            <v>-94</v>
+          </cell>
+          <cell r="AK62">
+            <v>1</v>
+          </cell>
+          <cell r="AL62">
+            <v>0</v>
+          </cell>
+          <cell r="AM62">
+            <v>0</v>
+          </cell>
+          <cell r="AN62">
+            <v>0</v>
+          </cell>
+          <cell r="AO62">
+            <v>0</v>
+          </cell>
+          <cell r="AP62">
+            <v>0</v>
+          </cell>
+          <cell r="AQ62">
+            <v>0</v>
+          </cell>
+          <cell r="AR62">
+            <v>0.3145</v>
+          </cell>
+          <cell r="AS62">
+            <v>0.19259999999999999</v>
+          </cell>
+          <cell r="AT62">
+            <v>289</v>
+          </cell>
+          <cell r="AU62">
+            <v>521</v>
+          </cell>
+          <cell r="BB62" t="str">
+            <v>BGM_Medea</v>
+          </cell>
+          <cell r="BC62">
+            <v>85</v>
+          </cell>
+          <cell r="BD62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Actor3019m</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>CharLowName_Lola</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>CharName_Lola</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>CharStory_Lola</v>
+          </cell>
+          <cell r="F63" t="str">
+            <v>CharDesc_Lola</v>
+          </cell>
+          <cell r="G63" t="str">
+            <v>CharUltimate_Lola</v>
+          </cell>
+          <cell r="H63" t="str">
+            <v>롤라</v>
+          </cell>
+          <cell r="I63" t="str">
+            <v>어릴 적 동쪽 나라의 아이돌이 출연한 사극을 보고 기공이라는 것을 알게 된 소녀. 잊혀져 가는 힘의 원천인 기공을 배우기 위해 바다 건너 유학을 시작했다. 어린 나이였지만 빠르게 언어와 문화를 배워 현지인 아니냐는 질문을 받으며 자랐다.
+그 후 8년이 지난 어느 평범한 날 밤, 2차 멸망의 날이 일어나고 도심에 몬스터가 출몰하며 혼돈으로 가득 찬다. 고향에 있는 가족은 모두 능력을 배우지 않은 일반인이기에 걱정에 가득 차 연락을 하며 짐을 챙겨 떠난다.</v>
+          </cell>
+          <cell r="J63" t="str">
+            <v>세 개의 검기를 던져 벽에 반사시켜 적을 공격한다.</v>
+          </cell>
+          <cell r="K63" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;회전 소용돌이&lt;/color&gt;&lt;/size&gt;
+기의 흐름을 회전시켜 작은 소용돌이를 여러 개 만들어 주변에 흩뿌립니다. 소용돌이는 적의 총알을 제거할 수 있습니다.</v>
+          </cell>
+          <cell r="L63">
+            <v>0</v>
+          </cell>
+          <cell r="M63">
+            <v>0.84299999999999997</v>
+          </cell>
+          <cell r="N63">
+            <v>0.82599999999999996</v>
+          </cell>
+          <cell r="Q63">
+            <v>0.78900000000000003</v>
+          </cell>
+          <cell r="U63">
+            <v>3.4</v>
+          </cell>
+          <cell r="V63">
+            <v>3</v>
+          </cell>
+          <cell r="W63">
+            <v>130</v>
+          </cell>
+          <cell r="X63">
+            <v>0</v>
+          </cell>
+          <cell r="Y63">
+            <v>0</v>
+          </cell>
+          <cell r="Z63">
+            <v>0</v>
+          </cell>
+          <cell r="AA63" t="str">
+            <v>Lola</v>
+          </cell>
+          <cell r="AC63" t="str">
+            <v>Portrait_Lola</v>
+          </cell>
+          <cell r="AD63">
+            <v>0.2</v>
+          </cell>
+          <cell r="AE63" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF63" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG63" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH63" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI63">
+            <v>-47</v>
+          </cell>
+          <cell r="AK63">
+            <v>0</v>
+          </cell>
+          <cell r="AL63">
+            <v>0</v>
+          </cell>
+          <cell r="AM63">
+            <v>0</v>
+          </cell>
+          <cell r="AN63">
+            <v>0</v>
+          </cell>
+          <cell r="AO63">
+            <v>0</v>
+          </cell>
+          <cell r="AP63">
+            <v>0</v>
+          </cell>
+          <cell r="AQ63">
+            <v>0</v>
+          </cell>
+          <cell r="AR63">
+            <v>0.2041</v>
+          </cell>
+          <cell r="AS63">
+            <v>0.12939999999999999</v>
+          </cell>
+          <cell r="AT63">
+            <v>411</v>
+          </cell>
+          <cell r="AU63">
+            <v>685</v>
+          </cell>
+          <cell r="BB63" t="str">
+            <v/>
+          </cell>
+          <cell r="BC63">
+            <v>85</v>
+          </cell>
+          <cell r="BD63">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Actor2120m</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>CharLowName_RockElemental</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>CharName_RockElemental</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>CharStory_RockElemental</v>
+          </cell>
+          <cell r="F64" t="str">
+            <v>CharDesc_RockElemental</v>
+          </cell>
+          <cell r="G64" t="str">
+            <v>CharUltimate_RockElemental</v>
+          </cell>
+          <cell r="H64" t="str">
+            <v>미네락</v>
+          </cell>
+          <cell r="I64" t="str">
+            <v>태아였을 때 어머니가 변형 마법에 영향을 받았었다. 다행히 어머니는 양성화되지 않았고 태아는 무사할 수 있었다. 이후 태어난 뒤 2차 성징까지는 정상적인 아이와 다르지 않았었다. 그런데 2차 성징 때부터 몸이 남과 다른 것을 느꼈다. 피부를 돌처럼 딱딱하게 만들 수 있던 것. 처음에는 조금 단단한 수준에서 되돌아왔지만 점차 피부가 돌처럼 변하고 점점 두터워지며 부드러운 살로 되돌아올 때까지 걸리는 시간이 늘어났다. 능력을 사용할수록 점점 더 심해지는 것을 깨닫고 능력 발휘를 하지 않고 살려고 했다.
+그러던 어느 날 2차 멸망이 오고 마물들이 앞마당까지 몰려들었다. 가족이 위기에 처한 순간 능력을 최대한 활성화시키고 마물들을 물리쳤다. 융합 마법으로 이를 치료할 수 있다는 희망을 품으며 집을 나선다.</v>
+          </cell>
+          <cell r="J64" t="str">
+            <v>주변에 땅울림을 일으켜 땅 속으로부터 무작위로 바위를 솟게 한다. 평상 시에는 소량의 바위들을 솟게 하나 이동하여 자연의 에너지를 모으면 다량의 바위를 솟게 한다.</v>
+          </cell>
+          <cell r="K64" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;데굴데굴&lt;/color&gt;&lt;/size&gt;
+온 몸을 동그랗게 말고 굴러가며 적들에게 피해를 입힙니다. 굴러가는 동안은 피해를 매우 적게 입습니다. 일정 시간 동안 구른 후 땅 속으로부터 날카로운 바위들을 솟구치게 하여 주변 넓은 범위에 피해를 입힙니다.</v>
+          </cell>
+          <cell r="L64">
+            <v>1</v>
+          </cell>
+          <cell r="M64">
+            <v>0.95799999999999996</v>
+          </cell>
+          <cell r="N64">
+            <v>0.96599999999999997</v>
+          </cell>
+          <cell r="Q64">
+            <v>0.90400000000000003</v>
+          </cell>
+          <cell r="U64">
+            <v>2.7</v>
+          </cell>
+          <cell r="V64">
+            <v>2</v>
+          </cell>
+          <cell r="W64">
+            <v>120</v>
+          </cell>
+          <cell r="X64">
+            <v>6.4</v>
+          </cell>
+          <cell r="Y64">
+            <v>0</v>
+          </cell>
+          <cell r="Z64">
+            <v>0</v>
+          </cell>
+          <cell r="AA64" t="str">
+            <v>RockElemental</v>
+          </cell>
+          <cell r="AC64" t="str">
+            <v>Portrait_RockElemental</v>
+          </cell>
+          <cell r="AD64">
+            <v>0</v>
+          </cell>
+          <cell r="AE64" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF64" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AG64" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH64" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI64">
+            <v>-72</v>
+          </cell>
+          <cell r="AK64">
+            <v>0</v>
+          </cell>
+          <cell r="AL64">
+            <v>0</v>
+          </cell>
+          <cell r="AM64">
+            <v>0</v>
+          </cell>
+          <cell r="AN64">
+            <v>0</v>
+          </cell>
+          <cell r="AO64">
+            <v>0</v>
+          </cell>
+          <cell r="AP64">
+            <v>0</v>
+          </cell>
+          <cell r="AQ64">
+            <v>0</v>
+          </cell>
+          <cell r="AR64">
+            <v>0.28289999999999998</v>
+          </cell>
+          <cell r="AS64">
+            <v>0.15670000000000001</v>
+          </cell>
+          <cell r="AT64">
+            <v>325</v>
+          </cell>
+          <cell r="AU64">
+            <v>604</v>
+          </cell>
+          <cell r="BB64" t="str">
+            <v/>
+          </cell>
+          <cell r="BC64">
+            <v>85</v>
+          </cell>
+          <cell r="BD64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Actor3021m</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>CharLowName_Soldier</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>CharName_Soldier</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>CharStory_Soldier</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v>CharDesc_Soldier</v>
+          </cell>
+          <cell r="G65" t="str">
+            <v>CharUltimate_Soldier</v>
+          </cell>
+          <cell r="H65" t="str">
+            <v>무테이</v>
+          </cell>
+          <cell r="I65" t="str">
+            <v>어린 시절은 평화로웠다. 그런데 점점 청소년기에 들면서 나라가 침략당하고 있다는 사실을 알게 된다. 어른들 말로는 1차 멸망 시 지구상 세 곳에 죽음의 폭풍이라 불리는 인간을 죽이는 거대한 소용돌이가 발생하여 인간이 살 수 있는 땅이 줄어들었고 일부 나라는 몬스터에게 잠식 당해 나라가 사라지는 지경에 이르렀다고 했다. 이에 살아남은 사람들은 난민이 되거나 침략자가 되어서 옆나라와 삶의 터전을 차지하기 위해 싸운다고 했다.
+무테이의 나라는 죽음의 폭풍에서 피해갔지만 주변에 있었던 큰 나라에 폭풍이 발생하면서 꽤 많은 외국인들이 국경의 문을 두드렸고 국제 사회의 관계상 정부가 난민을 일정량 수용하는 조건으로 합의를 보았다고 한다. 고향에 외국인이 들어와 현지인들과의 갈등이 생겨나는 것을 보며 무테이는 힘이 곧 질서라고 생각하게 된다.</v>
+          </cell>
+          <cell r="J65" t="str">
+            <v>빠른 연타 펀치를 날려 가까운 거리의 밀집한 적들을 공격한다.</v>
+          </cell>
+          <cell r="K65" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;스치는 바람처럼&lt;/color&gt;&lt;/size&gt;
+내면의 힘을 발산하여 몸 주변을 일정 시간 흐르게 합니다. 이동 중 적의 공격을 매우 잘 회피할 수 있습니다.</v>
+          </cell>
+          <cell r="L65">
+            <v>0</v>
+          </cell>
+          <cell r="M65">
+            <v>0.93200000000000005</v>
+          </cell>
+          <cell r="N65">
+            <v>0.86899999999999999</v>
+          </cell>
+          <cell r="Q65">
+            <v>0.69199999999999995</v>
+          </cell>
+          <cell r="U65">
+            <v>3.9</v>
+          </cell>
+          <cell r="V65">
+            <v>3</v>
+          </cell>
+          <cell r="W65">
+            <v>135</v>
+          </cell>
+          <cell r="X65">
+            <v>2.9</v>
+          </cell>
+          <cell r="Y65">
+            <v>0</v>
+          </cell>
+          <cell r="Z65">
+            <v>0</v>
+          </cell>
+          <cell r="AA65" t="str">
+            <v>Soldier</v>
+          </cell>
+          <cell r="AC65" t="str">
+            <v>Portrait_Soldier</v>
+          </cell>
+          <cell r="AD65">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="AE65" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF65" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG65" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH65" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI65">
+            <v>-48</v>
+          </cell>
+          <cell r="AK65">
+            <v>0</v>
+          </cell>
+          <cell r="AL65">
+            <v>0</v>
+          </cell>
+          <cell r="AM65">
+            <v>0</v>
+          </cell>
+          <cell r="AN65">
+            <v>0</v>
+          </cell>
+          <cell r="AO65">
+            <v>0</v>
+          </cell>
+          <cell r="AP65">
+            <v>0</v>
+          </cell>
+          <cell r="AQ65">
+            <v>0</v>
+          </cell>
+          <cell r="AR65">
+            <v>0.22420000000000001</v>
+          </cell>
+          <cell r="AS65">
+            <v>0.1492</v>
+          </cell>
+          <cell r="AT65">
+            <v>411</v>
+          </cell>
+          <cell r="AU65">
+            <v>685</v>
+          </cell>
+          <cell r="BB65" t="str">
+            <v/>
+          </cell>
+          <cell r="BC65">
+            <v>85</v>
+          </cell>
+          <cell r="BD65">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Actor3022m</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>CharLowName_DualWarrior</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>CharName_DualWarrior</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>CharStory_DualWarrior</v>
+          </cell>
+          <cell r="F66" t="str">
+            <v>CharDesc_DualWarrior</v>
+          </cell>
+          <cell r="G66" t="str">
+            <v>CharUltimate_DualWarrior</v>
+          </cell>
+          <cell r="H66" t="str">
+            <v>딘즈</v>
+          </cell>
+          <cell r="I66" t="str">
+            <v>결류자나 멸망의 날이란 것은 들어본 적 없는 시골의 소년. 세상은 복잡하고 공부는 어렵다고 생각한다. 좋아하는 건 체력 단련과 검술 수련. 가끔 고향에 들려 용병의 삶에 대해 이야기해주는 동네 아저씨가 검술 수련을 열심히 해두면 고등학교 졸업 후 용병 자리를 소개시켜준다고 한다. 용병이 되어 성공하면 멋진 삶을 살 수 있다는 생각에 부단히 수련 중이다.
+그러던 어느 날 2차 멸망이 발생하고 산자락에서 어마어마한 몬스터 무리가 마을을 덮친다. 검 두 자루에 의존해서 다음날 새벽 동이 틀 때까지 몬스터들을 죽여서 살아남지만 마을은 완전히 초토화되어 있었다. 꿈꾸던 전장이 생각과는 다르다는 걸 느끼며 심란한 마음을 추스르고 생존자 대피소를 향해 이동한다.</v>
+          </cell>
+          <cell r="J66" t="str">
+            <v>무수한 검기를 아무 방향으로 발사하여 둘러쌓은 적들에게 더 큰 위력을 보인다.</v>
+          </cell>
+          <cell r="K66" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;회피, 타격, 결계&lt;/color&gt;&lt;/size&gt;
+자신의 주변으로 결계를 펼칩니다. 결계 안에서는 적의 공격을 일부 회피할 수 있고 더 많은 칼날을 만들어내어 공격할 수 있습니다.</v>
+          </cell>
+          <cell r="L66">
+            <v>0</v>
+          </cell>
+          <cell r="M66">
+            <v>0.95699999999999996</v>
+          </cell>
+          <cell r="N66">
+            <v>0.86199999999999999</v>
+          </cell>
+          <cell r="Q66">
+            <v>0.72799999999999998</v>
+          </cell>
+          <cell r="U66">
+            <v>3</v>
+          </cell>
+          <cell r="V66">
+            <v>3</v>
+          </cell>
+          <cell r="W66">
+            <v>115</v>
+          </cell>
+          <cell r="X66">
+            <v>0</v>
+          </cell>
+          <cell r="Y66">
+            <v>0</v>
+          </cell>
+          <cell r="Z66">
+            <v>0</v>
+          </cell>
+          <cell r="AA66" t="str">
+            <v>DualWarrior</v>
+          </cell>
+          <cell r="AC66" t="str">
+            <v>Portrait_DualWarrior</v>
+          </cell>
+          <cell r="AD66">
+            <v>0.12</v>
+          </cell>
+          <cell r="AE66" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF66" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG66" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH66" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI66">
+            <v>-46</v>
+          </cell>
+          <cell r="AK66">
+            <v>0</v>
+          </cell>
+          <cell r="AL66">
+            <v>0</v>
+          </cell>
+          <cell r="AM66">
+            <v>0</v>
+          </cell>
+          <cell r="AN66">
+            <v>0</v>
+          </cell>
+          <cell r="AO66">
+            <v>0</v>
+          </cell>
+          <cell r="AP66">
+            <v>0</v>
+          </cell>
+          <cell r="AQ66">
+            <v>0</v>
+          </cell>
+          <cell r="AR66">
+            <v>0.23250000000000001</v>
+          </cell>
+          <cell r="AS66">
+            <v>0.14149999999999999</v>
+          </cell>
+          <cell r="AT66">
+            <v>411</v>
+          </cell>
+          <cell r="AU66">
+            <v>685</v>
+          </cell>
+          <cell r="BB66" t="str">
+            <v/>
+          </cell>
+          <cell r="BC66">
+            <v>85</v>
+          </cell>
+          <cell r="BD66">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Actor0024m</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>CharLowName_GloryArmor</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>CharName_GloryArmor</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>CharStory_GloryArmor</v>
+          </cell>
+          <cell r="F67" t="str">
+            <v>CharDesc_GloryArmor</v>
+          </cell>
+          <cell r="G67" t="str">
+            <v>CharUltimate_GloryArmor</v>
+          </cell>
+          <cell r="H67" t="str">
+            <v>러센트</v>
+          </cell>
+          <cell r="I67" t="str">
+            <v>조그만 소도시에 살고 있었던 마법 방어구를 만들던 장인 아저씨. 젊었던 시절 발생한 1차 멸망 시기에 마을은 꽤 큰 피해를 입었다. 하지만 그의 옆집은 마법 무기를 만들던 집안이었고, 그의 앞집은 마법 소모품을 만들던 집안이었다. 바로 여기는 장인의 마을이었고 그렇게 마을 사람들은 중장비를 쉽게 확보했다. 이후 각 집안의 싸울 수 있는 사람들이 모여 중무장하고 자경단을 만들어 마물들을 내쫓고 마을을 재건한다.
+그렇게 평화가 오래 유지될 수 있었던 어느 날 2차 멸망이 발생하게 된다. 이제는 중년의 연배가 된 주민들은 다시 모여 논의를 하고 마을을 지켜내는 것만으로는 이 싸움을 끝낼 수 없다 생각하여 외부와 협력하기 위해 러센트를 보낸다.</v>
+          </cell>
+          <cell r="J67" t="str">
+            <v>첫 공격은 작은 폭발을 일으키는 검기를 날린다. 연이어 날리는 검기는 단일 개체에게 강력한 데미지를 입힌다.</v>
+          </cell>
+          <cell r="K67" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;허리케인 스윙&lt;/color&gt;&lt;/size&gt;
+한 바퀴 돌며 점프하여 거대한 돌풍을 만들어냅니다. 점프 중에는 공격에 맞지 않습니다. 돌풍은 적의 총알을 제거하며 적에게 피해를 줍니다.</v>
+          </cell>
+          <cell r="L67">
+            <v>0</v>
+          </cell>
+          <cell r="M67">
+            <v>0.98099999999999998</v>
+          </cell>
+          <cell r="N67">
+            <v>0.83399999999999996</v>
+          </cell>
+          <cell r="Q67">
+            <v>0.78600000000000003</v>
+          </cell>
+          <cell r="U67">
+            <v>3.4</v>
+          </cell>
+          <cell r="V67">
+            <v>0</v>
+          </cell>
+          <cell r="W67">
+            <v>90</v>
+          </cell>
+          <cell r="X67">
+            <v>6.8</v>
+          </cell>
+          <cell r="Y67">
+            <v>0</v>
+          </cell>
+          <cell r="Z67">
+            <v>0</v>
+          </cell>
+          <cell r="AA67" t="str">
+            <v>GloryArmor</v>
+          </cell>
+          <cell r="AC67" t="str">
+            <v>Portrait_GloryArmor</v>
+          </cell>
+          <cell r="AD67">
+            <v>0.25</v>
+          </cell>
+          <cell r="AE67" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF67" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG67" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH67" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI67">
+            <v>-56</v>
+          </cell>
+          <cell r="AK67">
+            <v>0</v>
+          </cell>
+          <cell r="AL67">
+            <v>0</v>
+          </cell>
+          <cell r="AM67">
+            <v>0</v>
+          </cell>
+          <cell r="AN67">
+            <v>0</v>
+          </cell>
+          <cell r="AO67">
+            <v>0</v>
+          </cell>
+          <cell r="AP67">
+            <v>0</v>
+          </cell>
+          <cell r="AQ67">
+            <v>0</v>
+          </cell>
+          <cell r="AR67">
+            <v>0.23449999999999999</v>
+          </cell>
+          <cell r="AS67">
+            <v>0.13450000000000001</v>
+          </cell>
+          <cell r="AT67">
+            <v>411</v>
+          </cell>
+          <cell r="AU67">
+            <v>685</v>
+          </cell>
+          <cell r="BB67" t="str">
+            <v/>
+          </cell>
+          <cell r="BC67">
+            <v>85</v>
+          </cell>
+          <cell r="BD67">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Actor0125m</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>CharLowName_RpgKnight</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>CharName_RpgKnight</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>CharStory_RpgKnight</v>
+          </cell>
+          <cell r="F68" t="str">
+            <v>CharDesc_RpgKnight</v>
+          </cell>
+          <cell r="G68" t="str">
+            <v>CharUltimate_RpgKnight</v>
+          </cell>
+          <cell r="H68" t="str">
+            <v>프리스</v>
+          </cell>
+          <cell r="I68" t="str">
+            <v>마법협회 2년차 성실과 열정이 가득한 노력파 요원. 협회에서 근접 전투를 일반적으로 권장하지 않지만 마법을 부여 받은 갑옷과 검을 활용하는 능력이 탁월하여 이를 제공 받아 싸우고 있다.
+천재 소리는 못 들었지만 적당히 마법에 소질이 있다고 생각했는데 협회에 와보니 마법을 잘 쓰는 사람들이 너무나 많다. 고향 친구들을 만나면 마법 협회의 살아있는 전설인 시리아와 함께 최전방에서 싸운다고 거짓말한다. 언젠가 같이 전장에 설 수 있을거라고 생각한다.
+그러던 중 긴급 소집이 생겨서 가니 수많은 마물들이 있고 이를 섬멸하라는 지시가 온다. 밤을 새며 끝없는 전투를 하던 도중 정보를 듣게 되는데 이 전투는 시선을 돌리기 위한 술책이라 한다. 진짜 목표는 제2의 결류자였고 현재까지 마법협회의 최고 요원들이 막으려 했지만 결국 융합 마법의 시전을 막지 못 했다고 한다. 곧이어 마물들 뒤로 죽음의 폭풍이 발생하며 퇴각 신호가 울린다.</v>
+          </cell>
+          <cell r="J68" t="str">
+            <v>근거리의 적을 강력하게 베어내고 주변의 적에게 파장이 흘러가도록 한다. 실체가 없는 적까지 공격할 수 있다.</v>
+          </cell>
+          <cell r="K68" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;염화의 회오리&lt;/color&gt;&lt;/size&gt;
+발사체를 제거하는 돌개바람을 주변에 발생시킵니다.</v>
+          </cell>
+          <cell r="L68">
+            <v>1</v>
+          </cell>
+          <cell r="M68">
+            <v>1.016</v>
+          </cell>
+          <cell r="N68">
+            <v>1.054</v>
+          </cell>
+          <cell r="Q68">
+            <v>0.752</v>
+          </cell>
+          <cell r="U68">
+            <v>3.7</v>
+          </cell>
+          <cell r="V68">
+            <v>0</v>
+          </cell>
+          <cell r="W68">
+            <v>125</v>
+          </cell>
+          <cell r="X68">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="Y68">
+            <v>0</v>
+          </cell>
+          <cell r="Z68">
+            <v>0</v>
+          </cell>
+          <cell r="AA68" t="str">
+            <v>RpgKnight</v>
+          </cell>
+          <cell r="AC68" t="str">
+            <v>Portrait_RpgKnight</v>
+          </cell>
+          <cell r="AD68">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE68" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF68" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG68" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AH68" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI68">
+            <v>-77</v>
+          </cell>
+          <cell r="AK68">
+            <v>0</v>
+          </cell>
+          <cell r="AL68">
+            <v>0</v>
+          </cell>
+          <cell r="AM68">
+            <v>0</v>
+          </cell>
+          <cell r="AN68">
+            <v>0</v>
+          </cell>
+          <cell r="AO68">
+            <v>0</v>
+          </cell>
+          <cell r="AP68">
+            <v>0</v>
+          </cell>
+          <cell r="AQ68">
+            <v>0</v>
+          </cell>
+          <cell r="AR68">
+            <v>0.27010000000000001</v>
+          </cell>
+          <cell r="AS68">
+            <v>0.15110000000000001</v>
+          </cell>
+          <cell r="AT68">
+            <v>325</v>
+          </cell>
+          <cell r="AU68">
+            <v>604</v>
+          </cell>
+          <cell r="BB68" t="str">
+            <v/>
+          </cell>
+          <cell r="BC68">
+            <v>85</v>
+          </cell>
+          <cell r="BD68">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Actor1226m</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>CharLowName_DemonHuntress</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>CharName_DemonHuntress</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>CharStory_DemonHuntress</v>
+          </cell>
+          <cell r="F69" t="str">
+            <v>CharDesc_DemonHuntress</v>
+          </cell>
+          <cell r="G69" t="str">
+            <v>CharUltimate_DemonHuntress</v>
+          </cell>
+          <cell r="H69" t="str">
+            <v>엘리미나</v>
+          </cell>
+          <cell r="I69" t="str">
+            <v>용병업계의 전설. 기초적인 마법 하나 사용할 줄 모르지만 타고난 크로스보우 실력과 기계국가의 암시장에서 흘러들어온 무기들로 전투에 임한다. 1차 멸망 이후 발생한 마물 지대에서 마법사와 기공 쓰는 사람들이 겁 없이 덤벼 돌아오지 못 할 때마다 홀로 들어가 성공적으로 마물들을 쓰러뜨렸다.
+단지 돈을 위해 마물 소탕을 하는 것처럼 보이지만 실은 연인을 찾고 있다. 마생물학 연구자였던 연인은 미친 동료 연구자의 신규 마물을 창조해보려는 호기심으로 실험의 대상이 되어 성인 5명분의 몸무게와 맞먹는 거구 마물의 일부가 되었다. 연인은 의식이 그대로 살아있지만 몸을 제어할 수 없어서 괴물과 하나가 된 채로 떠돌아 다닌다고 한다. 이 괴물을 찾아 포획하기 위해 용병생활을 계속한다. 한편, 미친 동료 연구자는 사적 제재로 행방 불명된 상태라는 루머가 있다.</v>
+          </cell>
+          <cell r="J69" t="str">
+            <v>특수한 크로스보우를 사용하여 적을 추적하는 볼트를 발사한다. 적을 명중할 때마다 데미지가 강해진다.</v>
+          </cell>
+          <cell r="K69" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;망자에게 주는 선물&lt;/color&gt;&lt;/size&gt;
+하늘로부터 검정색 관을 내리꽂아 강력한 데미지를 줍니다. 관을 맞춰서 크로스보우로 발사한 볼트가 적을 추적하게 할 수 있습니다.</v>
+          </cell>
+          <cell r="L69">
+            <v>2</v>
+          </cell>
+          <cell r="M69">
+            <v>1.139</v>
+          </cell>
+          <cell r="N69">
+            <v>1.1479999999999999</v>
+          </cell>
+          <cell r="Q69">
+            <v>0.71499999999999997</v>
+          </cell>
+          <cell r="U69">
+            <v>3.5</v>
+          </cell>
+          <cell r="V69">
+            <v>1</v>
+          </cell>
+          <cell r="W69">
+            <v>75</v>
+          </cell>
+          <cell r="X69">
+            <v>3.9</v>
+          </cell>
+          <cell r="Y69">
+            <v>0</v>
+          </cell>
+          <cell r="Z69">
+            <v>0</v>
+          </cell>
+          <cell r="AA69" t="str">
+            <v>DemonHuntress</v>
+          </cell>
+          <cell r="AC69" t="str">
+            <v>Portrait_DemonHuntress</v>
+          </cell>
+          <cell r="AD69">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE69" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF69" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG69" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH69" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI69">
+            <v>-93</v>
+          </cell>
+          <cell r="AK69">
+            <v>6</v>
+          </cell>
+          <cell r="AL69">
+            <v>0</v>
+          </cell>
+          <cell r="AM69">
+            <v>0</v>
+          </cell>
+          <cell r="AN69">
+            <v>0</v>
+          </cell>
+          <cell r="AO69">
+            <v>0</v>
+          </cell>
+          <cell r="AP69">
+            <v>0</v>
+          </cell>
+          <cell r="AQ69">
+            <v>0</v>
+          </cell>
+          <cell r="AR69">
+            <v>0.33050000000000002</v>
+          </cell>
+          <cell r="AS69">
+            <v>0.1978</v>
+          </cell>
+          <cell r="AT69">
+            <v>289</v>
+          </cell>
+          <cell r="AU69">
+            <v>521</v>
+          </cell>
+          <cell r="BB69" t="str">
+            <v>BGM_DemonHuntress</v>
+          </cell>
+          <cell r="BC69">
+            <v>85</v>
+          </cell>
+          <cell r="BD69">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Actor2128m</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>CharLowName_MobileFemale</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>CharName_MobileFemale</v>
+          </cell>
+          <cell r="E70" t="str">
+            <v>CharStory_MobileFemale</v>
+          </cell>
+          <cell r="F70" t="str">
+            <v>CharDesc_MobileFemale</v>
+          </cell>
+          <cell r="G70" t="str">
+            <v>CharUltimate_MobileFemale</v>
+          </cell>
+          <cell r="H70" t="str">
+            <v>원더</v>
+          </cell>
+          <cell r="I70" t="str">
+            <v>실험실에서 인형 같은 신체로 변한 자기 자신을 깨닫고 눈을 떴다. 그와 함께 몸에 깃든 자연의 힘도 깨달았다. 별의 힘이 느껴지며 그 힘을 실체화할 수 있게 된 듯 하다.
+자신에 대한 기억이 혼재되어 어디까지가 자신의 기억인지 알 수가 없다. 전에 이런 뉴스를 본 것 같은데 이상 성욕을 가진 자들에게 팔아넘기기 위해 불법적인 신체 변형이 이루어지고 이 과정에서 실험체는 역행성 기억 상실을 겪을 수 있다고 했다. 자신이 그 대상이 된 것이라 추정하며 실험실을 탈출하려 하는데 복도로 나오자 건물은 이미 반쯤 부서져 있고 밖은 마물로 가득하다. 모서리가 부서진 TV에 새로운 결류자로 인한 2차 멸망 위기라는 자막이 떠 있다.</v>
+          </cell>
+          <cell r="J70" t="str">
+            <v>빛나는 별을 쏘아 적들을 추적하게 한다. 별은 느리게 움직이지만 다수의 적을 명중할 수 있다.</v>
+          </cell>
+          <cell r="K70" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;극한의 온도&lt;/color&gt;&lt;/size&gt;
+주변에 존재하는 수분의 에너지를 흡수하여 온도를 떨어뜨립니다. 적들은 이동 속도가 느려집니다.</v>
+          </cell>
+          <cell r="L70">
+            <v>1</v>
+          </cell>
+          <cell r="M70">
+            <v>0.92500000000000004</v>
+          </cell>
+          <cell r="N70">
+            <v>0.95899999999999996</v>
+          </cell>
+          <cell r="Q70">
+            <v>0.76700000000000002</v>
+          </cell>
+          <cell r="U70">
+            <v>3</v>
+          </cell>
+          <cell r="V70">
+            <v>2</v>
+          </cell>
+          <cell r="W70">
+            <v>90</v>
+          </cell>
+          <cell r="X70">
+            <v>5.5</v>
+          </cell>
+          <cell r="Y70">
+            <v>0</v>
+          </cell>
+          <cell r="Z70">
+            <v>0</v>
+          </cell>
+          <cell r="AA70" t="str">
+            <v>MobileFemale</v>
+          </cell>
+          <cell r="AC70" t="str">
+            <v>Portrait_MobileFemale</v>
+          </cell>
+          <cell r="AD70">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE70" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF70" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG70" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH70" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI70">
+            <v>-71</v>
+          </cell>
+          <cell r="AK70">
+            <v>0</v>
+          </cell>
+          <cell r="AL70">
+            <v>0</v>
+          </cell>
+          <cell r="AM70">
+            <v>0</v>
+          </cell>
+          <cell r="AN70">
+            <v>0</v>
+          </cell>
+          <cell r="AO70">
+            <v>0</v>
+          </cell>
+          <cell r="AP70">
+            <v>0</v>
+          </cell>
+          <cell r="AQ70">
+            <v>0</v>
+          </cell>
+          <cell r="AR70">
+            <v>0.28160000000000002</v>
+          </cell>
+          <cell r="AS70">
+            <v>0.16539999999999999</v>
+          </cell>
+          <cell r="AT70">
+            <v>325</v>
+          </cell>
+          <cell r="AU70">
+            <v>604</v>
+          </cell>
+          <cell r="BB70" t="str">
+            <v/>
+          </cell>
+          <cell r="BC70">
+            <v>85</v>
+          </cell>
+          <cell r="BD70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Actor1029m</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>CharLowName_CyborgCharacter</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>CharName_CyborgCharacter</v>
+          </cell>
+          <cell r="E71" t="str">
+            <v>CharStory_CyborgCharacter</v>
+          </cell>
+          <cell r="F71" t="str">
+            <v>CharDesc_CyborgCharacter</v>
+          </cell>
+          <cell r="G71" t="str">
+            <v>CharUltimate_CyborgCharacter</v>
+          </cell>
+          <cell r="H71" t="str">
+            <v>에이잭</v>
+          </cell>
+          <cell r="I71" t="str">
+            <v>과거 좋지 않은 일들에 몸을 담았다가 그룹 간의 이해관계로 큰 싸움을 벌인 후 싸움을 말리던 아내를 잃을 뻔 했지만 아내를 가까스로 구하고 자신의 한쪽 팔과 다리를 잃었다. 북쪽의 기계 국가로 가서 생체 의수 기술로 팔과 다리를 얻은 후 과거를 청산하고 새 삶을 살고 있었다.
+그러던 도중 2차 멸망의 날이 오고 도시는 혼란스러워지고 전력과 통신은 끊기게 되는데 아내와 연락이 되지를 않는다. 며칠간 폐허가 되어가는 도시를 돌아다녔지만 아내의 행방을 알 수 없어 옛 동료를 찾아가 정보를 모으려 한다.</v>
+          </cell>
+          <cell r="J71" t="str">
+            <v>전기를 흘려보내 명중한 후 한 번 더 적을 추적하여 공격한다.</v>
+          </cell>
+          <cell r="K71" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;육각탑 생성&lt;/color&gt;&lt;/size&gt;
+적이 넘어다닐 수 없는 육각탑을 일정 시간 설치합니다. 육각탑 너머로 총알들은 지나다닐 수 있습니다.</v>
+          </cell>
+          <cell r="L71">
+            <v>0</v>
+          </cell>
+          <cell r="M71">
+            <v>0.88300000000000001</v>
+          </cell>
+          <cell r="N71">
+            <v>0.79400000000000004</v>
+          </cell>
+          <cell r="Q71">
+            <v>0.77100000000000002</v>
+          </cell>
+          <cell r="U71">
+            <v>3.5</v>
+          </cell>
+          <cell r="V71">
+            <v>1</v>
+          </cell>
+          <cell r="W71">
+            <v>135</v>
+          </cell>
+          <cell r="X71">
+            <v>0</v>
+          </cell>
+          <cell r="Y71">
+            <v>0</v>
+          </cell>
+          <cell r="Z71">
+            <v>0</v>
+          </cell>
+          <cell r="AA71" t="str">
+            <v>CyborgCharacter</v>
+          </cell>
+          <cell r="AC71" t="str">
+            <v>Portrait_CyborgCharacter</v>
+          </cell>
+          <cell r="AD71">
+            <v>0.15</v>
+          </cell>
+          <cell r="AE71" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF71" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG71" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH71" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI71">
+            <v>-54</v>
+          </cell>
+          <cell r="AK71">
+            <v>0</v>
+          </cell>
+          <cell r="AL71">
+            <v>0</v>
+          </cell>
+          <cell r="AM71">
+            <v>0</v>
+          </cell>
+          <cell r="AN71">
+            <v>0</v>
+          </cell>
+          <cell r="AO71">
+            <v>0</v>
+          </cell>
+          <cell r="AP71">
+            <v>0</v>
+          </cell>
+          <cell r="AQ71">
+            <v>0</v>
+          </cell>
+          <cell r="AR71">
+            <v>0.2049</v>
+          </cell>
+          <cell r="AS71">
+            <v>0.1424</v>
+          </cell>
+          <cell r="AT71">
+            <v>411</v>
+          </cell>
+          <cell r="AU71">
+            <v>685</v>
+          </cell>
+          <cell r="BB71" t="str">
+            <v/>
+          </cell>
+          <cell r="BC71">
+            <v>85</v>
+          </cell>
+          <cell r="BD71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Actor0030m</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>CharLowName_SandWarrior</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>CharName_SandWarrior</v>
+          </cell>
+          <cell r="E72" t="str">
+            <v>CharStory_SandWarrior</v>
+          </cell>
+          <cell r="F72" t="str">
+            <v>CharDesc_SandWarrior</v>
+          </cell>
+          <cell r="G72" t="str">
+            <v>CharUltimate_SandWarrior</v>
+          </cell>
+          <cell r="H72" t="str">
+            <v>도스로프</v>
+          </cell>
+          <cell r="I72" t="str">
+            <v>가정에 소홀히 하는 아버지와 무기력한 어머니 아래에서 불우한 어린 시절을 보냈으나 항상 유쾌함을 잃지 않으려 노력했다. 1차 멸망 시기 고향이 폐허가 되어서 도시로 나와 자립하기 시작했는데 길거리 잡상인부터 공사장 인부 등 안 해본 일이 없었다.
+그러던 중 길거리에서 간단한 마법을 사용해 아이들을 웃겨주고 있는 광대를 만나 인형탈을 써보라고 권유받는데 인형 대신 중세 헬멧을 쓰고 처음으로 무대 앞에 서보았다. 이때 웃어준 아이들의 모습을 보고 반해 광대와 친해지게 되었고 광대는 그의 정신적 지주가 된다.
+광대는 실은 1차 멸망 시기부터 전장에서 구르다 끝없는 전투에 지쳐 남은 생은 웃으면서 보내고자 은퇴하고 나온 대마법사였고 도스로프에게 즐기는 사람에게 힘은 온다며 특이한 마법들을 가르쳐준다. 제2차 멸망이 발생하자 더 많은 사람들을 도우라며 도스로프를 대피소로 떠나보낸다.</v>
+          </cell>
+          <cell r="J72" t="str">
+            <v>강력한 검은 구슬 두 개를 아무 방향으로 던져 사방에 튕기도록 한다. 시간이 지날수록 조금씩 더 빨라진다.</v>
+          </cell>
+          <cell r="K72" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;마지막 카드&lt;/color&gt;&lt;/size&gt;
+최대 3명의 랜덤한 적에게 하늘로부터 빛 기둥을 내려보내 강력한 데미지를 입힙니다.</v>
+          </cell>
+          <cell r="L72">
+            <v>0</v>
+          </cell>
+          <cell r="M72">
+            <v>0.85499999999999998</v>
+          </cell>
+          <cell r="N72">
+            <v>0.90500000000000003</v>
+          </cell>
+          <cell r="Q72">
+            <v>0.74199999999999999</v>
+          </cell>
+          <cell r="U72">
+            <v>3.5</v>
+          </cell>
+          <cell r="V72">
+            <v>0</v>
+          </cell>
+          <cell r="W72">
+            <v>105</v>
+          </cell>
+          <cell r="X72">
+            <v>0</v>
+          </cell>
+          <cell r="Y72">
+            <v>0</v>
+          </cell>
+          <cell r="Z72">
+            <v>0</v>
+          </cell>
+          <cell r="AA72" t="str">
+            <v>SandWarrior</v>
+          </cell>
+          <cell r="AC72" t="str">
+            <v>Portrait_SandWarrior</v>
+          </cell>
+          <cell r="AD72">
+            <v>0.15</v>
+          </cell>
+          <cell r="AE72" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF72" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG72" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH72" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI72">
+            <v>-58</v>
+          </cell>
+          <cell r="AK72">
+            <v>0</v>
+          </cell>
+          <cell r="AL72">
+            <v>0</v>
+          </cell>
+          <cell r="AM72">
+            <v>0</v>
+          </cell>
+          <cell r="AN72">
+            <v>0</v>
+          </cell>
+          <cell r="AO72">
+            <v>0</v>
+          </cell>
+          <cell r="AP72">
+            <v>0</v>
+          </cell>
+          <cell r="AQ72">
+            <v>0</v>
+          </cell>
+          <cell r="AR72">
+            <v>0.2331</v>
+          </cell>
+          <cell r="AS72">
+            <v>0.12820000000000001</v>
+          </cell>
+          <cell r="AT72">
+            <v>411</v>
+          </cell>
+          <cell r="AU72">
+            <v>685</v>
+          </cell>
+          <cell r="BB72" t="str">
+            <v/>
+          </cell>
+          <cell r="BC72">
+            <v>85</v>
+          </cell>
+          <cell r="BD72">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Actor3231m</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>CharLowName_BladeFanDancer</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>CharName_BladeFanDancer</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>CharStory_BladeFanDancer</v>
+          </cell>
+          <cell r="F73" t="str">
+            <v>CharDesc_BladeFanDancer</v>
+          </cell>
+          <cell r="G73" t="str">
+            <v>CharUltimate_BladeFanDancer</v>
+          </cell>
+          <cell r="H73" t="str">
+            <v>라무무</v>
+          </cell>
+          <cell r="I73" t="str">
+            <v>20여년 전, 1차 멸망이 발생할 때 여동생이 크게 다쳤다. 의식을 잃은 여동생은 이미 생명이 꺼져가기 직전. 피도 너무 많이 흘린 상황이라 옮길 수도 없어 불완전하게 배운 융합마법으로 여동생을 부채 안에 봉인한다. 급조된 융합마법의 균열로 인해 봉인 해제의 키를 재구축할 수 없어 이를 해결하기 위해 답을 찾아 다녔다.
+뛰어난 기공 실력으로 잊혀진 집단의 연락책으로 일하고 있었다. 그러던 중 2차 멸망의 전조를 미리 알아차렸으나 여동생을 살리기 위해 죽음의 폭풍에서 발생하는 에너지를 사용해야한다는 사실을 깨닫고 이를 발생하도록 내버려둔다. 20여년만에 재회한 동생을 회복실에 두고 자신이 방관했던 일을 수습하고자 전선으로 뛰어든다.</v>
+          </cell>
+          <cell r="J73" t="str">
+            <v>땅을 가르는 장판 공격과 바람으로 밀어내는 공격을 사용한다. 적이 매우 가까이 있으면 바람으로 밀어내는 공격을 사용하여 거리를 벌리게 하고, 떨어져 있는 적에게는 강력한 장판 공격을 한다.</v>
+          </cell>
+          <cell r="K73" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;불타는 부적&lt;/color&gt;&lt;/size&gt;
+응축된 힘을 폭발시켜 주변에게 큰 피해를 입힙니다. 이후 불타는 부적을 일정 시간 몸에 두르게 하여 주변에 지속적인 피해를 줍니다.</v>
+          </cell>
+          <cell r="L73">
+            <v>2</v>
+          </cell>
+          <cell r="M73">
+            <v>1.151</v>
+          </cell>
+          <cell r="N73">
+            <v>1.159</v>
+          </cell>
+          <cell r="Q73">
+            <v>0.79300000000000004</v>
+          </cell>
+          <cell r="U73">
+            <v>3.5</v>
+          </cell>
+          <cell r="V73">
+            <v>3</v>
+          </cell>
+          <cell r="W73">
+            <v>195</v>
+          </cell>
+          <cell r="X73">
+            <v>6.5</v>
+          </cell>
+          <cell r="Y73">
+            <v>0</v>
+          </cell>
+          <cell r="Z73">
+            <v>0</v>
+          </cell>
+          <cell r="AA73" t="str">
+            <v>BladeFanDancer</v>
+          </cell>
+          <cell r="AC73" t="str">
+            <v>Portrait_BladeFanDancer</v>
+          </cell>
+          <cell r="AD73">
+            <v>0</v>
+          </cell>
+          <cell r="AE73" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF73" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AG73" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH73" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI73">
+            <v>-89</v>
+          </cell>
+          <cell r="AK73">
+            <v>0</v>
+          </cell>
+          <cell r="AL73">
+            <v>0</v>
+          </cell>
+          <cell r="AM73">
+            <v>0</v>
+          </cell>
+          <cell r="AN73">
+            <v>0</v>
+          </cell>
+          <cell r="AO73">
+            <v>0</v>
+          </cell>
+          <cell r="AP73">
+            <v>0</v>
+          </cell>
+          <cell r="AQ73">
+            <v>0</v>
+          </cell>
+          <cell r="AR73">
+            <v>0.34989999999999999</v>
+          </cell>
+          <cell r="AS73">
+            <v>0.17780000000000001</v>
+          </cell>
+          <cell r="AT73">
+            <v>289</v>
+          </cell>
+          <cell r="AU73">
+            <v>521</v>
+          </cell>
+          <cell r="BB73" t="str">
+            <v>BGM_BladeFanDancer</v>
+          </cell>
+          <cell r="BC73">
+            <v>85</v>
+          </cell>
+          <cell r="BD73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>Actor0233m</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>CharLowName_Syria</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>CharName_Syria</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>CharStory_Syria</v>
+          </cell>
+          <cell r="F74" t="str">
+            <v>CharDesc_Syria</v>
+          </cell>
+          <cell r="G74" t="str">
+            <v>CharUltimate_Syria</v>
+          </cell>
+          <cell r="H74" t="str">
+            <v>시리아</v>
+          </cell>
+          <cell r="I74" t="str">
+            <v>결류자의 1차 멸망 시도가 있은 후 대략 13년 후부터 지금까지 마물 지대에 투입되어 마물들을 쓸어온 마법 협회 소속 베테랑 마법전사로 입지가 상당히 두텁다. 멸망 직후 인력 부족으로 능력이 매우 뛰어나면 소년소녀병이라 할지라도 협회에 들어갈 수 있었던 시절이 있었기 때문에 10대에 들어왔다는 것 자체가 이미 어린 시절 성인들의 능력을 한참 뛰어넘었다는 것을 말해준다. 고아로 태어나 협회에서 자랐기 때문에 마법 협회는 소녀에게 하나밖에 없는 집이자 보호막이 되었다.
+2차 멸망의 날, 결류자 무리를 쫓던 시리아와 그녀의 부대원은 마법 협회 내에 배신자가 있음을 깨닫고 추적한다. 협회 회장을 노리고 있다는 첩보에 따라 회장이 있을 지역으로 이동하지만 실상 결류자 무리가 노린 것은 시리아였다. 목적지에 도착하는 순간 죽음의 폭풍이 발생하며 시리아와 부대원들을 집어삼킨다. 부대원들의 시체 앞에서 마법 협회에 뿌리 내린 배신자들을 숙청하고자 다짐한다.</v>
+          </cell>
+          <cell r="J74" t="str">
+            <v>적을 조우하거나 근거리에서 적을 베면 일정 시간 검이 불길에 휩싸이며 강력한 힘이 깃든다. 검이 불에 휩싸이면 적의 발사체를 부술 수 있고 이 때 추가타로 매우 강력한 화염구를 던진다.</v>
+          </cell>
+          <cell r="K74" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;선봉장의 맹습&lt;/color&gt;&lt;/size&gt;
+검으로부터 마법의 힘을 이끌어내어 보호막을 만들어냅니다. 일정 시간 동안 무적이 되고 이후 보호막을 터뜨려 주변의 적들을 기절시킵니다.</v>
+          </cell>
+          <cell r="L74">
+            <v>2</v>
+          </cell>
+          <cell r="M74">
+            <v>1.165</v>
+          </cell>
+          <cell r="N74">
+            <v>1.1080000000000001</v>
+          </cell>
+          <cell r="Q74">
+            <v>0.747</v>
+          </cell>
+          <cell r="U74">
+            <v>4</v>
+          </cell>
+          <cell r="V74">
+            <v>0</v>
+          </cell>
+          <cell r="W74">
+            <v>155</v>
+          </cell>
+          <cell r="X74">
+            <v>2.1</v>
+          </cell>
+          <cell r="Y74">
+            <v>0</v>
+          </cell>
+          <cell r="Z74">
+            <v>2.8</v>
+          </cell>
+          <cell r="AA74" t="str">
+            <v>Syria</v>
+          </cell>
+          <cell r="AC74" t="str">
+            <v>Portrait_Syria</v>
+          </cell>
+          <cell r="AD74">
+            <v>0</v>
+          </cell>
+          <cell r="AE74" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF74" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG74" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH74" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI74">
+            <v>-96</v>
+          </cell>
+          <cell r="AK74">
+            <v>5</v>
+          </cell>
+          <cell r="AL74">
+            <v>0</v>
+          </cell>
+          <cell r="AM74">
+            <v>0</v>
+          </cell>
+          <cell r="AN74">
+            <v>0</v>
+          </cell>
+          <cell r="AO74">
+            <v>0</v>
+          </cell>
+          <cell r="AP74">
+            <v>0</v>
+          </cell>
+          <cell r="AQ74">
+            <v>0</v>
+          </cell>
+          <cell r="AR74">
+            <v>0.3049</v>
+          </cell>
+          <cell r="AS74">
+            <v>0.1883</v>
+          </cell>
+          <cell r="AT74">
+            <v>289</v>
+          </cell>
+          <cell r="AU74">
+            <v>521</v>
+          </cell>
+          <cell r="BB74" t="str">
+            <v>BGM_Syria</v>
+          </cell>
+          <cell r="BC74">
+            <v>85</v>
+          </cell>
+          <cell r="BD74">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Actor2235m</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>CharLowName_Linhi</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>CharName_Linhi</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>CharStory_Linhi</v>
+          </cell>
+          <cell r="F75" t="str">
+            <v>CharDesc_Linhi</v>
+          </cell>
+          <cell r="G75" t="str">
+            <v>CharUltimate_Linhi</v>
+          </cell>
+          <cell r="H75" t="str">
+            <v>린하이</v>
+          </cell>
+          <cell r="I75" t="str">
+            <v>결류자를 신봉하는 어머니 아래에서 자랐다. 10대가 되면서 서서히 대지의 힘을 이용하여 물체를 경질화 할 수 있는 능력을 깨닫기 시작했다. 어머니께 물으니 1차 멸망 당시 돌아가신 아버지가 특수한 힘을 가졌으며 모든 인간의 죄를 없애기 위해 결류자의 길을 따랐다고 한다. 어린 린하이는 그 의지를 받들어 열심히 훈련하며 성장하고 마침내 결류자 무리와 접촉하여 비살상 임무들을 해나갔다.
+그러던 중 아버지에 대한 궁금증이 들어 기록을 찾아보지만 전혀 흔적을 찾을 수 없었다. 어머니가 무언가를 숨기는 듯 한 것을 눈치채고 본인의 출생의 기록을 찾기 시작한지 어언 1년, 잠입한 연구소의 내부 구조가 어렴풋하게 어린 시절 봤던 것임을 깨닫는다. 그리고 연구소의 과거 문서들에서 자신의 어릴 적 사진과 실험체 번호를 발견한다. 충격을 받은 린하이는 어머니를 집요하게 추궁하고 자신의 과거 얘기를 듣게 된다. 양어머니는 린하이가 본인은 이루지 못 한 꿈인 결류자의 길을 걷기를 바랬으며 전쟁 병기로 태어난 실험체 소녀인 자신을 입양한 것이었다. 린하이는 삶이 무너져내리는 절망감을 느끼며 몰래 짐을 챙겨 집을 나온다.</v>
+          </cell>
+          <cell r="J75" t="str">
+            <v>대자연의 힘이 깃든 창을 던진다. 창의 궤적에 있는 적들은 이 공격은 회피할 수 없다.</v>
+          </cell>
+          <cell r="K75" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;거대 정령 소환&lt;/color&gt;&lt;/size&gt;
+거대한 바위 정령을 불러냅니다. 정령은 적의 총알을 막을 수 있고 적들에게 강력한 데미지를 입힙니다. 정령이 적을 타격하면 린하이는 일정량 HP를 회복합니다.</v>
+          </cell>
+          <cell r="L75">
+            <v>2</v>
+          </cell>
+          <cell r="M75">
+            <v>1.0820000000000001</v>
+          </cell>
+          <cell r="N75">
+            <v>1.0209999999999999</v>
+          </cell>
+          <cell r="Q75">
+            <v>0.92300000000000004</v>
+          </cell>
+          <cell r="U75">
+            <v>3.2</v>
+          </cell>
+          <cell r="V75">
+            <v>2</v>
+          </cell>
+          <cell r="W75">
+            <v>170</v>
+          </cell>
+          <cell r="X75">
+            <v>0</v>
+          </cell>
+          <cell r="Y75">
+            <v>0</v>
+          </cell>
+          <cell r="Z75">
+            <v>0</v>
+          </cell>
+          <cell r="AA75" t="str">
+            <v>Linhi</v>
+          </cell>
+          <cell r="AC75" t="str">
+            <v>Portrait_Linhi</v>
+          </cell>
+          <cell r="AD75">
+            <v>0.2</v>
+          </cell>
+          <cell r="AE75" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF75" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG75" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH75" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI75">
+            <v>-91</v>
+          </cell>
+          <cell r="AK75">
+            <v>4</v>
+          </cell>
+          <cell r="AL75">
+            <v>0</v>
+          </cell>
+          <cell r="AM75">
+            <v>0</v>
+          </cell>
+          <cell r="AN75">
+            <v>0</v>
+          </cell>
+          <cell r="AO75">
+            <v>0</v>
+          </cell>
+          <cell r="AP75">
+            <v>0</v>
+          </cell>
+          <cell r="AQ75">
+            <v>0</v>
+          </cell>
+          <cell r="AR75">
+            <v>0.34939999999999999</v>
+          </cell>
+          <cell r="AS75">
+            <v>0.1822</v>
+          </cell>
+          <cell r="AT75">
+            <v>289</v>
+          </cell>
+          <cell r="AU75">
+            <v>521</v>
+          </cell>
+          <cell r="BB75" t="str">
+            <v>BGM_Linhi</v>
+          </cell>
+          <cell r="BC75">
+            <v>85</v>
+          </cell>
+          <cell r="BD75">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Actor0236m</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>CharLowName_NecromancerFour</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>CharName_NecromancerFour</v>
+          </cell>
+          <cell r="E76" t="str">
+            <v>CharStory_NecromancerFour</v>
+          </cell>
+          <cell r="F76" t="str">
+            <v>CharDesc_NecromancerFour</v>
+          </cell>
+          <cell r="G76" t="str">
+            <v>CharUltimate_NecromancerFour</v>
+          </cell>
+          <cell r="H76" t="str">
+            <v>나인</v>
+          </cell>
+          <cell r="I76" t="str">
+            <v>3년차 마법 협회 회원이지만 마법 협회 내 최초라는 수식어가 붙는 각종 기록들을 대부분 갈아치운 천재 소년. 17세의 나이로 현재 협회 내 유일한 미성년자이기도 하다. 남들은 상상에 그치는 기술을 구현하여 협회에 제공하는 연구가이자 실전 전투에도 손꼽히는 마법사다.
+그에게는 어릴 적 잃어버린 쌍둥이 형이 있다. 형과 보낸 시간은 길지 않지만 항상 즐거웠던 기억뿐이라 그때를 그리워한다. 2차 멸망의 날, 마법 협회는 결류자를 저지하는데 결국 실패하고 나인은 협회로 되돌아와 죽음의 폭풍을 무효화하는 마법식을 구축하려 한다. 그러는 중 마법 협회의 극비 정보로 결류자의 핵심 세력의 신원을 확인했다는 정보를 듣게 되는데 그 안에는... 형의 이름이 있었다. 협회 사람들보다 먼저 형을 찾겠다는 다짐으로 몰래 협회를 빠져나온다.</v>
+          </cell>
+          <cell r="J76" t="str">
+            <v>단일 개체에게 강력한 마법을 발사한다. 또한 이동 중에도 몸 속 에너지를 폭발시켜 적을 공격할 수 있다.</v>
+          </cell>
+          <cell r="K76" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;인페르노 드래곤&lt;/color&gt;&lt;/size&gt;
+마법의 힘으로 용을 소환합니다. 일정 시간 후에 강력한 데미지를 입힙니다.</v>
+          </cell>
+          <cell r="L76">
+            <v>2</v>
+          </cell>
+          <cell r="M76">
+            <v>1.1539999999999999</v>
+          </cell>
+          <cell r="N76">
+            <v>1.119</v>
+          </cell>
+          <cell r="Q76">
+            <v>0.73899999999999999</v>
+          </cell>
+          <cell r="U76">
+            <v>3.3</v>
+          </cell>
+          <cell r="V76">
+            <v>0</v>
+          </cell>
+          <cell r="W76">
+            <v>180</v>
+          </cell>
+          <cell r="X76">
+            <v>6.2</v>
+          </cell>
+          <cell r="Y76">
+            <v>0</v>
+          </cell>
+          <cell r="Z76">
+            <v>0</v>
+          </cell>
+          <cell r="AA76" t="str">
+            <v>NecromancerFour</v>
+          </cell>
+          <cell r="AC76" t="str">
+            <v>Portrait_NecromancerFour</v>
+          </cell>
+          <cell r="AD76">
+            <v>0.2</v>
+          </cell>
+          <cell r="AE76" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF76" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG76" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH76" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI76">
+            <v>-97</v>
+          </cell>
+          <cell r="AK76">
+            <v>3</v>
+          </cell>
+          <cell r="AL76">
+            <v>0</v>
+          </cell>
+          <cell r="AM76">
+            <v>0</v>
+          </cell>
+          <cell r="AN76">
+            <v>0</v>
+          </cell>
+          <cell r="AO76">
+            <v>0</v>
+          </cell>
+          <cell r="AP76">
+            <v>0</v>
+          </cell>
+          <cell r="AQ76">
+            <v>0</v>
+          </cell>
+          <cell r="AR76">
+            <v>0.32329999999999998</v>
+          </cell>
+          <cell r="AS76">
+            <v>0.18609999999999999</v>
+          </cell>
+          <cell r="AT76">
+            <v>289</v>
+          </cell>
+          <cell r="AU76">
+            <v>521</v>
+          </cell>
+          <cell r="BB76" t="str">
+            <v>BGM_NecromancerFour</v>
+          </cell>
+          <cell r="BC76">
+            <v>85</v>
+          </cell>
+          <cell r="BD76">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Actor0037m</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>CharLowName_GirlWarrior</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>CharName_GirlWarrior</v>
+          </cell>
+          <cell r="E77" t="str">
+            <v>CharStory_GirlWarrior</v>
+          </cell>
+          <cell r="F77" t="str">
+            <v>CharDesc_GirlWarrior</v>
+          </cell>
+          <cell r="G77" t="str">
+            <v>CharUltimate_GirlWarrior</v>
+          </cell>
+          <cell r="H77" t="str">
+            <v>튤린</v>
+          </cell>
+          <cell r="I77" t="str">
+            <v>어릴 적 남자 아이처럼 크기를 바라는 아버지 아래에서 자라 머리도 짧게 깎고 옷도 예쁘지 않은 옷들을 입었었다. 하지만 커오면서 미디어에 나오는 강인하고 자주적인 면모를 보이는 영웅 및 전설적인 여성들을 보고 그럴 필요가 없다는 것을 깨달았다.
+마법으로 실체화된 대검을 사용하여 성인 남성보다 더 강력한 전투력을 보인다. 꿈은 마법협회에 취직하여 이름을 날리는 것. 제2의 결류자가 나타나자 영웅의 시대가 다시 온거라며 내심 좋아하며 스카웃되기 위해 스트리밍 채널도 개설하고 전장에 뛰어든다.</v>
+          </cell>
+          <cell r="J77" t="str">
+            <v>벽을 관통하며 넓은 범위를 베어버리는 검기를 날릴 수 있다.</v>
+          </cell>
+          <cell r="K77" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;크고 아름다운 검&lt;/color&gt;&lt;/size&gt;
+현재 HP가 가장 높은 적을 향해 대검을 형상화한 마법 검을 만들어 내려꽂습니다.</v>
+          </cell>
+          <cell r="L77">
+            <v>0</v>
+          </cell>
+          <cell r="M77">
+            <v>0.91200000000000003</v>
+          </cell>
+          <cell r="N77">
+            <v>0.75600000000000001</v>
+          </cell>
+          <cell r="Q77">
+            <v>0.84899999999999998</v>
+          </cell>
+          <cell r="U77">
+            <v>3.3</v>
+          </cell>
+          <cell r="V77">
+            <v>0</v>
+          </cell>
+          <cell r="W77">
+            <v>95</v>
+          </cell>
+          <cell r="X77">
+            <v>4</v>
+          </cell>
+          <cell r="Y77">
+            <v>0</v>
+          </cell>
+          <cell r="Z77">
+            <v>0</v>
+          </cell>
+          <cell r="AA77" t="str">
+            <v>GirlWarrior</v>
+          </cell>
+          <cell r="AC77" t="str">
+            <v>Portrait_GirlWarrior</v>
+          </cell>
+          <cell r="AD77">
+            <v>0</v>
+          </cell>
+          <cell r="AE77" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF77" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG77" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH77" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI77">
+            <v>-59</v>
+          </cell>
+          <cell r="AK77">
+            <v>0</v>
+          </cell>
+          <cell r="AL77">
+            <v>0</v>
+          </cell>
+          <cell r="AM77">
+            <v>0</v>
+          </cell>
+          <cell r="AN77">
+            <v>0</v>
+          </cell>
+          <cell r="AO77">
+            <v>0</v>
+          </cell>
+          <cell r="AP77">
+            <v>0</v>
+          </cell>
+          <cell r="AQ77">
+            <v>0</v>
+          </cell>
+          <cell r="AR77">
+            <v>0.23949999999999999</v>
+          </cell>
+          <cell r="AS77">
+            <v>0.14680000000000001</v>
+          </cell>
+          <cell r="AT77">
+            <v>411</v>
+          </cell>
+          <cell r="AU77">
+            <v>685</v>
+          </cell>
+          <cell r="BB77" t="str">
+            <v/>
+          </cell>
+          <cell r="BC77">
+            <v>85</v>
+          </cell>
+          <cell r="BD77">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Actor2238m</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>CharLowName_GirlArcher</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>CharName_GirlArcher</v>
+          </cell>
+          <cell r="E78" t="str">
+            <v>CharStory_GirlArcher</v>
+          </cell>
+          <cell r="F78" t="str">
+            <v>CharDesc_GirlArcher</v>
+          </cell>
+          <cell r="G78" t="str">
+            <v>CharUltimate_GirlArcher</v>
+          </cell>
+          <cell r="H78" t="str">
+            <v>니엘</v>
+          </cell>
+          <cell r="I78" t="str">
+            <v>입헌군주제 나라의 왕녀였지만 어릴 적 국왕이었던 아버지의 정치적 입지가 좁아지자 왕실에서 안전을 위해 갓 태어난 니엘을 집사의 딸로 위장입양보낸다. 국왕의 정적이었던 총리는 점점 권력을 장악하여 왕가에 부패 이미지를 씌워 국민들로 하여금 등을 돌리게 하고 사고사로 위장하여 반란의 조짐이 보이는 왕가의 사람들을 제거해 힘 없고 싸울 의지 없는 왕족만 남게 한다.
+그리하여 니엘은 집사의 딸로 자라며 왕가의 교육을 배운다. 또한 국가 최고 연구기관에서 비밀리에 구한 신체 강화 혈청을 맞고 전투 훈련까지 한다. 왕족을 지지해주는 사람들을 물밑에서 모으고 성인이 되어 성명서를 발표하는 날 2차 멸망이 발생하며 나라는 혼돈에 빠진다. 쏟아지는 마물들로부터 나라를 지키기 위해 국군에 자원입대하며 순식간에 국민들의 지지를 받는다.</v>
+          </cell>
+          <cell r="J78" t="str">
+            <v>적을 향해 휘어지는 화살을 발사한다. 한 발을 먼저 쏜 후 연이어 다량의 화살을 날린다.</v>
+          </cell>
+          <cell r="K78" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;피어나는 봄&lt;/color&gt;&lt;/size&gt;
+총알을 지울 수 있는 덩굴과 이파리를 생성합니다.</v>
+          </cell>
+          <cell r="L78">
+            <v>2</v>
+          </cell>
+          <cell r="M78">
+            <v>1.046</v>
+          </cell>
+          <cell r="N78">
+            <v>1.171</v>
+          </cell>
+          <cell r="Q78">
+            <v>0.76400000000000001</v>
+          </cell>
+          <cell r="U78">
+            <v>3.5</v>
+          </cell>
+          <cell r="V78">
+            <v>2</v>
+          </cell>
+          <cell r="W78">
+            <v>130</v>
+          </cell>
+          <cell r="X78">
+            <v>0</v>
+          </cell>
+          <cell r="Y78">
+            <v>0</v>
+          </cell>
+          <cell r="Z78">
+            <v>0</v>
+          </cell>
+          <cell r="AA78" t="str">
+            <v>GirlArcher</v>
+          </cell>
+          <cell r="AC78" t="str">
+            <v>Portrait_GirlArcher</v>
+          </cell>
+          <cell r="AD78">
+            <v>0.1</v>
+          </cell>
+          <cell r="AE78" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF78" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG78" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH78" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI78">
+            <v>-92</v>
+          </cell>
+          <cell r="AK78">
+            <v>0</v>
+          </cell>
+          <cell r="AL78">
+            <v>0</v>
+          </cell>
+          <cell r="AM78">
+            <v>0</v>
+          </cell>
+          <cell r="AN78">
+            <v>0</v>
+          </cell>
+          <cell r="AO78">
+            <v>0</v>
+          </cell>
+          <cell r="AP78">
+            <v>0</v>
+          </cell>
+          <cell r="AQ78">
+            <v>0</v>
+          </cell>
+          <cell r="AR78">
+            <v>0.32550000000000001</v>
+          </cell>
+          <cell r="AS78">
+            <v>0.18709999999999999</v>
+          </cell>
+          <cell r="AT78">
+            <v>289</v>
+          </cell>
+          <cell r="AU78">
+            <v>521</v>
+          </cell>
+          <cell r="BB78" t="str">
+            <v>BGM_GirlArcher</v>
+          </cell>
+          <cell r="BC78">
+            <v>85</v>
+          </cell>
+          <cell r="BD78">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Actor1039m</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>CharLowName_EnergyShieldRobot</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>CharName_EnergyShieldRobot</v>
+          </cell>
+          <cell r="E79" t="str">
+            <v>CharStory_EnergyShieldRobot</v>
+          </cell>
+          <cell r="F79" t="str">
+            <v>CharDesc_EnergyShieldRobot</v>
+          </cell>
+          <cell r="G79" t="str">
+            <v>CharUltimate_EnergyShieldRobot</v>
+          </cell>
+          <cell r="H79" t="str">
+            <v>플랜도</v>
+          </cell>
+          <cell r="I79" t="str">
+            <v>인간이 다가갈 수 없는 뜨거운 불길이든 깊은 물 속이든 사람들이 도움을 필요로 하는 곳이 있을 때 소셜 미디어에서 플랜도에게 도움을 요청하면 어느새 나타나 도와주러 온다. 스트리밍 채널에도 여러번 찍혀서 사람들을 구조하는 장면이 많이 올라와있다.
+헤드 부분의 콕핏을 열어보면... 아무 것도 없다. 플랜도는 과거 사고를 당해 몸이 불편한 사람이며 기계는 그가 조종하는 로봇인 것. 2차 멸망 시도가 발생하자 소셜 미디어는 도움을 요청하는 글로 아수라장이 되었고 플랜도는 몸이 10개라도 모자랄 지경이다. 동료를 더 모아서 사람들을 돕고자 한다.</v>
+          </cell>
+          <cell r="J79" t="str">
+            <v>일정 시간 후 데미지를 입히는 에너지 탄을 발사한다. 에너지가 퍼지는 범위 내의 적은 이 공격을 회피할 수 없다.</v>
+          </cell>
+          <cell r="K79" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;플라즈마 방출&lt;/color&gt;&lt;/size&gt;
+자신 주변에 전격 플라즈마를 생성하여 주변 범위를 지속적으로 공격합니다.</v>
+          </cell>
+          <cell r="L79">
+            <v>0</v>
+          </cell>
+          <cell r="M79">
+            <v>0.86699999999999999</v>
+          </cell>
+          <cell r="N79">
+            <v>0.874</v>
+          </cell>
+          <cell r="Q79">
+            <v>0.93400000000000005</v>
+          </cell>
+          <cell r="U79">
+            <v>3.2</v>
+          </cell>
+          <cell r="V79">
+            <v>1</v>
+          </cell>
+          <cell r="W79">
+            <v>145</v>
+          </cell>
+          <cell r="X79">
+            <v>7</v>
+          </cell>
+          <cell r="Y79">
+            <v>0</v>
+          </cell>
+          <cell r="Z79">
+            <v>0</v>
+          </cell>
+          <cell r="AA79" t="str">
+            <v>EnergyShieldRobot</v>
+          </cell>
+          <cell r="AC79" t="str">
+            <v>Portrait_EnergyShieldRobot</v>
+          </cell>
+          <cell r="AD79">
+            <v>0.08</v>
+          </cell>
+          <cell r="AE79" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF79" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG79" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH79" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI79">
+            <v>-52</v>
+          </cell>
+          <cell r="AK79">
+            <v>0</v>
+          </cell>
+          <cell r="AL79">
+            <v>0</v>
+          </cell>
+          <cell r="AM79">
+            <v>0</v>
+          </cell>
+          <cell r="AN79">
+            <v>0</v>
+          </cell>
+          <cell r="AO79">
+            <v>0</v>
+          </cell>
+          <cell r="AP79">
+            <v>0</v>
+          </cell>
+          <cell r="AQ79">
+            <v>0</v>
+          </cell>
+          <cell r="AR79">
+            <v>0.21820000000000001</v>
+          </cell>
+          <cell r="AS79">
+            <v>0.1401</v>
+          </cell>
+          <cell r="AT79">
+            <v>411</v>
+          </cell>
+          <cell r="AU79">
+            <v>685</v>
+          </cell>
+          <cell r="BB79" t="str">
+            <v/>
+          </cell>
+          <cell r="BC79">
+            <v>85</v>
+          </cell>
+          <cell r="BD79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Actor0240m</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>CharLowName_IceMagician</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>CharName_IceMagician</v>
+          </cell>
+          <cell r="E80" t="str">
+            <v>CharStory_IceMagician</v>
+          </cell>
+          <cell r="F80" t="str">
+            <v>CharDesc_IceMagician</v>
+          </cell>
+          <cell r="G80" t="str">
+            <v>CharUltimate_IceMagician</v>
+          </cell>
+          <cell r="H80" t="str">
+            <v>클레타</v>
+          </cell>
+          <cell r="I80" t="str">
+            <v>뇌사에 빠진 연인을 살리기 위해 시도한 융합 마법의 대가로 머리카락은 하얘지고 피부는 보랏빛으로 변하고 있으며, 왼손은 얼음처럼 변해가고 있다. 연인은 살아났지만 자신은 천천히 죽어가고 있는 것이다. 더불어 폐쇄적인 마을 사람들은 클레타를 마녀라고 부르며 냉담한 반응을 보인다. 자극적인 소재를 찾아 스트리밍 하는 사람들에게 신상은 털린지 오래이며, 언제나 그녀를 포착하기 위해 집 주변에서 대기하고 있다. 
+그러던 중 2차 멸망의 날이 발생하고 사람들은 마녀의 짓이라며 클레타의 집을 불태워버린다. 이에 클레타는 분노하며 마물들을 몰아 마을로 향하게 만든다. 마을에 다다를 즈음 마을의 한 소녀가 걱정하는 눈으로 언니 괜찮아 라고 한 마디 묻자 본래 선한 마음을 가진 클레타는 마음이 풀려 마물들을 마을 밖으로 쫓아내기 시작한다.</v>
+          </cell>
+          <cell r="J80" t="str">
+            <v>다단히트를 발생하는 얼음 파편의 회오리를 던진다.</v>
+          </cell>
+          <cell r="K80" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;핏빛의 파도&lt;/color&gt;&lt;/size&gt;
+적을 일시적으로 기절시키는 넓은 범위의 마법진을 만들어냅니다.</v>
+          </cell>
+          <cell r="L80">
+            <v>2</v>
+          </cell>
+          <cell r="M80">
+            <v>1.1240000000000001</v>
+          </cell>
+          <cell r="N80">
+            <v>1.089</v>
+          </cell>
+          <cell r="Q80">
+            <v>0.81699999999999995</v>
+          </cell>
+          <cell r="U80">
+            <v>3.9</v>
+          </cell>
+          <cell r="V80">
+            <v>0</v>
+          </cell>
+          <cell r="W80">
+            <v>85</v>
+          </cell>
+          <cell r="X80">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="Y80">
+            <v>0</v>
+          </cell>
+          <cell r="Z80">
+            <v>0</v>
+          </cell>
+          <cell r="AA80" t="str">
+            <v>IceMagician</v>
+          </cell>
+          <cell r="AC80" t="str">
+            <v>Portrait_IceMagician</v>
+          </cell>
+          <cell r="AD80">
+            <v>0</v>
+          </cell>
+          <cell r="AE80" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF80" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG80" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH80" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AI80">
+            <v>-98</v>
+          </cell>
+          <cell r="AK80">
+            <v>0</v>
+          </cell>
+          <cell r="AL80">
+            <v>0</v>
+          </cell>
+          <cell r="AM80">
+            <v>0</v>
+          </cell>
+          <cell r="AN80">
+            <v>0</v>
+          </cell>
+          <cell r="AO80">
+            <v>0</v>
+          </cell>
+          <cell r="AP80">
+            <v>0</v>
+          </cell>
+          <cell r="AQ80">
+            <v>0</v>
+          </cell>
+          <cell r="AR80">
+            <v>0.3402</v>
+          </cell>
+          <cell r="AS80">
+            <v>0.1817</v>
+          </cell>
+          <cell r="AT80">
+            <v>289</v>
+          </cell>
+          <cell r="AU80">
+            <v>521</v>
+          </cell>
+          <cell r="BB80" t="str">
+            <v>BGM_IceMagician</v>
+          </cell>
+          <cell r="BC80">
+            <v>85</v>
+          </cell>
+          <cell r="BD80">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Actor1141m</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>CharLowName_AngelicWarrior</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>CharName_AngelicWarrior</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>CharStory_AngelicWarrior</v>
+          </cell>
+          <cell r="F81" t="str">
+            <v>CharDesc_AngelicWarrior</v>
+          </cell>
+          <cell r="G81" t="str">
+            <v>CharUltimate_AngelicWarrior</v>
+          </cell>
+          <cell r="H81" t="str">
+            <v>오비우스</v>
+          </cell>
+          <cell r="I81" t="str">
+            <v>약 5년 전 운동선수로 활동하던 20대 후반 평소와 같이 집에 돌아가는 길에 음주운전을 하던 트럭에 치어 큰 상해를 입었다. 연인이었던 남자는 손 쓸 수 없다는 의사들 말을 들었지만 오비우스를 떠나보낼 수 없다며 전신 기계화 업체를 통해 극소수의 장기를 제외하고 신체를 기계화하였다.
+의식을 되찾은 오비우스는 성공적인 기계화 결합과 꾸준한 재활 훈련을 거듭하여 마침내 도시의 수호자가 된다. 그러는 동안 연인이었던 남자를 남편으로 승격시키고 결혼식을 올리는 날 제2차 멸망의 사건이 터진다. 결혼식장은 하객 대신 마물들로 가득 채워지고 분노의 오비우스는 마물을 섬멸하러 나선다.</v>
+          </cell>
+          <cell r="J81" t="str">
+            <v>적을 향해 다발탄을 발사한다.</v>
+          </cell>
+          <cell r="K81" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;활력의 빛&lt;/color&gt;&lt;/size&gt;
+마비에 걸려있다면 마비에서 해제되고 일정 시간 동안 마비에 걸리지 않게 됩니다. 또한 공격 속도가 매우 빨라집니다.</v>
+          </cell>
+          <cell r="L81">
+            <v>1</v>
+          </cell>
+          <cell r="M81">
+            <v>0.93700000000000006</v>
+          </cell>
+          <cell r="N81">
+            <v>0.92500000000000004</v>
+          </cell>
+          <cell r="Q81">
+            <v>0.91500000000000004</v>
+          </cell>
+          <cell r="U81">
+            <v>3.5</v>
+          </cell>
+          <cell r="V81">
+            <v>1</v>
+          </cell>
+          <cell r="W81">
+            <v>110</v>
+          </cell>
+          <cell r="X81">
+            <v>0</v>
+          </cell>
+          <cell r="Y81">
+            <v>0</v>
+          </cell>
+          <cell r="Z81">
+            <v>0</v>
+          </cell>
+          <cell r="AA81" t="str">
+            <v>AngelicWarrior</v>
+          </cell>
+          <cell r="AC81" t="str">
+            <v>Portrait_AngelicWarrior</v>
+          </cell>
+          <cell r="AD81">
+            <v>0.1</v>
+          </cell>
+          <cell r="AE81" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF81" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG81" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH81" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AI81">
+            <v>-75</v>
+          </cell>
+          <cell r="AK81">
+            <v>0</v>
+          </cell>
+          <cell r="AL81">
+            <v>0</v>
+          </cell>
+          <cell r="AM81">
+            <v>0</v>
+          </cell>
+          <cell r="AN81">
+            <v>0</v>
+          </cell>
+          <cell r="AO81">
+            <v>0</v>
+          </cell>
+          <cell r="AP81">
+            <v>0</v>
+          </cell>
+          <cell r="AQ81">
+            <v>0</v>
+          </cell>
+          <cell r="AR81">
+            <v>0.25940000000000002</v>
+          </cell>
+          <cell r="AS81">
+            <v>0.1517</v>
+          </cell>
+          <cell r="AT81">
+            <v>325</v>
+          </cell>
+          <cell r="AU81">
+            <v>604</v>
+          </cell>
+          <cell r="BB81" t="str">
+            <v/>
+          </cell>
+          <cell r="BC81">
+            <v>85</v>
+          </cell>
+          <cell r="BD81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Actor3242m</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>CharLowName_UnicornCharacter</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>CharName_UnicornCharacter</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>CharStory_UnicornCharacter</v>
+          </cell>
+          <cell r="F82" t="str">
+            <v>CharDesc_UnicornCharacter</v>
+          </cell>
+          <cell r="G82" t="str">
+            <v>CharUltimate_UnicornCharacter</v>
+          </cell>
+          <cell r="H82" t="str">
+            <v>앰비엘라</v>
+          </cell>
+          <cell r="I82" t="str">
+            <v>유전자 변형으로 디자인되어 인공 자궁에서 태어난 소녀. 어린 시절 연구실에서 태어나고 자란 소녀는 연구실 사람들에게 실험체이기도 하면서 두려움의 대상이었다. 그러던 중, 2차 멸망이 발생하고 앰비엘라는 누구의 보살핌 없이 혼란스러운 세상에 내뱉어진다. 본능적으로 타고난 마법, 자연, 기공의 힘을 사용하여 마물들에게서 살아남을 수 있었지만 아직 덜 발달된 능력으로 점차 배고픔과 추위에 못 이겨 삶의 의지를 잃어버리고 있었다.
+그러던 중 마물에게 둘러쌓여 위기에 빠진 순간 소녀의 앞에 나타난 건 메디아. 겨우 찾았다며 자신의 거처로 데려가 둘의 생활이 시작된다. 인간에 속하지도 않고 기계에 속하지도 않는 앰비엘라와 메디아는 유대감을 형성하며 서로에게 소중한 친구가 되어준다. 그러나 인간을 불완전한 존재로 인식하여 인간에게 호의적인 메디아와 달리 앰비엘라는 멸망해가는 와중에도 이권을 위해 싸우고 있는 인간들의 모습에 염증을 느낀다.</v>
+          </cell>
+          <cell r="J82" t="str">
+            <v>최대 3명까지 적 몸 속에서부터 응축된 힘을 파열시킨다. 실체가 없는 적도 공격할 수 있다.</v>
+          </cell>
+          <cell r="K82" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;융합마법의 교과서&lt;/color&gt;&lt;/size&gt;
+마법진을 이용해 총알을 제거하고 곧이어 강력한 자연의 힘으로 뿔을 만들어냅니다. 매우 넓은 범위의 적에게 피해를 입힙니다.</v>
+          </cell>
+          <cell r="L82">
+            <v>2</v>
+          </cell>
+          <cell r="M82">
+            <v>1.159</v>
+          </cell>
+          <cell r="N82">
+            <v>1.1359999999999999</v>
+          </cell>
+          <cell r="Q82">
+            <v>0.80400000000000005</v>
+          </cell>
+          <cell r="U82">
+            <v>3.4</v>
+          </cell>
+          <cell r="V82">
+            <v>3</v>
+          </cell>
+          <cell r="W82">
+            <v>185</v>
+          </cell>
+          <cell r="X82">
+            <v>5.7</v>
+          </cell>
+          <cell r="Y82">
+            <v>360</v>
+          </cell>
+          <cell r="Z82">
+            <v>0</v>
+          </cell>
+          <cell r="AA82" t="str">
+            <v>UnicornCharacter</v>
+          </cell>
+          <cell r="AC82" t="str">
+            <v>Portrait_UnicornCharacter</v>
+          </cell>
+          <cell r="AD82">
+            <v>0</v>
+          </cell>
+          <cell r="AE82" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AF82" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG82" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AH82" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI82">
+            <v>-88</v>
+          </cell>
+          <cell r="AK82">
+            <v>7</v>
+          </cell>
+          <cell r="AL82">
+            <v>0</v>
+          </cell>
+          <cell r="AM82">
+            <v>0</v>
+          </cell>
+          <cell r="AN82">
+            <v>0</v>
+          </cell>
+          <cell r="AO82">
+            <v>0</v>
+          </cell>
+          <cell r="AP82">
+            <v>0</v>
+          </cell>
+          <cell r="AQ82">
+            <v>0</v>
+          </cell>
+          <cell r="AR82">
+            <v>0.30930000000000002</v>
+          </cell>
+          <cell r="AS82">
+            <v>0.18720000000000001</v>
+          </cell>
+          <cell r="AT82">
+            <v>289</v>
+          </cell>
+          <cell r="AU82">
+            <v>521</v>
+          </cell>
+          <cell r="BB82" t="str">
+            <v>BGM_UnicornCharacter</v>
+          </cell>
+          <cell r="BC82">
+            <v>85</v>
+          </cell>
+          <cell r="BD82">
+            <v>0.66659999999999997</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Actor1043m</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>CharLowName_KeepSeries</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>CharName_KeepSeries</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>CharStory_KeepSeries</v>
+          </cell>
+          <cell r="F83" t="str">
+            <v>CharDesc_KeepSeries</v>
+          </cell>
+          <cell r="G83" t="str">
+            <v>CharUltimate_KeepSeries</v>
+          </cell>
+          <cell r="H83" t="str">
+            <v>레나</v>
+          </cell>
+          <cell r="I83" t="str">
+            <v>킵시리즈 스토리 우다다다다</v>
+          </cell>
+          <cell r="J83" t="str">
+            <v>킵시리즈 심플 설명</v>
+          </cell>
+          <cell r="K83" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;궁극기 이름&lt;/color&gt;&lt;/size&gt;
+궁극기 설명</v>
+          </cell>
+          <cell r="L83">
+            <v>0</v>
+          </cell>
+          <cell r="M83">
+            <v>1</v>
+          </cell>
+          <cell r="N83">
+            <v>1</v>
+          </cell>
+          <cell r="Q83">
+            <v>0.81100000000000005</v>
+          </cell>
+          <cell r="U83">
+            <v>3.5</v>
+          </cell>
+          <cell r="V83">
+            <v>1</v>
+          </cell>
+          <cell r="W83">
+            <v>125</v>
+          </cell>
+          <cell r="X83">
+            <v>0</v>
+          </cell>
+          <cell r="Y83">
+            <v>0</v>
+          </cell>
+          <cell r="Z83">
+            <v>0</v>
+          </cell>
+          <cell r="AA83" t="str">
+            <v>KeepSeries</v>
+          </cell>
+          <cell r="AC83" t="str">
+            <v>Portrait_KeepSeries</v>
+          </cell>
+          <cell r="AD83">
+            <v>0.25</v>
+          </cell>
+          <cell r="AE83" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF83" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG83" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH83" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI83">
+            <v>-45</v>
+          </cell>
+          <cell r="AK83">
+            <v>99999</v>
+          </cell>
+          <cell r="AL83">
+            <v>0</v>
+          </cell>
+          <cell r="AM83">
+            <v>0</v>
+          </cell>
+          <cell r="AN83">
+            <v>0</v>
+          </cell>
+          <cell r="AO83">
+            <v>0</v>
+          </cell>
+          <cell r="AP83">
+            <v>0</v>
+          </cell>
+          <cell r="AQ83">
+            <v>0</v>
+          </cell>
+          <cell r="AR83">
+            <v>0.2</v>
+          </cell>
+          <cell r="AS83">
+            <v>0.125</v>
+          </cell>
+          <cell r="AT83">
+            <v>100</v>
+          </cell>
+          <cell r="AU83">
+            <v>200</v>
+          </cell>
+          <cell r="BB83" t="str">
+            <v/>
+          </cell>
+          <cell r="BC83">
+            <v>85</v>
+          </cell>
+          <cell r="BD83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>Actor1144m</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>CharLowName_Ayuko</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>CharName_Ayuko</v>
+          </cell>
+          <cell r="E84" t="str">
+            <v>CharStory_Ayuko</v>
+          </cell>
+          <cell r="F84" t="str">
+            <v>CharDesc_Ayuko</v>
+          </cell>
+          <cell r="G84" t="str">
+            <v>CharUltimate_Ayuko</v>
+          </cell>
+          <cell r="H84" t="str">
+            <v>서린</v>
+          </cell>
+          <cell r="I84" t="str">
+            <v>아유코 스토리 우다다다다</v>
+          </cell>
+          <cell r="J84" t="str">
+            <v>아유코 심플 설명</v>
+          </cell>
+          <cell r="K84" t="str">
+            <v>&lt;size=16&gt;&lt;color=#DE7100&gt;궁극기 이름&lt;/color&gt;&lt;/size&gt;
+궁극기 설명</v>
+          </cell>
+          <cell r="L84">
+            <v>1</v>
+          </cell>
+          <cell r="M84">
+            <v>1</v>
+          </cell>
+          <cell r="N84">
+            <v>1</v>
+          </cell>
+          <cell r="Q84">
+            <v>0.81100000000000005</v>
+          </cell>
+          <cell r="U84">
+            <v>3.5</v>
+          </cell>
+          <cell r="V84">
+            <v>1</v>
+          </cell>
+          <cell r="W84">
+            <v>125</v>
+          </cell>
+          <cell r="X84">
+            <v>0</v>
+          </cell>
+          <cell r="Y84">
+            <v>0</v>
+          </cell>
+          <cell r="Z84">
+            <v>0</v>
+          </cell>
+          <cell r="AA84" t="str">
+            <v>Ayuko</v>
+          </cell>
+          <cell r="AC84" t="str">
+            <v>Portrait_Ayuko</v>
+          </cell>
+          <cell r="AD84">
+            <v>0.25</v>
+          </cell>
+          <cell r="AE84" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AF84" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AG84" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="AH84" t="b">
+            <v>0</v>
+          </cell>
+          <cell r="AI84">
+            <v>-44</v>
+          </cell>
+          <cell r="AK84">
+            <v>99999</v>
+          </cell>
+          <cell r="AL84">
+            <v>0</v>
+          </cell>
+          <cell r="AM84">
+            <v>0</v>
+          </cell>
+          <cell r="AN84">
+            <v>0</v>
+          </cell>
+          <cell r="AO84">
+            <v>0</v>
+          </cell>
+          <cell r="AP84">
+            <v>0</v>
+          </cell>
+          <cell r="AQ84">
+            <v>0</v>
+          </cell>
+          <cell r="AR84">
+            <v>0.2</v>
+          </cell>
+          <cell r="AS84">
+            <v>0.125</v>
+          </cell>
+          <cell r="AT84">
+            <v>100</v>
+          </cell>
+          <cell r="AU84">
+            <v>200</v>
+          </cell>
+          <cell r="BB84" t="str">
+            <v/>
+          </cell>
+          <cell r="BC84">
+            <v>85</v>
+          </cell>
+          <cell r="BD84">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -8348,7 +13418,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -8387,7 +13457,7 @@
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -8396,10 +13466,10 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
         <v>19</v>
@@ -8427,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <f>IF(ISBLANK(G2),"",
@@ -8453,19 +13523,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -8493,7 +13563,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <f>IF(ISBLANK(G3),"",
@@ -8519,19 +13589,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -8559,7 +13629,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <f>IF(ISBLANK(G4),"",
@@ -8585,19 +13655,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -8625,7 +13695,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <f>IF(ISBLANK(G5),"",
@@ -8651,19 +13721,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -8691,7 +13761,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <f>IF(ISBLANK(G6),"",
@@ -8717,19 +13787,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -8757,7 +13827,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <f>IF(ISBLANK(G7),"",
@@ -8783,19 +13853,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>3.9990000000000001</v>
@@ -8823,7 +13893,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <f>IF(ISBLANK(G8),"",
@@ -8849,19 +13919,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>8.9990000000000006</v>
@@ -8889,7 +13959,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <f>IF(ISBLANK(G9),"",
@@ -8915,19 +13985,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>10.999000000000001</v>
@@ -8955,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" t="str">
         <f>IF(ISBLANK(G10),"",
@@ -8981,16 +14051,16 @@
         <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -9018,7 +14088,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" t="str">
         <f>IF(ISBLANK(G11),"",
@@ -9044,16 +14114,16 @@
         <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -9081,7 +14151,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="str">
         <f>IF(ISBLANK(G12),"",
@@ -9107,16 +14177,16 @@
         <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -9144,7 +14214,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" t="str">
         <f>IF(ISBLANK(G13),"",
@@ -9170,16 +14240,16 @@
         <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -9207,7 +14277,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="str">
         <f>IF(ISBLANK(G14),"",
@@ -9233,16 +14303,16 @@
         <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -9270,7 +14340,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" t="str">
         <f>IF(ISBLANK(G15),"",
@@ -9296,16 +14366,16 @@
         <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>3.9990000000000001</v>
@@ -9333,7 +14403,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" t="str">
         <f>IF(ISBLANK(G16),"",
@@ -9359,16 +14429,16 @@
         <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>8.9990000000000006</v>
@@ -9396,7 +14466,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" t="str">
         <f>IF(ISBLANK(G17),"",
@@ -9422,16 +14492,16 @@
         <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>10.999000000000001</v>
@@ -9459,7 +14529,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <f>IF(ISBLANK(G18),"",
@@ -9485,16 +14555,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -9522,7 +14592,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <f>IF(ISBLANK(G19),"",
@@ -9548,16 +14618,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -9585,7 +14655,7 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <f>IF(ISBLANK(G20),"",
@@ -9611,16 +14681,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -9648,7 +14718,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <f>IF(ISBLANK(G21),"",
@@ -9674,16 +14744,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -9711,7 +14781,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <f>IF(ISBLANK(G22),"",
@@ -9737,16 +14807,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -9774,7 +14844,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <f>IF(ISBLANK(G23),"",
@@ -9800,16 +14870,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>3.9990000000000001</v>
@@ -9837,7 +14907,7 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <f>IF(ISBLANK(G24),"",
@@ -9863,16 +14933,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>8.9990000000000006</v>
@@ -9900,7 +14970,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <f>IF(ISBLANK(G25),"",
@@ -9926,16 +14996,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>10.999000000000001</v>
@@ -9963,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" t="str">
         <f>IF(ISBLANK(G26),"",
@@ -9989,7 +15059,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s">
         <v>3</v>
@@ -9998,10 +15068,10 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -10029,7 +15099,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" t="str">
         <f>IF(ISBLANK(G27),"",
@@ -10055,7 +15125,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
         <v>3</v>
@@ -10064,10 +15134,10 @@
         <v>4</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -10095,7 +15165,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" t="str">
         <f>IF(ISBLANK(G28),"",
@@ -10121,7 +15191,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
         <v>3</v>
@@ -10130,10 +15200,10 @@
         <v>4</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -10161,7 +15231,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" t="str">
         <f>IF(ISBLANK(G29),"",
@@ -10187,7 +15257,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
         <v>3</v>
@@ -10196,10 +15266,10 @@
         <v>4</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -10227,7 +15297,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30" t="str">
         <f>IF(ISBLANK(G30),"",
@@ -10253,7 +15323,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
         <v>3</v>
@@ -10262,10 +15332,10 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -10293,7 +15363,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" t="str">
         <f>IF(ISBLANK(G31),"",
@@ -10319,7 +15389,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
         <v>3</v>
@@ -10328,10 +15398,10 @@
         <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>3.9990000000000001</v>
@@ -10359,7 +15429,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" t="str">
         <f>IF(ISBLANK(G32),"",
@@ -10385,7 +15455,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
         <v>3</v>
@@ -10394,10 +15464,10 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>8.9990000000000006</v>
@@ -10425,7 +15495,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" t="str">
         <f>IF(ISBLANK(G33),"",
@@ -10451,7 +15521,7 @@
         <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s">
         <v>3</v>
@@ -10460,10 +15530,10 @@
         <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>10.999000000000001</v>
@@ -10491,7 +15561,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <f>IF(ISBLANK(G34),"",
@@ -10517,16 +15587,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -10554,7 +15624,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <f>IF(ISBLANK(G35),"",
@@ -10580,16 +15650,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -10617,7 +15687,7 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <f>IF(ISBLANK(G36),"",
@@ -10643,16 +15713,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -10680,7 +15750,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <f>IF(ISBLANK(G37),"",
@@ -10706,16 +15776,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -10743,7 +15813,7 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <f>IF(ISBLANK(G38),"",
@@ -10769,16 +15839,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -10806,7 +15876,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <f>IF(ISBLANK(G39),"",
@@ -10832,16 +15902,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>3.9990000000000001</v>
@@ -10869,7 +15939,7 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <f>IF(ISBLANK(G40),"",
@@ -10895,16 +15965,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>8.9990000000000006</v>
@@ -10932,7 +16002,7 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <f>IF(ISBLANK(G41),"",
@@ -10958,16 +16028,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>10.999000000000001</v>
@@ -10995,7 +16065,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <f>IF(ISBLANK(G42),"",
@@ -11021,16 +16091,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -11058,7 +16128,7 @@
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H43">
         <f>IF(ISBLANK(G43),"",
@@ -11084,16 +16154,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -11121,7 +16191,7 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <f>IF(ISBLANK(G44),"",
@@ -11147,16 +16217,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -11184,7 +16254,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <f>IF(ISBLANK(G45),"",
@@ -11210,16 +16280,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -11247,7 +16317,7 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <f>IF(ISBLANK(G46),"",
@@ -11273,16 +16343,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -11310,7 +16380,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <f>IF(ISBLANK(G47),"",
@@ -11336,16 +16406,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>3.9990000000000001</v>
@@ -11373,7 +16443,7 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48">
         <f>IF(ISBLANK(G48),"",
@@ -11399,16 +16469,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N48">
         <v>8.9990000000000006</v>
@@ -11436,7 +16506,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <f>IF(ISBLANK(G49),"",
@@ -11462,16 +16532,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>10.999000000000001</v>
@@ -11499,7 +16569,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50" t="str">
         <f>IF(ISBLANK(G50),"",
@@ -11525,16 +16595,16 @@
         <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -11562,7 +16632,7 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51" t="str">
         <f>IF(ISBLANK(G51),"",
@@ -11588,16 +16658,16 @@
         <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -11625,7 +16695,7 @@
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52" t="str">
         <f>IF(ISBLANK(G52),"",
@@ -11651,16 +16721,16 @@
         <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -11688,7 +16758,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H53" t="str">
         <f>IF(ISBLANK(G53),"",
@@ -11714,16 +16784,16 @@
         <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -11751,7 +16821,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54" t="str">
         <f>IF(ISBLANK(G54),"",
@@ -11777,16 +16847,16 @@
         <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -11814,7 +16884,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H55" t="str">
         <f>IF(ISBLANK(G55),"",
@@ -11840,16 +16910,16 @@
         <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N55">
         <v>3.9990000000000001</v>
@@ -11877,7 +16947,7 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56" t="str">
         <f>IF(ISBLANK(G56),"",
@@ -11903,16 +16973,16 @@
         <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N56">
         <v>8.9990000000000006</v>
@@ -11940,7 +17010,7 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57" t="str">
         <f>IF(ISBLANK(G57),"",
@@ -11966,16 +17036,16 @@
         <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>10.999000000000001</v>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ADF7BE-2471-4847-8961-44365F850985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C43E5D-D4AE-4621-8AE1-C13532278484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
@@ -162,19 +162,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor1002, Actor2010, Actor1141, Actor0240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>InvasionUI_RewardMore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor2103, Actor0007, Actor2011, Actor1216</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,6 +184,12 @@
   <si>
     <t>Actor0201, Actor0030, Actor3022, Actor2128, Actor3114</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1002, Actor2010, Actor1141, Actor0240</t>
+  </si>
+  <si>
+    <t>Actor2103, Actor0007, Actor2011, Actor1216</t>
   </si>
 </sst>
 </file>
@@ -13418,7 +13416,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13497,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <f>IF(ISBLANK(G2),"",
@@ -13532,7 +13530,7 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
         <v>30</v>
@@ -13563,7 +13561,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <f>IF(ISBLANK(G3),"",
@@ -13598,7 +13596,7 @@
         <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
         <v>30</v>
@@ -13629,7 +13627,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <f>IF(ISBLANK(G4),"",
@@ -13664,7 +13662,7 @@
         <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
@@ -13695,7 +13693,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <f>IF(ISBLANK(G5),"",
@@ -13730,7 +13728,7 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -13761,7 +13759,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <f>IF(ISBLANK(G6),"",
@@ -13796,7 +13794,7 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
         <v>30</v>
@@ -13827,7 +13825,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <f>IF(ISBLANK(G7),"",
@@ -13862,7 +13860,7 @@
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
@@ -13893,7 +13891,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <f>IF(ISBLANK(G8),"",
@@ -13928,7 +13926,7 @@
         <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>30</v>
@@ -13959,7 +13957,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <f>IF(ISBLANK(G9),"",
@@ -13994,7 +13992,7 @@
         <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>30</v>
@@ -14025,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H10" t="str">
         <f>IF(ISBLANK(G10),"",
@@ -14048,7 +14046,7 @@
     TRIM(MID(G10,FIND(",",G10,FIND(",",G10)+1)+1,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)-FIND(",",G10,FIND(",",G10)+1)-1)),VLOOKUP(TRIM(MID(G10,FIND(",",G10,FIND(",",G10)+1)+1,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)-FIND(",",G10,FIND(",",G10)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G10,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G10,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
@@ -14057,7 +14055,7 @@
         <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
@@ -14088,7 +14086,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H11" t="str">
         <f>IF(ISBLANK(G11),"",
@@ -14111,7 +14109,7 @@
     TRIM(MID(G11,FIND(",",G11,FIND(",",G11)+1)+1,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)-FIND(",",G11,FIND(",",G11)+1)-1)),VLOOKUP(TRIM(MID(G11,FIND(",",G11,FIND(",",G11)+1)+1,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)-FIND(",",G11,FIND(",",G11)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G11,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G11,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>
@@ -14120,7 +14118,7 @@
         <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
         <v>30</v>
@@ -14151,7 +14149,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H12" t="str">
         <f>IF(ISBLANK(G12),"",
@@ -14174,7 +14172,7 @@
     TRIM(MID(G12,FIND(",",G12,FIND(",",G12)+1)+1,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)-FIND(",",G12,FIND(",",G12)+1)-1)),VLOOKUP(TRIM(MID(G12,FIND(",",G12,FIND(",",G12)+1)+1,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)-FIND(",",G12,FIND(",",G12)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G12,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G12,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -14183,7 +14181,7 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
         <v>30</v>
@@ -14214,7 +14212,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H13" t="str">
         <f>IF(ISBLANK(G13),"",
@@ -14237,7 +14235,7 @@
     TRIM(MID(G13,FIND(",",G13,FIND(",",G13)+1)+1,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)-FIND(",",G13,FIND(",",G13)+1)-1)),VLOOKUP(TRIM(MID(G13,FIND(",",G13,FIND(",",G13)+1)+1,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)-FIND(",",G13,FIND(",",G13)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G13,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G13,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
@@ -14246,7 +14244,7 @@
         <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
         <v>30</v>
@@ -14277,7 +14275,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H14" t="str">
         <f>IF(ISBLANK(G14),"",
@@ -14300,7 +14298,7 @@
     TRIM(MID(G14,FIND(",",G14,FIND(",",G14)+1)+1,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)-FIND(",",G14,FIND(",",G14)+1)-1)),VLOOKUP(TRIM(MID(G14,FIND(",",G14,FIND(",",G14)+1)+1,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)-FIND(",",G14,FIND(",",G14)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G14,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G14,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -14309,7 +14307,7 @@
         <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
         <v>30</v>
@@ -14340,7 +14338,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H15" t="str">
         <f>IF(ISBLANK(G15),"",
@@ -14363,7 +14361,7 @@
     TRIM(MID(G15,FIND(",",G15,FIND(",",G15)+1)+1,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)-FIND(",",G15,FIND(",",G15)+1)-1)),VLOOKUP(TRIM(MID(G15,FIND(",",G15,FIND(",",G15)+1)+1,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)-FIND(",",G15,FIND(",",G15)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G15,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G15,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
@@ -14372,7 +14370,7 @@
         <v>32</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" t="s">
         <v>30</v>
@@ -14403,7 +14401,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H16" t="str">
         <f>IF(ISBLANK(G16),"",
@@ -14426,7 +14424,7 @@
     TRIM(MID(G16,FIND(",",G16,FIND(",",G16)+1)+1,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)-FIND(",",G16,FIND(",",G16)+1)-1)),VLOOKUP(TRIM(MID(G16,FIND(",",G16,FIND(",",G16)+1)+1,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)-FIND(",",G16,FIND(",",G16)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G16,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G16,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
@@ -14435,7 +14433,7 @@
         <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
         <v>30</v>
@@ -14466,7 +14464,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H17" t="str">
         <f>IF(ISBLANK(G17),"",
@@ -14489,7 +14487,7 @@
     TRIM(MID(G17,FIND(",",G17,FIND(",",G17)+1)+1,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)-FIND(",",G17,FIND(",",G17)+1)-1)),VLOOKUP(TRIM(MID(G17,FIND(",",G17,FIND(",",G17)+1)+1,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)-FIND(",",G17,FIND(",",G17)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G17,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G17,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -14498,7 +14496,7 @@
         <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17" t="s">
         <v>30</v>
@@ -14529,7 +14527,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <f>IF(ISBLANK(G18),"",
@@ -14561,7 +14559,7 @@
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M18" t="s">
         <v>30</v>
@@ -14592,7 +14590,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <f>IF(ISBLANK(G19),"",
@@ -14624,7 +14622,7 @@
         <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" t="s">
         <v>30</v>
@@ -14655,7 +14653,7 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <f>IF(ISBLANK(G20),"",
@@ -14687,7 +14685,7 @@
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
         <v>30</v>
@@ -14718,7 +14716,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <f>IF(ISBLANK(G21),"",
@@ -14750,7 +14748,7 @@
         <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
         <v>30</v>
@@ -14781,7 +14779,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <f>IF(ISBLANK(G22),"",
@@ -14813,7 +14811,7 @@
         <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M22" t="s">
         <v>30</v>
@@ -14844,7 +14842,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <f>IF(ISBLANK(G23),"",
@@ -14876,7 +14874,7 @@
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" t="s">
         <v>30</v>
@@ -14907,7 +14905,7 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <f>IF(ISBLANK(G24),"",
@@ -14939,7 +14937,7 @@
         <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
         <v>30</v>
@@ -14970,7 +14968,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <f>IF(ISBLANK(G25),"",
@@ -15002,7 +15000,7 @@
         <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M25" t="s">
         <v>30</v>
@@ -15033,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H26" t="str">
         <f>IF(ISBLANK(G26),"",
@@ -15056,7 +15054,7 @@
     TRIM(MID(G26,FIND(",",G26,FIND(",",G26)+1)+1,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)-FIND(",",G26,FIND(",",G26)+1)-1)),VLOOKUP(TRIM(MID(G26,FIND(",",G26,FIND(",",G26)+1)+1,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)-FIND(",",G26,FIND(",",G26)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G26,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G26,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
@@ -15068,7 +15066,7 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M26" t="s">
         <v>30</v>
@@ -15099,7 +15097,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H27" t="str">
         <f>IF(ISBLANK(G27),"",
@@ -15122,7 +15120,7 @@
     TRIM(MID(G27,FIND(",",G27,FIND(",",G27)+1)+1,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)-FIND(",",G27,FIND(",",G27)+1)-1)),VLOOKUP(TRIM(MID(G27,FIND(",",G27,FIND(",",G27)+1)+1,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)-FIND(",",G27,FIND(",",G27)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G27,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G27,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I27" t="s">
         <v>25</v>
@@ -15134,7 +15132,7 @@
         <v>4</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" t="s">
         <v>30</v>
@@ -15165,7 +15163,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H28" t="str">
         <f>IF(ISBLANK(G28),"",
@@ -15188,7 +15186,7 @@
     TRIM(MID(G28,FIND(",",G28,FIND(",",G28)+1)+1,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)-FIND(",",G28,FIND(",",G28)+1)-1)),VLOOKUP(TRIM(MID(G28,FIND(",",G28,FIND(",",G28)+1)+1,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)-FIND(",",G28,FIND(",",G28)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G28,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G28,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
@@ -15200,7 +15198,7 @@
         <v>4</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
         <v>30</v>
@@ -15231,7 +15229,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H29" t="str">
         <f>IF(ISBLANK(G29),"",
@@ -15254,7 +15252,7 @@
     TRIM(MID(G29,FIND(",",G29,FIND(",",G29)+1)+1,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)-FIND(",",G29,FIND(",",G29)+1)-1)),VLOOKUP(TRIM(MID(G29,FIND(",",G29,FIND(",",G29)+1)+1,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)-FIND(",",G29,FIND(",",G29)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G29,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G29,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
@@ -15266,7 +15264,7 @@
         <v>4</v>
       </c>
       <c r="L29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
         <v>30</v>
@@ -15297,7 +15295,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H30" t="str">
         <f>IF(ISBLANK(G30),"",
@@ -15320,7 +15318,7 @@
     TRIM(MID(G30,FIND(",",G30,FIND(",",G30)+1)+1,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)-FIND(",",G30,FIND(",",G30)+1)-1)),VLOOKUP(TRIM(MID(G30,FIND(",",G30,FIND(",",G30)+1)+1,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)-FIND(",",G30,FIND(",",G30)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G30,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G30,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
@@ -15332,7 +15330,7 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M30" t="s">
         <v>30</v>
@@ -15363,7 +15361,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H31" t="str">
         <f>IF(ISBLANK(G31),"",
@@ -15386,7 +15384,7 @@
     TRIM(MID(G31,FIND(",",G31,FIND(",",G31)+1)+1,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)-FIND(",",G31,FIND(",",G31)+1)-1)),VLOOKUP(TRIM(MID(G31,FIND(",",G31,FIND(",",G31)+1)+1,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)-FIND(",",G31,FIND(",",G31)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G31,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G31,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
@@ -15398,7 +15396,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" t="s">
         <v>30</v>
@@ -15429,7 +15427,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H32" t="str">
         <f>IF(ISBLANK(G32),"",
@@ -15452,7 +15450,7 @@
     TRIM(MID(G32,FIND(",",G32,FIND(",",G32)+1)+1,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)-FIND(",",G32,FIND(",",G32)+1)-1)),VLOOKUP(TRIM(MID(G32,FIND(",",G32,FIND(",",G32)+1)+1,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)-FIND(",",G32,FIND(",",G32)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G32,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G32,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
@@ -15464,7 +15462,7 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M32" t="s">
         <v>30</v>
@@ -15495,7 +15493,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H33" t="str">
         <f>IF(ISBLANK(G33),"",
@@ -15518,7 +15516,7 @@
     TRIM(MID(G33,FIND(",",G33,FIND(",",G33)+1)+1,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)-FIND(",",G33,FIND(",",G33)+1)-1)),VLOOKUP(TRIM(MID(G33,FIND(",",G33,FIND(",",G33)+1)+1,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)-FIND(",",G33,FIND(",",G33)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G33,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G33,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I33" t="s">
         <v>25</v>
@@ -15530,7 +15528,7 @@
         <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M33" t="s">
         <v>30</v>
@@ -15561,7 +15559,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <f>IF(ISBLANK(G34),"",
@@ -15593,7 +15591,7 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
         <v>30</v>
@@ -15624,7 +15622,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <f>IF(ISBLANK(G35),"",
@@ -15656,7 +15654,7 @@
         <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M35" t="s">
         <v>30</v>
@@ -15687,7 +15685,7 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <f>IF(ISBLANK(G36),"",
@@ -15719,7 +15717,7 @@
         <v>33</v>
       </c>
       <c r="L36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
         <v>30</v>
@@ -15750,7 +15748,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <f>IF(ISBLANK(G37),"",
@@ -15782,7 +15780,7 @@
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M37" t="s">
         <v>30</v>
@@ -15813,7 +15811,7 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <f>IF(ISBLANK(G38),"",
@@ -15845,7 +15843,7 @@
         <v>33</v>
       </c>
       <c r="L38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M38" t="s">
         <v>30</v>
@@ -15876,7 +15874,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <f>IF(ISBLANK(G39),"",
@@ -15908,7 +15906,7 @@
         <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M39" t="s">
         <v>30</v>
@@ -15939,7 +15937,7 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <f>IF(ISBLANK(G40),"",
@@ -15971,7 +15969,7 @@
         <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M40" t="s">
         <v>30</v>
@@ -16002,7 +16000,7 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <f>IF(ISBLANK(G41),"",
@@ -16034,7 +16032,7 @@
         <v>33</v>
       </c>
       <c r="L41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M41" t="s">
         <v>30</v>
@@ -16065,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <f>IF(ISBLANK(G42),"",
@@ -16097,7 +16095,7 @@
         <v>32</v>
       </c>
       <c r="L42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M42" t="s">
         <v>30</v>
@@ -16128,7 +16126,7 @@
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <f>IF(ISBLANK(G43),"",
@@ -16160,7 +16158,7 @@
         <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M43" t="s">
         <v>30</v>
@@ -16191,7 +16189,7 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <f>IF(ISBLANK(G44),"",
@@ -16223,7 +16221,7 @@
         <v>32</v>
       </c>
       <c r="L44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M44" t="s">
         <v>30</v>
@@ -16254,7 +16252,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <f>IF(ISBLANK(G45),"",
@@ -16286,7 +16284,7 @@
         <v>32</v>
       </c>
       <c r="L45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M45" t="s">
         <v>30</v>
@@ -16317,7 +16315,7 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <f>IF(ISBLANK(G46),"",
@@ -16349,7 +16347,7 @@
         <v>32</v>
       </c>
       <c r="L46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M46" t="s">
         <v>30</v>
@@ -16380,7 +16378,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <f>IF(ISBLANK(G47),"",
@@ -16412,7 +16410,7 @@
         <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M47" t="s">
         <v>30</v>
@@ -16443,7 +16441,7 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <f>IF(ISBLANK(G48),"",
@@ -16475,7 +16473,7 @@
         <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M48" t="s">
         <v>30</v>
@@ -16506,7 +16504,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <f>IF(ISBLANK(G49),"",
@@ -16538,7 +16536,7 @@
         <v>32</v>
       </c>
       <c r="L49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M49" t="s">
         <v>30</v>
@@ -16569,7 +16567,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H50" t="str">
         <f>IF(ISBLANK(G50),"",
@@ -16601,7 +16599,7 @@
         <v>33</v>
       </c>
       <c r="L50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M50" t="s">
         <v>30</v>
@@ -16632,7 +16630,7 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H51" t="str">
         <f>IF(ISBLANK(G51),"",
@@ -16664,7 +16662,7 @@
         <v>33</v>
       </c>
       <c r="L51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M51" t="s">
         <v>30</v>
@@ -16695,7 +16693,7 @@
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H52" t="str">
         <f>IF(ISBLANK(G52),"",
@@ -16727,7 +16725,7 @@
         <v>33</v>
       </c>
       <c r="L52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M52" t="s">
         <v>30</v>
@@ -16758,7 +16756,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H53" t="str">
         <f>IF(ISBLANK(G53),"",
@@ -16790,7 +16788,7 @@
         <v>33</v>
       </c>
       <c r="L53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M53" t="s">
         <v>30</v>
@@ -16821,7 +16819,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H54" t="str">
         <f>IF(ISBLANK(G54),"",
@@ -16853,7 +16851,7 @@
         <v>33</v>
       </c>
       <c r="L54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M54" t="s">
         <v>30</v>
@@ -16884,7 +16882,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H55" t="str">
         <f>IF(ISBLANK(G55),"",
@@ -16916,7 +16914,7 @@
         <v>33</v>
       </c>
       <c r="L55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M55" t="s">
         <v>30</v>
@@ -16947,7 +16945,7 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H56" t="str">
         <f>IF(ISBLANK(G56),"",
@@ -16979,7 +16977,7 @@
         <v>33</v>
       </c>
       <c r="L56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M56" t="s">
         <v>30</v>
@@ -17010,7 +17008,7 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H57" t="str">
         <f>IF(ISBLANK(G57),"",
@@ -17042,7 +17040,7 @@
         <v>33</v>
       </c>
       <c r="L57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M57" t="s">
         <v>30</v>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C43E5D-D4AE-4621-8AE1-C13532278484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77028C3B-3BE1-4E8C-A1EB-4D9AC8EA88CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="97">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +186,174 @@
   </si>
   <si>
     <t>Actor2103, Actor0007, Actor2011, Actor1216</t>
+  </si>
+  <si>
+    <t>inva_0_1</t>
+  </si>
+  <si>
+    <t>inva_0_2</t>
+  </si>
+  <si>
+    <t>inva_0_3</t>
+  </si>
+  <si>
+    <t>inva_0_4</t>
+  </si>
+  <si>
+    <t>inva_0_5</t>
+  </si>
+  <si>
+    <t>inva_0_6</t>
+  </si>
+  <si>
+    <t>inva_0_7</t>
+  </si>
+  <si>
+    <t>inva_0_8</t>
+  </si>
+  <si>
+    <t>inva_1_1</t>
+  </si>
+  <si>
+    <t>inva_1_2</t>
+  </si>
+  <si>
+    <t>inva_1_3</t>
+  </si>
+  <si>
+    <t>inva_1_4</t>
+  </si>
+  <si>
+    <t>inva_1_5</t>
+  </si>
+  <si>
+    <t>inva_1_6</t>
+  </si>
+  <si>
+    <t>inva_1_7</t>
+  </si>
+  <si>
+    <t>inva_1_8</t>
+  </si>
+  <si>
+    <t>inva_2_1</t>
+  </si>
+  <si>
+    <t>inva_2_2</t>
+  </si>
+  <si>
+    <t>inva_2_3</t>
+  </si>
+  <si>
+    <t>inva_2_4</t>
+  </si>
+  <si>
+    <t>inva_2_5</t>
+  </si>
+  <si>
+    <t>inva_2_6</t>
+  </si>
+  <si>
+    <t>inva_2_7</t>
+  </si>
+  <si>
+    <t>inva_2_8</t>
+  </si>
+  <si>
+    <t>inva_3_1</t>
+  </si>
+  <si>
+    <t>inva_3_2</t>
+  </si>
+  <si>
+    <t>inva_3_3</t>
+  </si>
+  <si>
+    <t>inva_3_4</t>
+  </si>
+  <si>
+    <t>inva_3_5</t>
+  </si>
+  <si>
+    <t>inva_3_6</t>
+  </si>
+  <si>
+    <t>inva_3_7</t>
+  </si>
+  <si>
+    <t>inva_3_8</t>
+  </si>
+  <si>
+    <t>inva_4_1</t>
+  </si>
+  <si>
+    <t>inva_4_2</t>
+  </si>
+  <si>
+    <t>inva_4_3</t>
+  </si>
+  <si>
+    <t>inva_4_4</t>
+  </si>
+  <si>
+    <t>inva_4_5</t>
+  </si>
+  <si>
+    <t>inva_4_6</t>
+  </si>
+  <si>
+    <t>inva_4_7</t>
+  </si>
+  <si>
+    <t>inva_4_8</t>
+  </si>
+  <si>
+    <t>inva_5_1</t>
+  </si>
+  <si>
+    <t>inva_5_2</t>
+  </si>
+  <si>
+    <t>inva_5_3</t>
+  </si>
+  <si>
+    <t>inva_5_4</t>
+  </si>
+  <si>
+    <t>inva_5_5</t>
+  </si>
+  <si>
+    <t>inva_5_6</t>
+  </si>
+  <si>
+    <t>inva_5_7</t>
+  </si>
+  <si>
+    <t>inva_5_8</t>
+  </si>
+  <si>
+    <t>inva_6_1</t>
+  </si>
+  <si>
+    <t>inva_6_2</t>
+  </si>
+  <si>
+    <t>inva_6_3</t>
+  </si>
+  <si>
+    <t>inva_6_4</t>
+  </si>
+  <si>
+    <t>inva_6_5</t>
+  </si>
+  <si>
+    <t>inva_6_6</t>
+  </si>
+  <si>
+    <t>inva_6_7</t>
+  </si>
+  <si>
+    <t>inva_6_8</t>
   </si>
 </sst>
 </file>
@@ -13103,13 +13267,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>400</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>wingLookId|Int</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13416,7 +13592,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13495,7 +13671,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <f>IF(ISBLANK(G2),"",
@@ -13527,13 +13703,13 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -13561,7 +13737,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <f>IF(ISBLANK(G3),"",
@@ -13593,13 +13769,13 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -13627,7 +13803,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <f>IF(ISBLANK(G4),"",
@@ -13659,13 +13835,13 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -13693,7 +13869,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <f>IF(ISBLANK(G5),"",
@@ -13725,13 +13901,13 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -13759,7 +13935,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <f>IF(ISBLANK(G6),"",
@@ -13791,13 +13967,13 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -13825,7 +14001,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <f>IF(ISBLANK(G7),"",
@@ -13857,13 +14033,13 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>3.9990000000000001</v>
@@ -13891,7 +14067,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <f>IF(ISBLANK(G8),"",
@@ -13923,13 +14099,13 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>8.9990000000000006</v>
@@ -13957,7 +14133,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <f>IF(ISBLANK(G9),"",
@@ -13989,13 +14165,13 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>10.999000000000001</v>
@@ -14023,7 +14199,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" t="str">
         <f>IF(ISBLANK(G10),"",
@@ -14052,13 +14228,13 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -14086,7 +14262,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" t="str">
         <f>IF(ISBLANK(G11),"",
@@ -14115,13 +14291,13 @@
         <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -14149,7 +14325,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" t="str">
         <f>IF(ISBLANK(G12),"",
@@ -14178,13 +14354,13 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -14212,7 +14388,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" t="str">
         <f>IF(ISBLANK(G13),"",
@@ -14241,13 +14417,13 @@
         <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -14275,7 +14451,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" t="str">
         <f>IF(ISBLANK(G14),"",
@@ -14304,13 +14480,13 @@
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -14338,7 +14514,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" t="str">
         <f>IF(ISBLANK(G15),"",
@@ -14367,13 +14543,13 @@
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>3.9990000000000001</v>
@@ -14401,7 +14577,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" t="str">
         <f>IF(ISBLANK(G16),"",
@@ -14430,13 +14606,13 @@
         <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N16">
         <v>8.9990000000000006</v>
@@ -14464,7 +14640,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" t="str">
         <f>IF(ISBLANK(G17),"",
@@ -14493,13 +14669,13 @@
         <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N17">
         <v>10.999000000000001</v>
@@ -14527,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <f>IF(ISBLANK(G18),"",
@@ -14556,13 +14732,13 @@
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -14590,7 +14766,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <f>IF(ISBLANK(G19),"",
@@ -14619,13 +14795,13 @@
         <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -14653,7 +14829,7 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <f>IF(ISBLANK(G20),"",
@@ -14682,13 +14858,13 @@
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -14716,7 +14892,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <f>IF(ISBLANK(G21),"",
@@ -14745,13 +14921,13 @@
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -14779,7 +14955,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <f>IF(ISBLANK(G22),"",
@@ -14808,13 +14984,13 @@
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -14842,7 +15018,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <f>IF(ISBLANK(G23),"",
@@ -14871,13 +15047,13 @@
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N23">
         <v>3.9990000000000001</v>
@@ -14905,7 +15081,7 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <f>IF(ISBLANK(G24),"",
@@ -14934,13 +15110,13 @@
         <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="N24">
         <v>8.9990000000000006</v>
@@ -14968,7 +15144,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <f>IF(ISBLANK(G25),"",
@@ -14997,13 +15173,13 @@
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N25">
         <v>10.999000000000001</v>
@@ -15031,7 +15207,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" t="str">
         <f>IF(ISBLANK(G26),"",
@@ -15066,10 +15242,10 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -15097,7 +15273,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" t="str">
         <f>IF(ISBLANK(G27),"",
@@ -15132,10 +15308,10 @@
         <v>4</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -15163,7 +15339,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" t="str">
         <f>IF(ISBLANK(G28),"",
@@ -15198,10 +15374,10 @@
         <v>4</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -15229,7 +15405,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" t="str">
         <f>IF(ISBLANK(G29),"",
@@ -15264,10 +15440,10 @@
         <v>4</v>
       </c>
       <c r="L29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -15295,7 +15471,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" t="str">
         <f>IF(ISBLANK(G30),"",
@@ -15330,10 +15506,10 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -15361,7 +15537,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" t="str">
         <f>IF(ISBLANK(G31),"",
@@ -15396,10 +15572,10 @@
         <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N31">
         <v>3.9990000000000001</v>
@@ -15427,7 +15603,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" t="str">
         <f>IF(ISBLANK(G32),"",
@@ -15462,10 +15638,10 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N32">
         <v>8.9990000000000006</v>
@@ -15493,7 +15669,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" t="str">
         <f>IF(ISBLANK(G33),"",
@@ -15528,10 +15704,10 @@
         <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="N33">
         <v>10.999000000000001</v>
@@ -15559,7 +15735,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <f>IF(ISBLANK(G34),"",
@@ -15588,13 +15764,13 @@
         <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -15622,7 +15798,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <f>IF(ISBLANK(G35),"",
@@ -15651,13 +15827,13 @@
         <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -15685,7 +15861,7 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <f>IF(ISBLANK(G36),"",
@@ -15714,13 +15890,13 @@
         <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -15748,7 +15924,7 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <f>IF(ISBLANK(G37),"",
@@ -15777,13 +15953,13 @@
         <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -15811,7 +15987,7 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <f>IF(ISBLANK(G38),"",
@@ -15840,13 +16016,13 @@
         <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -15874,7 +16050,7 @@
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <f>IF(ISBLANK(G39),"",
@@ -15903,13 +16079,13 @@
         <v>26</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M39" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="N39">
         <v>3.9990000000000001</v>
@@ -15937,7 +16113,7 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <f>IF(ISBLANK(G40),"",
@@ -15966,13 +16142,13 @@
         <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="N40">
         <v>8.9990000000000006</v>
@@ -16000,7 +16176,7 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <f>IF(ISBLANK(G41),"",
@@ -16029,13 +16205,13 @@
         <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N41">
         <v>10.999000000000001</v>
@@ -16063,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <f>IF(ISBLANK(G42),"",
@@ -16092,13 +16268,13 @@
         <v>27</v>
       </c>
       <c r="J42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -16126,7 +16302,7 @@
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <f>IF(ISBLANK(G43),"",
@@ -16155,13 +16331,13 @@
         <v>27</v>
       </c>
       <c r="J43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -16189,7 +16365,7 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <f>IF(ISBLANK(G44),"",
@@ -16218,13 +16394,13 @@
         <v>27</v>
       </c>
       <c r="J44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -16252,7 +16428,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <f>IF(ISBLANK(G45),"",
@@ -16281,13 +16457,13 @@
         <v>27</v>
       </c>
       <c r="J45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M45" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -16315,7 +16491,7 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <f>IF(ISBLANK(G46),"",
@@ -16344,13 +16520,13 @@
         <v>27</v>
       </c>
       <c r="J46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -16378,7 +16554,7 @@
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <f>IF(ISBLANK(G47),"",
@@ -16407,13 +16583,13 @@
         <v>27</v>
       </c>
       <c r="J47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M47" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="N47">
         <v>3.9990000000000001</v>
@@ -16441,7 +16617,7 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <f>IF(ISBLANK(G48),"",
@@ -16470,13 +16646,13 @@
         <v>27</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N48">
         <v>8.9990000000000006</v>
@@ -16504,7 +16680,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <f>IF(ISBLANK(G49),"",
@@ -16533,13 +16709,13 @@
         <v>27</v>
       </c>
       <c r="J49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="N49">
         <v>10.999000000000001</v>
@@ -16567,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" t="str">
         <f>IF(ISBLANK(G50),"",
@@ -16596,13 +16772,13 @@
         <v>28</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M50" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -16630,7 +16806,7 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51" t="str">
         <f>IF(ISBLANK(G51),"",
@@ -16659,13 +16835,13 @@
         <v>28</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M51" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -16693,7 +16869,7 @@
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H52" t="str">
         <f>IF(ISBLANK(G52),"",
@@ -16722,13 +16898,13 @@
         <v>28</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -16756,7 +16932,7 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53" t="str">
         <f>IF(ISBLANK(G53),"",
@@ -16785,13 +16961,13 @@
         <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M53" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -16819,7 +16995,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" t="str">
         <f>IF(ISBLANK(G54),"",
@@ -16848,13 +17024,13 @@
         <v>28</v>
       </c>
       <c r="J54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M54" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -16882,7 +17058,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H55" t="str">
         <f>IF(ISBLANK(G55),"",
@@ -16911,13 +17087,13 @@
         <v>28</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="N55">
         <v>3.9990000000000001</v>
@@ -16945,7 +17121,7 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H56" t="str">
         <f>IF(ISBLANK(G56),"",
@@ -16974,13 +17150,13 @@
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M56" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N56">
         <v>8.9990000000000006</v>
@@ -17008,7 +17184,7 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" t="str">
         <f>IF(ISBLANK(G57),"",
@@ -17037,13 +17213,13 @@
         <v>28</v>
       </c>
       <c r="J57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M57" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N57">
         <v>10.999000000000001</v>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77028C3B-3BE1-4E8C-A1EB-4D9AC8EA88CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C6D32-83F5-47D3-9AAA-8C6882060966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InvasionTable!$N$1:$N$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InvasionTable!$O$1:$O$57</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="98">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,10 @@
   <si>
     <t>inva_6_8</t>
   </si>
+  <si>
+    <t>killSp|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -13267,7 +13271,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
@@ -13275,17 +13279,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>wingLookId|Int</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13588,11 +13586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F99DA2-EABB-4D74-8370-957E4E392B1E}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13602,10 +13600,10 @@
     <col min="8" max="8" width="22.375" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -13646,10 +13644,13 @@
         <v>29</v>
       </c>
       <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13712,10 +13713,13 @@
         <v>41</v>
       </c>
       <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -13778,10 +13782,13 @@
         <v>42</v>
       </c>
       <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -13844,10 +13851,13 @@
         <v>43</v>
       </c>
       <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13910,10 +13920,13 @@
         <v>44</v>
       </c>
       <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -13976,10 +13989,13 @@
         <v>45</v>
       </c>
       <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -14042,10 +14058,13 @@
         <v>46</v>
       </c>
       <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -14108,10 +14127,13 @@
         <v>47</v>
       </c>
       <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -14174,10 +14196,13 @@
         <v>48</v>
       </c>
       <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9">
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -14237,10 +14262,13 @@
         <v>49</v>
       </c>
       <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -14300,10 +14328,13 @@
         <v>50</v>
       </c>
       <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -14363,10 +14394,13 @@
         <v>51</v>
       </c>
       <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -14426,10 +14460,13 @@
         <v>52</v>
       </c>
       <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -14489,10 +14526,13 @@
         <v>53</v>
       </c>
       <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -14552,10 +14592,13 @@
         <v>54</v>
       </c>
       <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -14615,10 +14658,13 @@
         <v>55</v>
       </c>
       <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -14678,10 +14724,13 @@
         <v>56</v>
       </c>
       <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -14741,10 +14790,13 @@
         <v>57</v>
       </c>
       <c r="N18">
+        <v>20</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -14804,10 +14856,13 @@
         <v>58</v>
       </c>
       <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -14867,10 +14922,13 @@
         <v>59</v>
       </c>
       <c r="N20">
+        <v>20</v>
+      </c>
+      <c r="O20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14930,10 +14988,13 @@
         <v>60</v>
       </c>
       <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -14993,10 +15054,13 @@
         <v>61</v>
       </c>
       <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -15056,10 +15120,13 @@
         <v>62</v>
       </c>
       <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -15119,10 +15186,13 @@
         <v>63</v>
       </c>
       <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="O24">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -15182,10 +15252,13 @@
         <v>64</v>
       </c>
       <c r="N25">
+        <v>20</v>
+      </c>
+      <c r="O25">
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -15248,10 +15321,13 @@
         <v>65</v>
       </c>
       <c r="N26">
+        <v>20</v>
+      </c>
+      <c r="O26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -15314,10 +15390,13 @@
         <v>66</v>
       </c>
       <c r="N27">
+        <v>20</v>
+      </c>
+      <c r="O27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -15380,10 +15459,13 @@
         <v>67</v>
       </c>
       <c r="N28">
+        <v>20</v>
+      </c>
+      <c r="O28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15446,10 +15528,13 @@
         <v>68</v>
       </c>
       <c r="N29">
+        <v>20</v>
+      </c>
+      <c r="O29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -15512,10 +15597,13 @@
         <v>69</v>
       </c>
       <c r="N30">
+        <v>20</v>
+      </c>
+      <c r="O30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -15578,10 +15666,13 @@
         <v>70</v>
       </c>
       <c r="N31">
+        <v>20</v>
+      </c>
+      <c r="O31">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -15644,10 +15735,13 @@
         <v>71</v>
       </c>
       <c r="N32">
+        <v>20</v>
+      </c>
+      <c r="O32">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -15710,10 +15804,13 @@
         <v>72</v>
       </c>
       <c r="N33">
+        <v>20</v>
+      </c>
+      <c r="O33">
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -15773,10 +15870,13 @@
         <v>73</v>
       </c>
       <c r="N34">
+        <v>20</v>
+      </c>
+      <c r="O34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -15836,10 +15936,13 @@
         <v>74</v>
       </c>
       <c r="N35">
+        <v>20</v>
+      </c>
+      <c r="O35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -15899,10 +16002,13 @@
         <v>75</v>
       </c>
       <c r="N36">
+        <v>20</v>
+      </c>
+      <c r="O36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -15962,10 +16068,13 @@
         <v>76</v>
       </c>
       <c r="N37">
+        <v>20</v>
+      </c>
+      <c r="O37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -16025,10 +16134,13 @@
         <v>77</v>
       </c>
       <c r="N38">
+        <v>20</v>
+      </c>
+      <c r="O38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -16088,10 +16200,13 @@
         <v>78</v>
       </c>
       <c r="N39">
+        <v>20</v>
+      </c>
+      <c r="O39">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -16151,10 +16266,13 @@
         <v>79</v>
       </c>
       <c r="N40">
+        <v>20</v>
+      </c>
+      <c r="O40">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -16214,10 +16332,13 @@
         <v>80</v>
       </c>
       <c r="N41">
+        <v>20</v>
+      </c>
+      <c r="O41">
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -16277,10 +16398,13 @@
         <v>81</v>
       </c>
       <c r="N42">
+        <v>20</v>
+      </c>
+      <c r="O42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -16340,10 +16464,13 @@
         <v>82</v>
       </c>
       <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="O43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -16403,10 +16530,13 @@
         <v>83</v>
       </c>
       <c r="N44">
+        <v>20</v>
+      </c>
+      <c r="O44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -16466,10 +16596,13 @@
         <v>84</v>
       </c>
       <c r="N45">
+        <v>20</v>
+      </c>
+      <c r="O45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -16529,10 +16662,13 @@
         <v>85</v>
       </c>
       <c r="N46">
+        <v>20</v>
+      </c>
+      <c r="O46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -16592,10 +16728,13 @@
         <v>86</v>
       </c>
       <c r="N47">
+        <v>20</v>
+      </c>
+      <c r="O47">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -16655,10 +16794,13 @@
         <v>87</v>
       </c>
       <c r="N48">
+        <v>20</v>
+      </c>
+      <c r="O48">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -16718,10 +16860,13 @@
         <v>88</v>
       </c>
       <c r="N49">
+        <v>20</v>
+      </c>
+      <c r="O49">
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6</v>
       </c>
@@ -16781,10 +16926,13 @@
         <v>89</v>
       </c>
       <c r="N50">
+        <v>20</v>
+      </c>
+      <c r="O50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6</v>
       </c>
@@ -16844,10 +16992,13 @@
         <v>90</v>
       </c>
       <c r="N51">
+        <v>20</v>
+      </c>
+      <c r="O51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6</v>
       </c>
@@ -16907,10 +17058,13 @@
         <v>91</v>
       </c>
       <c r="N52">
+        <v>20</v>
+      </c>
+      <c r="O52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -16970,10 +17124,13 @@
         <v>92</v>
       </c>
       <c r="N53">
+        <v>20</v>
+      </c>
+      <c r="O53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6</v>
       </c>
@@ -17033,10 +17190,13 @@
         <v>93</v>
       </c>
       <c r="N54">
+        <v>20</v>
+      </c>
+      <c r="O54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6</v>
       </c>
@@ -17096,10 +17256,13 @@
         <v>94</v>
       </c>
       <c r="N55">
+        <v>20</v>
+      </c>
+      <c r="O55">
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6</v>
       </c>
@@ -17159,10 +17322,13 @@
         <v>95</v>
       </c>
       <c r="N56">
+        <v>20</v>
+      </c>
+      <c r="O56">
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6</v>
       </c>
@@ -17222,11 +17388,14 @@
         <v>96</v>
       </c>
       <c r="N57">
+        <v>20</v>
+      </c>
+      <c r="O57">
         <v>10.999000000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="N1:N57" xr:uid="{C242B5F0-CE81-45C6-A9B6-1B075F739F75}"/>
+  <autoFilter ref="O1:O57" xr:uid="{C242B5F0-CE81-45C6-A9B6-1B075F739F75}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C6D32-83F5-47D3-9AAA-8C6882060966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D3005-6EA2-4F56-8DEF-F8402A8F68F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
@@ -171,14 +171,6 @@
   </si>
   <si>
     <t>Actor0201, Actor3019, Actor1029, Actor1109, Actor2238</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor2103, Actor3021, Actor0024, Actor0125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor0201, Actor0030, Actor3022, Actor2128, Actor3114</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,6 +349,14 @@
   </si>
   <si>
     <t>killSp|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0201, Actor0030, Actor3022, Actor3114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2103, Actor3021, Actor0024, Actor0125, Actor2128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13590,7 +13590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13644,7 +13644,7 @@
         <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O1" t="s">
         <v>19</v>
@@ -13672,9 +13672,9 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2">
+        <v>96</v>
+      </c>
+      <c r="H2" t="str">
         <f>IF(ISBLANK(G2),"",
 IF(ISERROR(FIND(",",G2)),
   IF(ISERROR(VLOOKUP(G2,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13695,7 +13695,7 @@
     TRIM(MID(G2,FIND(",",G2,FIND(",",G2)+1)+1,FIND(",",G2,FIND(",",G2,FIND(",",G2)+1)+1)-FIND(",",G2,FIND(",",G2)+1)-1)),VLOOKUP(TRIM(MID(G2,FIND(",",G2,FIND(",",G2)+1)+1,FIND(",",G2,FIND(",",G2,FIND(",",G2)+1)+1)-FIND(",",G2,FIND(",",G2)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G2,FIND(",",G2,FIND(",",G2,FIND(",",G2)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G2,FIND(",",G2,FIND(",",G2,FIND(",",G2)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -13710,10 +13710,10 @@
         <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -13741,9 +13741,9 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3">
+        <v>96</v>
+      </c>
+      <c r="H3" t="str">
         <f>IF(ISBLANK(G3),"",
 IF(ISERROR(FIND(",",G3)),
   IF(ISERROR(VLOOKUP(G3,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13764,7 +13764,7 @@
     TRIM(MID(G3,FIND(",",G3,FIND(",",G3)+1)+1,FIND(",",G3,FIND(",",G3,FIND(",",G3)+1)+1)-FIND(",",G3,FIND(",",G3)+1)-1)),VLOOKUP(TRIM(MID(G3,FIND(",",G3,FIND(",",G3)+1)+1,FIND(",",G3,FIND(",",G3,FIND(",",G3)+1)+1)-FIND(",",G3,FIND(",",G3)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G3,FIND(",",G3,FIND(",",G3,FIND(",",G3)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G3,FIND(",",G3,FIND(",",G3,FIND(",",G3)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -13779,10 +13779,10 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -13810,9 +13810,9 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4">
+        <v>96</v>
+      </c>
+      <c r="H4" t="str">
         <f>IF(ISBLANK(G4),"",
 IF(ISERROR(FIND(",",G4)),
   IF(ISERROR(VLOOKUP(G4,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13833,7 +13833,7 @@
     TRIM(MID(G4,FIND(",",G4,FIND(",",G4)+1)+1,FIND(",",G4,FIND(",",G4,FIND(",",G4)+1)+1)-FIND(",",G4,FIND(",",G4)+1)-1)),VLOOKUP(TRIM(MID(G4,FIND(",",G4,FIND(",",G4)+1)+1,FIND(",",G4,FIND(",",G4,FIND(",",G4)+1)+1)-FIND(",",G4,FIND(",",G4)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G4,FIND(",",G4,FIND(",",G4,FIND(",",G4)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G4,FIND(",",G4,FIND(",",G4,FIND(",",G4)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -13848,10 +13848,10 @@
         <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -13879,9 +13879,9 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
+        <v>96</v>
+      </c>
+      <c r="H5" t="str">
         <f>IF(ISBLANK(G5),"",
 IF(ISERROR(FIND(",",G5)),
   IF(ISERROR(VLOOKUP(G5,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13902,7 +13902,7 @@
     TRIM(MID(G5,FIND(",",G5,FIND(",",G5)+1)+1,FIND(",",G5,FIND(",",G5,FIND(",",G5)+1)+1)-FIND(",",G5,FIND(",",G5)+1)-1)),VLOOKUP(TRIM(MID(G5,FIND(",",G5,FIND(",",G5)+1)+1,FIND(",",G5,FIND(",",G5,FIND(",",G5)+1)+1)-FIND(",",G5,FIND(",",G5)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G5,FIND(",",G5,FIND(",",G5,FIND(",",G5)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G5,FIND(",",G5,FIND(",",G5,FIND(",",G5)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -13917,10 +13917,10 @@
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -13948,9 +13948,9 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6">
+        <v>96</v>
+      </c>
+      <c r="H6" t="str">
         <f>IF(ISBLANK(G6),"",
 IF(ISERROR(FIND(",",G6)),
   IF(ISERROR(VLOOKUP(G6,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13971,7 +13971,7 @@
     TRIM(MID(G6,FIND(",",G6,FIND(",",G6)+1)+1,FIND(",",G6,FIND(",",G6,FIND(",",G6)+1)+1)-FIND(",",G6,FIND(",",G6)+1)-1)),VLOOKUP(TRIM(MID(G6,FIND(",",G6,FIND(",",G6)+1)+1,FIND(",",G6,FIND(",",G6,FIND(",",G6)+1)+1)-FIND(",",G6,FIND(",",G6)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G6,FIND(",",G6,FIND(",",G6,FIND(",",G6)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G6,FIND(",",G6,FIND(",",G6,FIND(",",G6)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -13986,10 +13986,10 @@
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -14017,9 +14017,9 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
+        <v>96</v>
+      </c>
+      <c r="H7" t="str">
         <f>IF(ISBLANK(G7),"",
 IF(ISERROR(FIND(",",G7)),
   IF(ISERROR(VLOOKUP(G7,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14040,7 +14040,7 @@
     TRIM(MID(G7,FIND(",",G7,FIND(",",G7)+1)+1,FIND(",",G7,FIND(",",G7,FIND(",",G7)+1)+1)-FIND(",",G7,FIND(",",G7)+1)-1)),VLOOKUP(TRIM(MID(G7,FIND(",",G7,FIND(",",G7)+1)+1,FIND(",",G7,FIND(",",G7,FIND(",",G7)+1)+1)-FIND(",",G7,FIND(",",G7)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G7,FIND(",",G7,FIND(",",G7,FIND(",",G7)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G7,FIND(",",G7,FIND(",",G7,FIND(",",G7)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -14055,10 +14055,10 @@
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O7">
         <v>3.9990000000000001</v>
@@ -14086,9 +14086,9 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8">
+        <v>96</v>
+      </c>
+      <c r="H8" t="str">
         <f>IF(ISBLANK(G8),"",
 IF(ISERROR(FIND(",",G8)),
   IF(ISERROR(VLOOKUP(G8,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14109,7 +14109,7 @@
     TRIM(MID(G8,FIND(",",G8,FIND(",",G8)+1)+1,FIND(",",G8,FIND(",",G8,FIND(",",G8)+1)+1)-FIND(",",G8,FIND(",",G8)+1)-1)),VLOOKUP(TRIM(MID(G8,FIND(",",G8,FIND(",",G8)+1)+1,FIND(",",G8,FIND(",",G8,FIND(",",G8)+1)+1)-FIND(",",G8,FIND(",",G8)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G8,FIND(",",G8,FIND(",",G8,FIND(",",G8)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G8,FIND(",",G8,FIND(",",G8,FIND(",",G8)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -14124,10 +14124,10 @@
         <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O8">
         <v>8.9990000000000006</v>
@@ -14155,9 +14155,9 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9">
+        <v>96</v>
+      </c>
+      <c r="H9" t="str">
         <f>IF(ISBLANK(G9),"",
 IF(ISERROR(FIND(",",G9)),
   IF(ISERROR(VLOOKUP(G9,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14178,7 +14178,7 @@
     TRIM(MID(G9,FIND(",",G9,FIND(",",G9)+1)+1,FIND(",",G9,FIND(",",G9,FIND(",",G9)+1)+1)-FIND(",",G9,FIND(",",G9)+1)-1)),VLOOKUP(TRIM(MID(G9,FIND(",",G9,FIND(",",G9)+1)+1,FIND(",",G9,FIND(",",G9,FIND(",",G9)+1)+1)-FIND(",",G9,FIND(",",G9)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G9,FIND(",",G9,FIND(",",G9,FIND(",",G9)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G9,FIND(",",G9,FIND(",",G9,FIND(",",G9)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -14193,10 +14193,10 @@
         <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O9">
         <v>10.999000000000001</v>
@@ -14224,7 +14224,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" t="str">
         <f>IF(ISBLANK(G10),"",
@@ -14259,10 +14259,10 @@
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -14290,7 +14290,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" t="str">
         <f>IF(ISBLANK(G11),"",
@@ -14325,10 +14325,10 @@
         <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -14356,7 +14356,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" t="str">
         <f>IF(ISBLANK(G12),"",
@@ -14391,10 +14391,10 @@
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -14422,7 +14422,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" t="str">
         <f>IF(ISBLANK(G13),"",
@@ -14457,10 +14457,10 @@
         <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -14488,7 +14488,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H14" t="str">
         <f>IF(ISBLANK(G14),"",
@@ -14523,10 +14523,10 @@
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -14554,7 +14554,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" t="str">
         <f>IF(ISBLANK(G15),"",
@@ -14589,10 +14589,10 @@
         <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O15">
         <v>3.9990000000000001</v>
@@ -14620,7 +14620,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" t="str">
         <f>IF(ISBLANK(G16),"",
@@ -14655,10 +14655,10 @@
         <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O16">
         <v>8.9990000000000006</v>
@@ -14686,7 +14686,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17" t="str">
         <f>IF(ISBLANK(G17),"",
@@ -14721,10 +14721,10 @@
         <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O17">
         <v>10.999000000000001</v>
@@ -14787,10 +14787,10 @@
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -14853,10 +14853,10 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -14919,10 +14919,10 @@
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -14985,10 +14985,10 @@
         <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -15051,10 +15051,10 @@
         <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N22">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -15117,10 +15117,10 @@
         <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N23">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O23">
         <v>3.9990000000000001</v>
@@ -15183,10 +15183,10 @@
         <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N24">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O24">
         <v>8.9990000000000006</v>
@@ -15249,10 +15249,10 @@
         <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O25">
         <v>10.999000000000001</v>
@@ -15280,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26" t="str">
         <f>IF(ISBLANK(G26),"",
@@ -15318,10 +15318,10 @@
         <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N26">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -15349,7 +15349,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H27" t="str">
         <f>IF(ISBLANK(G27),"",
@@ -15387,10 +15387,10 @@
         <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N27">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -15418,7 +15418,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28" t="str">
         <f>IF(ISBLANK(G28),"",
@@ -15456,10 +15456,10 @@
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -15487,7 +15487,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H29" t="str">
         <f>IF(ISBLANK(G29),"",
@@ -15525,10 +15525,10 @@
         <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -15556,7 +15556,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H30" t="str">
         <f>IF(ISBLANK(G30),"",
@@ -15594,10 +15594,10 @@
         <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N30">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -15625,7 +15625,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H31" t="str">
         <f>IF(ISBLANK(G31),"",
@@ -15663,10 +15663,10 @@
         <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O31">
         <v>3.9990000000000001</v>
@@ -15694,7 +15694,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H32" t="str">
         <f>IF(ISBLANK(G32),"",
@@ -15732,10 +15732,10 @@
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O32">
         <v>8.9990000000000006</v>
@@ -15763,7 +15763,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H33" t="str">
         <f>IF(ISBLANK(G33),"",
@@ -15801,10 +15801,10 @@
         <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N33">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O33">
         <v>10.999000000000001</v>
@@ -15867,10 +15867,10 @@
         <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N34">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -15933,10 +15933,10 @@
         <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N35">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -15999,10 +15999,10 @@
         <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -16065,10 +16065,10 @@
         <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N37">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -16131,10 +16131,10 @@
         <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -16197,10 +16197,10 @@
         <v>34</v>
       </c>
       <c r="M39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N39">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O39">
         <v>3.9990000000000001</v>
@@ -16263,10 +16263,10 @@
         <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O40">
         <v>8.9990000000000006</v>
@@ -16329,10 +16329,10 @@
         <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N41">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O41">
         <v>10.999000000000001</v>
@@ -16395,10 +16395,10 @@
         <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N42">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -16461,10 +16461,10 @@
         <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N43">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -16527,10 +16527,10 @@
         <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N44">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -16593,10 +16593,10 @@
         <v>34</v>
       </c>
       <c r="M45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N45">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -16659,10 +16659,10 @@
         <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -16725,10 +16725,10 @@
         <v>34</v>
       </c>
       <c r="M47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N47">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O47">
         <v>3.9990000000000001</v>
@@ -16791,10 +16791,10 @@
         <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N48">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O48">
         <v>8.9990000000000006</v>
@@ -16857,10 +16857,10 @@
         <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O49">
         <v>10.999000000000001</v>
@@ -16888,9 +16888,9 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" t="str">
+        <v>97</v>
+      </c>
+      <c r="H50">
         <f>IF(ISBLANK(G50),"",
 IF(ISERROR(FIND(",",G50)),
   IF(ISERROR(VLOOKUP(G50,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16911,7 +16911,7 @@
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
+        <v>0</v>
       </c>
       <c r="I50" t="s">
         <v>28</v>
@@ -16923,7 +16923,7 @@
         <v>34</v>
       </c>
       <c r="M50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N50">
         <v>20</v>
@@ -16954,9 +16954,9 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" t="str">
+        <v>97</v>
+      </c>
+      <c r="H51">
         <f>IF(ISBLANK(G51),"",
 IF(ISERROR(FIND(",",G51)),
   IF(ISERROR(VLOOKUP(G51,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16977,7 +16977,7 @@
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>28</v>
@@ -16989,7 +16989,7 @@
         <v>34</v>
       </c>
       <c r="M51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N51">
         <v>20</v>
@@ -17020,9 +17020,9 @@
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="str">
+        <v>97</v>
+      </c>
+      <c r="H52">
         <f>IF(ISBLANK(G52),"",
 IF(ISERROR(FIND(",",G52)),
   IF(ISERROR(VLOOKUP(G52,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17043,7 +17043,7 @@
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>28</v>
@@ -17055,7 +17055,7 @@
         <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N52">
         <v>20</v>
@@ -17086,9 +17086,9 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" t="str">
+        <v>97</v>
+      </c>
+      <c r="H53">
         <f>IF(ISBLANK(G53),"",
 IF(ISERROR(FIND(",",G53)),
   IF(ISERROR(VLOOKUP(G53,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17109,7 +17109,7 @@
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>28</v>
@@ -17121,7 +17121,7 @@
         <v>34</v>
       </c>
       <c r="M53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N53">
         <v>20</v>
@@ -17152,9 +17152,9 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="str">
+        <v>97</v>
+      </c>
+      <c r="H54">
         <f>IF(ISBLANK(G54),"",
 IF(ISERROR(FIND(",",G54)),
   IF(ISERROR(VLOOKUP(G54,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17175,7 +17175,7 @@
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
         <v>28</v>
@@ -17187,7 +17187,7 @@
         <v>34</v>
       </c>
       <c r="M54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N54">
         <v>20</v>
@@ -17218,9 +17218,9 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" t="str">
+        <v>97</v>
+      </c>
+      <c r="H55">
         <f>IF(ISBLANK(G55),"",
 IF(ISERROR(FIND(",",G55)),
   IF(ISERROR(VLOOKUP(G55,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17241,7 +17241,7 @@
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>28</v>
@@ -17253,7 +17253,7 @@
         <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N55">
         <v>20</v>
@@ -17284,9 +17284,9 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="str">
+        <v>97</v>
+      </c>
+      <c r="H56">
         <f>IF(ISBLANK(G56),"",
 IF(ISERROR(FIND(",",G56)),
   IF(ISERROR(VLOOKUP(G56,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17307,7 +17307,7 @@
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>28</v>
@@ -17319,7 +17319,7 @@
         <v>34</v>
       </c>
       <c r="M56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N56">
         <v>20</v>
@@ -17350,9 +17350,9 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" t="str">
+        <v>97</v>
+      </c>
+      <c r="H57">
         <f>IF(ISBLANK(G57),"",
 IF(ISERROR(FIND(",",G57)),
   IF(ISERROR(VLOOKUP(G57,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17373,7 +17373,7 @@
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, Soldier, GloryArmor, RpgKnight</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
         <v>28</v>
@@ -17385,7 +17385,7 @@
         <v>34</v>
       </c>
       <c r="M57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N57">
         <v>20</v>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D3005-6EA2-4F56-8DEF-F8402A8F68F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F709E-3795-4199-B940-4F11C828DF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
@@ -164,20 +164,6 @@
   <si>
     <t>InvasionUI_RewardMore</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor0201, Actor2015, Actor2120, Actor0113, Actor0104, Actor3231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor0201, Actor3019, Actor1029, Actor1109, Actor2238</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor1002, Actor2010, Actor1141, Actor0240</t>
-  </si>
-  <si>
-    <t>Actor2103, Actor0007, Actor2011, Actor1216</t>
   </si>
   <si>
     <t>inva_0_1</t>
@@ -352,11 +338,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor0201, Actor0030, Actor3022, Actor3114</t>
+    <t>Actor1002, Actor3021, Actor0024, Actor0125, Actor2128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor2103, Actor3021, Actor0024, Actor0125, Actor2128</t>
+    <t>Actor0201, Actor2010, Actor1141, Actor0240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2103, Actor0030, Actor3022, Actor3114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2103, Actor0007, Actor2011, Actor1216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0201, Actor3019, Actor1029, Actor1109, Actor2238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0201, Actor2015, Actor2120, Actor0113, Actor0104, Actor3231</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3142,7 +3144,7 @@
             <v>0</v>
           </cell>
           <cell r="AF16" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="AG16" t="b">
             <v>1</v>
@@ -9966,7 +9968,7 @@
             <v>0</v>
           </cell>
           <cell r="AF59" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="AG59" t="b">
             <v>1</v>
@@ -13272,13 +13274,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>400</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -13590,7 +13586,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13644,7 +13640,7 @@
         <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s">
         <v>19</v>
@@ -13672,9 +13668,9 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="str">
+        <v>97</v>
+      </c>
+      <c r="H2">
         <f>IF(ISBLANK(G2),"",
 IF(ISERROR(FIND(",",G2)),
   IF(ISERROR(VLOOKUP(G2,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13695,7 +13691,7 @@
     TRIM(MID(G2,FIND(",",G2,FIND(",",G2)+1)+1,FIND(",",G2,FIND(",",G2,FIND(",",G2)+1)+1)-FIND(",",G2,FIND(",",G2)+1)-1)),VLOOKUP(TRIM(MID(G2,FIND(",",G2,FIND(",",G2)+1)+1,FIND(",",G2,FIND(",",G2,FIND(",",G2)+1)+1)-FIND(",",G2,FIND(",",G2)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G2,FIND(",",G2,FIND(",",G2,FIND(",",G2)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G2,FIND(",",G2,FIND(",",G2,FIND(",",G2)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -13710,10 +13706,10 @@
         <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -13741,9 +13737,9 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="str">
+        <v>97</v>
+      </c>
+      <c r="H3">
         <f>IF(ISBLANK(G3),"",
 IF(ISERROR(FIND(",",G3)),
   IF(ISERROR(VLOOKUP(G3,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13764,7 +13760,7 @@
     TRIM(MID(G3,FIND(",",G3,FIND(",",G3)+1)+1,FIND(",",G3,FIND(",",G3,FIND(",",G3)+1)+1)-FIND(",",G3,FIND(",",G3)+1)-1)),VLOOKUP(TRIM(MID(G3,FIND(",",G3,FIND(",",G3)+1)+1,FIND(",",G3,FIND(",",G3,FIND(",",G3)+1)+1)-FIND(",",G3,FIND(",",G3)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G3,FIND(",",G3,FIND(",",G3,FIND(",",G3)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G3,FIND(",",G3,FIND(",",G3,FIND(",",G3)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -13779,10 +13775,10 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3">
         <v>40</v>
-      </c>
-      <c r="N3">
-        <v>30</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -13810,9 +13806,9 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" t="str">
+        <v>97</v>
+      </c>
+      <c r="H4">
         <f>IF(ISBLANK(G4),"",
 IF(ISERROR(FIND(",",G4)),
   IF(ISERROR(VLOOKUP(G4,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13833,7 +13829,7 @@
     TRIM(MID(G4,FIND(",",G4,FIND(",",G4)+1)+1,FIND(",",G4,FIND(",",G4,FIND(",",G4)+1)+1)-FIND(",",G4,FIND(",",G4)+1)-1)),VLOOKUP(TRIM(MID(G4,FIND(",",G4,FIND(",",G4)+1)+1,FIND(",",G4,FIND(",",G4,FIND(",",G4)+1)+1)-FIND(",",G4,FIND(",",G4)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G4,FIND(",",G4,FIND(",",G4,FIND(",",G4)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G4,FIND(",",G4,FIND(",",G4,FIND(",",G4)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -13848,10 +13844,10 @@
         <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -13879,9 +13875,9 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" t="str">
+        <v>97</v>
+      </c>
+      <c r="H5">
         <f>IF(ISBLANK(G5),"",
 IF(ISERROR(FIND(",",G5)),
   IF(ISERROR(VLOOKUP(G5,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13902,7 +13898,7 @@
     TRIM(MID(G5,FIND(",",G5,FIND(",",G5)+1)+1,FIND(",",G5,FIND(",",G5,FIND(",",G5)+1)+1)-FIND(",",G5,FIND(",",G5)+1)-1)),VLOOKUP(TRIM(MID(G5,FIND(",",G5,FIND(",",G5)+1)+1,FIND(",",G5,FIND(",",G5,FIND(",",G5)+1)+1)-FIND(",",G5,FIND(",",G5)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G5,FIND(",",G5,FIND(",",G5,FIND(",",G5)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G5,FIND(",",G5,FIND(",",G5,FIND(",",G5)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -13917,10 +13913,10 @@
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -13948,9 +13944,9 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" t="str">
+        <v>97</v>
+      </c>
+      <c r="H6">
         <f>IF(ISBLANK(G6),"",
 IF(ISERROR(FIND(",",G6)),
   IF(ISERROR(VLOOKUP(G6,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -13971,7 +13967,7 @@
     TRIM(MID(G6,FIND(",",G6,FIND(",",G6)+1)+1,FIND(",",G6,FIND(",",G6,FIND(",",G6)+1)+1)-FIND(",",G6,FIND(",",G6)+1)-1)),VLOOKUP(TRIM(MID(G6,FIND(",",G6,FIND(",",G6)+1)+1,FIND(",",G6,FIND(",",G6,FIND(",",G6)+1)+1)-FIND(",",G6,FIND(",",G6)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G6,FIND(",",G6,FIND(",",G6,FIND(",",G6)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G6,FIND(",",G6,FIND(",",G6,FIND(",",G6)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -13986,10 +13982,10 @@
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -14017,9 +14013,9 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" t="str">
+        <v>97</v>
+      </c>
+      <c r="H7">
         <f>IF(ISBLANK(G7),"",
 IF(ISERROR(FIND(",",G7)),
   IF(ISERROR(VLOOKUP(G7,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14040,7 +14036,7 @@
     TRIM(MID(G7,FIND(",",G7,FIND(",",G7)+1)+1,FIND(",",G7,FIND(",",G7,FIND(",",G7)+1)+1)-FIND(",",G7,FIND(",",G7)+1)-1)),VLOOKUP(TRIM(MID(G7,FIND(",",G7,FIND(",",G7)+1)+1,FIND(",",G7,FIND(",",G7,FIND(",",G7)+1)+1)-FIND(",",G7,FIND(",",G7)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G7,FIND(",",G7,FIND(",",G7,FIND(",",G7)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G7,FIND(",",G7,FIND(",",G7,FIND(",",G7)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -14055,10 +14051,10 @@
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>3.9990000000000001</v>
@@ -14086,9 +14082,9 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" t="str">
+        <v>97</v>
+      </c>
+      <c r="H8">
         <f>IF(ISBLANK(G8),"",
 IF(ISERROR(FIND(",",G8)),
   IF(ISERROR(VLOOKUP(G8,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14109,7 +14105,7 @@
     TRIM(MID(G8,FIND(",",G8,FIND(",",G8)+1)+1,FIND(",",G8,FIND(",",G8,FIND(",",G8)+1)+1)-FIND(",",G8,FIND(",",G8)+1)-1)),VLOOKUP(TRIM(MID(G8,FIND(",",G8,FIND(",",G8)+1)+1,FIND(",",G8,FIND(",",G8,FIND(",",G8)+1)+1)-FIND(",",G8,FIND(",",G8)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G8,FIND(",",G8,FIND(",",G8,FIND(",",G8)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G8,FIND(",",G8,FIND(",",G8,FIND(",",G8)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -14124,10 +14120,10 @@
         <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O8">
         <v>8.9990000000000006</v>
@@ -14155,9 +14151,9 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" t="str">
+        <v>97</v>
+      </c>
+      <c r="H9">
         <f>IF(ISBLANK(G9),"",
 IF(ISERROR(FIND(",",G9)),
   IF(ISERROR(VLOOKUP(G9,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14178,7 +14174,7 @@
     TRIM(MID(G9,FIND(",",G9,FIND(",",G9)+1)+1,FIND(",",G9,FIND(",",G9,FIND(",",G9)+1)+1)-FIND(",",G9,FIND(",",G9)+1)-1)),VLOOKUP(TRIM(MID(G9,FIND(",",G9,FIND(",",G9)+1)+1,FIND(",",G9,FIND(",",G9,FIND(",",G9)+1)+1)-FIND(",",G9,FIND(",",G9)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G9,FIND(",",G9,FIND(",",G9,FIND(",",G9)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G9,FIND(",",G9,FIND(",",G9,FIND(",",G9)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -14193,10 +14189,10 @@
         <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O9">
         <v>10.999000000000001</v>
@@ -14224,9 +14220,9 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="str">
+        <v>92</v>
+      </c>
+      <c r="H10">
         <f>IF(ISBLANK(G10),"",
 IF(ISERROR(FIND(",",G10)),
   IF(ISERROR(VLOOKUP(G10,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14247,7 +14243,7 @@
     TRIM(MID(G10,FIND(",",G10,FIND(",",G10)+1)+1,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)-FIND(",",G10,FIND(",",G10)+1)-1)),VLOOKUP(TRIM(MID(G10,FIND(",",G10,FIND(",",G10)+1)+1,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)-FIND(",",G10,FIND(",",G10)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G10,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G10,FIND(",",G10,FIND(",",G10,FIND(",",G10)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
@@ -14259,10 +14255,10 @@
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -14290,9 +14286,9 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="str">
+        <v>92</v>
+      </c>
+      <c r="H11">
         <f>IF(ISBLANK(G11),"",
 IF(ISERROR(FIND(",",G11)),
   IF(ISERROR(VLOOKUP(G11,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14313,7 +14309,7 @@
     TRIM(MID(G11,FIND(",",G11,FIND(",",G11)+1)+1,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)-FIND(",",G11,FIND(",",G11)+1)-1)),VLOOKUP(TRIM(MID(G11,FIND(",",G11,FIND(",",G11)+1)+1,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)-FIND(",",G11,FIND(",",G11)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G11,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G11,FIND(",",G11,FIND(",",G11,FIND(",",G11)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>
@@ -14325,10 +14321,10 @@
         <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -14356,9 +14352,9 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="str">
+        <v>92</v>
+      </c>
+      <c r="H12">
         <f>IF(ISBLANK(G12),"",
 IF(ISERROR(FIND(",",G12)),
   IF(ISERROR(VLOOKUP(G12,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14379,7 +14375,7 @@
     TRIM(MID(G12,FIND(",",G12,FIND(",",G12)+1)+1,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)-FIND(",",G12,FIND(",",G12)+1)-1)),VLOOKUP(TRIM(MID(G12,FIND(",",G12,FIND(",",G12)+1)+1,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)-FIND(",",G12,FIND(",",G12)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G12,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G12,FIND(",",G12,FIND(",",G12,FIND(",",G12)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -14391,10 +14387,10 @@
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -14422,9 +14418,9 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="str">
+        <v>92</v>
+      </c>
+      <c r="H13">
         <f>IF(ISBLANK(G13),"",
 IF(ISERROR(FIND(",",G13)),
   IF(ISERROR(VLOOKUP(G13,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14445,7 +14441,7 @@
     TRIM(MID(G13,FIND(",",G13,FIND(",",G13)+1)+1,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)-FIND(",",G13,FIND(",",G13)+1)-1)),VLOOKUP(TRIM(MID(G13,FIND(",",G13,FIND(",",G13)+1)+1,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)-FIND(",",G13,FIND(",",G13)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G13,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G13,FIND(",",G13,FIND(",",G13,FIND(",",G13)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
@@ -14457,10 +14453,10 @@
         <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -14488,9 +14484,9 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="str">
+        <v>92</v>
+      </c>
+      <c r="H14">
         <f>IF(ISBLANK(G14),"",
 IF(ISERROR(FIND(",",G14)),
   IF(ISERROR(VLOOKUP(G14,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14511,7 +14507,7 @@
     TRIM(MID(G14,FIND(",",G14,FIND(",",G14)+1)+1,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)-FIND(",",G14,FIND(",",G14)+1)-1)),VLOOKUP(TRIM(MID(G14,FIND(",",G14,FIND(",",G14)+1)+1,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)-FIND(",",G14,FIND(",",G14)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G14,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G14,FIND(",",G14,FIND(",",G14,FIND(",",G14)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -14523,10 +14519,10 @@
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -14554,9 +14550,9 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="str">
+        <v>92</v>
+      </c>
+      <c r="H15">
         <f>IF(ISBLANK(G15),"",
 IF(ISERROR(FIND(",",G15)),
   IF(ISERROR(VLOOKUP(G15,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14577,7 +14573,7 @@
     TRIM(MID(G15,FIND(",",G15,FIND(",",G15)+1)+1,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)-FIND(",",G15,FIND(",",G15)+1)-1)),VLOOKUP(TRIM(MID(G15,FIND(",",G15,FIND(",",G15)+1)+1,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)-FIND(",",G15,FIND(",",G15)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G15,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G15,FIND(",",G15,FIND(",",G15,FIND(",",G15)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
@@ -14589,10 +14585,10 @@
         <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O15">
         <v>3.9990000000000001</v>
@@ -14620,9 +14616,9 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="str">
+        <v>92</v>
+      </c>
+      <c r="H16">
         <f>IF(ISBLANK(G16),"",
 IF(ISERROR(FIND(",",G16)),
   IF(ISERROR(VLOOKUP(G16,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14643,7 +14639,7 @@
     TRIM(MID(G16,FIND(",",G16,FIND(",",G16)+1)+1,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)-FIND(",",G16,FIND(",",G16)+1)-1)),VLOOKUP(TRIM(MID(G16,FIND(",",G16,FIND(",",G16)+1)+1,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)-FIND(",",G16,FIND(",",G16)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G16,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G16,FIND(",",G16,FIND(",",G16,FIND(",",G16)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
@@ -14655,10 +14651,10 @@
         <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O16">
         <v>8.9990000000000006</v>
@@ -14686,9 +14682,9 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="str">
+        <v>92</v>
+      </c>
+      <c r="H17">
         <f>IF(ISBLANK(G17),"",
 IF(ISERROR(FIND(",",G17)),
   IF(ISERROR(VLOOKUP(G17,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -14709,7 +14705,7 @@
     TRIM(MID(G17,FIND(",",G17,FIND(",",G17)+1)+1,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)-FIND(",",G17,FIND(",",G17)+1)-1)),VLOOKUP(TRIM(MID(G17,FIND(",",G17,FIND(",",G17)+1)+1,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)-FIND(",",G17,FIND(",",G17)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G17,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G17,FIND(",",G17,FIND(",",G17,FIND(",",G17)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Yuki, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -14721,10 +14717,10 @@
         <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O17">
         <v>10.999000000000001</v>
@@ -14752,7 +14748,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H18">
         <f>IF(ISBLANK(G18),"",
@@ -14787,10 +14783,10 @@
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -14818,7 +14814,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H19">
         <f>IF(ISBLANK(G19),"",
@@ -14853,10 +14849,10 @@
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -14884,7 +14880,7 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H20">
         <f>IF(ISBLANK(G20),"",
@@ -14919,10 +14915,10 @@
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -14950,7 +14946,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H21">
         <f>IF(ISBLANK(G21),"",
@@ -14985,10 +14981,10 @@
         <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -15016,7 +15012,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H22">
         <f>IF(ISBLANK(G22),"",
@@ -15051,10 +15047,10 @@
         <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -15082,7 +15078,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H23">
         <f>IF(ISBLANK(G23),"",
@@ -15117,10 +15113,10 @@
         <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N23">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O23">
         <v>3.9990000000000001</v>
@@ -15148,7 +15144,7 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H24">
         <f>IF(ISBLANK(G24),"",
@@ -15183,10 +15179,10 @@
         <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N24">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O24">
         <v>8.9990000000000006</v>
@@ -15214,7 +15210,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H25">
         <f>IF(ISBLANK(G25),"",
@@ -15249,10 +15245,10 @@
         <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N25">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O25">
         <v>10.999000000000001</v>
@@ -15280,7 +15276,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="H26" t="str">
         <f>IF(ISBLANK(G26),"",
@@ -15318,7 +15314,7 @@
         <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>40</v>
@@ -15349,7 +15345,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="H27" t="str">
         <f>IF(ISBLANK(G27),"",
@@ -15387,7 +15383,7 @@
         <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>40</v>
@@ -15418,7 +15414,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="H28" t="str">
         <f>IF(ISBLANK(G28),"",
@@ -15456,7 +15452,7 @@
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>40</v>
@@ -15487,7 +15483,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="H29" t="str">
         <f>IF(ISBLANK(G29),"",
@@ -15525,7 +15521,7 @@
         <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N29">
         <v>40</v>
@@ -15556,7 +15552,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="H30" t="str">
         <f>IF(ISBLANK(G30),"",
@@ -15594,7 +15590,7 @@
         <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N30">
         <v>40</v>
@@ -15625,7 +15621,7 @@
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="H31" t="str">
         <f>IF(ISBLANK(G31),"",
@@ -15663,7 +15659,7 @@
         <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N31">
         <v>40</v>
@@ -15694,7 +15690,7 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="H32" t="str">
         <f>IF(ISBLANK(G32),"",
@@ -15732,7 +15728,7 @@
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N32">
         <v>40</v>
@@ -15763,7 +15759,7 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="H33" t="str">
         <f>IF(ISBLANK(G33),"",
@@ -15801,7 +15797,7 @@
         <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N33">
         <v>40</v>
@@ -15867,7 +15863,7 @@
         <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N34">
         <v>30</v>
@@ -15933,7 +15929,7 @@
         <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N35">
         <v>30</v>
@@ -15999,7 +15995,7 @@
         <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N36">
         <v>30</v>
@@ -16065,7 +16061,7 @@
         <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N37">
         <v>30</v>
@@ -16131,7 +16127,7 @@
         <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N38">
         <v>30</v>
@@ -16197,7 +16193,7 @@
         <v>34</v>
       </c>
       <c r="M39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N39">
         <v>30</v>
@@ -16263,7 +16259,7 @@
         <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N40">
         <v>30</v>
@@ -16329,7 +16325,7 @@
         <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N41">
         <v>30</v>
@@ -16360,9 +16356,9 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42">
+        <v>93</v>
+      </c>
+      <c r="H42" t="str">
         <f>IF(ISBLANK(G42),"",
 IF(ISERROR(FIND(",",G42)),
   IF(ISERROR(VLOOKUP(G42,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16383,7 +16379,7 @@
     TRIM(MID(G42,FIND(",",G42,FIND(",",G42)+1)+1,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)-FIND(",",G42,FIND(",",G42)+1)-1)),VLOOKUP(TRIM(MID(G42,FIND(",",G42,FIND(",",G42)+1)+1,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)-FIND(",",G42,FIND(",",G42)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G42,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G42,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -16395,7 +16391,7 @@
         <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N42">
         <v>30</v>
@@ -16426,9 +16422,9 @@
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43">
+        <v>93</v>
+      </c>
+      <c r="H43" t="str">
         <f>IF(ISBLANK(G43),"",
 IF(ISERROR(FIND(",",G43)),
   IF(ISERROR(VLOOKUP(G43,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16449,7 +16445,7 @@
     TRIM(MID(G43,FIND(",",G43,FIND(",",G43)+1)+1,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)-FIND(",",G43,FIND(",",G43)+1)-1)),VLOOKUP(TRIM(MID(G43,FIND(",",G43,FIND(",",G43)+1)+1,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)-FIND(",",G43,FIND(",",G43)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G43,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G43,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -16461,7 +16457,7 @@
         <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N43">
         <v>30</v>
@@ -16492,9 +16488,9 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44">
+        <v>93</v>
+      </c>
+      <c r="H44" t="str">
         <f>IF(ISBLANK(G44),"",
 IF(ISERROR(FIND(",",G44)),
   IF(ISERROR(VLOOKUP(G44,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16515,7 +16511,7 @@
     TRIM(MID(G44,FIND(",",G44,FIND(",",G44)+1)+1,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)-FIND(",",G44,FIND(",",G44)+1)-1)),VLOOKUP(TRIM(MID(G44,FIND(",",G44,FIND(",",G44)+1)+1,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)-FIND(",",G44,FIND(",",G44)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G44,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G44,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I44" t="s">
         <v>27</v>
@@ -16527,7 +16523,7 @@
         <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N44">
         <v>30</v>
@@ -16558,9 +16554,9 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45">
+        <v>93</v>
+      </c>
+      <c r="H45" t="str">
         <f>IF(ISBLANK(G45),"",
 IF(ISERROR(FIND(",",G45)),
   IF(ISERROR(VLOOKUP(G45,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16581,7 +16577,7 @@
     TRIM(MID(G45,FIND(",",G45,FIND(",",G45)+1)+1,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)-FIND(",",G45,FIND(",",G45)+1)-1)),VLOOKUP(TRIM(MID(G45,FIND(",",G45,FIND(",",G45)+1)+1,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)-FIND(",",G45,FIND(",",G45)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G45,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G45,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -16593,7 +16589,7 @@
         <v>34</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N45">
         <v>30</v>
@@ -16624,9 +16620,9 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46">
+        <v>93</v>
+      </c>
+      <c r="H46" t="str">
         <f>IF(ISBLANK(G46),"",
 IF(ISERROR(FIND(",",G46)),
   IF(ISERROR(VLOOKUP(G46,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16647,7 +16643,7 @@
     TRIM(MID(G46,FIND(",",G46,FIND(",",G46)+1)+1,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)-FIND(",",G46,FIND(",",G46)+1)-1)),VLOOKUP(TRIM(MID(G46,FIND(",",G46,FIND(",",G46)+1)+1,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)-FIND(",",G46,FIND(",",G46)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G46,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G46,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -16659,7 +16655,7 @@
         <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N46">
         <v>30</v>
@@ -16690,9 +16686,9 @@
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47">
+        <v>93</v>
+      </c>
+      <c r="H47" t="str">
         <f>IF(ISBLANK(G47),"",
 IF(ISERROR(FIND(",",G47)),
   IF(ISERROR(VLOOKUP(G47,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16713,7 +16709,7 @@
     TRIM(MID(G47,FIND(",",G47,FIND(",",G47)+1)+1,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)-FIND(",",G47,FIND(",",G47)+1)-1)),VLOOKUP(TRIM(MID(G47,FIND(",",G47,FIND(",",G47)+1)+1,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)-FIND(",",G47,FIND(",",G47)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G47,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G47,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -16725,7 +16721,7 @@
         <v>34</v>
       </c>
       <c r="M47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N47">
         <v>30</v>
@@ -16756,9 +16752,9 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48">
+        <v>93</v>
+      </c>
+      <c r="H48" t="str">
         <f>IF(ISBLANK(G48),"",
 IF(ISERROR(FIND(",",G48)),
   IF(ISERROR(VLOOKUP(G48,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16779,7 +16775,7 @@
     TRIM(MID(G48,FIND(",",G48,FIND(",",G48)+1)+1,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)-FIND(",",G48,FIND(",",G48)+1)-1)),VLOOKUP(TRIM(MID(G48,FIND(",",G48,FIND(",",G48)+1)+1,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)-FIND(",",G48,FIND(",",G48)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G48,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G48,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -16791,7 +16787,7 @@
         <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N48">
         <v>30</v>
@@ -16822,9 +16818,9 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49">
+        <v>93</v>
+      </c>
+      <c r="H49" t="str">
         <f>IF(ISBLANK(G49),"",
 IF(ISERROR(FIND(",",G49)),
   IF(ISERROR(VLOOKUP(G49,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16845,7 +16841,7 @@
     TRIM(MID(G49,FIND(",",G49,FIND(",",G49)+1)+1,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)-FIND(",",G49,FIND(",",G49)+1)-1)),VLOOKUP(TRIM(MID(G49,FIND(",",G49,FIND(",",G49)+1)+1,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)-FIND(",",G49,FIND(",",G49)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G49,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G49,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
       </c>
       <c r="I49" t="s">
         <v>27</v>
@@ -16857,7 +16853,7 @@
         <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N49">
         <v>30</v>
@@ -16888,9 +16884,9 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50">
+        <v>94</v>
+      </c>
+      <c r="H50" t="str">
         <f>IF(ISBLANK(G50),"",
 IF(ISERROR(FIND(",",G50)),
   IF(ISERROR(VLOOKUP(G50,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16911,7 +16907,7 @@
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I50" t="s">
         <v>28</v>
@@ -16923,10 +16919,10 @@
         <v>34</v>
       </c>
       <c r="M50" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N50">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -16954,9 +16950,9 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51">
+        <v>94</v>
+      </c>
+      <c r="H51" t="str">
         <f>IF(ISBLANK(G51),"",
 IF(ISERROR(FIND(",",G51)),
   IF(ISERROR(VLOOKUP(G51,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16977,7 +16973,7 @@
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I51" t="s">
         <v>28</v>
@@ -16989,10 +16985,10 @@
         <v>34</v>
       </c>
       <c r="M51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N51">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -17020,9 +17016,9 @@
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>97</v>
-      </c>
-      <c r="H52">
+        <v>94</v>
+      </c>
+      <c r="H52" t="str">
         <f>IF(ISBLANK(G52),"",
 IF(ISERROR(FIND(",",G52)),
   IF(ISERROR(VLOOKUP(G52,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17043,7 +17039,7 @@
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I52" t="s">
         <v>28</v>
@@ -17055,10 +17051,10 @@
         <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N52">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -17086,9 +17082,9 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>97</v>
-      </c>
-      <c r="H53">
+        <v>94</v>
+      </c>
+      <c r="H53" t="str">
         <f>IF(ISBLANK(G53),"",
 IF(ISERROR(FIND(",",G53)),
   IF(ISERROR(VLOOKUP(G53,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17109,7 +17105,7 @@
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I53" t="s">
         <v>28</v>
@@ -17121,10 +17117,10 @@
         <v>34</v>
       </c>
       <c r="M53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N53">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -17152,9 +17148,9 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
-      </c>
-      <c r="H54">
+        <v>94</v>
+      </c>
+      <c r="H54" t="str">
         <f>IF(ISBLANK(G54),"",
 IF(ISERROR(FIND(",",G54)),
   IF(ISERROR(VLOOKUP(G54,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17175,7 +17171,7 @@
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I54" t="s">
         <v>28</v>
@@ -17187,10 +17183,10 @@
         <v>34</v>
       </c>
       <c r="M54" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N54">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -17218,9 +17214,9 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
-      </c>
-      <c r="H55">
+        <v>94</v>
+      </c>
+      <c r="H55" t="str">
         <f>IF(ISBLANK(G55),"",
 IF(ISERROR(FIND(",",G55)),
   IF(ISERROR(VLOOKUP(G55,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17241,7 +17237,7 @@
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I55" t="s">
         <v>28</v>
@@ -17253,10 +17249,10 @@
         <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N55">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O55">
         <v>3.9990000000000001</v>
@@ -17284,9 +17280,9 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
-      </c>
-      <c r="H56">
+        <v>94</v>
+      </c>
+      <c r="H56" t="str">
         <f>IF(ISBLANK(G56),"",
 IF(ISERROR(FIND(",",G56)),
   IF(ISERROR(VLOOKUP(G56,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17307,7 +17303,7 @@
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I56" t="s">
         <v>28</v>
@@ -17319,10 +17315,10 @@
         <v>34</v>
       </c>
       <c r="M56" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N56">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O56">
         <v>8.9990000000000006</v>
@@ -17350,9 +17346,9 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>97</v>
-      </c>
-      <c r="H57">
+        <v>94</v>
+      </c>
+      <c r="H57" t="str">
         <f>IF(ISBLANK(G57),"",
 IF(ISERROR(FIND(",",G57)),
   IF(ISERROR(VLOOKUP(G57,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17373,7 +17369,7 @@
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>0</v>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
       </c>
       <c r="I57" t="s">
         <v>28</v>
@@ -17385,10 +17381,10 @@
         <v>34</v>
       </c>
       <c r="M57" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O57">
         <v>10.999000000000001</v>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F709E-3795-4199-B940-4F11C828DF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2FB76E-6F21-4BD6-896D-FAF9329CDD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
@@ -13585,8 +13585,8 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -16394,7 +16394,7 @@
         <v>75</v>
       </c>
       <c r="N42">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>76</v>
       </c>
       <c r="N43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>77</v>
       </c>
       <c r="N44">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -16592,7 +16592,7 @@
         <v>78</v>
       </c>
       <c r="N45">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -16658,7 +16658,7 @@
         <v>79</v>
       </c>
       <c r="N46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -16724,7 +16724,7 @@
         <v>80</v>
       </c>
       <c r="N47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O47">
         <v>3.9990000000000001</v>
@@ -16790,7 +16790,7 @@
         <v>81</v>
       </c>
       <c r="N48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O48">
         <v>8.9990000000000006</v>
@@ -16856,7 +16856,7 @@
         <v>82</v>
       </c>
       <c r="N49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O49">
         <v>10.999000000000001</v>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2FB76E-6F21-4BD6-896D-FAF9329CDD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6919501-DA05-465A-8D8C-04DA6FF5C2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InvasionTable!$O$1:$O$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InvasionTable!$O$1:$O$113</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="154">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,174 @@
     <t>Actor0201, Actor2015, Actor2120, Actor0113, Actor0104, Actor3231</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>inva_0_9</t>
+  </si>
+  <si>
+    <t>inva_0_10</t>
+  </si>
+  <si>
+    <t>inva_0_11</t>
+  </si>
+  <si>
+    <t>inva_0_12</t>
+  </si>
+  <si>
+    <t>inva_0_13</t>
+  </si>
+  <si>
+    <t>inva_0_14</t>
+  </si>
+  <si>
+    <t>inva_0_15</t>
+  </si>
+  <si>
+    <t>inva_0_16</t>
+  </si>
+  <si>
+    <t>inva_1_9</t>
+  </si>
+  <si>
+    <t>inva_1_10</t>
+  </si>
+  <si>
+    <t>inva_1_11</t>
+  </si>
+  <si>
+    <t>inva_1_12</t>
+  </si>
+  <si>
+    <t>inva_1_13</t>
+  </si>
+  <si>
+    <t>inva_1_14</t>
+  </si>
+  <si>
+    <t>inva_1_15</t>
+  </si>
+  <si>
+    <t>inva_1_16</t>
+  </si>
+  <si>
+    <t>inva_6_9</t>
+  </si>
+  <si>
+    <t>inva_6_10</t>
+  </si>
+  <si>
+    <t>inva_6_11</t>
+  </si>
+  <si>
+    <t>inva_6_12</t>
+  </si>
+  <si>
+    <t>inva_6_13</t>
+  </si>
+  <si>
+    <t>inva_6_14</t>
+  </si>
+  <si>
+    <t>inva_6_15</t>
+  </si>
+  <si>
+    <t>inva_6_16</t>
+  </si>
+  <si>
+    <t>inva_5_9</t>
+  </si>
+  <si>
+    <t>inva_5_10</t>
+  </si>
+  <si>
+    <t>inva_5_11</t>
+  </si>
+  <si>
+    <t>inva_5_12</t>
+  </si>
+  <si>
+    <t>inva_5_13</t>
+  </si>
+  <si>
+    <t>inva_5_14</t>
+  </si>
+  <si>
+    <t>inva_5_15</t>
+  </si>
+  <si>
+    <t>inva_5_16</t>
+  </si>
+  <si>
+    <t>inva_4_9</t>
+  </si>
+  <si>
+    <t>inva_4_10</t>
+  </si>
+  <si>
+    <t>inva_4_11</t>
+  </si>
+  <si>
+    <t>inva_4_12</t>
+  </si>
+  <si>
+    <t>inva_4_13</t>
+  </si>
+  <si>
+    <t>inva_4_14</t>
+  </si>
+  <si>
+    <t>inva_4_15</t>
+  </si>
+  <si>
+    <t>inva_4_16</t>
+  </si>
+  <si>
+    <t>inva_3_9</t>
+  </si>
+  <si>
+    <t>inva_3_10</t>
+  </si>
+  <si>
+    <t>inva_3_11</t>
+  </si>
+  <si>
+    <t>inva_3_12</t>
+  </si>
+  <si>
+    <t>inva_3_13</t>
+  </si>
+  <si>
+    <t>inva_3_14</t>
+  </si>
+  <si>
+    <t>inva_3_15</t>
+  </si>
+  <si>
+    <t>inva_3_16</t>
+  </si>
+  <si>
+    <t>inva_2_9</t>
+  </si>
+  <si>
+    <t>inva_2_10</t>
+  </si>
+  <si>
+    <t>inva_2_11</t>
+  </si>
+  <si>
+    <t>inva_2_12</t>
+  </si>
+  <si>
+    <t>inva_2_13</t>
+  </si>
+  <si>
+    <t>inva_2_14</t>
+  </si>
+  <si>
+    <t>inva_2_15</t>
+  </si>
+  <si>
+    <t>inva_2_16</t>
+  </si>
 </sst>
 </file>
 
@@ -1188,10 +1356,10 @@
             <v>0.93799999999999994</v>
           </cell>
           <cell r="O5">
-            <v>0.35499999999999998</v>
+            <v>0.33724999999999999</v>
           </cell>
           <cell r="P5">
-            <v>0.27749166666666664</v>
+            <v>0.26361708333333334</v>
           </cell>
           <cell r="Q5">
             <v>0.88200000000000001</v>
@@ -1200,10 +1368,10 @@
             <v>3</v>
           </cell>
           <cell r="S5">
-            <v>0.83247499999999985</v>
+            <v>0.79085125000000001</v>
           </cell>
           <cell r="T5">
-            <v>0.94384920634920622</v>
+            <v>0.89665674603174605</v>
           </cell>
           <cell r="U5">
             <v>3.5</v>
@@ -13582,11 +13750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F99DA2-EABB-4D74-8370-957E4E392B1E}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13657,7 +13825,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D33" si="0">1000+A2*100</f>
+        <f t="shared" ref="D2:D65" si="0">1000+A2*100</f>
         <v>1000</v>
       </c>
       <c r="E2">
@@ -13730,11 +13898,11 @@
         <v>1000</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E57" si="1">C3</f>
+        <f t="shared" ref="E3:E105" si="1">C3</f>
         <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>97</v>
@@ -13803,7 +13971,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -13872,7 +14040,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -13941,7 +14109,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>97</v>
@@ -14010,7 +14178,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>97</v>
@@ -14057,7 +14225,7 @@
         <v>40</v>
       </c>
       <c r="O7">
-        <v>3.9990000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -14079,7 +14247,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>97</v>
@@ -14126,7 +14294,7 @@
         <v>40</v>
       </c>
       <c r="O8">
-        <v>8.9990000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -14148,7 +14316,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
         <v>97</v>
@@ -14195,32 +14363,32 @@
         <v>40</v>
       </c>
       <c r="O9">
-        <v>10.999000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H10">
         <f>IF(ISBLANK(G10),"",
@@ -14246,19 +14414,22 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="N10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -14266,27 +14437,27 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H11">
         <f>IF(ISBLANK(G11),"",
@@ -14312,47 +14483,50 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
       </c>
       <c r="L11" t="s">
         <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.9990000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H12">
         <f>IF(ISBLANK(G12),"",
@@ -14378,47 +14552,50 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3.9990000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H13">
         <f>IF(ISBLANK(G13),"",
@@ -14444,47 +14621,50 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
       </c>
       <c r="L13" t="s">
         <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3.9990000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H14">
         <f>IF(ISBLANK(G14),"",
@@ -14510,47 +14690,50 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
       </c>
       <c r="L14" t="s">
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.9990000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H15">
         <f>IF(ISBLANK(G15),"",
@@ -14576,47 +14759,50 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
       </c>
       <c r="L15" t="s">
         <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="N15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O15">
-        <v>3.9990000000000001</v>
+        <v>8.9990000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H16">
         <f>IF(ISBLANK(G16),"",
@@ -14642,47 +14828,50 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
       </c>
       <c r="L16" t="s">
         <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="N16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O16">
-        <v>8.9990000000000006</v>
+        <v>10.999000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H17">
         <f>IF(ISBLANK(G17),"",
@@ -14708,19 +14897,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
       </c>
       <c r="L17" t="s">
         <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O17">
         <v>10.999000000000001</v>
@@ -14728,17 +14920,17 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -14748,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H18">
         <f>IF(ISBLANK(G18),"",
@@ -14774,19 +14966,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -14794,27 +14986,27 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H19">
         <f>IF(ISBLANK(G19),"",
@@ -14840,19 +15032,19 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
         <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -14860,27 +15052,27 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H20">
         <f>IF(ISBLANK(G20),"",
@@ -14906,19 +15098,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L20" t="s">
         <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -14926,27 +15118,27 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H21">
         <f>IF(ISBLANK(G21),"",
@@ -14972,19 +15164,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" t="s">
         <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -14992,27 +15184,27 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H22">
         <f>IF(ISBLANK(G22),"",
@@ -15038,19 +15230,19 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
         <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -15058,27 +15250,27 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H23">
         <f>IF(ISBLANK(G23),"",
@@ -15104,47 +15296,47 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
         <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N23">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O23">
-        <v>3.9990000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H24">
         <f>IF(ISBLANK(G24),"",
@@ -15170,47 +15362,47 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L24" t="s">
         <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O24">
-        <v>8.9990000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>8</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H25">
         <f>IF(ISBLANK(G25),"",
@@ -15236,49 +15428,49 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L25" t="s">
         <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O25">
-        <v>10.999000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" t="str">
+        <v>92</v>
+      </c>
+      <c r="H26">
         <f>IF(ISBLANK(G26),"",
 IF(ISERROR(FIND(",",G26)),
   IF(ISERROR(VLOOKUP(G26,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -15299,25 +15491,22 @@
     TRIM(MID(G26,FIND(",",G26,FIND(",",G26)+1)+1,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)-FIND(",",G26,FIND(",",G26)+1)-1)),VLOOKUP(TRIM(MID(G26,FIND(",",G26,FIND(",",G26)+1)+1,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)-FIND(",",G26,FIND(",",G26)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G26,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G26,FIND(",",G26,FIND(",",G26,FIND(",",G26)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
         <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="N26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -15325,29 +15514,29 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" t="str">
+        <v>92</v>
+      </c>
+      <c r="H27">
         <f>IF(ISBLANK(G27),"",
 IF(ISERROR(FIND(",",G27)),
   IF(ISERROR(VLOOKUP(G27,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -15368,55 +15557,52 @@
     TRIM(MID(G27,FIND(",",G27,FIND(",",G27)+1)+1,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)-FIND(",",G27,FIND(",",G27)+1)-1)),VLOOKUP(TRIM(MID(G27,FIND(",",G27,FIND(",",G27)+1)+1,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)-FIND(",",G27,FIND(",",G27)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G27,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G27,FIND(",",G27,FIND(",",G27,FIND(",",G27)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L27" t="s">
         <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="N27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.9990000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" t="str">
+        <v>92</v>
+      </c>
+      <c r="H28">
         <f>IF(ISBLANK(G28),"",
 IF(ISERROR(FIND(",",G28)),
   IF(ISERROR(VLOOKUP(G28,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -15437,55 +15623,52 @@
     TRIM(MID(G28,FIND(",",G28,FIND(",",G28)+1)+1,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)-FIND(",",G28,FIND(",",G28)+1)-1)),VLOOKUP(TRIM(MID(G28,FIND(",",G28,FIND(",",G28)+1)+1,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)-FIND(",",G28,FIND(",",G28)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G28,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G28,FIND(",",G28,FIND(",",G28,FIND(",",G28)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L28" t="s">
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="N28">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>3.9990000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" t="str">
+        <v>92</v>
+      </c>
+      <c r="H29">
         <f>IF(ISBLANK(G29),"",
 IF(ISERROR(FIND(",",G29)),
   IF(ISERROR(VLOOKUP(G29,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -15506,55 +15689,52 @@
     TRIM(MID(G29,FIND(",",G29,FIND(",",G29)+1)+1,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)-FIND(",",G29,FIND(",",G29)+1)-1)),VLOOKUP(TRIM(MID(G29,FIND(",",G29,FIND(",",G29)+1)+1,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)-FIND(",",G29,FIND(",",G29)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G29,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G29,FIND(",",G29,FIND(",",G29,FIND(",",G29)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L29" t="s">
         <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="N29">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>3.9990000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" t="str">
+        <v>92</v>
+      </c>
+      <c r="H30">
         <f>IF(ISBLANK(G30),"",
 IF(ISERROR(FIND(",",G30)),
   IF(ISERROR(VLOOKUP(G30,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -15575,55 +15755,52 @@
     TRIM(MID(G30,FIND(",",G30,FIND(",",G30)+1)+1,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)-FIND(",",G30,FIND(",",G30)+1)-1)),VLOOKUP(TRIM(MID(G30,FIND(",",G30,FIND(",",G30)+1)+1,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)-FIND(",",G30,FIND(",",G30)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G30,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G30,FIND(",",G30,FIND(",",G30,FIND(",",G30)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L30" t="s">
         <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="N30">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>8.9990000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" t="str">
+        <v>92</v>
+      </c>
+      <c r="H31">
         <f>IF(ISBLANK(G31),"",
 IF(ISERROR(FIND(",",G31)),
   IF(ISERROR(VLOOKUP(G31,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -15644,55 +15821,52 @@
     TRIM(MID(G31,FIND(",",G31,FIND(",",G31)+1)+1,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)-FIND(",",G31,FIND(",",G31)+1)-1)),VLOOKUP(TRIM(MID(G31,FIND(",",G31,FIND(",",G31)+1)+1,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)-FIND(",",G31,FIND(",",G31)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G31,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G31,FIND(",",G31,FIND(",",G31,FIND(",",G31)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L31" t="s">
         <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="N31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O31">
-        <v>3.9990000000000001</v>
+        <v>8.9990000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" t="str">
+        <v>92</v>
+      </c>
+      <c r="H32">
         <f>IF(ISBLANK(G32),"",
 IF(ISERROR(FIND(",",G32)),
   IF(ISERROR(VLOOKUP(G32,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -15713,55 +15887,52 @@
     TRIM(MID(G32,FIND(",",G32,FIND(",",G32)+1)+1,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)-FIND(",",G32,FIND(",",G32)+1)-1)),VLOOKUP(TRIM(MID(G32,FIND(",",G32,FIND(",",G32)+1)+1,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)-FIND(",",G32,FIND(",",G32)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G32,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G32,FIND(",",G32,FIND(",",G32,FIND(",",G32)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="N32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O32">
-        <v>8.9990000000000006</v>
+        <v>10.999000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" t="str">
+        <v>92</v>
+      </c>
+      <c r="H33">
         <f>IF(ISBLANK(G33),"",
 IF(ISERROR(FIND(",",G33)),
   IF(ISERROR(VLOOKUP(G33,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -15782,25 +15953,22 @@
     TRIM(MID(G33,FIND(",",G33,FIND(",",G33)+1)+1,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)-FIND(",",G33,FIND(",",G33)+1)-1)),VLOOKUP(TRIM(MID(G33,FIND(",",G33,FIND(",",G33)+1)+1,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)-FIND(",",G33,FIND(",",G33)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G33,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G33,FIND(",",G33,FIND(",",G33,FIND(",",G33)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L33" t="s">
         <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="N33">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O33">
         <v>10.999000000000001</v>
@@ -15808,17 +15976,17 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D57" si="2">1000+A34*100</f>
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -15828,7 +15996,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H34">
         <f>IF(ISBLANK(G34),"",
@@ -15854,7 +16022,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s">
         <v>32</v>
@@ -15863,7 +16031,7 @@
         <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="N34">
         <v>30</v>
@@ -15874,27 +16042,27 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H35">
         <f>IF(ISBLANK(G35),"",
@@ -15920,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J35" t="s">
         <v>32</v>
@@ -15929,7 +16097,7 @@
         <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="N35">
         <v>30</v>
@@ -15940,27 +16108,27 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H36">
         <f>IF(ISBLANK(G36),"",
@@ -15986,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J36" t="s">
         <v>32</v>
@@ -15995,7 +16163,7 @@
         <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N36">
         <v>30</v>
@@ -16006,27 +16174,27 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H37">
         <f>IF(ISBLANK(G37),"",
@@ -16052,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J37" t="s">
         <v>32</v>
@@ -16061,7 +16229,7 @@
         <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="N37">
         <v>30</v>
@@ -16072,27 +16240,27 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H38">
         <f>IF(ISBLANK(G38),"",
@@ -16118,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J38" t="s">
         <v>32</v>
@@ -16127,7 +16295,7 @@
         <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="N38">
         <v>30</v>
@@ -16138,27 +16306,27 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>6</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H39">
         <f>IF(ISBLANK(G39),"",
@@ -16184,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J39" t="s">
         <v>32</v>
@@ -16193,38 +16361,38 @@
         <v>34</v>
       </c>
       <c r="M39" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="N39">
         <v>30</v>
       </c>
       <c r="O39">
-        <v>3.9990000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H40">
         <f>IF(ISBLANK(G40),"",
@@ -16250,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J40" t="s">
         <v>32</v>
@@ -16259,38 +16427,38 @@
         <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="N40">
         <v>30</v>
       </c>
       <c r="O40">
-        <v>8.9990000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H41">
         <f>IF(ISBLANK(G41),"",
@@ -16316,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J41" t="s">
         <v>32</v>
@@ -16325,40 +16493,40 @@
         <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="N41">
         <v>30</v>
       </c>
       <c r="O41">
-        <v>10.999000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" t="str">
+        <v>96</v>
+      </c>
+      <c r="H42">
         <f>IF(ISBLANK(G42),"",
 IF(ISERROR(FIND(",",G42)),
   IF(ISERROR(VLOOKUP(G42,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16379,22 +16547,22 @@
     TRIM(MID(G42,FIND(",",G42,FIND(",",G42)+1)+1,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)-FIND(",",G42,FIND(",",G42)+1)-1)),VLOOKUP(TRIM(MID(G42,FIND(",",G42,FIND(",",G42)+1)+1,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)-FIND(",",G42,FIND(",",G42)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G42,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G42,FIND(",",G42,FIND(",",G42,FIND(",",G42)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L42" t="s">
         <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="N42">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -16402,29 +16570,29 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
         <v>10</v>
       </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
       <c r="D43">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" t="str">
+        <v>96</v>
+      </c>
+      <c r="H43">
         <f>IF(ISBLANK(G43),"",
 IF(ISERROR(FIND(",",G43)),
   IF(ISERROR(VLOOKUP(G43,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16445,52 +16613,52 @@
     TRIM(MID(G43,FIND(",",G43,FIND(",",G43)+1)+1,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)-FIND(",",G43,FIND(",",G43)+1)-1)),VLOOKUP(TRIM(MID(G43,FIND(",",G43,FIND(",",G43)+1)+1,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)-FIND(",",G43,FIND(",",G43)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G43,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G43,FIND(",",G43,FIND(",",G43,FIND(",",G43)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L43" t="s">
         <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="N43">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1.9990000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" t="str">
+        <v>96</v>
+      </c>
+      <c r="H44">
         <f>IF(ISBLANK(G44),"",
 IF(ISERROR(FIND(",",G44)),
   IF(ISERROR(VLOOKUP(G44,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16511,52 +16679,52 @@
     TRIM(MID(G44,FIND(",",G44,FIND(",",G44)+1)+1,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)-FIND(",",G44,FIND(",",G44)+1)-1)),VLOOKUP(TRIM(MID(G44,FIND(",",G44,FIND(",",G44)+1)+1,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)-FIND(",",G44,FIND(",",G44)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G44,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G44,FIND(",",G44,FIND(",",G44,FIND(",",G44)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L44" t="s">
         <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="N44">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>3.9990000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>93</v>
-      </c>
-      <c r="H45" t="str">
+        <v>96</v>
+      </c>
+      <c r="H45">
         <f>IF(ISBLANK(G45),"",
 IF(ISERROR(FIND(",",G45)),
   IF(ISERROR(VLOOKUP(G45,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16577,52 +16745,52 @@
     TRIM(MID(G45,FIND(",",G45,FIND(",",G45)+1)+1,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)-FIND(",",G45,FIND(",",G45)+1)-1)),VLOOKUP(TRIM(MID(G45,FIND(",",G45,FIND(",",G45)+1)+1,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)-FIND(",",G45,FIND(",",G45)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G45,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G45,FIND(",",G45,FIND(",",G45,FIND(",",G45)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L45" t="s">
         <v>34</v>
       </c>
       <c r="M45" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="N45">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>3.9990000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" t="str">
+        <v>96</v>
+      </c>
+      <c r="H46">
         <f>IF(ISBLANK(G46),"",
 IF(ISERROR(FIND(",",G46)),
   IF(ISERROR(VLOOKUP(G46,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16643,52 +16811,52 @@
     TRIM(MID(G46,FIND(",",G46,FIND(",",G46)+1)+1,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)-FIND(",",G46,FIND(",",G46)+1)-1)),VLOOKUP(TRIM(MID(G46,FIND(",",G46,FIND(",",G46)+1)+1,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)-FIND(",",G46,FIND(",",G46)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G46,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G46,FIND(",",G46,FIND(",",G46,FIND(",",G46)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L46" t="s">
         <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="N46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>8.9990000000000006</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" t="str">
+        <v>96</v>
+      </c>
+      <c r="H47">
         <f>IF(ISBLANK(G47),"",
 IF(ISERROR(FIND(",",G47)),
   IF(ISERROR(VLOOKUP(G47,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16709,52 +16877,52 @@
     TRIM(MID(G47,FIND(",",G47,FIND(",",G47)+1)+1,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)-FIND(",",G47,FIND(",",G47)+1)-1)),VLOOKUP(TRIM(MID(G47,FIND(",",G47,FIND(",",G47)+1)+1,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)-FIND(",",G47,FIND(",",G47)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G47,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G47,FIND(",",G47,FIND(",",G47,FIND(",",G47)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L47" t="s">
         <v>34</v>
       </c>
       <c r="M47" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="N47">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O47">
-        <v>3.9990000000000001</v>
+        <v>8.9990000000000006</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" t="str">
+        <v>96</v>
+      </c>
+      <c r="H48">
         <f>IF(ISBLANK(G48),"",
 IF(ISERROR(FIND(",",G48)),
   IF(ISERROR(VLOOKUP(G48,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16775,52 +16943,52 @@
     TRIM(MID(G48,FIND(",",G48,FIND(",",G48)+1)+1,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)-FIND(",",G48,FIND(",",G48)+1)-1)),VLOOKUP(TRIM(MID(G48,FIND(",",G48,FIND(",",G48)+1)+1,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)-FIND(",",G48,FIND(",",G48)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G48,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G48,FIND(",",G48,FIND(",",G48,FIND(",",G48)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L48" t="s">
         <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="N48">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O48">
-        <v>8.9990000000000006</v>
+        <v>10.999000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" t="str">
+        <v>96</v>
+      </c>
+      <c r="H49">
         <f>IF(ISBLANK(G49),"",
 IF(ISERROR(FIND(",",G49)),
   IF(ISERROR(VLOOKUP(G49,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -16841,22 +17009,22 @@
     TRIM(MID(G49,FIND(",",G49,FIND(",",G49)+1)+1,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)-FIND(",",G49,FIND(",",G49)+1)-1)),VLOOKUP(TRIM(MID(G49,FIND(",",G49,FIND(",",G49)+1)+1,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)-FIND(",",G49,FIND(",",G49)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G49,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G49,FIND(",",G49,FIND(",",G49,FIND(",",G49)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L49" t="s">
         <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="N49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O49">
         <v>10.999000000000001</v>
@@ -16864,17 +17032,17 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1300</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
@@ -16884,7 +17052,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H50" t="str">
         <f>IF(ISBLANK(G50),"",
@@ -16907,22 +17075,25 @@
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>4</v>
       </c>
       <c r="L50" t="s">
         <v>34</v>
       </c>
       <c r="M50" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="N50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -16930,27 +17101,27 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1300</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H51" t="str">
         <f>IF(ISBLANK(G51),"",
@@ -16973,22 +17144,25 @@
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>4</v>
       </c>
       <c r="L51" t="s">
         <v>34</v>
       </c>
       <c r="M51" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="N51">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -16996,27 +17170,27 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1300</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H52" t="str">
         <f>IF(ISBLANK(G52),"",
@@ -17039,22 +17213,25 @@
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>4</v>
       </c>
       <c r="L52" t="s">
         <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="N52">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -17062,27 +17239,27 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1300</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H53" t="str">
         <f>IF(ISBLANK(G53),"",
@@ -17105,22 +17282,25 @@
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K53" t="s">
+        <v>4</v>
       </c>
       <c r="L53" t="s">
         <v>34</v>
       </c>
       <c r="M53" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N53">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -17128,27 +17308,27 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1300</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H54" t="str">
         <f>IF(ISBLANK(G54),"",
@@ -17171,22 +17351,25 @@
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4</v>
       </c>
       <c r="L54" t="s">
         <v>34</v>
       </c>
       <c r="M54" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="N54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -17194,27 +17377,27 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C55">
         <v>6</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1300</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F55">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H55" t="str">
         <f>IF(ISBLANK(G55),"",
@@ -17237,50 +17420,53 @@
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>4</v>
       </c>
       <c r="L55" t="s">
         <v>34</v>
       </c>
       <c r="M55" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="N55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O55">
-        <v>3.9990000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>7</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1300</v>
       </c>
       <c r="E56">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H56" t="str">
         <f>IF(ISBLANK(G56),"",
@@ -17303,50 +17489,53 @@
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K56" t="s">
+        <v>4</v>
       </c>
       <c r="L56" t="s">
         <v>34</v>
       </c>
       <c r="M56" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N56">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O56">
-        <v>8.9990000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>8</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1300</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F57">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H57" t="str">
         <f>IF(ISBLANK(G57),"",
@@ -17369,29 +17558,3752 @@
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
       </c>
       <c r="I57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4</v>
       </c>
       <c r="L57" t="s">
         <v>34</v>
       </c>
       <c r="M57" t="s">
+        <v>66</v>
+      </c>
+      <c r="N57">
+        <v>40</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H58" t="str">
+        <f>IF(ISBLANK(G58),"",
+IF(ISERROR(FIND(",",G58)),
+  IF(ISERROR(VLOOKUP(G58,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G58,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G58,FIND(",",G58)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G58,FIND(",",G58)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G58,FIND(",",G58)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G58,LEFT(G58,FIND(",",G58)-1),VLOOKUP(LEFT(G58,FIND(",",G58)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G58,FIND(",",G58)+1,999)),VLOOKUP(TRIM(MID(G58,FIND(",",G58)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G58,FIND(",",G58)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G58,FIND(",",G58)+1,FIND(",",G58,FIND(",",G58)+1)-FIND(",",G58)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G58,FIND(",",G58,FIND(",",G58)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G58,LEFT(G58,FIND(",",G58)-1),VLOOKUP(LEFT(G58,FIND(",",G58)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G58,FIND(",",G58)+1,FIND(",",G58,FIND(",",G58)+1)-FIND(",",G58)-1)),VLOOKUP(TRIM(MID(G58,FIND(",",G58)+1,FIND(",",G58,FIND(",",G58)+1)-FIND(",",G58)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G58,FIND(",",G58,FIND(",",G58)+1)+1,999)),VLOOKUP(TRIM(MID(G58,FIND(",",G58,FIND(",",G58)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G58,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G58,FIND(",",G58)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G58,FIND(",",G58)+1,FIND(",",G58,FIND(",",G58)+1)-FIND(",",G58)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G58,FIND(",",G58,FIND(",",G58)+1)+1,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)-FIND(",",G58,FIND(",",G58)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G58,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G58,LEFT(G58,FIND(",",G58)-1),VLOOKUP(LEFT(G58,FIND(",",G58)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G58,FIND(",",G58)+1,FIND(",",G58,FIND(",",G58)+1)-FIND(",",G58)-1)),VLOOKUP(TRIM(MID(G58,FIND(",",G58)+1,FIND(",",G58,FIND(",",G58)+1)-FIND(",",G58)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G58,FIND(",",G58,FIND(",",G58)+1)+1,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)-FIND(",",G58,FIND(",",G58)+1)-1)),VLOOKUP(TRIM(MID(G58,FIND(",",G58,FIND(",",G58)+1)+1,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)-FIND(",",G58,FIND(",",G58)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G58,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G58,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+      </c>
+      <c r="I58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" t="s">
+        <v>138</v>
+      </c>
+      <c r="N58">
+        <v>40</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" t="str">
+        <f>IF(ISBLANK(G59),"",
+IF(ISERROR(FIND(",",G59)),
+  IF(ISERROR(VLOOKUP(G59,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G59,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G59,FIND(",",G59)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G59,FIND(",",G59)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G59,FIND(",",G59)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G59,LEFT(G59,FIND(",",G59)-1),VLOOKUP(LEFT(G59,FIND(",",G59)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G59,FIND(",",G59)+1,999)),VLOOKUP(TRIM(MID(G59,FIND(",",G59)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G59,FIND(",",G59)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G59,FIND(",",G59)+1,FIND(",",G59,FIND(",",G59)+1)-FIND(",",G59)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G59,FIND(",",G59,FIND(",",G59)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G59,LEFT(G59,FIND(",",G59)-1),VLOOKUP(LEFT(G59,FIND(",",G59)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G59,FIND(",",G59)+1,FIND(",",G59,FIND(",",G59)+1)-FIND(",",G59)-1)),VLOOKUP(TRIM(MID(G59,FIND(",",G59)+1,FIND(",",G59,FIND(",",G59)+1)-FIND(",",G59)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G59,FIND(",",G59,FIND(",",G59)+1)+1,999)),VLOOKUP(TRIM(MID(G59,FIND(",",G59,FIND(",",G59)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G59,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G59,FIND(",",G59)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G59,FIND(",",G59)+1,FIND(",",G59,FIND(",",G59)+1)-FIND(",",G59)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G59,FIND(",",G59,FIND(",",G59)+1)+1,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)-FIND(",",G59,FIND(",",G59)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G59,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G59,LEFT(G59,FIND(",",G59)-1),VLOOKUP(LEFT(G59,FIND(",",G59)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G59,FIND(",",G59)+1,FIND(",",G59,FIND(",",G59)+1)-FIND(",",G59)-1)),VLOOKUP(TRIM(MID(G59,FIND(",",G59)+1,FIND(",",G59,FIND(",",G59)+1)-FIND(",",G59)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G59,FIND(",",G59,FIND(",",G59)+1)+1,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)-FIND(",",G59,FIND(",",G59)+1)-1)),VLOOKUP(TRIM(MID(G59,FIND(",",G59,FIND(",",G59)+1)+1,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)-FIND(",",G59,FIND(",",G59)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G59,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G59,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+      </c>
+      <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" t="s">
+        <v>139</v>
+      </c>
+      <c r="N59">
+        <v>40</v>
+      </c>
+      <c r="O59">
+        <v>1.9990000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" t="str">
+        <f>IF(ISBLANK(G60),"",
+IF(ISERROR(FIND(",",G60)),
+  IF(ISERROR(VLOOKUP(G60,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G60,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G60,FIND(",",G60)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G60,FIND(",",G60)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G60,FIND(",",G60)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G60,LEFT(G60,FIND(",",G60)-1),VLOOKUP(LEFT(G60,FIND(",",G60)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G60,FIND(",",G60)+1,999)),VLOOKUP(TRIM(MID(G60,FIND(",",G60)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G60,FIND(",",G60)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G60,FIND(",",G60)+1,FIND(",",G60,FIND(",",G60)+1)-FIND(",",G60)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G60,FIND(",",G60,FIND(",",G60)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G60,LEFT(G60,FIND(",",G60)-1),VLOOKUP(LEFT(G60,FIND(",",G60)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G60,FIND(",",G60)+1,FIND(",",G60,FIND(",",G60)+1)-FIND(",",G60)-1)),VLOOKUP(TRIM(MID(G60,FIND(",",G60)+1,FIND(",",G60,FIND(",",G60)+1)-FIND(",",G60)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G60,FIND(",",G60,FIND(",",G60)+1)+1,999)),VLOOKUP(TRIM(MID(G60,FIND(",",G60,FIND(",",G60)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G60,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G60,FIND(",",G60)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G60,FIND(",",G60)+1,FIND(",",G60,FIND(",",G60)+1)-FIND(",",G60)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G60,FIND(",",G60,FIND(",",G60)+1)+1,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)-FIND(",",G60,FIND(",",G60)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G60,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G60,LEFT(G60,FIND(",",G60)-1),VLOOKUP(LEFT(G60,FIND(",",G60)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G60,FIND(",",G60)+1,FIND(",",G60,FIND(",",G60)+1)-FIND(",",G60)-1)),VLOOKUP(TRIM(MID(G60,FIND(",",G60)+1,FIND(",",G60,FIND(",",G60)+1)-FIND(",",G60)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G60,FIND(",",G60,FIND(",",G60)+1)+1,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)-FIND(",",G60,FIND(",",G60)+1)-1)),VLOOKUP(TRIM(MID(G60,FIND(",",G60,FIND(",",G60)+1)+1,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)-FIND(",",G60,FIND(",",G60)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G60,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G60,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+      </c>
+      <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" t="s">
+        <v>140</v>
+      </c>
+      <c r="N60">
+        <v>40</v>
+      </c>
+      <c r="O60">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" t="str">
+        <f>IF(ISBLANK(G61),"",
+IF(ISERROR(FIND(",",G61)),
+  IF(ISERROR(VLOOKUP(G61,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G61,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G61,FIND(",",G61)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G61,FIND(",",G61)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G61,FIND(",",G61)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G61,LEFT(G61,FIND(",",G61)-1),VLOOKUP(LEFT(G61,FIND(",",G61)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G61,FIND(",",G61)+1,999)),VLOOKUP(TRIM(MID(G61,FIND(",",G61)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G61,FIND(",",G61)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G61,FIND(",",G61)+1,FIND(",",G61,FIND(",",G61)+1)-FIND(",",G61)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G61,FIND(",",G61,FIND(",",G61)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G61,LEFT(G61,FIND(",",G61)-1),VLOOKUP(LEFT(G61,FIND(",",G61)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G61,FIND(",",G61)+1,FIND(",",G61,FIND(",",G61)+1)-FIND(",",G61)-1)),VLOOKUP(TRIM(MID(G61,FIND(",",G61)+1,FIND(",",G61,FIND(",",G61)+1)-FIND(",",G61)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G61,FIND(",",G61,FIND(",",G61)+1)+1,999)),VLOOKUP(TRIM(MID(G61,FIND(",",G61,FIND(",",G61)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G61,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G61,FIND(",",G61)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G61,FIND(",",G61)+1,FIND(",",G61,FIND(",",G61)+1)-FIND(",",G61)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G61,FIND(",",G61,FIND(",",G61)+1)+1,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)-FIND(",",G61,FIND(",",G61)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G61,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G61,LEFT(G61,FIND(",",G61)-1),VLOOKUP(LEFT(G61,FIND(",",G61)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G61,FIND(",",G61)+1,FIND(",",G61,FIND(",",G61)+1)-FIND(",",G61)-1)),VLOOKUP(TRIM(MID(G61,FIND(",",G61)+1,FIND(",",G61,FIND(",",G61)+1)-FIND(",",G61)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G61,FIND(",",G61,FIND(",",G61)+1)+1,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)-FIND(",",G61,FIND(",",G61)+1)-1)),VLOOKUP(TRIM(MID(G61,FIND(",",G61,FIND(",",G61)+1)+1,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)-FIND(",",G61,FIND(",",G61)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G61,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G61,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" t="s">
+        <v>141</v>
+      </c>
+      <c r="N61">
+        <v>40</v>
+      </c>
+      <c r="O61">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" t="str">
+        <f>IF(ISBLANK(G62),"",
+IF(ISERROR(FIND(",",G62)),
+  IF(ISERROR(VLOOKUP(G62,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G62,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G62,FIND(",",G62)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G62,FIND(",",G62)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G62,FIND(",",G62)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G62,LEFT(G62,FIND(",",G62)-1),VLOOKUP(LEFT(G62,FIND(",",G62)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G62,FIND(",",G62)+1,999)),VLOOKUP(TRIM(MID(G62,FIND(",",G62)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G62,FIND(",",G62)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G62,FIND(",",G62)+1,FIND(",",G62,FIND(",",G62)+1)-FIND(",",G62)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G62,FIND(",",G62,FIND(",",G62)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G62,LEFT(G62,FIND(",",G62)-1),VLOOKUP(LEFT(G62,FIND(",",G62)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G62,FIND(",",G62)+1,FIND(",",G62,FIND(",",G62)+1)-FIND(",",G62)-1)),VLOOKUP(TRIM(MID(G62,FIND(",",G62)+1,FIND(",",G62,FIND(",",G62)+1)-FIND(",",G62)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G62,FIND(",",G62,FIND(",",G62)+1)+1,999)),VLOOKUP(TRIM(MID(G62,FIND(",",G62,FIND(",",G62)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G62,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G62,FIND(",",G62)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G62,FIND(",",G62)+1,FIND(",",G62,FIND(",",G62)+1)-FIND(",",G62)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G62,FIND(",",G62,FIND(",",G62)+1)+1,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)-FIND(",",G62,FIND(",",G62)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G62,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G62,LEFT(G62,FIND(",",G62)-1),VLOOKUP(LEFT(G62,FIND(",",G62)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G62,FIND(",",G62)+1,FIND(",",G62,FIND(",",G62)+1)-FIND(",",G62)-1)),VLOOKUP(TRIM(MID(G62,FIND(",",G62)+1,FIND(",",G62,FIND(",",G62)+1)-FIND(",",G62)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G62,FIND(",",G62,FIND(",",G62)+1)+1,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)-FIND(",",G62,FIND(",",G62)+1)-1)),VLOOKUP(TRIM(MID(G62,FIND(",",G62,FIND(",",G62)+1)+1,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)-FIND(",",G62,FIND(",",G62)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G62,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G62,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" t="s">
+        <v>142</v>
+      </c>
+      <c r="N62">
+        <v>40</v>
+      </c>
+      <c r="O62">
+        <v>8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" t="str">
+        <f>IF(ISBLANK(G63),"",
+IF(ISERROR(FIND(",",G63)),
+  IF(ISERROR(VLOOKUP(G63,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G63,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G63,FIND(",",G63)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G63,FIND(",",G63)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G63,FIND(",",G63)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G63,LEFT(G63,FIND(",",G63)-1),VLOOKUP(LEFT(G63,FIND(",",G63)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G63,FIND(",",G63)+1,999)),VLOOKUP(TRIM(MID(G63,FIND(",",G63)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G63,FIND(",",G63)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G63,FIND(",",G63)+1,FIND(",",G63,FIND(",",G63)+1)-FIND(",",G63)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G63,FIND(",",G63,FIND(",",G63)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G63,LEFT(G63,FIND(",",G63)-1),VLOOKUP(LEFT(G63,FIND(",",G63)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G63,FIND(",",G63)+1,FIND(",",G63,FIND(",",G63)+1)-FIND(",",G63)-1)),VLOOKUP(TRIM(MID(G63,FIND(",",G63)+1,FIND(",",G63,FIND(",",G63)+1)-FIND(",",G63)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G63,FIND(",",G63,FIND(",",G63)+1)+1,999)),VLOOKUP(TRIM(MID(G63,FIND(",",G63,FIND(",",G63)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G63,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G63,FIND(",",G63)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G63,FIND(",",G63)+1,FIND(",",G63,FIND(",",G63)+1)-FIND(",",G63)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G63,FIND(",",G63,FIND(",",G63)+1)+1,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)-FIND(",",G63,FIND(",",G63)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G63,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G63,LEFT(G63,FIND(",",G63)-1),VLOOKUP(LEFT(G63,FIND(",",G63)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G63,FIND(",",G63)+1,FIND(",",G63,FIND(",",G63)+1)-FIND(",",G63)-1)),VLOOKUP(TRIM(MID(G63,FIND(",",G63)+1,FIND(",",G63,FIND(",",G63)+1)-FIND(",",G63)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G63,FIND(",",G63,FIND(",",G63)+1)+1,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)-FIND(",",G63,FIND(",",G63)+1)-1)),VLOOKUP(TRIM(MID(G63,FIND(",",G63,FIND(",",G63)+1)+1,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)-FIND(",",G63,FIND(",",G63)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G63,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G63,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" t="s">
+        <v>4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" t="s">
+        <v>143</v>
+      </c>
+      <c r="N63">
+        <v>40</v>
+      </c>
+      <c r="O63">
+        <v>8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F64">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" t="str">
+        <f>IF(ISBLANK(G64),"",
+IF(ISERROR(FIND(",",G64)),
+  IF(ISERROR(VLOOKUP(G64,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G64,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G64,FIND(",",G64)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G64,FIND(",",G64)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G64,FIND(",",G64)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G64,LEFT(G64,FIND(",",G64)-1),VLOOKUP(LEFT(G64,FIND(",",G64)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G64,FIND(",",G64)+1,999)),VLOOKUP(TRIM(MID(G64,FIND(",",G64)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G64,FIND(",",G64)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G64,FIND(",",G64)+1,FIND(",",G64,FIND(",",G64)+1)-FIND(",",G64)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G64,FIND(",",G64,FIND(",",G64)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G64,LEFT(G64,FIND(",",G64)-1),VLOOKUP(LEFT(G64,FIND(",",G64)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G64,FIND(",",G64)+1,FIND(",",G64,FIND(",",G64)+1)-FIND(",",G64)-1)),VLOOKUP(TRIM(MID(G64,FIND(",",G64)+1,FIND(",",G64,FIND(",",G64)+1)-FIND(",",G64)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G64,FIND(",",G64,FIND(",",G64)+1)+1,999)),VLOOKUP(TRIM(MID(G64,FIND(",",G64,FIND(",",G64)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G64,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G64,FIND(",",G64)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G64,FIND(",",G64)+1,FIND(",",G64,FIND(",",G64)+1)-FIND(",",G64)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G64,FIND(",",G64,FIND(",",G64)+1)+1,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)-FIND(",",G64,FIND(",",G64)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G64,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G64,LEFT(G64,FIND(",",G64)-1),VLOOKUP(LEFT(G64,FIND(",",G64)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G64,FIND(",",G64)+1,FIND(",",G64,FIND(",",G64)+1)-FIND(",",G64)-1)),VLOOKUP(TRIM(MID(G64,FIND(",",G64)+1,FIND(",",G64,FIND(",",G64)+1)-FIND(",",G64)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G64,FIND(",",G64,FIND(",",G64)+1)+1,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)-FIND(",",G64,FIND(",",G64)+1)-1)),VLOOKUP(TRIM(MID(G64,FIND(",",G64,FIND(",",G64)+1)+1,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)-FIND(",",G64,FIND(",",G64)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G64,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G64,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" t="s">
+        <v>144</v>
+      </c>
+      <c r="N64">
+        <v>40</v>
+      </c>
+      <c r="O64">
+        <v>10.999000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" t="str">
+        <f>IF(ISBLANK(G65),"",
+IF(ISERROR(FIND(",",G65)),
+  IF(ISERROR(VLOOKUP(G65,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G65,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G65,FIND(",",G65)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G65,FIND(",",G65)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G65,FIND(",",G65)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G65,LEFT(G65,FIND(",",G65)-1),VLOOKUP(LEFT(G65,FIND(",",G65)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G65,FIND(",",G65)+1,999)),VLOOKUP(TRIM(MID(G65,FIND(",",G65)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G65,FIND(",",G65)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G65,FIND(",",G65)+1,FIND(",",G65,FIND(",",G65)+1)-FIND(",",G65)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G65,FIND(",",G65,FIND(",",G65)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G65,LEFT(G65,FIND(",",G65)-1),VLOOKUP(LEFT(G65,FIND(",",G65)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G65,FIND(",",G65)+1,FIND(",",G65,FIND(",",G65)+1)-FIND(",",G65)-1)),VLOOKUP(TRIM(MID(G65,FIND(",",G65)+1,FIND(",",G65,FIND(",",G65)+1)-FIND(",",G65)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G65,FIND(",",G65,FIND(",",G65)+1)+1,999)),VLOOKUP(TRIM(MID(G65,FIND(",",G65,FIND(",",G65)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G65,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G65,FIND(",",G65)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G65,FIND(",",G65)+1,FIND(",",G65,FIND(",",G65)+1)-FIND(",",G65)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G65,FIND(",",G65,FIND(",",G65)+1)+1,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)-FIND(",",G65,FIND(",",G65)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G65,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G65,LEFT(G65,FIND(",",G65)-1),VLOOKUP(LEFT(G65,FIND(",",G65)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G65,FIND(",",G65)+1,FIND(",",G65,FIND(",",G65)+1)-FIND(",",G65)-1)),VLOOKUP(TRIM(MID(G65,FIND(",",G65)+1,FIND(",",G65,FIND(",",G65)+1)-FIND(",",G65)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G65,FIND(",",G65,FIND(",",G65)+1)+1,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)-FIND(",",G65,FIND(",",G65)+1)-1)),VLOOKUP(TRIM(MID(G65,FIND(",",G65,FIND(",",G65)+1)+1,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)-FIND(",",G65,FIND(",",G65)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G65,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G65,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" t="s">
+        <v>4</v>
+      </c>
+      <c r="L65" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" t="s">
+        <v>145</v>
+      </c>
+      <c r="N65">
+        <v>40</v>
+      </c>
+      <c r="O65">
+        <v>10.999000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D113" si="2">1000+A66*100</f>
+        <v>1400</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66">
+        <f>IF(ISBLANK(G66),"",
+IF(ISERROR(FIND(",",G66)),
+  IF(ISERROR(VLOOKUP(G66,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G66,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G66,FIND(",",G66)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G66,FIND(",",G66)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G66,FIND(",",G66)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G66,LEFT(G66,FIND(",",G66)-1),VLOOKUP(LEFT(G66,FIND(",",G66)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G66,FIND(",",G66)+1,999)),VLOOKUP(TRIM(MID(G66,FIND(",",G66)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G66,FIND(",",G66,FIND(",",G66)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G66,FIND(",",G66)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G66,FIND(",",G66)+1,FIND(",",G66,FIND(",",G66)+1)-FIND(",",G66)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G66,FIND(",",G66,FIND(",",G66)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G66,LEFT(G66,FIND(",",G66)-1),VLOOKUP(LEFT(G66,FIND(",",G66)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G66,FIND(",",G66)+1,FIND(",",G66,FIND(",",G66)+1)-FIND(",",G66)-1)),VLOOKUP(TRIM(MID(G66,FIND(",",G66)+1,FIND(",",G66,FIND(",",G66)+1)-FIND(",",G66)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G66,FIND(",",G66,FIND(",",G66)+1)+1,999)),VLOOKUP(TRIM(MID(G66,FIND(",",G66,FIND(",",G66)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G66,FIND(",",G66,FIND(",",G66,FIND(",",G66)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G66,FIND(",",G66)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G66,FIND(",",G66)+1,FIND(",",G66,FIND(",",G66)+1)-FIND(",",G66)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G66,FIND(",",G66,FIND(",",G66)+1)+1,FIND(",",G66,FIND(",",G66,FIND(",",G66)+1)+1)-FIND(",",G66,FIND(",",G66)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G66,FIND(",",G66,FIND(",",G66,FIND(",",G66)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G66,LEFT(G66,FIND(",",G66)-1),VLOOKUP(LEFT(G66,FIND(",",G66)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G66,FIND(",",G66)+1,FIND(",",G66,FIND(",",G66)+1)-FIND(",",G66)-1)),VLOOKUP(TRIM(MID(G66,FIND(",",G66)+1,FIND(",",G66,FIND(",",G66)+1)-FIND(",",G66)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G66,FIND(",",G66,FIND(",",G66)+1)+1,FIND(",",G66,FIND(",",G66,FIND(",",G66)+1)+1)-FIND(",",G66,FIND(",",G66)+1)-1)),VLOOKUP(TRIM(MID(G66,FIND(",",G66,FIND(",",G66)+1)+1,FIND(",",G66,FIND(",",G66,FIND(",",G66)+1)+1)-FIND(",",G66,FIND(",",G66)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G66,FIND(",",G66,FIND(",",G66,FIND(",",G66)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G66,FIND(",",G66,FIND(",",G66,FIND(",",G66)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" t="s">
+        <v>34</v>
+      </c>
+      <c r="M66" t="s">
+        <v>67</v>
+      </c>
+      <c r="N66">
+        <v>30</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67">
+        <f>IF(ISBLANK(G67),"",
+IF(ISERROR(FIND(",",G67)),
+  IF(ISERROR(VLOOKUP(G67,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G67,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G67,FIND(",",G67)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G67,FIND(",",G67)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G67,FIND(",",G67)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G67,LEFT(G67,FIND(",",G67)-1),VLOOKUP(LEFT(G67,FIND(",",G67)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G67,FIND(",",G67)+1,999)),VLOOKUP(TRIM(MID(G67,FIND(",",G67)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G67,FIND(",",G67,FIND(",",G67)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G67,FIND(",",G67)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G67,FIND(",",G67)+1,FIND(",",G67,FIND(",",G67)+1)-FIND(",",G67)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G67,FIND(",",G67,FIND(",",G67)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G67,LEFT(G67,FIND(",",G67)-1),VLOOKUP(LEFT(G67,FIND(",",G67)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G67,FIND(",",G67)+1,FIND(",",G67,FIND(",",G67)+1)-FIND(",",G67)-1)),VLOOKUP(TRIM(MID(G67,FIND(",",G67)+1,FIND(",",G67,FIND(",",G67)+1)-FIND(",",G67)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G67,FIND(",",G67,FIND(",",G67)+1)+1,999)),VLOOKUP(TRIM(MID(G67,FIND(",",G67,FIND(",",G67)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G67,FIND(",",G67,FIND(",",G67,FIND(",",G67)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G67,FIND(",",G67)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G67,FIND(",",G67)+1,FIND(",",G67,FIND(",",G67)+1)-FIND(",",G67)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G67,FIND(",",G67,FIND(",",G67)+1)+1,FIND(",",G67,FIND(",",G67,FIND(",",G67)+1)+1)-FIND(",",G67,FIND(",",G67)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G67,FIND(",",G67,FIND(",",G67,FIND(",",G67)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G67,LEFT(G67,FIND(",",G67)-1),VLOOKUP(LEFT(G67,FIND(",",G67)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G67,FIND(",",G67)+1,FIND(",",G67,FIND(",",G67)+1)-FIND(",",G67)-1)),VLOOKUP(TRIM(MID(G67,FIND(",",G67)+1,FIND(",",G67,FIND(",",G67)+1)-FIND(",",G67)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G67,FIND(",",G67,FIND(",",G67)+1)+1,FIND(",",G67,FIND(",",G67,FIND(",",G67)+1)+1)-FIND(",",G67,FIND(",",G67)+1)-1)),VLOOKUP(TRIM(MID(G67,FIND(",",G67,FIND(",",G67)+1)+1,FIND(",",G67,FIND(",",G67,FIND(",",G67)+1)+1)-FIND(",",G67,FIND(",",G67)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G67,FIND(",",G67,FIND(",",G67,FIND(",",G67)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G67,FIND(",",G67,FIND(",",G67,FIND(",",G67)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" t="s">
+        <v>68</v>
+      </c>
+      <c r="N67">
+        <v>30</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68">
+        <f>IF(ISBLANK(G68),"",
+IF(ISERROR(FIND(",",G68)),
+  IF(ISERROR(VLOOKUP(G68,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G68,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G68,FIND(",",G68)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G68,FIND(",",G68)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G68,FIND(",",G68)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G68,LEFT(G68,FIND(",",G68)-1),VLOOKUP(LEFT(G68,FIND(",",G68)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G68,FIND(",",G68)+1,999)),VLOOKUP(TRIM(MID(G68,FIND(",",G68)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G68,FIND(",",G68,FIND(",",G68)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G68,FIND(",",G68)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G68,FIND(",",G68)+1,FIND(",",G68,FIND(",",G68)+1)-FIND(",",G68)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G68,FIND(",",G68,FIND(",",G68)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G68,LEFT(G68,FIND(",",G68)-1),VLOOKUP(LEFT(G68,FIND(",",G68)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G68,FIND(",",G68)+1,FIND(",",G68,FIND(",",G68)+1)-FIND(",",G68)-1)),VLOOKUP(TRIM(MID(G68,FIND(",",G68)+1,FIND(",",G68,FIND(",",G68)+1)-FIND(",",G68)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G68,FIND(",",G68,FIND(",",G68)+1)+1,999)),VLOOKUP(TRIM(MID(G68,FIND(",",G68,FIND(",",G68)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G68,FIND(",",G68,FIND(",",G68,FIND(",",G68)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G68,FIND(",",G68)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G68,FIND(",",G68)+1,FIND(",",G68,FIND(",",G68)+1)-FIND(",",G68)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G68,FIND(",",G68,FIND(",",G68)+1)+1,FIND(",",G68,FIND(",",G68,FIND(",",G68)+1)+1)-FIND(",",G68,FIND(",",G68)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G68,FIND(",",G68,FIND(",",G68,FIND(",",G68)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G68,LEFT(G68,FIND(",",G68)-1),VLOOKUP(LEFT(G68,FIND(",",G68)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G68,FIND(",",G68)+1,FIND(",",G68,FIND(",",G68)+1)-FIND(",",G68)-1)),VLOOKUP(TRIM(MID(G68,FIND(",",G68)+1,FIND(",",G68,FIND(",",G68)+1)-FIND(",",G68)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G68,FIND(",",G68,FIND(",",G68)+1)+1,FIND(",",G68,FIND(",",G68,FIND(",",G68)+1)+1)-FIND(",",G68,FIND(",",G68)+1)-1)),VLOOKUP(TRIM(MID(G68,FIND(",",G68,FIND(",",G68)+1)+1,FIND(",",G68,FIND(",",G68,FIND(",",G68)+1)+1)-FIND(",",G68,FIND(",",G68)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G68,FIND(",",G68,FIND(",",G68,FIND(",",G68)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G68,FIND(",",G68,FIND(",",G68,FIND(",",G68)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" t="s">
+        <v>32</v>
+      </c>
+      <c r="L68" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" t="s">
+        <v>69</v>
+      </c>
+      <c r="N68">
+        <v>30</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69">
+        <f>IF(ISBLANK(G69),"",
+IF(ISERROR(FIND(",",G69)),
+  IF(ISERROR(VLOOKUP(G69,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G69,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G69,FIND(",",G69)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G69,FIND(",",G69)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G69,FIND(",",G69)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G69,LEFT(G69,FIND(",",G69)-1),VLOOKUP(LEFT(G69,FIND(",",G69)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G69,FIND(",",G69)+1,999)),VLOOKUP(TRIM(MID(G69,FIND(",",G69)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G69,FIND(",",G69,FIND(",",G69)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G69,FIND(",",G69)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G69,FIND(",",G69)+1,FIND(",",G69,FIND(",",G69)+1)-FIND(",",G69)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G69,FIND(",",G69,FIND(",",G69)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G69,LEFT(G69,FIND(",",G69)-1),VLOOKUP(LEFT(G69,FIND(",",G69)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G69,FIND(",",G69)+1,FIND(",",G69,FIND(",",G69)+1)-FIND(",",G69)-1)),VLOOKUP(TRIM(MID(G69,FIND(",",G69)+1,FIND(",",G69,FIND(",",G69)+1)-FIND(",",G69)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G69,FIND(",",G69,FIND(",",G69)+1)+1,999)),VLOOKUP(TRIM(MID(G69,FIND(",",G69,FIND(",",G69)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G69,FIND(",",G69,FIND(",",G69,FIND(",",G69)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G69,FIND(",",G69)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G69,FIND(",",G69)+1,FIND(",",G69,FIND(",",G69)+1)-FIND(",",G69)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G69,FIND(",",G69,FIND(",",G69)+1)+1,FIND(",",G69,FIND(",",G69,FIND(",",G69)+1)+1)-FIND(",",G69,FIND(",",G69)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G69,FIND(",",G69,FIND(",",G69,FIND(",",G69)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G69,LEFT(G69,FIND(",",G69)-1),VLOOKUP(LEFT(G69,FIND(",",G69)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G69,FIND(",",G69)+1,FIND(",",G69,FIND(",",G69)+1)-FIND(",",G69)-1)),VLOOKUP(TRIM(MID(G69,FIND(",",G69)+1,FIND(",",G69,FIND(",",G69)+1)-FIND(",",G69)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G69,FIND(",",G69,FIND(",",G69)+1)+1,FIND(",",G69,FIND(",",G69,FIND(",",G69)+1)+1)-FIND(",",G69,FIND(",",G69)+1)-1)),VLOOKUP(TRIM(MID(G69,FIND(",",G69,FIND(",",G69)+1)+1,FIND(",",G69,FIND(",",G69,FIND(",",G69)+1)+1)-FIND(",",G69,FIND(",",G69)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G69,FIND(",",G69,FIND(",",G69,FIND(",",G69)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G69,FIND(",",G69,FIND(",",G69,FIND(",",G69)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+      <c r="L69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M69" t="s">
+        <v>70</v>
+      </c>
+      <c r="N69">
+        <v>30</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70">
+        <f>IF(ISBLANK(G70),"",
+IF(ISERROR(FIND(",",G70)),
+  IF(ISERROR(VLOOKUP(G70,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G70,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G70,FIND(",",G70)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G70,FIND(",",G70)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G70,FIND(",",G70)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G70,LEFT(G70,FIND(",",G70)-1),VLOOKUP(LEFT(G70,FIND(",",G70)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G70,FIND(",",G70)+1,999)),VLOOKUP(TRIM(MID(G70,FIND(",",G70)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G70,FIND(",",G70,FIND(",",G70)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G70,FIND(",",G70)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G70,FIND(",",G70)+1,FIND(",",G70,FIND(",",G70)+1)-FIND(",",G70)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G70,FIND(",",G70,FIND(",",G70)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G70,LEFT(G70,FIND(",",G70)-1),VLOOKUP(LEFT(G70,FIND(",",G70)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G70,FIND(",",G70)+1,FIND(",",G70,FIND(",",G70)+1)-FIND(",",G70)-1)),VLOOKUP(TRIM(MID(G70,FIND(",",G70)+1,FIND(",",G70,FIND(",",G70)+1)-FIND(",",G70)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G70,FIND(",",G70,FIND(",",G70)+1)+1,999)),VLOOKUP(TRIM(MID(G70,FIND(",",G70,FIND(",",G70)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G70,FIND(",",G70,FIND(",",G70,FIND(",",G70)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G70,FIND(",",G70)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G70,FIND(",",G70)+1,FIND(",",G70,FIND(",",G70)+1)-FIND(",",G70)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G70,FIND(",",G70,FIND(",",G70)+1)+1,FIND(",",G70,FIND(",",G70,FIND(",",G70)+1)+1)-FIND(",",G70,FIND(",",G70)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G70,FIND(",",G70,FIND(",",G70,FIND(",",G70)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G70,LEFT(G70,FIND(",",G70)-1),VLOOKUP(LEFT(G70,FIND(",",G70)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G70,FIND(",",G70)+1,FIND(",",G70,FIND(",",G70)+1)-FIND(",",G70)-1)),VLOOKUP(TRIM(MID(G70,FIND(",",G70)+1,FIND(",",G70,FIND(",",G70)+1)-FIND(",",G70)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G70,FIND(",",G70,FIND(",",G70)+1)+1,FIND(",",G70,FIND(",",G70,FIND(",",G70)+1)+1)-FIND(",",G70,FIND(",",G70)+1)-1)),VLOOKUP(TRIM(MID(G70,FIND(",",G70,FIND(",",G70)+1)+1,FIND(",",G70,FIND(",",G70,FIND(",",G70)+1)+1)-FIND(",",G70,FIND(",",G70)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G70,FIND(",",G70,FIND(",",G70,FIND(",",G70)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G70,FIND(",",G70,FIND(",",G70,FIND(",",G70)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70" t="s">
+        <v>34</v>
+      </c>
+      <c r="M70" t="s">
+        <v>71</v>
+      </c>
+      <c r="N70">
+        <v>30</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <f>IF(ISBLANK(G71),"",
+IF(ISERROR(FIND(",",G71)),
+  IF(ISERROR(VLOOKUP(G71,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G71,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G71,FIND(",",G71)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G71,FIND(",",G71)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G71,FIND(",",G71)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G71,LEFT(G71,FIND(",",G71)-1),VLOOKUP(LEFT(G71,FIND(",",G71)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G71,FIND(",",G71)+1,999)),VLOOKUP(TRIM(MID(G71,FIND(",",G71)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G71,FIND(",",G71,FIND(",",G71)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G71,FIND(",",G71)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G71,FIND(",",G71)+1,FIND(",",G71,FIND(",",G71)+1)-FIND(",",G71)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G71,FIND(",",G71,FIND(",",G71)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G71,LEFT(G71,FIND(",",G71)-1),VLOOKUP(LEFT(G71,FIND(",",G71)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G71,FIND(",",G71)+1,FIND(",",G71,FIND(",",G71)+1)-FIND(",",G71)-1)),VLOOKUP(TRIM(MID(G71,FIND(",",G71)+1,FIND(",",G71,FIND(",",G71)+1)-FIND(",",G71)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G71,FIND(",",G71,FIND(",",G71)+1)+1,999)),VLOOKUP(TRIM(MID(G71,FIND(",",G71,FIND(",",G71)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G71,FIND(",",G71,FIND(",",G71,FIND(",",G71)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G71,FIND(",",G71)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G71,FIND(",",G71)+1,FIND(",",G71,FIND(",",G71)+1)-FIND(",",G71)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G71,FIND(",",G71,FIND(",",G71)+1)+1,FIND(",",G71,FIND(",",G71,FIND(",",G71)+1)+1)-FIND(",",G71,FIND(",",G71)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G71,FIND(",",G71,FIND(",",G71,FIND(",",G71)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G71,LEFT(G71,FIND(",",G71)-1),VLOOKUP(LEFT(G71,FIND(",",G71)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G71,FIND(",",G71)+1,FIND(",",G71,FIND(",",G71)+1)-FIND(",",G71)-1)),VLOOKUP(TRIM(MID(G71,FIND(",",G71)+1,FIND(",",G71,FIND(",",G71)+1)-FIND(",",G71)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G71,FIND(",",G71,FIND(",",G71)+1)+1,FIND(",",G71,FIND(",",G71,FIND(",",G71)+1)+1)-FIND(",",G71,FIND(",",G71)+1)-1)),VLOOKUP(TRIM(MID(G71,FIND(",",G71,FIND(",",G71)+1)+1,FIND(",",G71,FIND(",",G71,FIND(",",G71)+1)+1)-FIND(",",G71,FIND(",",G71)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G71,FIND(",",G71,FIND(",",G71,FIND(",",G71)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G71,FIND(",",G71,FIND(",",G71,FIND(",",G71)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" t="s">
+        <v>34</v>
+      </c>
+      <c r="M71" t="s">
+        <v>72</v>
+      </c>
+      <c r="N71">
+        <v>30</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72">
+        <f>IF(ISBLANK(G72),"",
+IF(ISERROR(FIND(",",G72)),
+  IF(ISERROR(VLOOKUP(G72,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G72,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G72,FIND(",",G72)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G72,FIND(",",G72)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G72,FIND(",",G72)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G72,LEFT(G72,FIND(",",G72)-1),VLOOKUP(LEFT(G72,FIND(",",G72)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G72,FIND(",",G72)+1,999)),VLOOKUP(TRIM(MID(G72,FIND(",",G72)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G72,FIND(",",G72,FIND(",",G72)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G72,FIND(",",G72)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G72,FIND(",",G72)+1,FIND(",",G72,FIND(",",G72)+1)-FIND(",",G72)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G72,FIND(",",G72,FIND(",",G72)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G72,LEFT(G72,FIND(",",G72)-1),VLOOKUP(LEFT(G72,FIND(",",G72)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G72,FIND(",",G72)+1,FIND(",",G72,FIND(",",G72)+1)-FIND(",",G72)-1)),VLOOKUP(TRIM(MID(G72,FIND(",",G72)+1,FIND(",",G72,FIND(",",G72)+1)-FIND(",",G72)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G72,FIND(",",G72,FIND(",",G72)+1)+1,999)),VLOOKUP(TRIM(MID(G72,FIND(",",G72,FIND(",",G72)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G72,FIND(",",G72,FIND(",",G72,FIND(",",G72)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G72,FIND(",",G72)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G72,FIND(",",G72)+1,FIND(",",G72,FIND(",",G72)+1)-FIND(",",G72)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G72,FIND(",",G72,FIND(",",G72)+1)+1,FIND(",",G72,FIND(",",G72,FIND(",",G72)+1)+1)-FIND(",",G72,FIND(",",G72)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G72,FIND(",",G72,FIND(",",G72,FIND(",",G72)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G72,LEFT(G72,FIND(",",G72)-1),VLOOKUP(LEFT(G72,FIND(",",G72)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G72,FIND(",",G72)+1,FIND(",",G72,FIND(",",G72)+1)-FIND(",",G72)-1)),VLOOKUP(TRIM(MID(G72,FIND(",",G72)+1,FIND(",",G72,FIND(",",G72)+1)-FIND(",",G72)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G72,FIND(",",G72,FIND(",",G72)+1)+1,FIND(",",G72,FIND(",",G72,FIND(",",G72)+1)+1)-FIND(",",G72,FIND(",",G72)+1)-1)),VLOOKUP(TRIM(MID(G72,FIND(",",G72,FIND(",",G72)+1)+1,FIND(",",G72,FIND(",",G72,FIND(",",G72)+1)+1)-FIND(",",G72,FIND(",",G72)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G72,FIND(",",G72,FIND(",",G72,FIND(",",G72)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G72,FIND(",",G72,FIND(",",G72,FIND(",",G72)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" t="s">
+        <v>34</v>
+      </c>
+      <c r="M72" t="s">
+        <v>73</v>
+      </c>
+      <c r="N72">
+        <v>30</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73">
+        <f>IF(ISBLANK(G73),"",
+IF(ISERROR(FIND(",",G73)),
+  IF(ISERROR(VLOOKUP(G73,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G73,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G73,FIND(",",G73)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G73,FIND(",",G73)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G73,FIND(",",G73)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G73,LEFT(G73,FIND(",",G73)-1),VLOOKUP(LEFT(G73,FIND(",",G73)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G73,FIND(",",G73)+1,999)),VLOOKUP(TRIM(MID(G73,FIND(",",G73)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G73,FIND(",",G73,FIND(",",G73)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G73,FIND(",",G73)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G73,FIND(",",G73)+1,FIND(",",G73,FIND(",",G73)+1)-FIND(",",G73)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G73,FIND(",",G73,FIND(",",G73)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G73,LEFT(G73,FIND(",",G73)-1),VLOOKUP(LEFT(G73,FIND(",",G73)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G73,FIND(",",G73)+1,FIND(",",G73,FIND(",",G73)+1)-FIND(",",G73)-1)),VLOOKUP(TRIM(MID(G73,FIND(",",G73)+1,FIND(",",G73,FIND(",",G73)+1)-FIND(",",G73)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G73,FIND(",",G73,FIND(",",G73)+1)+1,999)),VLOOKUP(TRIM(MID(G73,FIND(",",G73,FIND(",",G73)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G73,FIND(",",G73,FIND(",",G73,FIND(",",G73)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G73,FIND(",",G73)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G73,FIND(",",G73)+1,FIND(",",G73,FIND(",",G73)+1)-FIND(",",G73)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G73,FIND(",",G73,FIND(",",G73)+1)+1,FIND(",",G73,FIND(",",G73,FIND(",",G73)+1)+1)-FIND(",",G73,FIND(",",G73)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G73,FIND(",",G73,FIND(",",G73,FIND(",",G73)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G73,LEFT(G73,FIND(",",G73)-1),VLOOKUP(LEFT(G73,FIND(",",G73)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G73,FIND(",",G73)+1,FIND(",",G73,FIND(",",G73)+1)-FIND(",",G73)-1)),VLOOKUP(TRIM(MID(G73,FIND(",",G73)+1,FIND(",",G73,FIND(",",G73)+1)-FIND(",",G73)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G73,FIND(",",G73,FIND(",",G73)+1)+1,FIND(",",G73,FIND(",",G73,FIND(",",G73)+1)+1)-FIND(",",G73,FIND(",",G73)+1)-1)),VLOOKUP(TRIM(MID(G73,FIND(",",G73,FIND(",",G73)+1)+1,FIND(",",G73,FIND(",",G73,FIND(",",G73)+1)+1)-FIND(",",G73,FIND(",",G73)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G73,FIND(",",G73,FIND(",",G73,FIND(",",G73)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G73,FIND(",",G73,FIND(",",G73,FIND(",",G73)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+      <c r="L73" t="s">
+        <v>34</v>
+      </c>
+      <c r="M73" t="s">
+        <v>74</v>
+      </c>
+      <c r="N73">
+        <v>30</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74">
+        <f>IF(ISBLANK(G74),"",
+IF(ISERROR(FIND(",",G74)),
+  IF(ISERROR(VLOOKUP(G74,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G74,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G74,FIND(",",G74)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G74,FIND(",",G74)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G74,FIND(",",G74)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G74,LEFT(G74,FIND(",",G74)-1),VLOOKUP(LEFT(G74,FIND(",",G74)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G74,FIND(",",G74)+1,999)),VLOOKUP(TRIM(MID(G74,FIND(",",G74)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G74,FIND(",",G74,FIND(",",G74)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G74,FIND(",",G74)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G74,FIND(",",G74)+1,FIND(",",G74,FIND(",",G74)+1)-FIND(",",G74)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G74,FIND(",",G74,FIND(",",G74)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G74,LEFT(G74,FIND(",",G74)-1),VLOOKUP(LEFT(G74,FIND(",",G74)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G74,FIND(",",G74)+1,FIND(",",G74,FIND(",",G74)+1)-FIND(",",G74)-1)),VLOOKUP(TRIM(MID(G74,FIND(",",G74)+1,FIND(",",G74,FIND(",",G74)+1)-FIND(",",G74)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G74,FIND(",",G74,FIND(",",G74)+1)+1,999)),VLOOKUP(TRIM(MID(G74,FIND(",",G74,FIND(",",G74)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G74,FIND(",",G74,FIND(",",G74,FIND(",",G74)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G74,FIND(",",G74)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G74,FIND(",",G74)+1,FIND(",",G74,FIND(",",G74)+1)-FIND(",",G74)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G74,FIND(",",G74,FIND(",",G74)+1)+1,FIND(",",G74,FIND(",",G74,FIND(",",G74)+1)+1)-FIND(",",G74,FIND(",",G74)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G74,FIND(",",G74,FIND(",",G74,FIND(",",G74)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G74,LEFT(G74,FIND(",",G74)-1),VLOOKUP(LEFT(G74,FIND(",",G74)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G74,FIND(",",G74)+1,FIND(",",G74,FIND(",",G74)+1)-FIND(",",G74)-1)),VLOOKUP(TRIM(MID(G74,FIND(",",G74)+1,FIND(",",G74,FIND(",",G74)+1)-FIND(",",G74)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G74,FIND(",",G74,FIND(",",G74)+1)+1,FIND(",",G74,FIND(",",G74,FIND(",",G74)+1)+1)-FIND(",",G74,FIND(",",G74)+1)-1)),VLOOKUP(TRIM(MID(G74,FIND(",",G74,FIND(",",G74)+1)+1,FIND(",",G74,FIND(",",G74,FIND(",",G74)+1)+1)-FIND(",",G74,FIND(",",G74)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G74,FIND(",",G74,FIND(",",G74,FIND(",",G74)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G74,FIND(",",G74,FIND(",",G74,FIND(",",G74)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" t="s">
+        <v>130</v>
+      </c>
+      <c r="N74">
+        <v>30</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75">
+        <f>IF(ISBLANK(G75),"",
+IF(ISERROR(FIND(",",G75)),
+  IF(ISERROR(VLOOKUP(G75,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G75,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G75,FIND(",",G75)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G75,FIND(",",G75)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G75,FIND(",",G75)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G75,LEFT(G75,FIND(",",G75)-1),VLOOKUP(LEFT(G75,FIND(",",G75)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G75,FIND(",",G75)+1,999)),VLOOKUP(TRIM(MID(G75,FIND(",",G75)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G75,FIND(",",G75,FIND(",",G75)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G75,FIND(",",G75)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G75,FIND(",",G75)+1,FIND(",",G75,FIND(",",G75)+1)-FIND(",",G75)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G75,FIND(",",G75,FIND(",",G75)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G75,LEFT(G75,FIND(",",G75)-1),VLOOKUP(LEFT(G75,FIND(",",G75)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G75,FIND(",",G75)+1,FIND(",",G75,FIND(",",G75)+1)-FIND(",",G75)-1)),VLOOKUP(TRIM(MID(G75,FIND(",",G75)+1,FIND(",",G75,FIND(",",G75)+1)-FIND(",",G75)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G75,FIND(",",G75,FIND(",",G75)+1)+1,999)),VLOOKUP(TRIM(MID(G75,FIND(",",G75,FIND(",",G75)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G75,FIND(",",G75,FIND(",",G75,FIND(",",G75)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G75,FIND(",",G75)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G75,FIND(",",G75)+1,FIND(",",G75,FIND(",",G75)+1)-FIND(",",G75)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G75,FIND(",",G75,FIND(",",G75)+1)+1,FIND(",",G75,FIND(",",G75,FIND(",",G75)+1)+1)-FIND(",",G75,FIND(",",G75)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G75,FIND(",",G75,FIND(",",G75,FIND(",",G75)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G75,LEFT(G75,FIND(",",G75)-1),VLOOKUP(LEFT(G75,FIND(",",G75)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G75,FIND(",",G75)+1,FIND(",",G75,FIND(",",G75)+1)-FIND(",",G75)-1)),VLOOKUP(TRIM(MID(G75,FIND(",",G75)+1,FIND(",",G75,FIND(",",G75)+1)-FIND(",",G75)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G75,FIND(",",G75,FIND(",",G75)+1)+1,FIND(",",G75,FIND(",",G75,FIND(",",G75)+1)+1)-FIND(",",G75,FIND(",",G75)+1)-1)),VLOOKUP(TRIM(MID(G75,FIND(",",G75,FIND(",",G75)+1)+1,FIND(",",G75,FIND(",",G75,FIND(",",G75)+1)+1)-FIND(",",G75,FIND(",",G75)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G75,FIND(",",G75,FIND(",",G75,FIND(",",G75)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G75,FIND(",",G75,FIND(",",G75,FIND(",",G75)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" t="s">
+        <v>34</v>
+      </c>
+      <c r="M75" t="s">
+        <v>131</v>
+      </c>
+      <c r="N75">
+        <v>30</v>
+      </c>
+      <c r="O75">
+        <v>1.9990000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76">
+        <f>IF(ISBLANK(G76),"",
+IF(ISERROR(FIND(",",G76)),
+  IF(ISERROR(VLOOKUP(G76,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G76,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G76,FIND(",",G76)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G76,FIND(",",G76)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G76,FIND(",",G76)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G76,LEFT(G76,FIND(",",G76)-1),VLOOKUP(LEFT(G76,FIND(",",G76)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G76,FIND(",",G76)+1,999)),VLOOKUP(TRIM(MID(G76,FIND(",",G76)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G76,FIND(",",G76,FIND(",",G76)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G76,FIND(",",G76)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G76,FIND(",",G76)+1,FIND(",",G76,FIND(",",G76)+1)-FIND(",",G76)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G76,FIND(",",G76,FIND(",",G76)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G76,LEFT(G76,FIND(",",G76)-1),VLOOKUP(LEFT(G76,FIND(",",G76)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G76,FIND(",",G76)+1,FIND(",",G76,FIND(",",G76)+1)-FIND(",",G76)-1)),VLOOKUP(TRIM(MID(G76,FIND(",",G76)+1,FIND(",",G76,FIND(",",G76)+1)-FIND(",",G76)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G76,FIND(",",G76,FIND(",",G76)+1)+1,999)),VLOOKUP(TRIM(MID(G76,FIND(",",G76,FIND(",",G76)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G76,FIND(",",G76,FIND(",",G76,FIND(",",G76)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G76,FIND(",",G76)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G76,FIND(",",G76)+1,FIND(",",G76,FIND(",",G76)+1)-FIND(",",G76)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G76,FIND(",",G76,FIND(",",G76)+1)+1,FIND(",",G76,FIND(",",G76,FIND(",",G76)+1)+1)-FIND(",",G76,FIND(",",G76)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G76,FIND(",",G76,FIND(",",G76,FIND(",",G76)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G76,LEFT(G76,FIND(",",G76)-1),VLOOKUP(LEFT(G76,FIND(",",G76)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G76,FIND(",",G76)+1,FIND(",",G76,FIND(",",G76)+1)-FIND(",",G76)-1)),VLOOKUP(TRIM(MID(G76,FIND(",",G76)+1,FIND(",",G76,FIND(",",G76)+1)-FIND(",",G76)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G76,FIND(",",G76,FIND(",",G76)+1)+1,FIND(",",G76,FIND(",",G76,FIND(",",G76)+1)+1)-FIND(",",G76,FIND(",",G76)+1)-1)),VLOOKUP(TRIM(MID(G76,FIND(",",G76,FIND(",",G76)+1)+1,FIND(",",G76,FIND(",",G76,FIND(",",G76)+1)+1)-FIND(",",G76,FIND(",",G76)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G76,FIND(",",G76,FIND(",",G76,FIND(",",G76)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G76,FIND(",",G76,FIND(",",G76,FIND(",",G76)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76" t="s">
+        <v>132</v>
+      </c>
+      <c r="N76">
+        <v>30</v>
+      </c>
+      <c r="O76">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77">
+        <f>IF(ISBLANK(G77),"",
+IF(ISERROR(FIND(",",G77)),
+  IF(ISERROR(VLOOKUP(G77,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G77,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G77,FIND(",",G77)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G77,FIND(",",G77)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G77,FIND(",",G77)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G77,LEFT(G77,FIND(",",G77)-1),VLOOKUP(LEFT(G77,FIND(",",G77)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G77,FIND(",",G77)+1,999)),VLOOKUP(TRIM(MID(G77,FIND(",",G77)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G77,FIND(",",G77,FIND(",",G77)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G77,FIND(",",G77)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G77,FIND(",",G77)+1,FIND(",",G77,FIND(",",G77)+1)-FIND(",",G77)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G77,FIND(",",G77,FIND(",",G77)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G77,LEFT(G77,FIND(",",G77)-1),VLOOKUP(LEFT(G77,FIND(",",G77)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G77,FIND(",",G77)+1,FIND(",",G77,FIND(",",G77)+1)-FIND(",",G77)-1)),VLOOKUP(TRIM(MID(G77,FIND(",",G77)+1,FIND(",",G77,FIND(",",G77)+1)-FIND(",",G77)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G77,FIND(",",G77,FIND(",",G77)+1)+1,999)),VLOOKUP(TRIM(MID(G77,FIND(",",G77,FIND(",",G77)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G77,FIND(",",G77,FIND(",",G77,FIND(",",G77)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G77,FIND(",",G77)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G77,FIND(",",G77)+1,FIND(",",G77,FIND(",",G77)+1)-FIND(",",G77)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G77,FIND(",",G77,FIND(",",G77)+1)+1,FIND(",",G77,FIND(",",G77,FIND(",",G77)+1)+1)-FIND(",",G77,FIND(",",G77)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G77,FIND(",",G77,FIND(",",G77,FIND(",",G77)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G77,LEFT(G77,FIND(",",G77)-1),VLOOKUP(LEFT(G77,FIND(",",G77)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G77,FIND(",",G77)+1,FIND(",",G77,FIND(",",G77)+1)-FIND(",",G77)-1)),VLOOKUP(TRIM(MID(G77,FIND(",",G77)+1,FIND(",",G77,FIND(",",G77)+1)-FIND(",",G77)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G77,FIND(",",G77,FIND(",",G77)+1)+1,FIND(",",G77,FIND(",",G77,FIND(",",G77)+1)+1)-FIND(",",G77,FIND(",",G77)+1)-1)),VLOOKUP(TRIM(MID(G77,FIND(",",G77,FIND(",",G77)+1)+1,FIND(",",G77,FIND(",",G77,FIND(",",G77)+1)+1)-FIND(",",G77,FIND(",",G77)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G77,FIND(",",G77,FIND(",",G77,FIND(",",G77)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G77,FIND(",",G77,FIND(",",G77,FIND(",",G77)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" t="s">
+        <v>34</v>
+      </c>
+      <c r="M77" t="s">
+        <v>133</v>
+      </c>
+      <c r="N77">
+        <v>30</v>
+      </c>
+      <c r="O77">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78">
+        <f>IF(ISBLANK(G78),"",
+IF(ISERROR(FIND(",",G78)),
+  IF(ISERROR(VLOOKUP(G78,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G78,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G78,FIND(",",G78)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G78,FIND(",",G78)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G78,FIND(",",G78)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G78,LEFT(G78,FIND(",",G78)-1),VLOOKUP(LEFT(G78,FIND(",",G78)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G78,FIND(",",G78)+1,999)),VLOOKUP(TRIM(MID(G78,FIND(",",G78)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G78,FIND(",",G78,FIND(",",G78)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G78,FIND(",",G78)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G78,FIND(",",G78)+1,FIND(",",G78,FIND(",",G78)+1)-FIND(",",G78)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G78,FIND(",",G78,FIND(",",G78)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G78,LEFT(G78,FIND(",",G78)-1),VLOOKUP(LEFT(G78,FIND(",",G78)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G78,FIND(",",G78)+1,FIND(",",G78,FIND(",",G78)+1)-FIND(",",G78)-1)),VLOOKUP(TRIM(MID(G78,FIND(",",G78)+1,FIND(",",G78,FIND(",",G78)+1)-FIND(",",G78)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G78,FIND(",",G78,FIND(",",G78)+1)+1,999)),VLOOKUP(TRIM(MID(G78,FIND(",",G78,FIND(",",G78)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G78,FIND(",",G78,FIND(",",G78,FIND(",",G78)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G78,FIND(",",G78)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G78,FIND(",",G78)+1,FIND(",",G78,FIND(",",G78)+1)-FIND(",",G78)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G78,FIND(",",G78,FIND(",",G78)+1)+1,FIND(",",G78,FIND(",",G78,FIND(",",G78)+1)+1)-FIND(",",G78,FIND(",",G78)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G78,FIND(",",G78,FIND(",",G78,FIND(",",G78)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G78,LEFT(G78,FIND(",",G78)-1),VLOOKUP(LEFT(G78,FIND(",",G78)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G78,FIND(",",G78)+1,FIND(",",G78,FIND(",",G78)+1)-FIND(",",G78)-1)),VLOOKUP(TRIM(MID(G78,FIND(",",G78)+1,FIND(",",G78,FIND(",",G78)+1)-FIND(",",G78)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G78,FIND(",",G78,FIND(",",G78)+1)+1,FIND(",",G78,FIND(",",G78,FIND(",",G78)+1)+1)-FIND(",",G78,FIND(",",G78)+1)-1)),VLOOKUP(TRIM(MID(G78,FIND(",",G78,FIND(",",G78)+1)+1,FIND(",",G78,FIND(",",G78,FIND(",",G78)+1)+1)-FIND(",",G78,FIND(",",G78)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G78,FIND(",",G78,FIND(",",G78,FIND(",",G78)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G78,FIND(",",G78,FIND(",",G78,FIND(",",G78)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" t="s">
+        <v>34</v>
+      </c>
+      <c r="M78" t="s">
+        <v>134</v>
+      </c>
+      <c r="N78">
+        <v>30</v>
+      </c>
+      <c r="O78">
+        <v>8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79">
+        <f>IF(ISBLANK(G79),"",
+IF(ISERROR(FIND(",",G79)),
+  IF(ISERROR(VLOOKUP(G79,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G79,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G79,FIND(",",G79)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G79,FIND(",",G79)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G79,FIND(",",G79)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G79,LEFT(G79,FIND(",",G79)-1),VLOOKUP(LEFT(G79,FIND(",",G79)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G79,FIND(",",G79)+1,999)),VLOOKUP(TRIM(MID(G79,FIND(",",G79)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G79,FIND(",",G79,FIND(",",G79)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G79,FIND(",",G79)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G79,FIND(",",G79)+1,FIND(",",G79,FIND(",",G79)+1)-FIND(",",G79)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G79,FIND(",",G79,FIND(",",G79)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G79,LEFT(G79,FIND(",",G79)-1),VLOOKUP(LEFT(G79,FIND(",",G79)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G79,FIND(",",G79)+1,FIND(",",G79,FIND(",",G79)+1)-FIND(",",G79)-1)),VLOOKUP(TRIM(MID(G79,FIND(",",G79)+1,FIND(",",G79,FIND(",",G79)+1)-FIND(",",G79)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G79,FIND(",",G79,FIND(",",G79)+1)+1,999)),VLOOKUP(TRIM(MID(G79,FIND(",",G79,FIND(",",G79)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G79,FIND(",",G79,FIND(",",G79,FIND(",",G79)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G79,FIND(",",G79)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G79,FIND(",",G79)+1,FIND(",",G79,FIND(",",G79)+1)-FIND(",",G79)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G79,FIND(",",G79,FIND(",",G79)+1)+1,FIND(",",G79,FIND(",",G79,FIND(",",G79)+1)+1)-FIND(",",G79,FIND(",",G79)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G79,FIND(",",G79,FIND(",",G79,FIND(",",G79)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G79,LEFT(G79,FIND(",",G79)-1),VLOOKUP(LEFT(G79,FIND(",",G79)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G79,FIND(",",G79)+1,FIND(",",G79,FIND(",",G79)+1)-FIND(",",G79)-1)),VLOOKUP(TRIM(MID(G79,FIND(",",G79)+1,FIND(",",G79,FIND(",",G79)+1)-FIND(",",G79)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G79,FIND(",",G79,FIND(",",G79)+1)+1,FIND(",",G79,FIND(",",G79,FIND(",",G79)+1)+1)-FIND(",",G79,FIND(",",G79)+1)-1)),VLOOKUP(TRIM(MID(G79,FIND(",",G79,FIND(",",G79)+1)+1,FIND(",",G79,FIND(",",G79,FIND(",",G79)+1)+1)-FIND(",",G79,FIND(",",G79)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G79,FIND(",",G79,FIND(",",G79,FIND(",",G79)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G79,FIND(",",G79,FIND(",",G79,FIND(",",G79)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" t="s">
+        <v>34</v>
+      </c>
+      <c r="M79" t="s">
+        <v>135</v>
+      </c>
+      <c r="N79">
+        <v>30</v>
+      </c>
+      <c r="O79">
+        <v>8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80">
+        <f>IF(ISBLANK(G80),"",
+IF(ISERROR(FIND(",",G80)),
+  IF(ISERROR(VLOOKUP(G80,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G80,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G80,FIND(",",G80)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G80,FIND(",",G80)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G80,FIND(",",G80)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G80,LEFT(G80,FIND(",",G80)-1),VLOOKUP(LEFT(G80,FIND(",",G80)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G80,FIND(",",G80)+1,999)),VLOOKUP(TRIM(MID(G80,FIND(",",G80)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G80,FIND(",",G80,FIND(",",G80)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G80,FIND(",",G80)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G80,FIND(",",G80)+1,FIND(",",G80,FIND(",",G80)+1)-FIND(",",G80)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G80,FIND(",",G80,FIND(",",G80)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G80,LEFT(G80,FIND(",",G80)-1),VLOOKUP(LEFT(G80,FIND(",",G80)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G80,FIND(",",G80)+1,FIND(",",G80,FIND(",",G80)+1)-FIND(",",G80)-1)),VLOOKUP(TRIM(MID(G80,FIND(",",G80)+1,FIND(",",G80,FIND(",",G80)+1)-FIND(",",G80)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G80,FIND(",",G80,FIND(",",G80)+1)+1,999)),VLOOKUP(TRIM(MID(G80,FIND(",",G80,FIND(",",G80)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G80,FIND(",",G80,FIND(",",G80,FIND(",",G80)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G80,FIND(",",G80)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G80,FIND(",",G80)+1,FIND(",",G80,FIND(",",G80)+1)-FIND(",",G80)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G80,FIND(",",G80,FIND(",",G80)+1)+1,FIND(",",G80,FIND(",",G80,FIND(",",G80)+1)+1)-FIND(",",G80,FIND(",",G80)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G80,FIND(",",G80,FIND(",",G80,FIND(",",G80)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G80,LEFT(G80,FIND(",",G80)-1),VLOOKUP(LEFT(G80,FIND(",",G80)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G80,FIND(",",G80)+1,FIND(",",G80,FIND(",",G80)+1)-FIND(",",G80)-1)),VLOOKUP(TRIM(MID(G80,FIND(",",G80)+1,FIND(",",G80,FIND(",",G80)+1)-FIND(",",G80)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G80,FIND(",",G80,FIND(",",G80)+1)+1,FIND(",",G80,FIND(",",G80,FIND(",",G80)+1)+1)-FIND(",",G80,FIND(",",G80)+1)-1)),VLOOKUP(TRIM(MID(G80,FIND(",",G80,FIND(",",G80)+1)+1,FIND(",",G80,FIND(",",G80,FIND(",",G80)+1)+1)-FIND(",",G80,FIND(",",G80)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G80,FIND(",",G80,FIND(",",G80,FIND(",",G80)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G80,FIND(",",G80,FIND(",",G80,FIND(",",G80)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" t="s">
+        <v>136</v>
+      </c>
+      <c r="N80">
+        <v>30</v>
+      </c>
+      <c r="O80">
+        <v>10.999000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81">
+        <f>IF(ISBLANK(G81),"",
+IF(ISERROR(FIND(",",G81)),
+  IF(ISERROR(VLOOKUP(G81,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G81,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G81,FIND(",",G81)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G81,FIND(",",G81)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G81,FIND(",",G81)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G81,LEFT(G81,FIND(",",G81)-1),VLOOKUP(LEFT(G81,FIND(",",G81)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G81,FIND(",",G81)+1,999)),VLOOKUP(TRIM(MID(G81,FIND(",",G81)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G81,FIND(",",G81,FIND(",",G81)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G81,FIND(",",G81)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G81,FIND(",",G81)+1,FIND(",",G81,FIND(",",G81)+1)-FIND(",",G81)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G81,FIND(",",G81,FIND(",",G81)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G81,LEFT(G81,FIND(",",G81)-1),VLOOKUP(LEFT(G81,FIND(",",G81)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G81,FIND(",",G81)+1,FIND(",",G81,FIND(",",G81)+1)-FIND(",",G81)-1)),VLOOKUP(TRIM(MID(G81,FIND(",",G81)+1,FIND(",",G81,FIND(",",G81)+1)-FIND(",",G81)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G81,FIND(",",G81,FIND(",",G81)+1)+1,999)),VLOOKUP(TRIM(MID(G81,FIND(",",G81,FIND(",",G81)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G81,FIND(",",G81,FIND(",",G81,FIND(",",G81)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G81,FIND(",",G81)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G81,FIND(",",G81)+1,FIND(",",G81,FIND(",",G81)+1)-FIND(",",G81)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G81,FIND(",",G81,FIND(",",G81)+1)+1,FIND(",",G81,FIND(",",G81,FIND(",",G81)+1)+1)-FIND(",",G81,FIND(",",G81)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G81,FIND(",",G81,FIND(",",G81,FIND(",",G81)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G81,LEFT(G81,FIND(",",G81)-1),VLOOKUP(LEFT(G81,FIND(",",G81)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G81,FIND(",",G81)+1,FIND(",",G81,FIND(",",G81)+1)-FIND(",",G81)-1)),VLOOKUP(TRIM(MID(G81,FIND(",",G81)+1,FIND(",",G81,FIND(",",G81)+1)-FIND(",",G81)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G81,FIND(",",G81,FIND(",",G81)+1)+1,FIND(",",G81,FIND(",",G81,FIND(",",G81)+1)+1)-FIND(",",G81,FIND(",",G81)+1)-1)),VLOOKUP(TRIM(MID(G81,FIND(",",G81,FIND(",",G81)+1)+1,FIND(",",G81,FIND(",",G81,FIND(",",G81)+1)+1)-FIND(",",G81,FIND(",",G81)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G81,FIND(",",G81,FIND(",",G81,FIND(",",G81)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G81,FIND(",",G81,FIND(",",G81,FIND(",",G81)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" t="s">
+        <v>34</v>
+      </c>
+      <c r="M81" t="s">
+        <v>137</v>
+      </c>
+      <c r="N81">
+        <v>30</v>
+      </c>
+      <c r="O81">
+        <v>10.999000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>93</v>
+      </c>
+      <c r="H82" t="str">
+        <f>IF(ISBLANK(G82),"",
+IF(ISERROR(FIND(",",G82)),
+  IF(ISERROR(VLOOKUP(G82,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G82,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G82,FIND(",",G82)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G82,FIND(",",G82)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G82,FIND(",",G82)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G82,LEFT(G82,FIND(",",G82)-1),VLOOKUP(LEFT(G82,FIND(",",G82)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G82,FIND(",",G82)+1,999)),VLOOKUP(TRIM(MID(G82,FIND(",",G82)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G82,FIND(",",G82,FIND(",",G82)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G82,FIND(",",G82)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G82,FIND(",",G82)+1,FIND(",",G82,FIND(",",G82)+1)-FIND(",",G82)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G82,FIND(",",G82,FIND(",",G82)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G82,LEFT(G82,FIND(",",G82)-1),VLOOKUP(LEFT(G82,FIND(",",G82)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G82,FIND(",",G82)+1,FIND(",",G82,FIND(",",G82)+1)-FIND(",",G82)-1)),VLOOKUP(TRIM(MID(G82,FIND(",",G82)+1,FIND(",",G82,FIND(",",G82)+1)-FIND(",",G82)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G82,FIND(",",G82,FIND(",",G82)+1)+1,999)),VLOOKUP(TRIM(MID(G82,FIND(",",G82,FIND(",",G82)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G82,FIND(",",G82,FIND(",",G82,FIND(",",G82)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G82,FIND(",",G82)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G82,FIND(",",G82)+1,FIND(",",G82,FIND(",",G82)+1)-FIND(",",G82)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G82,FIND(",",G82,FIND(",",G82)+1)+1,FIND(",",G82,FIND(",",G82,FIND(",",G82)+1)+1)-FIND(",",G82,FIND(",",G82)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G82,FIND(",",G82,FIND(",",G82,FIND(",",G82)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G82,LEFT(G82,FIND(",",G82)-1),VLOOKUP(LEFT(G82,FIND(",",G82)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G82,FIND(",",G82)+1,FIND(",",G82,FIND(",",G82)+1)-FIND(",",G82)-1)),VLOOKUP(TRIM(MID(G82,FIND(",",G82)+1,FIND(",",G82,FIND(",",G82)+1)-FIND(",",G82)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G82,FIND(",",G82,FIND(",",G82)+1)+1,FIND(",",G82,FIND(",",G82,FIND(",",G82)+1)+1)-FIND(",",G82,FIND(",",G82)+1)-1)),VLOOKUP(TRIM(MID(G82,FIND(",",G82,FIND(",",G82)+1)+1,FIND(",",G82,FIND(",",G82,FIND(",",G82)+1)+1)-FIND(",",G82,FIND(",",G82)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G82,FIND(",",G82,FIND(",",G82,FIND(",",G82)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G82,FIND(",",G82,FIND(",",G82,FIND(",",G82)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I82" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" t="s">
+        <v>34</v>
+      </c>
+      <c r="M82" t="s">
+        <v>75</v>
+      </c>
+      <c r="N82">
+        <v>20</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>93</v>
+      </c>
+      <c r="H83" t="str">
+        <f>IF(ISBLANK(G83),"",
+IF(ISERROR(FIND(",",G83)),
+  IF(ISERROR(VLOOKUP(G83,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G83,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G83,FIND(",",G83)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G83,FIND(",",G83)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G83,FIND(",",G83)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G83,LEFT(G83,FIND(",",G83)-1),VLOOKUP(LEFT(G83,FIND(",",G83)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G83,FIND(",",G83)+1,999)),VLOOKUP(TRIM(MID(G83,FIND(",",G83)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G83,FIND(",",G83,FIND(",",G83)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G83,FIND(",",G83)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G83,FIND(",",G83)+1,FIND(",",G83,FIND(",",G83)+1)-FIND(",",G83)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G83,FIND(",",G83,FIND(",",G83)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G83,LEFT(G83,FIND(",",G83)-1),VLOOKUP(LEFT(G83,FIND(",",G83)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G83,FIND(",",G83)+1,FIND(",",G83,FIND(",",G83)+1)-FIND(",",G83)-1)),VLOOKUP(TRIM(MID(G83,FIND(",",G83)+1,FIND(",",G83,FIND(",",G83)+1)-FIND(",",G83)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G83,FIND(",",G83,FIND(",",G83)+1)+1,999)),VLOOKUP(TRIM(MID(G83,FIND(",",G83,FIND(",",G83)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G83,FIND(",",G83,FIND(",",G83,FIND(",",G83)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G83,FIND(",",G83)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G83,FIND(",",G83)+1,FIND(",",G83,FIND(",",G83)+1)-FIND(",",G83)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G83,FIND(",",G83,FIND(",",G83)+1)+1,FIND(",",G83,FIND(",",G83,FIND(",",G83)+1)+1)-FIND(",",G83,FIND(",",G83)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G83,FIND(",",G83,FIND(",",G83,FIND(",",G83)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G83,LEFT(G83,FIND(",",G83)-1),VLOOKUP(LEFT(G83,FIND(",",G83)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G83,FIND(",",G83)+1,FIND(",",G83,FIND(",",G83)+1)-FIND(",",G83)-1)),VLOOKUP(TRIM(MID(G83,FIND(",",G83)+1,FIND(",",G83,FIND(",",G83)+1)-FIND(",",G83)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G83,FIND(",",G83,FIND(",",G83)+1)+1,FIND(",",G83,FIND(",",G83,FIND(",",G83)+1)+1)-FIND(",",G83,FIND(",",G83)+1)-1)),VLOOKUP(TRIM(MID(G83,FIND(",",G83,FIND(",",G83)+1)+1,FIND(",",G83,FIND(",",G83,FIND(",",G83)+1)+1)-FIND(",",G83,FIND(",",G83)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G83,FIND(",",G83,FIND(",",G83,FIND(",",G83)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G83,FIND(",",G83,FIND(",",G83,FIND(",",G83)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I83" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" t="s">
+        <v>34</v>
+      </c>
+      <c r="M83" t="s">
+        <v>76</v>
+      </c>
+      <c r="N83">
+        <v>20</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>93</v>
+      </c>
+      <c r="H84" t="str">
+        <f>IF(ISBLANK(G84),"",
+IF(ISERROR(FIND(",",G84)),
+  IF(ISERROR(VLOOKUP(G84,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G84,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G84,FIND(",",G84)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G84,FIND(",",G84)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G84,FIND(",",G84)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G84,LEFT(G84,FIND(",",G84)-1),VLOOKUP(LEFT(G84,FIND(",",G84)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G84,FIND(",",G84)+1,999)),VLOOKUP(TRIM(MID(G84,FIND(",",G84)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G84,FIND(",",G84,FIND(",",G84)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G84,FIND(",",G84)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G84,FIND(",",G84)+1,FIND(",",G84,FIND(",",G84)+1)-FIND(",",G84)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G84,FIND(",",G84,FIND(",",G84)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G84,LEFT(G84,FIND(",",G84)-1),VLOOKUP(LEFT(G84,FIND(",",G84)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G84,FIND(",",G84)+1,FIND(",",G84,FIND(",",G84)+1)-FIND(",",G84)-1)),VLOOKUP(TRIM(MID(G84,FIND(",",G84)+1,FIND(",",G84,FIND(",",G84)+1)-FIND(",",G84)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G84,FIND(",",G84,FIND(",",G84)+1)+1,999)),VLOOKUP(TRIM(MID(G84,FIND(",",G84,FIND(",",G84)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G84,FIND(",",G84,FIND(",",G84,FIND(",",G84)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G84,FIND(",",G84)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G84,FIND(",",G84)+1,FIND(",",G84,FIND(",",G84)+1)-FIND(",",G84)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G84,FIND(",",G84,FIND(",",G84)+1)+1,FIND(",",G84,FIND(",",G84,FIND(",",G84)+1)+1)-FIND(",",G84,FIND(",",G84)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G84,FIND(",",G84,FIND(",",G84,FIND(",",G84)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G84,LEFT(G84,FIND(",",G84)-1),VLOOKUP(LEFT(G84,FIND(",",G84)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G84,FIND(",",G84)+1,FIND(",",G84,FIND(",",G84)+1)-FIND(",",G84)-1)),VLOOKUP(TRIM(MID(G84,FIND(",",G84)+1,FIND(",",G84,FIND(",",G84)+1)-FIND(",",G84)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G84,FIND(",",G84,FIND(",",G84)+1)+1,FIND(",",G84,FIND(",",G84,FIND(",",G84)+1)+1)-FIND(",",G84,FIND(",",G84)+1)-1)),VLOOKUP(TRIM(MID(G84,FIND(",",G84,FIND(",",G84)+1)+1,FIND(",",G84,FIND(",",G84,FIND(",",G84)+1)+1)-FIND(",",G84,FIND(",",G84)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G84,FIND(",",G84,FIND(",",G84,FIND(",",G84)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G84,FIND(",",G84,FIND(",",G84,FIND(",",G84)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" t="s">
+        <v>77</v>
+      </c>
+      <c r="N84">
+        <v>20</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85" t="str">
+        <f>IF(ISBLANK(G85),"",
+IF(ISERROR(FIND(",",G85)),
+  IF(ISERROR(VLOOKUP(G85,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G85,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G85,FIND(",",G85)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G85,FIND(",",G85)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G85,FIND(",",G85)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G85,LEFT(G85,FIND(",",G85)-1),VLOOKUP(LEFT(G85,FIND(",",G85)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G85,FIND(",",G85)+1,999)),VLOOKUP(TRIM(MID(G85,FIND(",",G85)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G85,FIND(",",G85,FIND(",",G85)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G85,FIND(",",G85)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G85,FIND(",",G85)+1,FIND(",",G85,FIND(",",G85)+1)-FIND(",",G85)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G85,FIND(",",G85,FIND(",",G85)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G85,LEFT(G85,FIND(",",G85)-1),VLOOKUP(LEFT(G85,FIND(",",G85)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G85,FIND(",",G85)+1,FIND(",",G85,FIND(",",G85)+1)-FIND(",",G85)-1)),VLOOKUP(TRIM(MID(G85,FIND(",",G85)+1,FIND(",",G85,FIND(",",G85)+1)-FIND(",",G85)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G85,FIND(",",G85,FIND(",",G85)+1)+1,999)),VLOOKUP(TRIM(MID(G85,FIND(",",G85,FIND(",",G85)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G85,FIND(",",G85,FIND(",",G85,FIND(",",G85)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G85,FIND(",",G85)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G85,FIND(",",G85)+1,FIND(",",G85,FIND(",",G85)+1)-FIND(",",G85)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G85,FIND(",",G85,FIND(",",G85)+1)+1,FIND(",",G85,FIND(",",G85,FIND(",",G85)+1)+1)-FIND(",",G85,FIND(",",G85)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G85,FIND(",",G85,FIND(",",G85,FIND(",",G85)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G85,LEFT(G85,FIND(",",G85)-1),VLOOKUP(LEFT(G85,FIND(",",G85)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G85,FIND(",",G85)+1,FIND(",",G85,FIND(",",G85)+1)-FIND(",",G85)-1)),VLOOKUP(TRIM(MID(G85,FIND(",",G85)+1,FIND(",",G85,FIND(",",G85)+1)-FIND(",",G85)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G85,FIND(",",G85,FIND(",",G85)+1)+1,FIND(",",G85,FIND(",",G85,FIND(",",G85)+1)+1)-FIND(",",G85,FIND(",",G85)+1)-1)),VLOOKUP(TRIM(MID(G85,FIND(",",G85,FIND(",",G85)+1)+1,FIND(",",G85,FIND(",",G85,FIND(",",G85)+1)+1)-FIND(",",G85,FIND(",",G85)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G85,FIND(",",G85,FIND(",",G85,FIND(",",G85)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G85,FIND(",",G85,FIND(",",G85,FIND(",",G85)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" t="s">
+        <v>78</v>
+      </c>
+      <c r="N85">
+        <v>20</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>93</v>
+      </c>
+      <c r="H86" t="str">
+        <f>IF(ISBLANK(G86),"",
+IF(ISERROR(FIND(",",G86)),
+  IF(ISERROR(VLOOKUP(G86,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G86,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G86,FIND(",",G86)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G86,FIND(",",G86)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G86,FIND(",",G86)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G86,LEFT(G86,FIND(",",G86)-1),VLOOKUP(LEFT(G86,FIND(",",G86)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G86,FIND(",",G86)+1,999)),VLOOKUP(TRIM(MID(G86,FIND(",",G86)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G86,FIND(",",G86,FIND(",",G86)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G86,FIND(",",G86)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G86,FIND(",",G86)+1,FIND(",",G86,FIND(",",G86)+1)-FIND(",",G86)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G86,FIND(",",G86,FIND(",",G86)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G86,LEFT(G86,FIND(",",G86)-1),VLOOKUP(LEFT(G86,FIND(",",G86)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G86,FIND(",",G86)+1,FIND(",",G86,FIND(",",G86)+1)-FIND(",",G86)-1)),VLOOKUP(TRIM(MID(G86,FIND(",",G86)+1,FIND(",",G86,FIND(",",G86)+1)-FIND(",",G86)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G86,FIND(",",G86,FIND(",",G86)+1)+1,999)),VLOOKUP(TRIM(MID(G86,FIND(",",G86,FIND(",",G86)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G86,FIND(",",G86,FIND(",",G86,FIND(",",G86)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G86,FIND(",",G86)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G86,FIND(",",G86)+1,FIND(",",G86,FIND(",",G86)+1)-FIND(",",G86)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G86,FIND(",",G86,FIND(",",G86)+1)+1,FIND(",",G86,FIND(",",G86,FIND(",",G86)+1)+1)-FIND(",",G86,FIND(",",G86)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G86,FIND(",",G86,FIND(",",G86,FIND(",",G86)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G86,LEFT(G86,FIND(",",G86)-1),VLOOKUP(LEFT(G86,FIND(",",G86)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G86,FIND(",",G86)+1,FIND(",",G86,FIND(",",G86)+1)-FIND(",",G86)-1)),VLOOKUP(TRIM(MID(G86,FIND(",",G86)+1,FIND(",",G86,FIND(",",G86)+1)-FIND(",",G86)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G86,FIND(",",G86,FIND(",",G86)+1)+1,FIND(",",G86,FIND(",",G86,FIND(",",G86)+1)+1)-FIND(",",G86,FIND(",",G86)+1)-1)),VLOOKUP(TRIM(MID(G86,FIND(",",G86,FIND(",",G86)+1)+1,FIND(",",G86,FIND(",",G86,FIND(",",G86)+1)+1)-FIND(",",G86,FIND(",",G86)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G86,FIND(",",G86,FIND(",",G86,FIND(",",G86)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G86,FIND(",",G86,FIND(",",G86,FIND(",",G86)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I86" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" t="s">
+        <v>79</v>
+      </c>
+      <c r="N86">
+        <v>20</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>93</v>
+      </c>
+      <c r="H87" t="str">
+        <f>IF(ISBLANK(G87),"",
+IF(ISERROR(FIND(",",G87)),
+  IF(ISERROR(VLOOKUP(G87,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G87,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G87,FIND(",",G87)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G87,FIND(",",G87)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G87,FIND(",",G87)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G87,LEFT(G87,FIND(",",G87)-1),VLOOKUP(LEFT(G87,FIND(",",G87)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G87,FIND(",",G87)+1,999)),VLOOKUP(TRIM(MID(G87,FIND(",",G87)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G87,FIND(",",G87,FIND(",",G87)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G87,FIND(",",G87)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G87,FIND(",",G87)+1,FIND(",",G87,FIND(",",G87)+1)-FIND(",",G87)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G87,FIND(",",G87,FIND(",",G87)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G87,LEFT(G87,FIND(",",G87)-1),VLOOKUP(LEFT(G87,FIND(",",G87)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G87,FIND(",",G87)+1,FIND(",",G87,FIND(",",G87)+1)-FIND(",",G87)-1)),VLOOKUP(TRIM(MID(G87,FIND(",",G87)+1,FIND(",",G87,FIND(",",G87)+1)-FIND(",",G87)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G87,FIND(",",G87,FIND(",",G87)+1)+1,999)),VLOOKUP(TRIM(MID(G87,FIND(",",G87,FIND(",",G87)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G87,FIND(",",G87,FIND(",",G87,FIND(",",G87)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G87,FIND(",",G87)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G87,FIND(",",G87)+1,FIND(",",G87,FIND(",",G87)+1)-FIND(",",G87)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G87,FIND(",",G87,FIND(",",G87)+1)+1,FIND(",",G87,FIND(",",G87,FIND(",",G87)+1)+1)-FIND(",",G87,FIND(",",G87)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G87,FIND(",",G87,FIND(",",G87,FIND(",",G87)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G87,LEFT(G87,FIND(",",G87)-1),VLOOKUP(LEFT(G87,FIND(",",G87)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G87,FIND(",",G87)+1,FIND(",",G87,FIND(",",G87)+1)-FIND(",",G87)-1)),VLOOKUP(TRIM(MID(G87,FIND(",",G87)+1,FIND(",",G87,FIND(",",G87)+1)-FIND(",",G87)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G87,FIND(",",G87,FIND(",",G87)+1)+1,FIND(",",G87,FIND(",",G87,FIND(",",G87)+1)+1)-FIND(",",G87,FIND(",",G87)+1)-1)),VLOOKUP(TRIM(MID(G87,FIND(",",G87,FIND(",",G87)+1)+1,FIND(",",G87,FIND(",",G87,FIND(",",G87)+1)+1)-FIND(",",G87,FIND(",",G87)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G87,FIND(",",G87,FIND(",",G87,FIND(",",G87)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G87,FIND(",",G87,FIND(",",G87,FIND(",",G87)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I87" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" t="s">
+        <v>34</v>
+      </c>
+      <c r="M87" t="s">
+        <v>80</v>
+      </c>
+      <c r="N87">
+        <v>20</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88" t="str">
+        <f>IF(ISBLANK(G88),"",
+IF(ISERROR(FIND(",",G88)),
+  IF(ISERROR(VLOOKUP(G88,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G88,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G88,FIND(",",G88)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G88,FIND(",",G88)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G88,FIND(",",G88)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G88,LEFT(G88,FIND(",",G88)-1),VLOOKUP(LEFT(G88,FIND(",",G88)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G88,FIND(",",G88)+1,999)),VLOOKUP(TRIM(MID(G88,FIND(",",G88)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G88,FIND(",",G88,FIND(",",G88)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G88,FIND(",",G88)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G88,FIND(",",G88)+1,FIND(",",G88,FIND(",",G88)+1)-FIND(",",G88)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G88,FIND(",",G88,FIND(",",G88)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G88,LEFT(G88,FIND(",",G88)-1),VLOOKUP(LEFT(G88,FIND(",",G88)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G88,FIND(",",G88)+1,FIND(",",G88,FIND(",",G88)+1)-FIND(",",G88)-1)),VLOOKUP(TRIM(MID(G88,FIND(",",G88)+1,FIND(",",G88,FIND(",",G88)+1)-FIND(",",G88)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G88,FIND(",",G88,FIND(",",G88)+1)+1,999)),VLOOKUP(TRIM(MID(G88,FIND(",",G88,FIND(",",G88)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G88,FIND(",",G88,FIND(",",G88,FIND(",",G88)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G88,FIND(",",G88)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G88,FIND(",",G88)+1,FIND(",",G88,FIND(",",G88)+1)-FIND(",",G88)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G88,FIND(",",G88,FIND(",",G88)+1)+1,FIND(",",G88,FIND(",",G88,FIND(",",G88)+1)+1)-FIND(",",G88,FIND(",",G88)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G88,FIND(",",G88,FIND(",",G88,FIND(",",G88)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G88,LEFT(G88,FIND(",",G88)-1),VLOOKUP(LEFT(G88,FIND(",",G88)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G88,FIND(",",G88)+1,FIND(",",G88,FIND(",",G88)+1)-FIND(",",G88)-1)),VLOOKUP(TRIM(MID(G88,FIND(",",G88)+1,FIND(",",G88,FIND(",",G88)+1)-FIND(",",G88)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G88,FIND(",",G88,FIND(",",G88)+1)+1,FIND(",",G88,FIND(",",G88,FIND(",",G88)+1)+1)-FIND(",",G88,FIND(",",G88)+1)-1)),VLOOKUP(TRIM(MID(G88,FIND(",",G88,FIND(",",G88)+1)+1,FIND(",",G88,FIND(",",G88,FIND(",",G88)+1)+1)-FIND(",",G88,FIND(",",G88)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G88,FIND(",",G88,FIND(",",G88,FIND(",",G88)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G88,FIND(",",G88,FIND(",",G88,FIND(",",G88)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" t="s">
+        <v>81</v>
+      </c>
+      <c r="N88">
+        <v>20</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>93</v>
+      </c>
+      <c r="H89" t="str">
+        <f>IF(ISBLANK(G89),"",
+IF(ISERROR(FIND(",",G89)),
+  IF(ISERROR(VLOOKUP(G89,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G89,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G89,FIND(",",G89)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G89,FIND(",",G89)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G89,FIND(",",G89)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G89,LEFT(G89,FIND(",",G89)-1),VLOOKUP(LEFT(G89,FIND(",",G89)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G89,FIND(",",G89)+1,999)),VLOOKUP(TRIM(MID(G89,FIND(",",G89)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G89,FIND(",",G89,FIND(",",G89)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G89,FIND(",",G89)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G89,FIND(",",G89)+1,FIND(",",G89,FIND(",",G89)+1)-FIND(",",G89)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G89,FIND(",",G89,FIND(",",G89)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G89,LEFT(G89,FIND(",",G89)-1),VLOOKUP(LEFT(G89,FIND(",",G89)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G89,FIND(",",G89)+1,FIND(",",G89,FIND(",",G89)+1)-FIND(",",G89)-1)),VLOOKUP(TRIM(MID(G89,FIND(",",G89)+1,FIND(",",G89,FIND(",",G89)+1)-FIND(",",G89)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G89,FIND(",",G89,FIND(",",G89)+1)+1,999)),VLOOKUP(TRIM(MID(G89,FIND(",",G89,FIND(",",G89)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G89,FIND(",",G89,FIND(",",G89,FIND(",",G89)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G89,FIND(",",G89)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G89,FIND(",",G89)+1,FIND(",",G89,FIND(",",G89)+1)-FIND(",",G89)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G89,FIND(",",G89,FIND(",",G89)+1)+1,FIND(",",G89,FIND(",",G89,FIND(",",G89)+1)+1)-FIND(",",G89,FIND(",",G89)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G89,FIND(",",G89,FIND(",",G89,FIND(",",G89)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G89,LEFT(G89,FIND(",",G89)-1),VLOOKUP(LEFT(G89,FIND(",",G89)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G89,FIND(",",G89)+1,FIND(",",G89,FIND(",",G89)+1)-FIND(",",G89)-1)),VLOOKUP(TRIM(MID(G89,FIND(",",G89)+1,FIND(",",G89,FIND(",",G89)+1)-FIND(",",G89)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G89,FIND(",",G89,FIND(",",G89)+1)+1,FIND(",",G89,FIND(",",G89,FIND(",",G89)+1)+1)-FIND(",",G89,FIND(",",G89)+1)-1)),VLOOKUP(TRIM(MID(G89,FIND(",",G89,FIND(",",G89)+1)+1,FIND(",",G89,FIND(",",G89,FIND(",",G89)+1)+1)-FIND(",",G89,FIND(",",G89)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G89,FIND(",",G89,FIND(",",G89,FIND(",",G89)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G89,FIND(",",G89,FIND(",",G89,FIND(",",G89)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" t="s">
+        <v>34</v>
+      </c>
+      <c r="M89" t="s">
+        <v>82</v>
+      </c>
+      <c r="N89">
+        <v>20</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>93</v>
+      </c>
+      <c r="H90" t="str">
+        <f>IF(ISBLANK(G90),"",
+IF(ISERROR(FIND(",",G90)),
+  IF(ISERROR(VLOOKUP(G90,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G90,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G90,FIND(",",G90)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G90,FIND(",",G90)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G90,FIND(",",G90)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G90,LEFT(G90,FIND(",",G90)-1),VLOOKUP(LEFT(G90,FIND(",",G90)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G90,FIND(",",G90)+1,999)),VLOOKUP(TRIM(MID(G90,FIND(",",G90)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G90,FIND(",",G90,FIND(",",G90)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G90,FIND(",",G90)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G90,FIND(",",G90)+1,FIND(",",G90,FIND(",",G90)+1)-FIND(",",G90)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G90,FIND(",",G90,FIND(",",G90)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G90,LEFT(G90,FIND(",",G90)-1),VLOOKUP(LEFT(G90,FIND(",",G90)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G90,FIND(",",G90)+1,FIND(",",G90,FIND(",",G90)+1)-FIND(",",G90)-1)),VLOOKUP(TRIM(MID(G90,FIND(",",G90)+1,FIND(",",G90,FIND(",",G90)+1)-FIND(",",G90)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G90,FIND(",",G90,FIND(",",G90)+1)+1,999)),VLOOKUP(TRIM(MID(G90,FIND(",",G90,FIND(",",G90)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G90,FIND(",",G90,FIND(",",G90,FIND(",",G90)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G90,FIND(",",G90)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G90,FIND(",",G90)+1,FIND(",",G90,FIND(",",G90)+1)-FIND(",",G90)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G90,FIND(",",G90,FIND(",",G90)+1)+1,FIND(",",G90,FIND(",",G90,FIND(",",G90)+1)+1)-FIND(",",G90,FIND(",",G90)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G90,FIND(",",G90,FIND(",",G90,FIND(",",G90)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G90,LEFT(G90,FIND(",",G90)-1),VLOOKUP(LEFT(G90,FIND(",",G90)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G90,FIND(",",G90)+1,FIND(",",G90,FIND(",",G90)+1)-FIND(",",G90)-1)),VLOOKUP(TRIM(MID(G90,FIND(",",G90)+1,FIND(",",G90,FIND(",",G90)+1)-FIND(",",G90)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G90,FIND(",",G90,FIND(",",G90)+1)+1,FIND(",",G90,FIND(",",G90,FIND(",",G90)+1)+1)-FIND(",",G90,FIND(",",G90)+1)-1)),VLOOKUP(TRIM(MID(G90,FIND(",",G90,FIND(",",G90)+1)+1,FIND(",",G90,FIND(",",G90,FIND(",",G90)+1)+1)-FIND(",",G90,FIND(",",G90)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G90,FIND(",",G90,FIND(",",G90,FIND(",",G90)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G90,FIND(",",G90,FIND(",",G90,FIND(",",G90)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I90" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90" t="s">
+        <v>34</v>
+      </c>
+      <c r="M90" t="s">
+        <v>122</v>
+      </c>
+      <c r="N90">
+        <v>20</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>93</v>
+      </c>
+      <c r="H91" t="str">
+        <f>IF(ISBLANK(G91),"",
+IF(ISERROR(FIND(",",G91)),
+  IF(ISERROR(VLOOKUP(G91,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G91,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G91,FIND(",",G91)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G91,FIND(",",G91)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G91,FIND(",",G91)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G91,LEFT(G91,FIND(",",G91)-1),VLOOKUP(LEFT(G91,FIND(",",G91)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G91,FIND(",",G91)+1,999)),VLOOKUP(TRIM(MID(G91,FIND(",",G91)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G91,FIND(",",G91,FIND(",",G91)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G91,FIND(",",G91)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G91,FIND(",",G91)+1,FIND(",",G91,FIND(",",G91)+1)-FIND(",",G91)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G91,FIND(",",G91,FIND(",",G91)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G91,LEFT(G91,FIND(",",G91)-1),VLOOKUP(LEFT(G91,FIND(",",G91)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G91,FIND(",",G91)+1,FIND(",",G91,FIND(",",G91)+1)-FIND(",",G91)-1)),VLOOKUP(TRIM(MID(G91,FIND(",",G91)+1,FIND(",",G91,FIND(",",G91)+1)-FIND(",",G91)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G91,FIND(",",G91,FIND(",",G91)+1)+1,999)),VLOOKUP(TRIM(MID(G91,FIND(",",G91,FIND(",",G91)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G91,FIND(",",G91,FIND(",",G91,FIND(",",G91)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G91,FIND(",",G91)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G91,FIND(",",G91)+1,FIND(",",G91,FIND(",",G91)+1)-FIND(",",G91)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G91,FIND(",",G91,FIND(",",G91)+1)+1,FIND(",",G91,FIND(",",G91,FIND(",",G91)+1)+1)-FIND(",",G91,FIND(",",G91)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G91,FIND(",",G91,FIND(",",G91,FIND(",",G91)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G91,LEFT(G91,FIND(",",G91)-1),VLOOKUP(LEFT(G91,FIND(",",G91)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G91,FIND(",",G91)+1,FIND(",",G91,FIND(",",G91)+1)-FIND(",",G91)-1)),VLOOKUP(TRIM(MID(G91,FIND(",",G91)+1,FIND(",",G91,FIND(",",G91)+1)-FIND(",",G91)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G91,FIND(",",G91,FIND(",",G91)+1)+1,FIND(",",G91,FIND(",",G91,FIND(",",G91)+1)+1)-FIND(",",G91,FIND(",",G91)+1)-1)),VLOOKUP(TRIM(MID(G91,FIND(",",G91,FIND(",",G91)+1)+1,FIND(",",G91,FIND(",",G91,FIND(",",G91)+1)+1)-FIND(",",G91,FIND(",",G91)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G91,FIND(",",G91,FIND(",",G91,FIND(",",G91)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G91,FIND(",",G91,FIND(",",G91,FIND(",",G91)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M91" t="s">
+        <v>123</v>
+      </c>
+      <c r="N91">
+        <v>20</v>
+      </c>
+      <c r="O91">
+        <v>1.9990000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>93</v>
+      </c>
+      <c r="H92" t="str">
+        <f>IF(ISBLANK(G92),"",
+IF(ISERROR(FIND(",",G92)),
+  IF(ISERROR(VLOOKUP(G92,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G92,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G92,FIND(",",G92)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G92,FIND(",",G92)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G92,FIND(",",G92)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G92,LEFT(G92,FIND(",",G92)-1),VLOOKUP(LEFT(G92,FIND(",",G92)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G92,FIND(",",G92)+1,999)),VLOOKUP(TRIM(MID(G92,FIND(",",G92)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G92,FIND(",",G92,FIND(",",G92)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G92,FIND(",",G92)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G92,FIND(",",G92)+1,FIND(",",G92,FIND(",",G92)+1)-FIND(",",G92)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G92,FIND(",",G92,FIND(",",G92)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G92,LEFT(G92,FIND(",",G92)-1),VLOOKUP(LEFT(G92,FIND(",",G92)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G92,FIND(",",G92)+1,FIND(",",G92,FIND(",",G92)+1)-FIND(",",G92)-1)),VLOOKUP(TRIM(MID(G92,FIND(",",G92)+1,FIND(",",G92,FIND(",",G92)+1)-FIND(",",G92)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G92,FIND(",",G92,FIND(",",G92)+1)+1,999)),VLOOKUP(TRIM(MID(G92,FIND(",",G92,FIND(",",G92)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G92,FIND(",",G92,FIND(",",G92,FIND(",",G92)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G92,FIND(",",G92)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G92,FIND(",",G92)+1,FIND(",",G92,FIND(",",G92)+1)-FIND(",",G92)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G92,FIND(",",G92,FIND(",",G92)+1)+1,FIND(",",G92,FIND(",",G92,FIND(",",G92)+1)+1)-FIND(",",G92,FIND(",",G92)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G92,FIND(",",G92,FIND(",",G92,FIND(",",G92)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G92,LEFT(G92,FIND(",",G92)-1),VLOOKUP(LEFT(G92,FIND(",",G92)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G92,FIND(",",G92)+1,FIND(",",G92,FIND(",",G92)+1)-FIND(",",G92)-1)),VLOOKUP(TRIM(MID(G92,FIND(",",G92)+1,FIND(",",G92,FIND(",",G92)+1)-FIND(",",G92)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G92,FIND(",",G92,FIND(",",G92)+1)+1,FIND(",",G92,FIND(",",G92,FIND(",",G92)+1)+1)-FIND(",",G92,FIND(",",G92)+1)-1)),VLOOKUP(TRIM(MID(G92,FIND(",",G92,FIND(",",G92)+1)+1,FIND(",",G92,FIND(",",G92,FIND(",",G92)+1)+1)-FIND(",",G92,FIND(",",G92)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G92,FIND(",",G92,FIND(",",G92,FIND(",",G92)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G92,FIND(",",G92,FIND(",",G92,FIND(",",G92)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" t="s">
+        <v>124</v>
+      </c>
+      <c r="N92">
+        <v>20</v>
+      </c>
+      <c r="O92">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H93" t="str">
+        <f>IF(ISBLANK(G93),"",
+IF(ISERROR(FIND(",",G93)),
+  IF(ISERROR(VLOOKUP(G93,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G93,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G93,FIND(",",G93)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G93,FIND(",",G93)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G93,FIND(",",G93)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G93,LEFT(G93,FIND(",",G93)-1),VLOOKUP(LEFT(G93,FIND(",",G93)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G93,FIND(",",G93)+1,999)),VLOOKUP(TRIM(MID(G93,FIND(",",G93)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G93,FIND(",",G93,FIND(",",G93)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G93,FIND(",",G93)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G93,FIND(",",G93)+1,FIND(",",G93,FIND(",",G93)+1)-FIND(",",G93)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G93,FIND(",",G93,FIND(",",G93)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G93,LEFT(G93,FIND(",",G93)-1),VLOOKUP(LEFT(G93,FIND(",",G93)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G93,FIND(",",G93)+1,FIND(",",G93,FIND(",",G93)+1)-FIND(",",G93)-1)),VLOOKUP(TRIM(MID(G93,FIND(",",G93)+1,FIND(",",G93,FIND(",",G93)+1)-FIND(",",G93)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G93,FIND(",",G93,FIND(",",G93)+1)+1,999)),VLOOKUP(TRIM(MID(G93,FIND(",",G93,FIND(",",G93)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G93,FIND(",",G93,FIND(",",G93,FIND(",",G93)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G93,FIND(",",G93)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G93,FIND(",",G93)+1,FIND(",",G93,FIND(",",G93)+1)-FIND(",",G93)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G93,FIND(",",G93,FIND(",",G93)+1)+1,FIND(",",G93,FIND(",",G93,FIND(",",G93)+1)+1)-FIND(",",G93,FIND(",",G93)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G93,FIND(",",G93,FIND(",",G93,FIND(",",G93)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G93,LEFT(G93,FIND(",",G93)-1),VLOOKUP(LEFT(G93,FIND(",",G93)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G93,FIND(",",G93)+1,FIND(",",G93,FIND(",",G93)+1)-FIND(",",G93)-1)),VLOOKUP(TRIM(MID(G93,FIND(",",G93)+1,FIND(",",G93,FIND(",",G93)+1)-FIND(",",G93)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G93,FIND(",",G93,FIND(",",G93)+1)+1,FIND(",",G93,FIND(",",G93,FIND(",",G93)+1)+1)-FIND(",",G93,FIND(",",G93)+1)-1)),VLOOKUP(TRIM(MID(G93,FIND(",",G93,FIND(",",G93)+1)+1,FIND(",",G93,FIND(",",G93,FIND(",",G93)+1)+1)-FIND(",",G93,FIND(",",G93)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G93,FIND(",",G93,FIND(",",G93,FIND(",",G93)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G93,FIND(",",G93,FIND(",",G93,FIND(",",G93)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I93" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" t="s">
+        <v>125</v>
+      </c>
+      <c r="N93">
+        <v>20</v>
+      </c>
+      <c r="O93">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>93</v>
+      </c>
+      <c r="H94" t="str">
+        <f>IF(ISBLANK(G94),"",
+IF(ISERROR(FIND(",",G94)),
+  IF(ISERROR(VLOOKUP(G94,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G94,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G94,FIND(",",G94)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G94,FIND(",",G94)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G94,FIND(",",G94)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G94,LEFT(G94,FIND(",",G94)-1),VLOOKUP(LEFT(G94,FIND(",",G94)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G94,FIND(",",G94)+1,999)),VLOOKUP(TRIM(MID(G94,FIND(",",G94)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G94,FIND(",",G94,FIND(",",G94)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G94,FIND(",",G94)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G94,FIND(",",G94)+1,FIND(",",G94,FIND(",",G94)+1)-FIND(",",G94)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G94,FIND(",",G94,FIND(",",G94)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G94,LEFT(G94,FIND(",",G94)-1),VLOOKUP(LEFT(G94,FIND(",",G94)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G94,FIND(",",G94)+1,FIND(",",G94,FIND(",",G94)+1)-FIND(",",G94)-1)),VLOOKUP(TRIM(MID(G94,FIND(",",G94)+1,FIND(",",G94,FIND(",",G94)+1)-FIND(",",G94)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G94,FIND(",",G94,FIND(",",G94)+1)+1,999)),VLOOKUP(TRIM(MID(G94,FIND(",",G94,FIND(",",G94)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G94,FIND(",",G94,FIND(",",G94,FIND(",",G94)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G94,FIND(",",G94)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G94,FIND(",",G94)+1,FIND(",",G94,FIND(",",G94)+1)-FIND(",",G94)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G94,FIND(",",G94,FIND(",",G94)+1)+1,FIND(",",G94,FIND(",",G94,FIND(",",G94)+1)+1)-FIND(",",G94,FIND(",",G94)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G94,FIND(",",G94,FIND(",",G94,FIND(",",G94)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G94,LEFT(G94,FIND(",",G94)-1),VLOOKUP(LEFT(G94,FIND(",",G94)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G94,FIND(",",G94)+1,FIND(",",G94,FIND(",",G94)+1)-FIND(",",G94)-1)),VLOOKUP(TRIM(MID(G94,FIND(",",G94)+1,FIND(",",G94,FIND(",",G94)+1)-FIND(",",G94)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G94,FIND(",",G94,FIND(",",G94)+1)+1,FIND(",",G94,FIND(",",G94,FIND(",",G94)+1)+1)-FIND(",",G94,FIND(",",G94)+1)-1)),VLOOKUP(TRIM(MID(G94,FIND(",",G94,FIND(",",G94)+1)+1,FIND(",",G94,FIND(",",G94,FIND(",",G94)+1)+1)-FIND(",",G94,FIND(",",G94)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G94,FIND(",",G94,FIND(",",G94,FIND(",",G94)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G94,FIND(",",G94,FIND(",",G94,FIND(",",G94)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I94" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" t="s">
+        <v>34</v>
+      </c>
+      <c r="M94" t="s">
+        <v>126</v>
+      </c>
+      <c r="N94">
+        <v>20</v>
+      </c>
+      <c r="O94">
+        <v>8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>93</v>
+      </c>
+      <c r="H95" t="str">
+        <f>IF(ISBLANK(G95),"",
+IF(ISERROR(FIND(",",G95)),
+  IF(ISERROR(VLOOKUP(G95,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G95,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G95,FIND(",",G95)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G95,FIND(",",G95)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G95,FIND(",",G95)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G95,LEFT(G95,FIND(",",G95)-1),VLOOKUP(LEFT(G95,FIND(",",G95)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G95,FIND(",",G95)+1,999)),VLOOKUP(TRIM(MID(G95,FIND(",",G95)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G95,FIND(",",G95,FIND(",",G95)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G95,FIND(",",G95)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G95,FIND(",",G95)+1,FIND(",",G95,FIND(",",G95)+1)-FIND(",",G95)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G95,FIND(",",G95,FIND(",",G95)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G95,LEFT(G95,FIND(",",G95)-1),VLOOKUP(LEFT(G95,FIND(",",G95)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G95,FIND(",",G95)+1,FIND(",",G95,FIND(",",G95)+1)-FIND(",",G95)-1)),VLOOKUP(TRIM(MID(G95,FIND(",",G95)+1,FIND(",",G95,FIND(",",G95)+1)-FIND(",",G95)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G95,FIND(",",G95,FIND(",",G95)+1)+1,999)),VLOOKUP(TRIM(MID(G95,FIND(",",G95,FIND(",",G95)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G95,FIND(",",G95,FIND(",",G95,FIND(",",G95)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G95,FIND(",",G95)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G95,FIND(",",G95)+1,FIND(",",G95,FIND(",",G95)+1)-FIND(",",G95)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G95,FIND(",",G95,FIND(",",G95)+1)+1,FIND(",",G95,FIND(",",G95,FIND(",",G95)+1)+1)-FIND(",",G95,FIND(",",G95)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G95,FIND(",",G95,FIND(",",G95,FIND(",",G95)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G95,LEFT(G95,FIND(",",G95)-1),VLOOKUP(LEFT(G95,FIND(",",G95)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G95,FIND(",",G95)+1,FIND(",",G95,FIND(",",G95)+1)-FIND(",",G95)-1)),VLOOKUP(TRIM(MID(G95,FIND(",",G95)+1,FIND(",",G95,FIND(",",G95)+1)-FIND(",",G95)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G95,FIND(",",G95,FIND(",",G95)+1)+1,FIND(",",G95,FIND(",",G95,FIND(",",G95)+1)+1)-FIND(",",G95,FIND(",",G95)+1)-1)),VLOOKUP(TRIM(MID(G95,FIND(",",G95,FIND(",",G95)+1)+1,FIND(",",G95,FIND(",",G95,FIND(",",G95)+1)+1)-FIND(",",G95,FIND(",",G95)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G95,FIND(",",G95,FIND(",",G95,FIND(",",G95)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G95,FIND(",",G95,FIND(",",G95,FIND(",",G95)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I95" t="s">
+        <v>27</v>
+      </c>
+      <c r="J95" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95" t="s">
+        <v>127</v>
+      </c>
+      <c r="N95">
+        <v>20</v>
+      </c>
+      <c r="O95">
+        <v>8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>15</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>93</v>
+      </c>
+      <c r="H96" t="str">
+        <f>IF(ISBLANK(G96),"",
+IF(ISERROR(FIND(",",G96)),
+  IF(ISERROR(VLOOKUP(G96,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G96,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G96,FIND(",",G96)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G96,FIND(",",G96)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G96,FIND(",",G96)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G96,LEFT(G96,FIND(",",G96)-1),VLOOKUP(LEFT(G96,FIND(",",G96)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G96,FIND(",",G96)+1,999)),VLOOKUP(TRIM(MID(G96,FIND(",",G96)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G96,FIND(",",G96,FIND(",",G96)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G96,FIND(",",G96)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G96,FIND(",",G96)+1,FIND(",",G96,FIND(",",G96)+1)-FIND(",",G96)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G96,FIND(",",G96,FIND(",",G96)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G96,LEFT(G96,FIND(",",G96)-1),VLOOKUP(LEFT(G96,FIND(",",G96)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G96,FIND(",",G96)+1,FIND(",",G96,FIND(",",G96)+1)-FIND(",",G96)-1)),VLOOKUP(TRIM(MID(G96,FIND(",",G96)+1,FIND(",",G96,FIND(",",G96)+1)-FIND(",",G96)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G96,FIND(",",G96,FIND(",",G96)+1)+1,999)),VLOOKUP(TRIM(MID(G96,FIND(",",G96,FIND(",",G96)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G96,FIND(",",G96,FIND(",",G96,FIND(",",G96)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G96,FIND(",",G96)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G96,FIND(",",G96)+1,FIND(",",G96,FIND(",",G96)+1)-FIND(",",G96)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G96,FIND(",",G96,FIND(",",G96)+1)+1,FIND(",",G96,FIND(",",G96,FIND(",",G96)+1)+1)-FIND(",",G96,FIND(",",G96)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G96,FIND(",",G96,FIND(",",G96,FIND(",",G96)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G96,LEFT(G96,FIND(",",G96)-1),VLOOKUP(LEFT(G96,FIND(",",G96)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G96,FIND(",",G96)+1,FIND(",",G96,FIND(",",G96)+1)-FIND(",",G96)-1)),VLOOKUP(TRIM(MID(G96,FIND(",",G96)+1,FIND(",",G96,FIND(",",G96)+1)-FIND(",",G96)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G96,FIND(",",G96,FIND(",",G96)+1)+1,FIND(",",G96,FIND(",",G96,FIND(",",G96)+1)+1)-FIND(",",G96,FIND(",",G96)+1)-1)),VLOOKUP(TRIM(MID(G96,FIND(",",G96,FIND(",",G96)+1)+1,FIND(",",G96,FIND(",",G96,FIND(",",G96)+1)+1)-FIND(",",G96,FIND(",",G96)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G96,FIND(",",G96,FIND(",",G96,FIND(",",G96)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G96,FIND(",",G96,FIND(",",G96,FIND(",",G96)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I96" t="s">
+        <v>27</v>
+      </c>
+      <c r="J96" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" t="s">
+        <v>128</v>
+      </c>
+      <c r="N96">
+        <v>20</v>
+      </c>
+      <c r="O96">
+        <v>10.999000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>93</v>
+      </c>
+      <c r="H97" t="str">
+        <f>IF(ISBLANK(G97),"",
+IF(ISERROR(FIND(",",G97)),
+  IF(ISERROR(VLOOKUP(G97,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G97,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G97,FIND(",",G97)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G97,FIND(",",G97)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G97,FIND(",",G97)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G97,LEFT(G97,FIND(",",G97)-1),VLOOKUP(LEFT(G97,FIND(",",G97)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G97,FIND(",",G97)+1,999)),VLOOKUP(TRIM(MID(G97,FIND(",",G97)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G97,FIND(",",G97,FIND(",",G97)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G97,FIND(",",G97)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G97,FIND(",",G97)+1,FIND(",",G97,FIND(",",G97)+1)-FIND(",",G97)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G97,FIND(",",G97,FIND(",",G97)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G97,LEFT(G97,FIND(",",G97)-1),VLOOKUP(LEFT(G97,FIND(",",G97)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G97,FIND(",",G97)+1,FIND(",",G97,FIND(",",G97)+1)-FIND(",",G97)-1)),VLOOKUP(TRIM(MID(G97,FIND(",",G97)+1,FIND(",",G97,FIND(",",G97)+1)-FIND(",",G97)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G97,FIND(",",G97,FIND(",",G97)+1)+1,999)),VLOOKUP(TRIM(MID(G97,FIND(",",G97,FIND(",",G97)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G97,FIND(",",G97,FIND(",",G97,FIND(",",G97)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G97,FIND(",",G97)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G97,FIND(",",G97)+1,FIND(",",G97,FIND(",",G97)+1)-FIND(",",G97)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G97,FIND(",",G97,FIND(",",G97)+1)+1,FIND(",",G97,FIND(",",G97,FIND(",",G97)+1)+1)-FIND(",",G97,FIND(",",G97)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G97,FIND(",",G97,FIND(",",G97,FIND(",",G97)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G97,LEFT(G97,FIND(",",G97)-1),VLOOKUP(LEFT(G97,FIND(",",G97)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G97,FIND(",",G97)+1,FIND(",",G97,FIND(",",G97)+1)-FIND(",",G97)-1)),VLOOKUP(TRIM(MID(G97,FIND(",",G97)+1,FIND(",",G97,FIND(",",G97)+1)-FIND(",",G97)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G97,FIND(",",G97,FIND(",",G97)+1)+1,FIND(",",G97,FIND(",",G97,FIND(",",G97)+1)+1)-FIND(",",G97,FIND(",",G97)+1)-1)),VLOOKUP(TRIM(MID(G97,FIND(",",G97,FIND(",",G97)+1)+1,FIND(",",G97,FIND(",",G97,FIND(",",G97)+1)+1)-FIND(",",G97,FIND(",",G97)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G97,FIND(",",G97,FIND(",",G97,FIND(",",G97)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G97,FIND(",",G97,FIND(",",G97,FIND(",",G97)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>Ganfaul, ChaosElemental, AngelicWarrior, IceMagician</v>
+      </c>
+      <c r="I97" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" t="s">
+        <v>129</v>
+      </c>
+      <c r="N97">
+        <v>20</v>
+      </c>
+      <c r="O97">
+        <v>10.999000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>94</v>
+      </c>
+      <c r="H98" t="str">
+        <f>IF(ISBLANK(G98),"",
+IF(ISERROR(FIND(",",G98)),
+  IF(ISERROR(VLOOKUP(G98,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G98,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G98,FIND(",",G98)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G98,FIND(",",G98)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G98,FIND(",",G98)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G98,LEFT(G98,FIND(",",G98)-1),VLOOKUP(LEFT(G98,FIND(",",G98)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G98,FIND(",",G98)+1,999)),VLOOKUP(TRIM(MID(G98,FIND(",",G98)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G98,FIND(",",G98)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G98,FIND(",",G98)+1,FIND(",",G98,FIND(",",G98)+1)-FIND(",",G98)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G98,FIND(",",G98,FIND(",",G98)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G98,LEFT(G98,FIND(",",G98)-1),VLOOKUP(LEFT(G98,FIND(",",G98)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G98,FIND(",",G98)+1,FIND(",",G98,FIND(",",G98)+1)-FIND(",",G98)-1)),VLOOKUP(TRIM(MID(G98,FIND(",",G98)+1,FIND(",",G98,FIND(",",G98)+1)-FIND(",",G98)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G98,FIND(",",G98,FIND(",",G98)+1)+1,999)),VLOOKUP(TRIM(MID(G98,FIND(",",G98,FIND(",",G98)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G98,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G98,FIND(",",G98)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G98,FIND(",",G98)+1,FIND(",",G98,FIND(",",G98)+1)-FIND(",",G98)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G98,FIND(",",G98,FIND(",",G98)+1)+1,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)-FIND(",",G98,FIND(",",G98)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G98,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G98,LEFT(G98,FIND(",",G98)-1),VLOOKUP(LEFT(G98,FIND(",",G98)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G98,FIND(",",G98)+1,FIND(",",G98,FIND(",",G98)+1)-FIND(",",G98)-1)),VLOOKUP(TRIM(MID(G98,FIND(",",G98)+1,FIND(",",G98,FIND(",",G98)+1)-FIND(",",G98)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G98,FIND(",",G98,FIND(",",G98)+1)+1,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)-FIND(",",G98,FIND(",",G98)+1)-1)),VLOOKUP(TRIM(MID(G98,FIND(",",G98,FIND(",",G98)+1)+1,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)-FIND(",",G98,FIND(",",G98)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G98,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G98,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I98" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" t="s">
+        <v>32</v>
+      </c>
+      <c r="L98" t="s">
+        <v>34</v>
+      </c>
+      <c r="M98" t="s">
+        <v>83</v>
+      </c>
+      <c r="N98">
+        <v>30</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>94</v>
+      </c>
+      <c r="H99" t="str">
+        <f>IF(ISBLANK(G99),"",
+IF(ISERROR(FIND(",",G99)),
+  IF(ISERROR(VLOOKUP(G99,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G99,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G99,FIND(",",G99)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G99,FIND(",",G99)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G99,FIND(",",G99)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G99,LEFT(G99,FIND(",",G99)-1),VLOOKUP(LEFT(G99,FIND(",",G99)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G99,FIND(",",G99)+1,999)),VLOOKUP(TRIM(MID(G99,FIND(",",G99)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G99,FIND(",",G99)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G99,FIND(",",G99)+1,FIND(",",G99,FIND(",",G99)+1)-FIND(",",G99)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G99,FIND(",",G99,FIND(",",G99)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G99,LEFT(G99,FIND(",",G99)-1),VLOOKUP(LEFT(G99,FIND(",",G99)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G99,FIND(",",G99)+1,FIND(",",G99,FIND(",",G99)+1)-FIND(",",G99)-1)),VLOOKUP(TRIM(MID(G99,FIND(",",G99)+1,FIND(",",G99,FIND(",",G99)+1)-FIND(",",G99)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G99,FIND(",",G99,FIND(",",G99)+1)+1,999)),VLOOKUP(TRIM(MID(G99,FIND(",",G99,FIND(",",G99)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G99,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G99,FIND(",",G99)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G99,FIND(",",G99)+1,FIND(",",G99,FIND(",",G99)+1)-FIND(",",G99)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G99,FIND(",",G99,FIND(",",G99)+1)+1,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)-FIND(",",G99,FIND(",",G99)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G99,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G99,LEFT(G99,FIND(",",G99)-1),VLOOKUP(LEFT(G99,FIND(",",G99)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G99,FIND(",",G99)+1,FIND(",",G99,FIND(",",G99)+1)-FIND(",",G99)-1)),VLOOKUP(TRIM(MID(G99,FIND(",",G99)+1,FIND(",",G99,FIND(",",G99)+1)-FIND(",",G99)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G99,FIND(",",G99,FIND(",",G99)+1)+1,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)-FIND(",",G99,FIND(",",G99)+1)-1)),VLOOKUP(TRIM(MID(G99,FIND(",",G99,FIND(",",G99)+1)+1,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)-FIND(",",G99,FIND(",",G99)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G99,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G99,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I99" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" t="s">
+        <v>32</v>
+      </c>
+      <c r="L99" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" t="s">
+        <v>84</v>
+      </c>
+      <c r="N99">
+        <v>30</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>94</v>
+      </c>
+      <c r="H100" t="str">
+        <f>IF(ISBLANK(G100),"",
+IF(ISERROR(FIND(",",G100)),
+  IF(ISERROR(VLOOKUP(G100,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G100,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G100,FIND(",",G100)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G100,FIND(",",G100)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G100,FIND(",",G100)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G100,LEFT(G100,FIND(",",G100)-1),VLOOKUP(LEFT(G100,FIND(",",G100)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G100,FIND(",",G100)+1,999)),VLOOKUP(TRIM(MID(G100,FIND(",",G100)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G100,FIND(",",G100)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G100,FIND(",",G100)+1,FIND(",",G100,FIND(",",G100)+1)-FIND(",",G100)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G100,FIND(",",G100,FIND(",",G100)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G100,LEFT(G100,FIND(",",G100)-1),VLOOKUP(LEFT(G100,FIND(",",G100)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G100,FIND(",",G100)+1,FIND(",",G100,FIND(",",G100)+1)-FIND(",",G100)-1)),VLOOKUP(TRIM(MID(G100,FIND(",",G100)+1,FIND(",",G100,FIND(",",G100)+1)-FIND(",",G100)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G100,FIND(",",G100,FIND(",",G100)+1)+1,999)),VLOOKUP(TRIM(MID(G100,FIND(",",G100,FIND(",",G100)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G100,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G100,FIND(",",G100)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G100,FIND(",",G100)+1,FIND(",",G100,FIND(",",G100)+1)-FIND(",",G100)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G100,FIND(",",G100,FIND(",",G100)+1)+1,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)-FIND(",",G100,FIND(",",G100)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G100,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G100,LEFT(G100,FIND(",",G100)-1),VLOOKUP(LEFT(G100,FIND(",",G100)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G100,FIND(",",G100)+1,FIND(",",G100,FIND(",",G100)+1)-FIND(",",G100)-1)),VLOOKUP(TRIM(MID(G100,FIND(",",G100)+1,FIND(",",G100,FIND(",",G100)+1)-FIND(",",G100)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G100,FIND(",",G100,FIND(",",G100)+1)+1,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)-FIND(",",G100,FIND(",",G100)+1)-1)),VLOOKUP(TRIM(MID(G100,FIND(",",G100,FIND(",",G100)+1)+1,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)-FIND(",",G100,FIND(",",G100)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G100,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G100,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I100" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" t="s">
+        <v>32</v>
+      </c>
+      <c r="L100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" t="s">
+        <v>85</v>
+      </c>
+      <c r="N100">
+        <v>30</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>94</v>
+      </c>
+      <c r="H101" t="str">
+        <f>IF(ISBLANK(G101),"",
+IF(ISERROR(FIND(",",G101)),
+  IF(ISERROR(VLOOKUP(G101,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G101,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G101,FIND(",",G101)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G101,FIND(",",G101)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G101,FIND(",",G101)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G101,LEFT(G101,FIND(",",G101)-1),VLOOKUP(LEFT(G101,FIND(",",G101)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G101,FIND(",",G101)+1,999)),VLOOKUP(TRIM(MID(G101,FIND(",",G101)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G101,FIND(",",G101)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G101,FIND(",",G101)+1,FIND(",",G101,FIND(",",G101)+1)-FIND(",",G101)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G101,FIND(",",G101,FIND(",",G101)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G101,LEFT(G101,FIND(",",G101)-1),VLOOKUP(LEFT(G101,FIND(",",G101)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G101,FIND(",",G101)+1,FIND(",",G101,FIND(",",G101)+1)-FIND(",",G101)-1)),VLOOKUP(TRIM(MID(G101,FIND(",",G101)+1,FIND(",",G101,FIND(",",G101)+1)-FIND(",",G101)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G101,FIND(",",G101,FIND(",",G101)+1)+1,999)),VLOOKUP(TRIM(MID(G101,FIND(",",G101,FIND(",",G101)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G101,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G101,FIND(",",G101)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G101,FIND(",",G101)+1,FIND(",",G101,FIND(",",G101)+1)-FIND(",",G101)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G101,FIND(",",G101,FIND(",",G101)+1)+1,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)-FIND(",",G101,FIND(",",G101)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G101,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G101,LEFT(G101,FIND(",",G101)-1),VLOOKUP(LEFT(G101,FIND(",",G101)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G101,FIND(",",G101)+1,FIND(",",G101,FIND(",",G101)+1)-FIND(",",G101)-1)),VLOOKUP(TRIM(MID(G101,FIND(",",G101)+1,FIND(",",G101,FIND(",",G101)+1)-FIND(",",G101)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G101,FIND(",",G101,FIND(",",G101)+1)+1,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)-FIND(",",G101,FIND(",",G101)+1)-1)),VLOOKUP(TRIM(MID(G101,FIND(",",G101,FIND(",",G101)+1)+1,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)-FIND(",",G101,FIND(",",G101)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G101,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G101,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I101" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" t="s">
+        <v>32</v>
+      </c>
+      <c r="L101" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" t="s">
+        <v>86</v>
+      </c>
+      <c r="N101">
+        <v>30</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>94</v>
+      </c>
+      <c r="H102" t="str">
+        <f>IF(ISBLANK(G102),"",
+IF(ISERROR(FIND(",",G102)),
+  IF(ISERROR(VLOOKUP(G102,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G102,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G102,FIND(",",G102)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G102,FIND(",",G102)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G102,FIND(",",G102)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G102,LEFT(G102,FIND(",",G102)-1),VLOOKUP(LEFT(G102,FIND(",",G102)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G102,FIND(",",G102)+1,999)),VLOOKUP(TRIM(MID(G102,FIND(",",G102)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G102,FIND(",",G102)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G102,FIND(",",G102)+1,FIND(",",G102,FIND(",",G102)+1)-FIND(",",G102)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G102,FIND(",",G102,FIND(",",G102)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G102,LEFT(G102,FIND(",",G102)-1),VLOOKUP(LEFT(G102,FIND(",",G102)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G102,FIND(",",G102)+1,FIND(",",G102,FIND(",",G102)+1)-FIND(",",G102)-1)),VLOOKUP(TRIM(MID(G102,FIND(",",G102)+1,FIND(",",G102,FIND(",",G102)+1)-FIND(",",G102)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G102,FIND(",",G102,FIND(",",G102)+1)+1,999)),VLOOKUP(TRIM(MID(G102,FIND(",",G102,FIND(",",G102)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G102,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G102,FIND(",",G102)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G102,FIND(",",G102)+1,FIND(",",G102,FIND(",",G102)+1)-FIND(",",G102)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G102,FIND(",",G102,FIND(",",G102)+1)+1,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)-FIND(",",G102,FIND(",",G102)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G102,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G102,LEFT(G102,FIND(",",G102)-1),VLOOKUP(LEFT(G102,FIND(",",G102)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G102,FIND(",",G102)+1,FIND(",",G102,FIND(",",G102)+1)-FIND(",",G102)-1)),VLOOKUP(TRIM(MID(G102,FIND(",",G102)+1,FIND(",",G102,FIND(",",G102)+1)-FIND(",",G102)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G102,FIND(",",G102,FIND(",",G102)+1)+1,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)-FIND(",",G102,FIND(",",G102)+1)-1)),VLOOKUP(TRIM(MID(G102,FIND(",",G102,FIND(",",G102)+1)+1,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)-FIND(",",G102,FIND(",",G102)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G102,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G102,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I102" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" t="s">
+        <v>32</v>
+      </c>
+      <c r="L102" t="s">
+        <v>34</v>
+      </c>
+      <c r="M102" t="s">
+        <v>87</v>
+      </c>
+      <c r="N102">
+        <v>30</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>94</v>
+      </c>
+      <c r="H103" t="str">
+        <f>IF(ISBLANK(G103),"",
+IF(ISERROR(FIND(",",G103)),
+  IF(ISERROR(VLOOKUP(G103,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G103,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G103,FIND(",",G103)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G103,FIND(",",G103)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G103,FIND(",",G103)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G103,LEFT(G103,FIND(",",G103)-1),VLOOKUP(LEFT(G103,FIND(",",G103)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G103,FIND(",",G103)+1,999)),VLOOKUP(TRIM(MID(G103,FIND(",",G103)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G103,FIND(",",G103)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G103,FIND(",",G103)+1,FIND(",",G103,FIND(",",G103)+1)-FIND(",",G103)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G103,FIND(",",G103,FIND(",",G103)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G103,LEFT(G103,FIND(",",G103)-1),VLOOKUP(LEFT(G103,FIND(",",G103)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G103,FIND(",",G103)+1,FIND(",",G103,FIND(",",G103)+1)-FIND(",",G103)-1)),VLOOKUP(TRIM(MID(G103,FIND(",",G103)+1,FIND(",",G103,FIND(",",G103)+1)-FIND(",",G103)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G103,FIND(",",G103,FIND(",",G103)+1)+1,999)),VLOOKUP(TRIM(MID(G103,FIND(",",G103,FIND(",",G103)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G103,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G103,FIND(",",G103)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G103,FIND(",",G103)+1,FIND(",",G103,FIND(",",G103)+1)-FIND(",",G103)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G103,FIND(",",G103,FIND(",",G103)+1)+1,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)-FIND(",",G103,FIND(",",G103)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G103,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G103,LEFT(G103,FIND(",",G103)-1),VLOOKUP(LEFT(G103,FIND(",",G103)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G103,FIND(",",G103)+1,FIND(",",G103,FIND(",",G103)+1)-FIND(",",G103)-1)),VLOOKUP(TRIM(MID(G103,FIND(",",G103)+1,FIND(",",G103,FIND(",",G103)+1)-FIND(",",G103)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G103,FIND(",",G103,FIND(",",G103)+1)+1,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)-FIND(",",G103,FIND(",",G103)+1)-1)),VLOOKUP(TRIM(MID(G103,FIND(",",G103,FIND(",",G103)+1)+1,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)-FIND(",",G103,FIND(",",G103)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G103,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G103,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I103" t="s">
+        <v>28</v>
+      </c>
+      <c r="J103" t="s">
+        <v>32</v>
+      </c>
+      <c r="L103" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103" t="s">
+        <v>88</v>
+      </c>
+      <c r="N103">
+        <v>30</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F104">
+        <v>7</v>
+      </c>
+      <c r="G104" t="s">
+        <v>94</v>
+      </c>
+      <c r="H104" t="str">
+        <f>IF(ISBLANK(G104),"",
+IF(ISERROR(FIND(",",G104)),
+  IF(ISERROR(VLOOKUP(G104,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G104,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G104,FIND(",",G104)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G104,FIND(",",G104)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G104,FIND(",",G104)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G104,LEFT(G104,FIND(",",G104)-1),VLOOKUP(LEFT(G104,FIND(",",G104)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G104,FIND(",",G104)+1,999)),VLOOKUP(TRIM(MID(G104,FIND(",",G104)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G104,FIND(",",G104)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G104,FIND(",",G104)+1,FIND(",",G104,FIND(",",G104)+1)-FIND(",",G104)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G104,FIND(",",G104,FIND(",",G104)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G104,LEFT(G104,FIND(",",G104)-1),VLOOKUP(LEFT(G104,FIND(",",G104)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G104,FIND(",",G104)+1,FIND(",",G104,FIND(",",G104)+1)-FIND(",",G104)-1)),VLOOKUP(TRIM(MID(G104,FIND(",",G104)+1,FIND(",",G104,FIND(",",G104)+1)-FIND(",",G104)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G104,FIND(",",G104,FIND(",",G104)+1)+1,999)),VLOOKUP(TRIM(MID(G104,FIND(",",G104,FIND(",",G104)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G104,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G104,FIND(",",G104)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G104,FIND(",",G104)+1,FIND(",",G104,FIND(",",G104)+1)-FIND(",",G104)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G104,FIND(",",G104,FIND(",",G104)+1)+1,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)-FIND(",",G104,FIND(",",G104)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G104,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G104,LEFT(G104,FIND(",",G104)-1),VLOOKUP(LEFT(G104,FIND(",",G104)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G104,FIND(",",G104)+1,FIND(",",G104,FIND(",",G104)+1)-FIND(",",G104)-1)),VLOOKUP(TRIM(MID(G104,FIND(",",G104)+1,FIND(",",G104,FIND(",",G104)+1)-FIND(",",G104)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G104,FIND(",",G104,FIND(",",G104)+1)+1,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)-FIND(",",G104,FIND(",",G104)+1)-1)),VLOOKUP(TRIM(MID(G104,FIND(",",G104,FIND(",",G104)+1)+1,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)-FIND(",",G104,FIND(",",G104)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G104,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G104,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I104" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" t="s">
+        <v>32</v>
+      </c>
+      <c r="L104" t="s">
+        <v>34</v>
+      </c>
+      <c r="M104" t="s">
+        <v>89</v>
+      </c>
+      <c r="N104">
+        <v>30</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ref="D66:D105" si="3">1000+A105*100</f>
+        <v>1600</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>94</v>
+      </c>
+      <c r="H105" t="str">
+        <f>IF(ISBLANK(G105),"",
+IF(ISERROR(FIND(",",G105)),
+  IF(ISERROR(VLOOKUP(G105,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G105,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G105,FIND(",",G105)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G105,FIND(",",G105)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G105,FIND(",",G105)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G105,LEFT(G105,FIND(",",G105)-1),VLOOKUP(LEFT(G105,FIND(",",G105)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G105,FIND(",",G105)+1,999)),VLOOKUP(TRIM(MID(G105,FIND(",",G105)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G105,FIND(",",G105)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G105,FIND(",",G105)+1,FIND(",",G105,FIND(",",G105)+1)-FIND(",",G105)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G105,FIND(",",G105,FIND(",",G105)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G105,LEFT(G105,FIND(",",G105)-1),VLOOKUP(LEFT(G105,FIND(",",G105)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G105,FIND(",",G105)+1,FIND(",",G105,FIND(",",G105)+1)-FIND(",",G105)-1)),VLOOKUP(TRIM(MID(G105,FIND(",",G105)+1,FIND(",",G105,FIND(",",G105)+1)-FIND(",",G105)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G105,FIND(",",G105,FIND(",",G105)+1)+1,999)),VLOOKUP(TRIM(MID(G105,FIND(",",G105,FIND(",",G105)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G105,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G105,FIND(",",G105)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G105,FIND(",",G105)+1,FIND(",",G105,FIND(",",G105)+1)-FIND(",",G105)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G105,FIND(",",G105,FIND(",",G105)+1)+1,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)-FIND(",",G105,FIND(",",G105)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G105,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G105,LEFT(G105,FIND(",",G105)-1),VLOOKUP(LEFT(G105,FIND(",",G105)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G105,FIND(",",G105)+1,FIND(",",G105,FIND(",",G105)+1)-FIND(",",G105)-1)),VLOOKUP(TRIM(MID(G105,FIND(",",G105)+1,FIND(",",G105,FIND(",",G105)+1)-FIND(",",G105)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G105,FIND(",",G105,FIND(",",G105)+1)+1,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)-FIND(",",G105,FIND(",",G105)+1)-1)),VLOOKUP(TRIM(MID(G105,FIND(",",G105,FIND(",",G105)+1)+1,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)-FIND(",",G105,FIND(",",G105)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G105,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G105,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I105" t="s">
+        <v>28</v>
+      </c>
+      <c r="J105" t="s">
+        <v>32</v>
+      </c>
+      <c r="L105" t="s">
+        <v>34</v>
+      </c>
+      <c r="M105" t="s">
         <v>90</v>
       </c>
-      <c r="N57">
+      <c r="N105">
         <v>30</v>
       </c>
-      <c r="O57">
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ref="E106:E113" si="4">C106</f>
+        <v>9</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>94</v>
+      </c>
+      <c r="H106" t="str">
+        <f>IF(ISBLANK(G106),"",
+IF(ISERROR(FIND(",",G106)),
+  IF(ISERROR(VLOOKUP(G106,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G106,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G106,FIND(",",G106)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G106,FIND(",",G106)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G106,FIND(",",G106)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G106,LEFT(G106,FIND(",",G106)-1),VLOOKUP(LEFT(G106,FIND(",",G106)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G106,FIND(",",G106)+1,999)),VLOOKUP(TRIM(MID(G106,FIND(",",G106)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G106,FIND(",",G106)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G106,FIND(",",G106)+1,FIND(",",G106,FIND(",",G106)+1)-FIND(",",G106)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G106,FIND(",",G106,FIND(",",G106)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G106,LEFT(G106,FIND(",",G106)-1),VLOOKUP(LEFT(G106,FIND(",",G106)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G106,FIND(",",G106)+1,FIND(",",G106,FIND(",",G106)+1)-FIND(",",G106)-1)),VLOOKUP(TRIM(MID(G106,FIND(",",G106)+1,FIND(",",G106,FIND(",",G106)+1)-FIND(",",G106)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G106,FIND(",",G106,FIND(",",G106)+1)+1,999)),VLOOKUP(TRIM(MID(G106,FIND(",",G106,FIND(",",G106)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G106,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G106,FIND(",",G106)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G106,FIND(",",G106)+1,FIND(",",G106,FIND(",",G106)+1)-FIND(",",G106)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G106,FIND(",",G106,FIND(",",G106)+1)+1,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)-FIND(",",G106,FIND(",",G106)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G106,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G106,LEFT(G106,FIND(",",G106)-1),VLOOKUP(LEFT(G106,FIND(",",G106)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G106,FIND(",",G106)+1,FIND(",",G106,FIND(",",G106)+1)-FIND(",",G106)-1)),VLOOKUP(TRIM(MID(G106,FIND(",",G106)+1,FIND(",",G106,FIND(",",G106)+1)-FIND(",",G106)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G106,FIND(",",G106,FIND(",",G106)+1)+1,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)-FIND(",",G106,FIND(",",G106)+1)-1)),VLOOKUP(TRIM(MID(G106,FIND(",",G106,FIND(",",G106)+1)+1,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)-FIND(",",G106,FIND(",",G106)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G106,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G106,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I106" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" t="s">
+        <v>32</v>
+      </c>
+      <c r="L106" t="s">
+        <v>34</v>
+      </c>
+      <c r="M106" t="s">
+        <v>114</v>
+      </c>
+      <c r="N106">
+        <v>30</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>94</v>
+      </c>
+      <c r="H107" t="str">
+        <f>IF(ISBLANK(G107),"",
+IF(ISERROR(FIND(",",G107)),
+  IF(ISERROR(VLOOKUP(G107,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G107,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G107,FIND(",",G107)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G107,FIND(",",G107)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G107,FIND(",",G107)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G107,LEFT(G107,FIND(",",G107)-1),VLOOKUP(LEFT(G107,FIND(",",G107)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G107,FIND(",",G107)+1,999)),VLOOKUP(TRIM(MID(G107,FIND(",",G107)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G107,FIND(",",G107)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G107,FIND(",",G107)+1,FIND(",",G107,FIND(",",G107)+1)-FIND(",",G107)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G107,FIND(",",G107,FIND(",",G107)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G107,LEFT(G107,FIND(",",G107)-1),VLOOKUP(LEFT(G107,FIND(",",G107)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G107,FIND(",",G107)+1,FIND(",",G107,FIND(",",G107)+1)-FIND(",",G107)-1)),VLOOKUP(TRIM(MID(G107,FIND(",",G107)+1,FIND(",",G107,FIND(",",G107)+1)-FIND(",",G107)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G107,FIND(",",G107,FIND(",",G107)+1)+1,999)),VLOOKUP(TRIM(MID(G107,FIND(",",G107,FIND(",",G107)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G107,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G107,FIND(",",G107)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G107,FIND(",",G107)+1,FIND(",",G107,FIND(",",G107)+1)-FIND(",",G107)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G107,FIND(",",G107,FIND(",",G107)+1)+1,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)-FIND(",",G107,FIND(",",G107)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G107,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G107,LEFT(G107,FIND(",",G107)-1),VLOOKUP(LEFT(G107,FIND(",",G107)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G107,FIND(",",G107)+1,FIND(",",G107,FIND(",",G107)+1)-FIND(",",G107)-1)),VLOOKUP(TRIM(MID(G107,FIND(",",G107)+1,FIND(",",G107,FIND(",",G107)+1)-FIND(",",G107)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G107,FIND(",",G107,FIND(",",G107)+1)+1,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)-FIND(",",G107,FIND(",",G107)+1)-1)),VLOOKUP(TRIM(MID(G107,FIND(",",G107,FIND(",",G107)+1)+1,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)-FIND(",",G107,FIND(",",G107)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G107,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G107,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I107" t="s">
+        <v>28</v>
+      </c>
+      <c r="J107" t="s">
+        <v>32</v>
+      </c>
+      <c r="L107" t="s">
+        <v>34</v>
+      </c>
+      <c r="M107" t="s">
+        <v>115</v>
+      </c>
+      <c r="N107">
+        <v>30</v>
+      </c>
+      <c r="O107">
+        <v>1.9990000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>94</v>
+      </c>
+      <c r="H108" t="str">
+        <f>IF(ISBLANK(G108),"",
+IF(ISERROR(FIND(",",G108)),
+  IF(ISERROR(VLOOKUP(G108,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G108,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G108,FIND(",",G108)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G108,FIND(",",G108)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G108,FIND(",",G108)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G108,LEFT(G108,FIND(",",G108)-1),VLOOKUP(LEFT(G108,FIND(",",G108)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G108,FIND(",",G108)+1,999)),VLOOKUP(TRIM(MID(G108,FIND(",",G108)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G108,FIND(",",G108)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G108,FIND(",",G108)+1,FIND(",",G108,FIND(",",G108)+1)-FIND(",",G108)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G108,FIND(",",G108,FIND(",",G108)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G108,LEFT(G108,FIND(",",G108)-1),VLOOKUP(LEFT(G108,FIND(",",G108)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G108,FIND(",",G108)+1,FIND(",",G108,FIND(",",G108)+1)-FIND(",",G108)-1)),VLOOKUP(TRIM(MID(G108,FIND(",",G108)+1,FIND(",",G108,FIND(",",G108)+1)-FIND(",",G108)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G108,FIND(",",G108,FIND(",",G108)+1)+1,999)),VLOOKUP(TRIM(MID(G108,FIND(",",G108,FIND(",",G108)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G108,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G108,FIND(",",G108)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G108,FIND(",",G108)+1,FIND(",",G108,FIND(",",G108)+1)-FIND(",",G108)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G108,FIND(",",G108,FIND(",",G108)+1)+1,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)-FIND(",",G108,FIND(",",G108)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G108,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G108,LEFT(G108,FIND(",",G108)-1),VLOOKUP(LEFT(G108,FIND(",",G108)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G108,FIND(",",G108)+1,FIND(",",G108,FIND(",",G108)+1)-FIND(",",G108)-1)),VLOOKUP(TRIM(MID(G108,FIND(",",G108)+1,FIND(",",G108,FIND(",",G108)+1)-FIND(",",G108)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G108,FIND(",",G108,FIND(",",G108)+1)+1,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)-FIND(",",G108,FIND(",",G108)+1)-1)),VLOOKUP(TRIM(MID(G108,FIND(",",G108,FIND(",",G108)+1)+1,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)-FIND(",",G108,FIND(",",G108)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G108,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G108,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I108" t="s">
+        <v>28</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+      <c r="L108" t="s">
+        <v>34</v>
+      </c>
+      <c r="M108" t="s">
+        <v>116</v>
+      </c>
+      <c r="N108">
+        <v>30</v>
+      </c>
+      <c r="O108">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>94</v>
+      </c>
+      <c r="H109" t="str">
+        <f>IF(ISBLANK(G109),"",
+IF(ISERROR(FIND(",",G109)),
+  IF(ISERROR(VLOOKUP(G109,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G109,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G109,FIND(",",G109)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G109,FIND(",",G109)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G109,FIND(",",G109)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G109,LEFT(G109,FIND(",",G109)-1),VLOOKUP(LEFT(G109,FIND(",",G109)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G109,FIND(",",G109)+1,999)),VLOOKUP(TRIM(MID(G109,FIND(",",G109)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G109,FIND(",",G109)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G109,FIND(",",G109)+1,FIND(",",G109,FIND(",",G109)+1)-FIND(",",G109)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G109,FIND(",",G109,FIND(",",G109)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G109,LEFT(G109,FIND(",",G109)-1),VLOOKUP(LEFT(G109,FIND(",",G109)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G109,FIND(",",G109)+1,FIND(",",G109,FIND(",",G109)+1)-FIND(",",G109)-1)),VLOOKUP(TRIM(MID(G109,FIND(",",G109)+1,FIND(",",G109,FIND(",",G109)+1)-FIND(",",G109)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G109,FIND(",",G109,FIND(",",G109)+1)+1,999)),VLOOKUP(TRIM(MID(G109,FIND(",",G109,FIND(",",G109)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G109,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G109,FIND(",",G109)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G109,FIND(",",G109)+1,FIND(",",G109,FIND(",",G109)+1)-FIND(",",G109)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G109,FIND(",",G109,FIND(",",G109)+1)+1,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)-FIND(",",G109,FIND(",",G109)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G109,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G109,LEFT(G109,FIND(",",G109)-1),VLOOKUP(LEFT(G109,FIND(",",G109)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G109,FIND(",",G109)+1,FIND(",",G109,FIND(",",G109)+1)-FIND(",",G109)-1)),VLOOKUP(TRIM(MID(G109,FIND(",",G109)+1,FIND(",",G109,FIND(",",G109)+1)-FIND(",",G109)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G109,FIND(",",G109,FIND(",",G109)+1)+1,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)-FIND(",",G109,FIND(",",G109)+1)-1)),VLOOKUP(TRIM(MID(G109,FIND(",",G109,FIND(",",G109)+1)+1,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)-FIND(",",G109,FIND(",",G109)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G109,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G109,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" t="s">
+        <v>32</v>
+      </c>
+      <c r="L109" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" t="s">
+        <v>117</v>
+      </c>
+      <c r="N109">
+        <v>30</v>
+      </c>
+      <c r="O109">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>94</v>
+      </c>
+      <c r="H110" t="str">
+        <f>IF(ISBLANK(G110),"",
+IF(ISERROR(FIND(",",G110)),
+  IF(ISERROR(VLOOKUP(G110,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G110,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G110,FIND(",",G110)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G110,FIND(",",G110)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G110,FIND(",",G110)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G110,LEFT(G110,FIND(",",G110)-1),VLOOKUP(LEFT(G110,FIND(",",G110)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G110,FIND(",",G110)+1,999)),VLOOKUP(TRIM(MID(G110,FIND(",",G110)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G110,FIND(",",G110)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G110,FIND(",",G110)+1,FIND(",",G110,FIND(",",G110)+1)-FIND(",",G110)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G110,FIND(",",G110,FIND(",",G110)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G110,LEFT(G110,FIND(",",G110)-1),VLOOKUP(LEFT(G110,FIND(",",G110)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G110,FIND(",",G110)+1,FIND(",",G110,FIND(",",G110)+1)-FIND(",",G110)-1)),VLOOKUP(TRIM(MID(G110,FIND(",",G110)+1,FIND(",",G110,FIND(",",G110)+1)-FIND(",",G110)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G110,FIND(",",G110,FIND(",",G110)+1)+1,999)),VLOOKUP(TRIM(MID(G110,FIND(",",G110,FIND(",",G110)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G110,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G110,FIND(",",G110)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G110,FIND(",",G110)+1,FIND(",",G110,FIND(",",G110)+1)-FIND(",",G110)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G110,FIND(",",G110,FIND(",",G110)+1)+1,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)-FIND(",",G110,FIND(",",G110)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G110,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G110,LEFT(G110,FIND(",",G110)-1),VLOOKUP(LEFT(G110,FIND(",",G110)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G110,FIND(",",G110)+1,FIND(",",G110,FIND(",",G110)+1)-FIND(",",G110)-1)),VLOOKUP(TRIM(MID(G110,FIND(",",G110)+1,FIND(",",G110,FIND(",",G110)+1)-FIND(",",G110)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G110,FIND(",",G110,FIND(",",G110)+1)+1,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)-FIND(",",G110,FIND(",",G110)+1)-1)),VLOOKUP(TRIM(MID(G110,FIND(",",G110,FIND(",",G110)+1)+1,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)-FIND(",",G110,FIND(",",G110)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G110,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G110,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I110" t="s">
+        <v>28</v>
+      </c>
+      <c r="J110" t="s">
+        <v>32</v>
+      </c>
+      <c r="L110" t="s">
+        <v>34</v>
+      </c>
+      <c r="M110" t="s">
+        <v>118</v>
+      </c>
+      <c r="N110">
+        <v>30</v>
+      </c>
+      <c r="O110">
+        <v>8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>14</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>94</v>
+      </c>
+      <c r="H111" t="str">
+        <f>IF(ISBLANK(G111),"",
+IF(ISERROR(FIND(",",G111)),
+  IF(ISERROR(VLOOKUP(G111,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G111,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G111,FIND(",",G111)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G111,FIND(",",G111)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G111,FIND(",",G111)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G111,LEFT(G111,FIND(",",G111)-1),VLOOKUP(LEFT(G111,FIND(",",G111)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G111,FIND(",",G111)+1,999)),VLOOKUP(TRIM(MID(G111,FIND(",",G111)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G111,FIND(",",G111)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G111,FIND(",",G111)+1,FIND(",",G111,FIND(",",G111)+1)-FIND(",",G111)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G111,FIND(",",G111,FIND(",",G111)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G111,LEFT(G111,FIND(",",G111)-1),VLOOKUP(LEFT(G111,FIND(",",G111)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G111,FIND(",",G111)+1,FIND(",",G111,FIND(",",G111)+1)-FIND(",",G111)-1)),VLOOKUP(TRIM(MID(G111,FIND(",",G111)+1,FIND(",",G111,FIND(",",G111)+1)-FIND(",",G111)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G111,FIND(",",G111,FIND(",",G111)+1)+1,999)),VLOOKUP(TRIM(MID(G111,FIND(",",G111,FIND(",",G111)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G111,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G111,FIND(",",G111)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G111,FIND(",",G111)+1,FIND(",",G111,FIND(",",G111)+1)-FIND(",",G111)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G111,FIND(",",G111,FIND(",",G111)+1)+1,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)-FIND(",",G111,FIND(",",G111)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G111,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G111,LEFT(G111,FIND(",",G111)-1),VLOOKUP(LEFT(G111,FIND(",",G111)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G111,FIND(",",G111)+1,FIND(",",G111,FIND(",",G111)+1)-FIND(",",G111)-1)),VLOOKUP(TRIM(MID(G111,FIND(",",G111)+1,FIND(",",G111,FIND(",",G111)+1)-FIND(",",G111)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G111,FIND(",",G111,FIND(",",G111)+1)+1,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)-FIND(",",G111,FIND(",",G111)+1)-1)),VLOOKUP(TRIM(MID(G111,FIND(",",G111,FIND(",",G111)+1)+1,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)-FIND(",",G111,FIND(",",G111)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G111,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G111,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I111" t="s">
+        <v>28</v>
+      </c>
+      <c r="J111" t="s">
+        <v>32</v>
+      </c>
+      <c r="L111" t="s">
+        <v>34</v>
+      </c>
+      <c r="M111" t="s">
+        <v>119</v>
+      </c>
+      <c r="N111">
+        <v>30</v>
+      </c>
+      <c r="O111">
+        <v>8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F112">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>94</v>
+      </c>
+      <c r="H112" t="str">
+        <f>IF(ISBLANK(G112),"",
+IF(ISERROR(FIND(",",G112)),
+  IF(ISERROR(VLOOKUP(G112,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G112,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G112,FIND(",",G112)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G112,FIND(",",G112)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G112,FIND(",",G112)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G112,LEFT(G112,FIND(",",G112)-1),VLOOKUP(LEFT(G112,FIND(",",G112)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G112,FIND(",",G112)+1,999)),VLOOKUP(TRIM(MID(G112,FIND(",",G112)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G112,FIND(",",G112)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G112,FIND(",",G112)+1,FIND(",",G112,FIND(",",G112)+1)-FIND(",",G112)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G112,FIND(",",G112,FIND(",",G112)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G112,LEFT(G112,FIND(",",G112)-1),VLOOKUP(LEFT(G112,FIND(",",G112)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G112,FIND(",",G112)+1,FIND(",",G112,FIND(",",G112)+1)-FIND(",",G112)-1)),VLOOKUP(TRIM(MID(G112,FIND(",",G112)+1,FIND(",",G112,FIND(",",G112)+1)-FIND(",",G112)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G112,FIND(",",G112,FIND(",",G112)+1)+1,999)),VLOOKUP(TRIM(MID(G112,FIND(",",G112,FIND(",",G112)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G112,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G112,FIND(",",G112)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G112,FIND(",",G112)+1,FIND(",",G112,FIND(",",G112)+1)-FIND(",",G112)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G112,FIND(",",G112,FIND(",",G112)+1)+1,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)-FIND(",",G112,FIND(",",G112)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G112,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G112,LEFT(G112,FIND(",",G112)-1),VLOOKUP(LEFT(G112,FIND(",",G112)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G112,FIND(",",G112)+1,FIND(",",G112,FIND(",",G112)+1)-FIND(",",G112)-1)),VLOOKUP(TRIM(MID(G112,FIND(",",G112)+1,FIND(",",G112,FIND(",",G112)+1)-FIND(",",G112)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G112,FIND(",",G112,FIND(",",G112)+1)+1,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)-FIND(",",G112,FIND(",",G112)+1)-1)),VLOOKUP(TRIM(MID(G112,FIND(",",G112,FIND(",",G112)+1)+1,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)-FIND(",",G112,FIND(",",G112)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G112,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G112,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I112" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" t="s">
+        <v>32</v>
+      </c>
+      <c r="L112" t="s">
+        <v>34</v>
+      </c>
+      <c r="M112" t="s">
+        <v>120</v>
+      </c>
+      <c r="N112">
+        <v>30</v>
+      </c>
+      <c r="O112">
+        <v>10.999000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>16</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F113">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>94</v>
+      </c>
+      <c r="H113" t="str">
+        <f>IF(ISBLANK(G113),"",
+IF(ISERROR(FIND(",",G113)),
+  IF(ISERROR(VLOOKUP(G113,[1]ActorTable!$A:$A,1,0)),"액터없음",
+  VLOOKUP(G113,[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+IF(ISERROR(FIND(",",G113,FIND(",",G113)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G113,FIND(",",G113)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G113,FIND(",",G113)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(G113,LEFT(G113,FIND(",",G113)-1),VLOOKUP(LEFT(G113,FIND(",",G113)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G113,FIND(",",G113)+1,999)),VLOOKUP(TRIM(MID(G113,FIND(",",G113)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G113,FIND(",",G113)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G113,FIND(",",G113)+1,FIND(",",G113,FIND(",",G113)+1)-FIND(",",G113)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G113,FIND(",",G113,FIND(",",G113)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G113,LEFT(G113,FIND(",",G113)-1),VLOOKUP(LEFT(G113,FIND(",",G113)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G113,FIND(",",G113)+1,FIND(",",G113,FIND(",",G113)+1)-FIND(",",G113)-1)),VLOOKUP(TRIM(MID(G113,FIND(",",G113)+1,FIND(",",G113,FIND(",",G113)+1)-FIND(",",G113)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G113,FIND(",",G113,FIND(",",G113)+1)+1,999)),VLOOKUP(TRIM(MID(G113,FIND(",",G113,FIND(",",G113)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+IF(ISERROR(FIND(",",G113,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)+1)),
+  IF(OR(ISERROR(VLOOKUP(LEFT(G113,FIND(",",G113)-1),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G113,FIND(",",G113)+1,FIND(",",G113,FIND(",",G113)+1)-FIND(",",G113)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G113,FIND(",",G113,FIND(",",G113)+1)+1,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)-FIND(",",G113,FIND(",",G113)+1)-1)),[1]ActorTable!$A:$A,1,0)),ISERROR(VLOOKUP(TRIM(MID(G113,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)+1,999)),[1]ActorTable!$A:$A,1,0))),"액터없음",
+  SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G113,LEFT(G113,FIND(",",G113)-1),VLOOKUP(LEFT(G113,FIND(",",G113)-1),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G113,FIND(",",G113)+1,FIND(",",G113,FIND(",",G113)+1)-FIND(",",G113)-1)),VLOOKUP(TRIM(MID(G113,FIND(",",G113)+1,FIND(",",G113,FIND(",",G113)+1)-FIND(",",G113)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G113,FIND(",",G113,FIND(",",G113)+1)+1,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)-FIND(",",G113,FIND(",",G113)+1)-1)),VLOOKUP(TRIM(MID(G113,FIND(",",G113,FIND(",",G113)+1)+1,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)-FIND(",",G113,FIND(",",G113)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
+    TRIM(MID(G113,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G113,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
+)))))</f>
+        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+      </c>
+      <c r="I113" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" t="s">
+        <v>32</v>
+      </c>
+      <c r="L113" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" t="s">
+        <v>121</v>
+      </c>
+      <c r="N113">
+        <v>30</v>
+      </c>
+      <c r="O113">
         <v>10.999000000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="O1:O57" xr:uid="{C242B5F0-CE81-45C6-A9B6-1B075F739F75}"/>
+  <autoFilter ref="O1:O113" xr:uid="{C242B5F0-CE81-45C6-A9B6-1B075F739F75}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6919501-DA05-465A-8D8C-04DA6FF5C2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314DA60F-48E1-4D0C-8CD8-C335AA6C7AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
@@ -350,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor2103, Actor0007, Actor2011, Actor1216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Actor0201, Actor3019, Actor1029, Actor1109, Actor2238</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,6 +525,10 @@
   <si>
     <t>inva_2_16</t>
   </si>
+  <si>
+    <t>Actor2103, Actor0007, Actor2011, Actor1216, Actor1218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1356,10 +1356,10 @@
             <v>0.93799999999999994</v>
           </cell>
           <cell r="O5">
-            <v>0.33724999999999999</v>
+            <v>0.23074999999999998</v>
           </cell>
           <cell r="P5">
-            <v>0.26361708333333334</v>
+            <v>0.18036958333333333</v>
           </cell>
           <cell r="Q5">
             <v>0.88200000000000001</v>
@@ -1368,10 +1368,10 @@
             <v>3</v>
           </cell>
           <cell r="S5">
-            <v>0.79085125000000001</v>
+            <v>0.54110875000000003</v>
           </cell>
           <cell r="T5">
-            <v>0.89665674603174605</v>
+            <v>0.6135019841269842</v>
           </cell>
           <cell r="U5">
             <v>3.5</v>
@@ -13446,7 +13446,13 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>wingLookId|Int</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
@@ -13754,13 +13760,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="51.5" customWidth="1"/>
     <col min="8" max="8" width="22.375" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
@@ -13836,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2">
         <f>IF(ISBLANK(G2),"",
@@ -13905,7 +13911,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3">
         <f>IF(ISBLANK(G3),"",
@@ -13974,7 +13980,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <f>IF(ISBLANK(G4),"",
@@ -14043,7 +14049,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5">
         <f>IF(ISBLANK(G5),"",
@@ -14112,7 +14118,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6">
         <f>IF(ISBLANK(G6),"",
@@ -14181,7 +14187,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7">
         <f>IF(ISBLANK(G7),"",
@@ -14250,7 +14256,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8">
         <f>IF(ISBLANK(G8),"",
@@ -14319,7 +14325,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9">
         <f>IF(ISBLANK(G9),"",
@@ -14388,7 +14394,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10">
         <f>IF(ISBLANK(G10),"",
@@ -14426,7 +14432,7 @@
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>40</v>
@@ -14457,7 +14463,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11">
         <f>IF(ISBLANK(G11),"",
@@ -14495,7 +14501,7 @@
         <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>40</v>
@@ -14526,7 +14532,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12">
         <f>IF(ISBLANK(G12),"",
@@ -14564,7 +14570,7 @@
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>40</v>
@@ -14595,7 +14601,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13">
         <f>IF(ISBLANK(G13),"",
@@ -14633,7 +14639,7 @@
         <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>40</v>
@@ -14664,7 +14670,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14">
         <f>IF(ISBLANK(G14),"",
@@ -14702,7 +14708,7 @@
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>40</v>
@@ -14733,7 +14739,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <f>IF(ISBLANK(G15),"",
@@ -14771,7 +14777,7 @@
         <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>40</v>
@@ -14802,7 +14808,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16">
         <f>IF(ISBLANK(G16),"",
@@ -14840,7 +14846,7 @@
         <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>40</v>
@@ -14871,7 +14877,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17">
         <f>IF(ISBLANK(G17),"",
@@ -14909,7 +14915,7 @@
         <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>40</v>
@@ -15503,7 +15509,7 @@
         <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N26">
         <v>20</v>
@@ -15569,7 +15575,7 @@
         <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N27">
         <v>20</v>
@@ -15635,7 +15641,7 @@
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N28">
         <v>20</v>
@@ -15701,7 +15707,7 @@
         <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N29">
         <v>20</v>
@@ -15767,7 +15773,7 @@
         <v>34</v>
       </c>
       <c r="M30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N30">
         <v>20</v>
@@ -15833,7 +15839,7 @@
         <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N31">
         <v>20</v>
@@ -15899,7 +15905,7 @@
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N32">
         <v>20</v>
@@ -15965,7 +15971,7 @@
         <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -15996,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34">
         <f>IF(ISBLANK(G34),"",
@@ -16062,7 +16068,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35">
         <f>IF(ISBLANK(G35),"",
@@ -16128,7 +16134,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H36">
         <f>IF(ISBLANK(G36),"",
@@ -16194,7 +16200,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37">
         <f>IF(ISBLANK(G37),"",
@@ -16260,7 +16266,7 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H38">
         <f>IF(ISBLANK(G38),"",
@@ -16326,7 +16332,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39">
         <f>IF(ISBLANK(G39),"",
@@ -16392,7 +16398,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H40">
         <f>IF(ISBLANK(G40),"",
@@ -16458,7 +16464,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41">
         <f>IF(ISBLANK(G41),"",
@@ -16524,7 +16530,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42">
         <f>IF(ISBLANK(G42),"",
@@ -16559,7 +16565,7 @@
         <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N42">
         <v>30</v>
@@ -16590,7 +16596,7 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H43">
         <f>IF(ISBLANK(G43),"",
@@ -16625,7 +16631,7 @@
         <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N43">
         <v>30</v>
@@ -16656,7 +16662,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H44">
         <f>IF(ISBLANK(G44),"",
@@ -16691,7 +16697,7 @@
         <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N44">
         <v>30</v>
@@ -16722,7 +16728,7 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45">
         <f>IF(ISBLANK(G45),"",
@@ -16757,7 +16763,7 @@
         <v>34</v>
       </c>
       <c r="M45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N45">
         <v>30</v>
@@ -16788,7 +16794,7 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H46">
         <f>IF(ISBLANK(G46),"",
@@ -16823,7 +16829,7 @@
         <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N46">
         <v>30</v>
@@ -16854,7 +16860,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H47">
         <f>IF(ISBLANK(G47),"",
@@ -16889,7 +16895,7 @@
         <v>34</v>
       </c>
       <c r="M47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N47">
         <v>30</v>
@@ -16920,7 +16926,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H48">
         <f>IF(ISBLANK(G48),"",
@@ -16955,7 +16961,7 @@
         <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N48">
         <v>30</v>
@@ -16986,7 +16992,7 @@
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H49">
         <f>IF(ISBLANK(G49),"",
@@ -17021,7 +17027,7 @@
         <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N49">
         <v>30</v>
@@ -17052,9 +17058,9 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>95</v>
-      </c>
-      <c r="H50" t="str">
+        <v>153</v>
+      </c>
+      <c r="H50">
         <f>IF(ISBLANK(G50),"",
 IF(ISERROR(FIND(",",G50)),
   IF(ISERROR(VLOOKUP(G50,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17075,7 +17081,7 @@
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50)+1)+1,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)-FIND(",",G50,FIND(",",G50)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G50,FIND(",",G50,FIND(",",G50,FIND(",",G50)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I50" t="s">
         <v>25</v>
@@ -17121,9 +17127,9 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
-      </c>
-      <c r="H51" t="str">
+        <v>153</v>
+      </c>
+      <c r="H51">
         <f>IF(ISBLANK(G51),"",
 IF(ISERROR(FIND(",",G51)),
   IF(ISERROR(VLOOKUP(G51,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17144,7 +17150,7 @@
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51)+1)+1,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)-FIND(",",G51,FIND(",",G51)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G51,FIND(",",G51,FIND(",",G51,FIND(",",G51)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
@@ -17190,9 +17196,9 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
-      </c>
-      <c r="H52" t="str">
+        <v>153</v>
+      </c>
+      <c r="H52">
         <f>IF(ISBLANK(G52),"",
 IF(ISERROR(FIND(",",G52)),
   IF(ISERROR(VLOOKUP(G52,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17213,7 +17219,7 @@
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52)+1)+1,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)-FIND(",",G52,FIND(",",G52)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G52,FIND(",",G52,FIND(",",G52,FIND(",",G52)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
@@ -17259,9 +17265,9 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
-      </c>
-      <c r="H53" t="str">
+        <v>153</v>
+      </c>
+      <c r="H53">
         <f>IF(ISBLANK(G53),"",
 IF(ISERROR(FIND(",",G53)),
   IF(ISERROR(VLOOKUP(G53,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17282,7 +17288,7 @@
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53)+1)+1,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)-FIND(",",G53,FIND(",",G53)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G53,FIND(",",G53,FIND(",",G53,FIND(",",G53)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
@@ -17328,9 +17334,9 @@
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
-      </c>
-      <c r="H54" t="str">
+        <v>153</v>
+      </c>
+      <c r="H54">
         <f>IF(ISBLANK(G54),"",
 IF(ISERROR(FIND(",",G54)),
   IF(ISERROR(VLOOKUP(G54,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17351,7 +17357,7 @@
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54)+1)+1,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)-FIND(",",G54,FIND(",",G54)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G54,FIND(",",G54,FIND(",",G54,FIND(",",G54)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -17397,9 +17403,9 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" t="str">
+        <v>153</v>
+      </c>
+      <c r="H55">
         <f>IF(ISBLANK(G55),"",
 IF(ISERROR(FIND(",",G55)),
   IF(ISERROR(VLOOKUP(G55,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17420,7 +17426,7 @@
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55)+1)+1,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)-FIND(",",G55,FIND(",",G55)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G55,FIND(",",G55,FIND(",",G55,FIND(",",G55)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -17466,9 +17472,9 @@
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>95</v>
-      </c>
-      <c r="H56" t="str">
+        <v>153</v>
+      </c>
+      <c r="H56">
         <f>IF(ISBLANK(G56),"",
 IF(ISERROR(FIND(",",G56)),
   IF(ISERROR(VLOOKUP(G56,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17489,7 +17495,7 @@
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56)+1)+1,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)-FIND(",",G56,FIND(",",G56)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G56,FIND(",",G56,FIND(",",G56,FIND(",",G56)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -17535,9 +17541,9 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
-      </c>
-      <c r="H57" t="str">
+        <v>153</v>
+      </c>
+      <c r="H57">
         <f>IF(ISBLANK(G57),"",
 IF(ISERROR(FIND(",",G57)),
   IF(ISERROR(VLOOKUP(G57,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17558,7 +17564,7 @@
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57)+1)+1,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)-FIND(",",G57,FIND(",",G57)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G57,FIND(",",G57,FIND(",",G57,FIND(",",G57)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -17604,9 +17610,9 @@
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
-      </c>
-      <c r="H58" t="str">
+        <v>153</v>
+      </c>
+      <c r="H58">
         <f>IF(ISBLANK(G58),"",
 IF(ISERROR(FIND(",",G58)),
   IF(ISERROR(VLOOKUP(G58,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17627,7 +17633,7 @@
     TRIM(MID(G58,FIND(",",G58,FIND(",",G58)+1)+1,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)-FIND(",",G58,FIND(",",G58)+1)-1)),VLOOKUP(TRIM(MID(G58,FIND(",",G58,FIND(",",G58)+1)+1,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)-FIND(",",G58,FIND(",",G58)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G58,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G58,FIND(",",G58,FIND(",",G58,FIND(",",G58)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
@@ -17642,7 +17648,7 @@
         <v>34</v>
       </c>
       <c r="M58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N58">
         <v>40</v>
@@ -17673,9 +17679,9 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" t="str">
+        <v>153</v>
+      </c>
+      <c r="H59">
         <f>IF(ISBLANK(G59),"",
 IF(ISERROR(FIND(",",G59)),
   IF(ISERROR(VLOOKUP(G59,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17696,7 +17702,7 @@
     TRIM(MID(G59,FIND(",",G59,FIND(",",G59)+1)+1,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)-FIND(",",G59,FIND(",",G59)+1)-1)),VLOOKUP(TRIM(MID(G59,FIND(",",G59,FIND(",",G59)+1)+1,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)-FIND(",",G59,FIND(",",G59)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G59,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G59,FIND(",",G59,FIND(",",G59,FIND(",",G59)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -17711,7 +17717,7 @@
         <v>34</v>
       </c>
       <c r="M59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N59">
         <v>40</v>
@@ -17742,9 +17748,9 @@
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
-      </c>
-      <c r="H60" t="str">
+        <v>153</v>
+      </c>
+      <c r="H60">
         <f>IF(ISBLANK(G60),"",
 IF(ISERROR(FIND(",",G60)),
   IF(ISERROR(VLOOKUP(G60,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17765,7 +17771,7 @@
     TRIM(MID(G60,FIND(",",G60,FIND(",",G60)+1)+1,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)-FIND(",",G60,FIND(",",G60)+1)-1)),VLOOKUP(TRIM(MID(G60,FIND(",",G60,FIND(",",G60)+1)+1,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)-FIND(",",G60,FIND(",",G60)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G60,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G60,FIND(",",G60,FIND(",",G60,FIND(",",G60)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -17780,7 +17786,7 @@
         <v>34</v>
       </c>
       <c r="M60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N60">
         <v>40</v>
@@ -17811,9 +17817,9 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" t="str">
+        <v>153</v>
+      </c>
+      <c r="H61">
         <f>IF(ISBLANK(G61),"",
 IF(ISERROR(FIND(",",G61)),
   IF(ISERROR(VLOOKUP(G61,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17834,7 +17840,7 @@
     TRIM(MID(G61,FIND(",",G61,FIND(",",G61)+1)+1,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)-FIND(",",G61,FIND(",",G61)+1)-1)),VLOOKUP(TRIM(MID(G61,FIND(",",G61,FIND(",",G61)+1)+1,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)-FIND(",",G61,FIND(",",G61)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G61,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G61,FIND(",",G61,FIND(",",G61,FIND(",",G61)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
         <v>25</v>
@@ -17849,7 +17855,7 @@
         <v>34</v>
       </c>
       <c r="M61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N61">
         <v>40</v>
@@ -17880,9 +17886,9 @@
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
-      </c>
-      <c r="H62" t="str">
+        <v>153</v>
+      </c>
+      <c r="H62">
         <f>IF(ISBLANK(G62),"",
 IF(ISERROR(FIND(",",G62)),
   IF(ISERROR(VLOOKUP(G62,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17903,7 +17909,7 @@
     TRIM(MID(G62,FIND(",",G62,FIND(",",G62)+1)+1,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)-FIND(",",G62,FIND(",",G62)+1)-1)),VLOOKUP(TRIM(MID(G62,FIND(",",G62,FIND(",",G62)+1)+1,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)-FIND(",",G62,FIND(",",G62)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G62,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G62,FIND(",",G62,FIND(",",G62,FIND(",",G62)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
         <v>25</v>
@@ -17918,7 +17924,7 @@
         <v>34</v>
       </c>
       <c r="M62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N62">
         <v>40</v>
@@ -17949,9 +17955,9 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H63" t="str">
+        <v>153</v>
+      </c>
+      <c r="H63">
         <f>IF(ISBLANK(G63),"",
 IF(ISERROR(FIND(",",G63)),
   IF(ISERROR(VLOOKUP(G63,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -17972,7 +17978,7 @@
     TRIM(MID(G63,FIND(",",G63,FIND(",",G63)+1)+1,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)-FIND(",",G63,FIND(",",G63)+1)-1)),VLOOKUP(TRIM(MID(G63,FIND(",",G63,FIND(",",G63)+1)+1,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)-FIND(",",G63,FIND(",",G63)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G63,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G63,FIND(",",G63,FIND(",",G63,FIND(",",G63)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
         <v>25</v>
@@ -17987,7 +17993,7 @@
         <v>34</v>
       </c>
       <c r="M63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N63">
         <v>40</v>
@@ -18018,9 +18024,9 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
-      </c>
-      <c r="H64" t="str">
+        <v>153</v>
+      </c>
+      <c r="H64">
         <f>IF(ISBLANK(G64),"",
 IF(ISERROR(FIND(",",G64)),
   IF(ISERROR(VLOOKUP(G64,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -18041,7 +18047,7 @@
     TRIM(MID(G64,FIND(",",G64,FIND(",",G64)+1)+1,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)-FIND(",",G64,FIND(",",G64)+1)-1)),VLOOKUP(TRIM(MID(G64,FIND(",",G64,FIND(",",G64)+1)+1,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)-FIND(",",G64,FIND(",",G64)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G64,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G64,FIND(",",G64,FIND(",",G64,FIND(",",G64)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
         <v>25</v>
@@ -18056,7 +18062,7 @@
         <v>34</v>
       </c>
       <c r="M64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N64">
         <v>40</v>
@@ -18087,9 +18093,9 @@
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
-      </c>
-      <c r="H65" t="str">
+        <v>153</v>
+      </c>
+      <c r="H65">
         <f>IF(ISBLANK(G65),"",
 IF(ISERROR(FIND(",",G65)),
   IF(ISERROR(VLOOKUP(G65,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -18110,7 +18116,7 @@
     TRIM(MID(G65,FIND(",",G65,FIND(",",G65)+1)+1,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)-FIND(",",G65,FIND(",",G65)+1)-1)),VLOOKUP(TRIM(MID(G65,FIND(",",G65,FIND(",",G65)+1)+1,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)-FIND(",",G65,FIND(",",G65)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G65,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G65,FIND(",",G65,FIND(",",G65,FIND(",",G65)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, EarthMage, SuperHero, SteampunkRobot</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
         <v>25</v>
@@ -18125,7 +18131,7 @@
         <v>34</v>
       </c>
       <c r="M65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N65">
         <v>40</v>
@@ -18719,7 +18725,7 @@
         <v>34</v>
       </c>
       <c r="M74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N74">
         <v>30</v>
@@ -18785,7 +18791,7 @@
         <v>34</v>
       </c>
       <c r="M75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N75">
         <v>30</v>
@@ -18851,7 +18857,7 @@
         <v>34</v>
       </c>
       <c r="M76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N76">
         <v>30</v>
@@ -18917,7 +18923,7 @@
         <v>34</v>
       </c>
       <c r="M77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N77">
         <v>30</v>
@@ -18983,7 +18989,7 @@
         <v>34</v>
       </c>
       <c r="M78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N78">
         <v>30</v>
@@ -19049,7 +19055,7 @@
         <v>34</v>
       </c>
       <c r="M79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N79">
         <v>30</v>
@@ -19115,7 +19121,7 @@
         <v>34</v>
       </c>
       <c r="M80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N80">
         <v>30</v>
@@ -19181,7 +19187,7 @@
         <v>34</v>
       </c>
       <c r="M81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N81">
         <v>30</v>
@@ -19775,7 +19781,7 @@
         <v>34</v>
       </c>
       <c r="M90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N90">
         <v>20</v>
@@ -19841,7 +19847,7 @@
         <v>34</v>
       </c>
       <c r="M91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N91">
         <v>20</v>
@@ -19907,7 +19913,7 @@
         <v>34</v>
       </c>
       <c r="M92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N92">
         <v>20</v>
@@ -19973,7 +19979,7 @@
         <v>34</v>
       </c>
       <c r="M93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N93">
         <v>20</v>
@@ -20039,7 +20045,7 @@
         <v>34</v>
       </c>
       <c r="M94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N94">
         <v>20</v>
@@ -20105,7 +20111,7 @@
         <v>34</v>
       </c>
       <c r="M95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N95">
         <v>20</v>
@@ -20171,7 +20177,7 @@
         <v>34</v>
       </c>
       <c r="M96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N96">
         <v>20</v>
@@ -20237,7 +20243,7 @@
         <v>34</v>
       </c>
       <c r="M97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N97">
         <v>20</v>
@@ -20719,7 +20725,7 @@
         <v>8</v>
       </c>
       <c r="D105">
-        <f t="shared" ref="D66:D105" si="3">1000+A105*100</f>
+        <f t="shared" ref="D105" si="3">1000+A105*100</f>
         <v>1600</v>
       </c>
       <c r="E105">
@@ -20831,7 +20837,7 @@
         <v>34</v>
       </c>
       <c r="M106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N106">
         <v>30</v>
@@ -20897,7 +20903,7 @@
         <v>34</v>
       </c>
       <c r="M107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N107">
         <v>30</v>
@@ -20963,7 +20969,7 @@
         <v>34</v>
       </c>
       <c r="M108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N108">
         <v>30</v>
@@ -21029,7 +21035,7 @@
         <v>34</v>
       </c>
       <c r="M109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N109">
         <v>30</v>
@@ -21095,7 +21101,7 @@
         <v>34</v>
       </c>
       <c r="M110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N110">
         <v>30</v>
@@ -21161,7 +21167,7 @@
         <v>34</v>
       </c>
       <c r="M111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N111">
         <v>30</v>
@@ -21227,7 +21233,7 @@
         <v>34</v>
       </c>
       <c r="M112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N112">
         <v>30</v>
@@ -21293,7 +21299,7 @@
         <v>34</v>
       </c>
       <c r="M113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N113">
         <v>30</v>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314DA60F-48E1-4D0C-8CD8-C335AA6C7AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D5173F-81C3-45CA-A2E1-75E3A0BAF5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InvasionTable!$O$1:$O$113</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -155,10 +158,6 @@
   </si>
   <si>
     <t>bc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor2103, Actor0030, Actor3022, Actor3114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Actor0201, Actor3019, Actor1029, Actor1109, Actor2238</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,6 +524,14 @@
     <t>Actor2103, Actor0007, Actor2011, Actor1216, Actor1218</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Actor1005, Actor0037, Actor1039, Actor1108, Actor3117, Actor2235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2103, Actor0030, Actor3022, Actor3114, Actor3212, Actor0236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -13446,13 +13449,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>wingLookId|Int</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
@@ -13756,11 +13753,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F99DA2-EABB-4D74-8370-957E4E392B1E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -13814,7 +13812,7 @@
         <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
         <v>19</v>
@@ -13842,7 +13840,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <f>IF(ISBLANK(G2),"",
@@ -13877,10 +13875,10 @@
         <v>30</v>
       </c>
       <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
         <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
       </c>
       <c r="N2">
         <v>40</v>
@@ -13911,7 +13909,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H3">
         <f>IF(ISBLANK(G3),"",
@@ -13946,10 +13944,10 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3">
         <v>40</v>
@@ -13980,7 +13978,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <f>IF(ISBLANK(G4),"",
@@ -14015,10 +14013,10 @@
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>40</v>
@@ -14049,7 +14047,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5">
         <f>IF(ISBLANK(G5),"",
@@ -14084,10 +14082,10 @@
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5">
         <v>40</v>
@@ -14118,7 +14116,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <f>IF(ISBLANK(G6),"",
@@ -14153,10 +14151,10 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>40</v>
@@ -14187,7 +14185,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7">
         <f>IF(ISBLANK(G7),"",
@@ -14222,10 +14220,10 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>40</v>
@@ -14256,7 +14254,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8">
         <f>IF(ISBLANK(G8),"",
@@ -14291,10 +14289,10 @@
         <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>40</v>
@@ -14325,7 +14323,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H9">
         <f>IF(ISBLANK(G9),"",
@@ -14360,10 +14358,10 @@
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>40</v>
@@ -14394,7 +14392,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H10">
         <f>IF(ISBLANK(G10),"",
@@ -14429,10 +14427,10 @@
         <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>40</v>
@@ -14441,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -14463,7 +14461,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H11">
         <f>IF(ISBLANK(G11),"",
@@ -14498,10 +14496,10 @@
         <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>40</v>
@@ -14510,7 +14508,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -14532,7 +14530,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H12">
         <f>IF(ISBLANK(G12),"",
@@ -14567,10 +14565,10 @@
         <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>40</v>
@@ -14579,7 +14577,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -14601,7 +14599,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H13">
         <f>IF(ISBLANK(G13),"",
@@ -14636,10 +14634,10 @@
         <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>40</v>
@@ -14648,7 +14646,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -14670,7 +14668,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14">
         <f>IF(ISBLANK(G14),"",
@@ -14705,10 +14703,10 @@
         <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>40</v>
@@ -14717,7 +14715,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -14739,7 +14737,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H15">
         <f>IF(ISBLANK(G15),"",
@@ -14774,10 +14772,10 @@
         <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>40</v>
@@ -14786,7 +14784,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -14808,7 +14806,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H16">
         <f>IF(ISBLANK(G16),"",
@@ -14843,10 +14841,10 @@
         <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N16">
         <v>40</v>
@@ -14855,7 +14853,7 @@
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -14877,7 +14875,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17">
         <f>IF(ISBLANK(G17),"",
@@ -14912,10 +14910,10 @@
         <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>40</v>
@@ -14946,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18">
         <f>IF(ISBLANK(G18),"",
@@ -14978,10 +14976,10 @@
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>20</v>
@@ -15012,7 +15010,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19">
         <f>IF(ISBLANK(G19),"",
@@ -15044,10 +15042,10 @@
         <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>20</v>
@@ -15078,7 +15076,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20">
         <f>IF(ISBLANK(G20),"",
@@ -15110,10 +15108,10 @@
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>20</v>
@@ -15144,7 +15142,7 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H21">
         <f>IF(ISBLANK(G21),"",
@@ -15176,10 +15174,10 @@
         <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>20</v>
@@ -15210,7 +15208,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22">
         <f>IF(ISBLANK(G22),"",
@@ -15242,10 +15240,10 @@
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22">
         <v>20</v>
@@ -15276,7 +15274,7 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23">
         <f>IF(ISBLANK(G23),"",
@@ -15308,10 +15306,10 @@
         <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N23">
         <v>20</v>
@@ -15342,7 +15340,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24">
         <f>IF(ISBLANK(G24),"",
@@ -15374,10 +15372,10 @@
         <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>20</v>
@@ -15408,7 +15406,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <f>IF(ISBLANK(G25),"",
@@ -15440,10 +15438,10 @@
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>20</v>
@@ -15474,7 +15472,7 @@
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26">
         <f>IF(ISBLANK(G26),"",
@@ -15506,10 +15504,10 @@
         <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N26">
         <v>20</v>
@@ -15518,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -15540,7 +15538,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27">
         <f>IF(ISBLANK(G27),"",
@@ -15572,10 +15570,10 @@
         <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N27">
         <v>20</v>
@@ -15584,7 +15582,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -15606,7 +15604,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28">
         <f>IF(ISBLANK(G28),"",
@@ -15638,10 +15636,10 @@
         <v>31</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N28">
         <v>20</v>
@@ -15650,7 +15648,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -15672,7 +15670,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29">
         <f>IF(ISBLANK(G29),"",
@@ -15704,10 +15702,10 @@
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N29">
         <v>20</v>
@@ -15716,7 +15714,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -15738,7 +15736,7 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30">
         <f>IF(ISBLANK(G30),"",
@@ -15770,10 +15768,10 @@
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N30">
         <v>20</v>
@@ -15782,7 +15780,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -15804,7 +15802,7 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31">
         <f>IF(ISBLANK(G31),"",
@@ -15836,10 +15834,10 @@
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N31">
         <v>20</v>
@@ -15848,7 +15846,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -15870,7 +15868,7 @@
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32">
         <f>IF(ISBLANK(G32),"",
@@ -15902,10 +15900,10 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N32">
         <v>20</v>
@@ -15914,7 +15912,7 @@
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -15936,7 +15934,7 @@
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33">
         <f>IF(ISBLANK(G33),"",
@@ -15968,10 +15966,10 @@
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -16002,7 +16000,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H34">
         <f>IF(ISBLANK(G34),"",
@@ -16034,10 +16032,10 @@
         <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N34">
         <v>30</v>
@@ -16068,7 +16066,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H35">
         <f>IF(ISBLANK(G35),"",
@@ -16100,10 +16098,10 @@
         <v>32</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N35">
         <v>30</v>
@@ -16134,7 +16132,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H36">
         <f>IF(ISBLANK(G36),"",
@@ -16166,10 +16164,10 @@
         <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N36">
         <v>30</v>
@@ -16200,7 +16198,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H37">
         <f>IF(ISBLANK(G37),"",
@@ -16232,10 +16230,10 @@
         <v>32</v>
       </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N37">
         <v>30</v>
@@ -16266,7 +16264,7 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H38">
         <f>IF(ISBLANK(G38),"",
@@ -16298,10 +16296,10 @@
         <v>32</v>
       </c>
       <c r="L38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N38">
         <v>30</v>
@@ -16332,7 +16330,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H39">
         <f>IF(ISBLANK(G39),"",
@@ -16364,10 +16362,10 @@
         <v>32</v>
       </c>
       <c r="L39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N39">
         <v>30</v>
@@ -16398,7 +16396,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H40">
         <f>IF(ISBLANK(G40),"",
@@ -16430,10 +16428,10 @@
         <v>32</v>
       </c>
       <c r="L40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N40">
         <v>30</v>
@@ -16464,7 +16462,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H41">
         <f>IF(ISBLANK(G41),"",
@@ -16496,10 +16494,10 @@
         <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N41">
         <v>30</v>
@@ -16530,7 +16528,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H42">
         <f>IF(ISBLANK(G42),"",
@@ -16562,10 +16560,10 @@
         <v>32</v>
       </c>
       <c r="L42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N42">
         <v>30</v>
@@ -16574,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -16596,7 +16594,7 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H43">
         <f>IF(ISBLANK(G43),"",
@@ -16628,10 +16626,10 @@
         <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N43">
         <v>30</v>
@@ -16640,7 +16638,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -16662,7 +16660,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H44">
         <f>IF(ISBLANK(G44),"",
@@ -16694,10 +16692,10 @@
         <v>32</v>
       </c>
       <c r="L44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N44">
         <v>30</v>
@@ -16706,7 +16704,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -16728,7 +16726,7 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H45">
         <f>IF(ISBLANK(G45),"",
@@ -16760,10 +16758,10 @@
         <v>32</v>
       </c>
       <c r="L45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N45">
         <v>30</v>
@@ -16772,7 +16770,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -16794,7 +16792,7 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H46">
         <f>IF(ISBLANK(G46),"",
@@ -16826,10 +16824,10 @@
         <v>32</v>
       </c>
       <c r="L46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N46">
         <v>30</v>
@@ -16838,7 +16836,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -16860,7 +16858,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H47">
         <f>IF(ISBLANK(G47),"",
@@ -16892,10 +16890,10 @@
         <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N47">
         <v>30</v>
@@ -16904,7 +16902,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -16926,7 +16924,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H48">
         <f>IF(ISBLANK(G48),"",
@@ -16958,10 +16956,10 @@
         <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N48">
         <v>30</v>
@@ -16970,7 +16968,7 @@
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -16992,7 +16990,7 @@
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H49">
         <f>IF(ISBLANK(G49),"",
@@ -17024,10 +17022,10 @@
         <v>32</v>
       </c>
       <c r="L49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N49">
         <v>30</v>
@@ -17058,7 +17056,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H50">
         <f>IF(ISBLANK(G50),"",
@@ -17093,10 +17091,10 @@
         <v>4</v>
       </c>
       <c r="L50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N50">
         <v>40</v>
@@ -17127,7 +17125,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H51">
         <f>IF(ISBLANK(G51),"",
@@ -17162,10 +17160,10 @@
         <v>4</v>
       </c>
       <c r="L51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N51">
         <v>40</v>
@@ -17196,7 +17194,7 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H52">
         <f>IF(ISBLANK(G52),"",
@@ -17231,10 +17229,10 @@
         <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N52">
         <v>40</v>
@@ -17265,7 +17263,7 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H53">
         <f>IF(ISBLANK(G53),"",
@@ -17300,10 +17298,10 @@
         <v>4</v>
       </c>
       <c r="L53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N53">
         <v>40</v>
@@ -17334,7 +17332,7 @@
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H54">
         <f>IF(ISBLANK(G54),"",
@@ -17369,10 +17367,10 @@
         <v>4</v>
       </c>
       <c r="L54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N54">
         <v>40</v>
@@ -17403,7 +17401,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H55">
         <f>IF(ISBLANK(G55),"",
@@ -17438,10 +17436,10 @@
         <v>4</v>
       </c>
       <c r="L55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N55">
         <v>40</v>
@@ -17472,7 +17470,7 @@
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H56">
         <f>IF(ISBLANK(G56),"",
@@ -17507,10 +17505,10 @@
         <v>4</v>
       </c>
       <c r="L56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N56">
         <v>40</v>
@@ -17541,7 +17539,7 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H57">
         <f>IF(ISBLANK(G57),"",
@@ -17576,10 +17574,10 @@
         <v>4</v>
       </c>
       <c r="L57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N57">
         <v>40</v>
@@ -17610,7 +17608,7 @@
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H58">
         <f>IF(ISBLANK(G58),"",
@@ -17645,10 +17643,10 @@
         <v>4</v>
       </c>
       <c r="L58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N58">
         <v>40</v>
@@ -17657,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -17679,7 +17677,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H59">
         <f>IF(ISBLANK(G59),"",
@@ -17714,10 +17712,10 @@
         <v>4</v>
       </c>
       <c r="L59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N59">
         <v>40</v>
@@ -17726,7 +17724,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -17748,7 +17746,7 @@
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H60">
         <f>IF(ISBLANK(G60),"",
@@ -17783,10 +17781,10 @@
         <v>4</v>
       </c>
       <c r="L60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N60">
         <v>40</v>
@@ -17795,7 +17793,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -17817,7 +17815,7 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H61">
         <f>IF(ISBLANK(G61),"",
@@ -17852,10 +17850,10 @@
         <v>4</v>
       </c>
       <c r="L61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N61">
         <v>40</v>
@@ -17864,7 +17862,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -17886,7 +17884,7 @@
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H62">
         <f>IF(ISBLANK(G62),"",
@@ -17921,10 +17919,10 @@
         <v>4</v>
       </c>
       <c r="L62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N62">
         <v>40</v>
@@ -17933,7 +17931,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -17955,7 +17953,7 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H63">
         <f>IF(ISBLANK(G63),"",
@@ -17990,10 +17988,10 @@
         <v>4</v>
       </c>
       <c r="L63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N63">
         <v>40</v>
@@ -18002,7 +18000,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -18024,7 +18022,7 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H64">
         <f>IF(ISBLANK(G64),"",
@@ -18059,10 +18057,10 @@
         <v>4</v>
       </c>
       <c r="L64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N64">
         <v>40</v>
@@ -18071,7 +18069,7 @@
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -18093,7 +18091,7 @@
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H65">
         <f>IF(ISBLANK(G65),"",
@@ -18128,10 +18126,10 @@
         <v>4</v>
       </c>
       <c r="L65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N65">
         <v>40</v>
@@ -18162,7 +18160,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H66">
         <f>IF(ISBLANK(G66),"",
@@ -18194,10 +18192,10 @@
         <v>32</v>
       </c>
       <c r="L66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N66">
         <v>30</v>
@@ -18228,7 +18226,7 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H67">
         <f>IF(ISBLANK(G67),"",
@@ -18260,10 +18258,10 @@
         <v>32</v>
       </c>
       <c r="L67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N67">
         <v>30</v>
@@ -18294,7 +18292,7 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H68">
         <f>IF(ISBLANK(G68),"",
@@ -18326,10 +18324,10 @@
         <v>32</v>
       </c>
       <c r="L68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N68">
         <v>30</v>
@@ -18360,7 +18358,7 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H69">
         <f>IF(ISBLANK(G69),"",
@@ -18392,10 +18390,10 @@
         <v>32</v>
       </c>
       <c r="L69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N69">
         <v>30</v>
@@ -18426,7 +18424,7 @@
         <v>5</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H70">
         <f>IF(ISBLANK(G70),"",
@@ -18458,10 +18456,10 @@
         <v>32</v>
       </c>
       <c r="L70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N70">
         <v>30</v>
@@ -18492,7 +18490,7 @@
         <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H71">
         <f>IF(ISBLANK(G71),"",
@@ -18524,10 +18522,10 @@
         <v>32</v>
       </c>
       <c r="L71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N71">
         <v>30</v>
@@ -18558,7 +18556,7 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H72">
         <f>IF(ISBLANK(G72),"",
@@ -18590,10 +18588,10 @@
         <v>32</v>
       </c>
       <c r="L72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N72">
         <v>30</v>
@@ -18624,7 +18622,7 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H73">
         <f>IF(ISBLANK(G73),"",
@@ -18656,10 +18654,10 @@
         <v>32</v>
       </c>
       <c r="L73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N73">
         <v>30</v>
@@ -18690,7 +18688,7 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H74">
         <f>IF(ISBLANK(G74),"",
@@ -18722,10 +18720,10 @@
         <v>32</v>
       </c>
       <c r="L74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N74">
         <v>30</v>
@@ -18734,7 +18732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -18756,7 +18754,7 @@
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H75">
         <f>IF(ISBLANK(G75),"",
@@ -18788,10 +18786,10 @@
         <v>32</v>
       </c>
       <c r="L75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N75">
         <v>30</v>
@@ -18800,7 +18798,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -18822,7 +18820,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H76">
         <f>IF(ISBLANK(G76),"",
@@ -18854,10 +18852,10 @@
         <v>32</v>
       </c>
       <c r="L76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N76">
         <v>30</v>
@@ -18866,7 +18864,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -18888,7 +18886,7 @@
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H77">
         <f>IF(ISBLANK(G77),"",
@@ -18920,10 +18918,10 @@
         <v>32</v>
       </c>
       <c r="L77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N77">
         <v>30</v>
@@ -18932,7 +18930,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -18954,7 +18952,7 @@
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H78">
         <f>IF(ISBLANK(G78),"",
@@ -18986,10 +18984,10 @@
         <v>32</v>
       </c>
       <c r="L78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N78">
         <v>30</v>
@@ -18998,7 +18996,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -19020,7 +19018,7 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H79">
         <f>IF(ISBLANK(G79),"",
@@ -19052,10 +19050,10 @@
         <v>32</v>
       </c>
       <c r="L79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N79">
         <v>30</v>
@@ -19064,7 +19062,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -19086,7 +19084,7 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H80">
         <f>IF(ISBLANK(G80),"",
@@ -19118,10 +19116,10 @@
         <v>32</v>
       </c>
       <c r="L80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M80" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N80">
         <v>30</v>
@@ -19130,7 +19128,7 @@
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -19152,7 +19150,7 @@
         <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H81">
         <f>IF(ISBLANK(G81),"",
@@ -19184,10 +19182,10 @@
         <v>32</v>
       </c>
       <c r="L81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N81">
         <v>30</v>
@@ -19218,7 +19216,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H82" t="str">
         <f>IF(ISBLANK(G82),"",
@@ -19250,10 +19248,10 @@
         <v>31</v>
       </c>
       <c r="L82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N82">
         <v>20</v>
@@ -19284,7 +19282,7 @@
         <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H83" t="str">
         <f>IF(ISBLANK(G83),"",
@@ -19316,10 +19314,10 @@
         <v>31</v>
       </c>
       <c r="L83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N83">
         <v>20</v>
@@ -19350,7 +19348,7 @@
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H84" t="str">
         <f>IF(ISBLANK(G84),"",
@@ -19382,10 +19380,10 @@
         <v>31</v>
       </c>
       <c r="L84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N84">
         <v>20</v>
@@ -19416,7 +19414,7 @@
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H85" t="str">
         <f>IF(ISBLANK(G85),"",
@@ -19448,10 +19446,10 @@
         <v>31</v>
       </c>
       <c r="L85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N85">
         <v>20</v>
@@ -19482,7 +19480,7 @@
         <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H86" t="str">
         <f>IF(ISBLANK(G86),"",
@@ -19514,10 +19512,10 @@
         <v>31</v>
       </c>
       <c r="L86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N86">
         <v>20</v>
@@ -19548,7 +19546,7 @@
         <v>6</v>
       </c>
       <c r="G87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H87" t="str">
         <f>IF(ISBLANK(G87),"",
@@ -19580,10 +19578,10 @@
         <v>31</v>
       </c>
       <c r="L87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N87">
         <v>20</v>
@@ -19614,7 +19612,7 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H88" t="str">
         <f>IF(ISBLANK(G88),"",
@@ -19646,10 +19644,10 @@
         <v>31</v>
       </c>
       <c r="L88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N88">
         <v>20</v>
@@ -19680,7 +19678,7 @@
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H89" t="str">
         <f>IF(ISBLANK(G89),"",
@@ -19712,10 +19710,10 @@
         <v>31</v>
       </c>
       <c r="L89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N89">
         <v>20</v>
@@ -19746,7 +19744,7 @@
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" t="str">
         <f>IF(ISBLANK(G90),"",
@@ -19778,10 +19776,10 @@
         <v>31</v>
       </c>
       <c r="L90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N90">
         <v>20</v>
@@ -19790,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5</v>
       </c>
@@ -19812,7 +19810,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H91" t="str">
         <f>IF(ISBLANK(G91),"",
@@ -19844,10 +19842,10 @@
         <v>31</v>
       </c>
       <c r="L91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N91">
         <v>20</v>
@@ -19856,7 +19854,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5</v>
       </c>
@@ -19878,7 +19876,7 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H92" t="str">
         <f>IF(ISBLANK(G92),"",
@@ -19910,10 +19908,10 @@
         <v>31</v>
       </c>
       <c r="L92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N92">
         <v>20</v>
@@ -19922,7 +19920,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5</v>
       </c>
@@ -19944,7 +19942,7 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H93" t="str">
         <f>IF(ISBLANK(G93),"",
@@ -19976,10 +19974,10 @@
         <v>31</v>
       </c>
       <c r="L93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M93" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N93">
         <v>20</v>
@@ -19988,7 +19986,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5</v>
       </c>
@@ -20010,7 +20008,7 @@
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H94" t="str">
         <f>IF(ISBLANK(G94),"",
@@ -20042,10 +20040,10 @@
         <v>31</v>
       </c>
       <c r="L94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N94">
         <v>20</v>
@@ -20054,7 +20052,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -20076,7 +20074,7 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H95" t="str">
         <f>IF(ISBLANK(G95),"",
@@ -20108,10 +20106,10 @@
         <v>31</v>
       </c>
       <c r="L95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N95">
         <v>20</v>
@@ -20120,7 +20118,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -20142,7 +20140,7 @@
         <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H96" t="str">
         <f>IF(ISBLANK(G96),"",
@@ -20174,10 +20172,10 @@
         <v>31</v>
       </c>
       <c r="L96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N96">
         <v>20</v>
@@ -20186,7 +20184,7 @@
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5</v>
       </c>
@@ -20208,7 +20206,7 @@
         <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H97" t="str">
         <f>IF(ISBLANK(G97),"",
@@ -20240,10 +20238,10 @@
         <v>31</v>
       </c>
       <c r="L97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M97" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N97">
         <v>20</v>
@@ -20274,9 +20272,9 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>94</v>
-      </c>
-      <c r="H98" t="str">
+        <v>153</v>
+      </c>
+      <c r="H98">
         <f>IF(ISBLANK(G98),"",
 IF(ISERROR(FIND(",",G98)),
   IF(ISERROR(VLOOKUP(G98,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20297,7 +20295,7 @@
     TRIM(MID(G98,FIND(",",G98,FIND(",",G98)+1)+1,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)-FIND(",",G98,FIND(",",G98)+1)-1)),VLOOKUP(TRIM(MID(G98,FIND(",",G98,FIND(",",G98)+1)+1,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)-FIND(",",G98,FIND(",",G98)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G98,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G98,FIND(",",G98,FIND(",",G98,FIND(",",G98)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>28</v>
@@ -20306,10 +20304,10 @@
         <v>32</v>
       </c>
       <c r="L98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N98">
         <v>30</v>
@@ -20340,9 +20338,9 @@
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>94</v>
-      </c>
-      <c r="H99" t="str">
+        <v>153</v>
+      </c>
+      <c r="H99">
         <f>IF(ISBLANK(G99),"",
 IF(ISERROR(FIND(",",G99)),
   IF(ISERROR(VLOOKUP(G99,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20363,7 +20361,7 @@
     TRIM(MID(G99,FIND(",",G99,FIND(",",G99)+1)+1,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)-FIND(",",G99,FIND(",",G99)+1)-1)),VLOOKUP(TRIM(MID(G99,FIND(",",G99,FIND(",",G99)+1)+1,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)-FIND(",",G99,FIND(",",G99)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G99,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G99,FIND(",",G99,FIND(",",G99,FIND(",",G99)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
         <v>28</v>
@@ -20372,10 +20370,10 @@
         <v>32</v>
       </c>
       <c r="L99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N99">
         <v>30</v>
@@ -20406,9 +20404,9 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>94</v>
-      </c>
-      <c r="H100" t="str">
+        <v>153</v>
+      </c>
+      <c r="H100">
         <f>IF(ISBLANK(G100),"",
 IF(ISERROR(FIND(",",G100)),
   IF(ISERROR(VLOOKUP(G100,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20429,7 +20427,7 @@
     TRIM(MID(G100,FIND(",",G100,FIND(",",G100)+1)+1,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)-FIND(",",G100,FIND(",",G100)+1)-1)),VLOOKUP(TRIM(MID(G100,FIND(",",G100,FIND(",",G100)+1)+1,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)-FIND(",",G100,FIND(",",G100)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G100,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G100,FIND(",",G100,FIND(",",G100,FIND(",",G100)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
         <v>28</v>
@@ -20438,10 +20436,10 @@
         <v>32</v>
       </c>
       <c r="L100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N100">
         <v>30</v>
@@ -20472,9 +20470,9 @@
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>94</v>
-      </c>
-      <c r="H101" t="str">
+        <v>153</v>
+      </c>
+      <c r="H101">
         <f>IF(ISBLANK(G101),"",
 IF(ISERROR(FIND(",",G101)),
   IF(ISERROR(VLOOKUP(G101,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20495,7 +20493,7 @@
     TRIM(MID(G101,FIND(",",G101,FIND(",",G101)+1)+1,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)-FIND(",",G101,FIND(",",G101)+1)-1)),VLOOKUP(TRIM(MID(G101,FIND(",",G101,FIND(",",G101)+1)+1,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)-FIND(",",G101,FIND(",",G101)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G101,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G101,FIND(",",G101,FIND(",",G101,FIND(",",G101)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
         <v>28</v>
@@ -20504,10 +20502,10 @@
         <v>32</v>
       </c>
       <c r="L101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N101">
         <v>30</v>
@@ -20538,9 +20536,9 @@
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>94</v>
-      </c>
-      <c r="H102" t="str">
+        <v>153</v>
+      </c>
+      <c r="H102">
         <f>IF(ISBLANK(G102),"",
 IF(ISERROR(FIND(",",G102)),
   IF(ISERROR(VLOOKUP(G102,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20561,7 +20559,7 @@
     TRIM(MID(G102,FIND(",",G102,FIND(",",G102)+1)+1,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)-FIND(",",G102,FIND(",",G102)+1)-1)),VLOOKUP(TRIM(MID(G102,FIND(",",G102,FIND(",",G102)+1)+1,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)-FIND(",",G102,FIND(",",G102)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G102,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G102,FIND(",",G102,FIND(",",G102,FIND(",",G102)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
         <v>28</v>
@@ -20570,10 +20568,10 @@
         <v>32</v>
       </c>
       <c r="L102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N102">
         <v>30</v>
@@ -20604,9 +20602,9 @@
         <v>6</v>
       </c>
       <c r="G103" t="s">
-        <v>94</v>
-      </c>
-      <c r="H103" t="str">
+        <v>153</v>
+      </c>
+      <c r="H103">
         <f>IF(ISBLANK(G103),"",
 IF(ISERROR(FIND(",",G103)),
   IF(ISERROR(VLOOKUP(G103,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20627,7 +20625,7 @@
     TRIM(MID(G103,FIND(",",G103,FIND(",",G103)+1)+1,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)-FIND(",",G103,FIND(",",G103)+1)-1)),VLOOKUP(TRIM(MID(G103,FIND(",",G103,FIND(",",G103)+1)+1,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)-FIND(",",G103,FIND(",",G103)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G103,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G103,FIND(",",G103,FIND(",",G103,FIND(",",G103)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
         <v>28</v>
@@ -20636,10 +20634,10 @@
         <v>32</v>
       </c>
       <c r="L103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N103">
         <v>30</v>
@@ -20670,9 +20668,9 @@
         <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>94</v>
-      </c>
-      <c r="H104" t="str">
+        <v>153</v>
+      </c>
+      <c r="H104">
         <f>IF(ISBLANK(G104),"",
 IF(ISERROR(FIND(",",G104)),
   IF(ISERROR(VLOOKUP(G104,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20693,7 +20691,7 @@
     TRIM(MID(G104,FIND(",",G104,FIND(",",G104)+1)+1,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)-FIND(",",G104,FIND(",",G104)+1)-1)),VLOOKUP(TRIM(MID(G104,FIND(",",G104,FIND(",",G104)+1)+1,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)-FIND(",",G104,FIND(",",G104)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G104,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G104,FIND(",",G104,FIND(",",G104,FIND(",",G104)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>28</v>
@@ -20702,10 +20700,10 @@
         <v>32</v>
       </c>
       <c r="L104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N104">
         <v>30</v>
@@ -20736,9 +20734,9 @@
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>94</v>
-      </c>
-      <c r="H105" t="str">
+        <v>153</v>
+      </c>
+      <c r="H105">
         <f>IF(ISBLANK(G105),"",
 IF(ISERROR(FIND(",",G105)),
   IF(ISERROR(VLOOKUP(G105,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20759,7 +20757,7 @@
     TRIM(MID(G105,FIND(",",G105,FIND(",",G105)+1)+1,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)-FIND(",",G105,FIND(",",G105)+1)-1)),VLOOKUP(TRIM(MID(G105,FIND(",",G105,FIND(",",G105)+1)+1,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)-FIND(",",G105,FIND(",",G105)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G105,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G105,FIND(",",G105,FIND(",",G105,FIND(",",G105)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
         <v>28</v>
@@ -20768,10 +20766,10 @@
         <v>32</v>
       </c>
       <c r="L105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N105">
         <v>30</v>
@@ -20802,9 +20800,9 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>94</v>
-      </c>
-      <c r="H106" t="str">
+        <v>153</v>
+      </c>
+      <c r="H106">
         <f>IF(ISBLANK(G106),"",
 IF(ISERROR(FIND(",",G106)),
   IF(ISERROR(VLOOKUP(G106,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20825,7 +20823,7 @@
     TRIM(MID(G106,FIND(",",G106,FIND(",",G106)+1)+1,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)-FIND(",",G106,FIND(",",G106)+1)-1)),VLOOKUP(TRIM(MID(G106,FIND(",",G106,FIND(",",G106)+1)+1,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)-FIND(",",G106,FIND(",",G106)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G106,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G106,FIND(",",G106,FIND(",",G106,FIND(",",G106)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
         <v>28</v>
@@ -20834,10 +20832,10 @@
         <v>32</v>
       </c>
       <c r="L106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M106" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N106">
         <v>30</v>
@@ -20846,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6</v>
       </c>
@@ -20868,9 +20866,9 @@
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>94</v>
-      </c>
-      <c r="H107" t="str">
+        <v>153</v>
+      </c>
+      <c r="H107">
         <f>IF(ISBLANK(G107),"",
 IF(ISERROR(FIND(",",G107)),
   IF(ISERROR(VLOOKUP(G107,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20891,7 +20889,7 @@
     TRIM(MID(G107,FIND(",",G107,FIND(",",G107)+1)+1,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)-FIND(",",G107,FIND(",",G107)+1)-1)),VLOOKUP(TRIM(MID(G107,FIND(",",G107,FIND(",",G107)+1)+1,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)-FIND(",",G107,FIND(",",G107)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G107,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G107,FIND(",",G107,FIND(",",G107,FIND(",",G107)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I107" t="s">
         <v>28</v>
@@ -20900,10 +20898,10 @@
         <v>32</v>
       </c>
       <c r="L107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N107">
         <v>30</v>
@@ -20912,7 +20910,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>6</v>
       </c>
@@ -20934,9 +20932,9 @@
         <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>94</v>
-      </c>
-      <c r="H108" t="str">
+        <v>153</v>
+      </c>
+      <c r="H108">
         <f>IF(ISBLANK(G108),"",
 IF(ISERROR(FIND(",",G108)),
   IF(ISERROR(VLOOKUP(G108,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -20957,7 +20955,7 @@
     TRIM(MID(G108,FIND(",",G108,FIND(",",G108)+1)+1,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)-FIND(",",G108,FIND(",",G108)+1)-1)),VLOOKUP(TRIM(MID(G108,FIND(",",G108,FIND(",",G108)+1)+1,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)-FIND(",",G108,FIND(",",G108)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G108,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G108,FIND(",",G108,FIND(",",G108,FIND(",",G108)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>28</v>
@@ -20966,10 +20964,10 @@
         <v>32</v>
       </c>
       <c r="L108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M108" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N108">
         <v>30</v>
@@ -20978,7 +20976,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>6</v>
       </c>
@@ -21000,9 +20998,9 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>94</v>
-      </c>
-      <c r="H109" t="str">
+        <v>153</v>
+      </c>
+      <c r="H109">
         <f>IF(ISBLANK(G109),"",
 IF(ISERROR(FIND(",",G109)),
   IF(ISERROR(VLOOKUP(G109,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -21023,7 +21021,7 @@
     TRIM(MID(G109,FIND(",",G109,FIND(",",G109)+1)+1,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)-FIND(",",G109,FIND(",",G109)+1)-1)),VLOOKUP(TRIM(MID(G109,FIND(",",G109,FIND(",",G109)+1)+1,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)-FIND(",",G109,FIND(",",G109)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G109,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G109,FIND(",",G109,FIND(",",G109,FIND(",",G109)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
         <v>28</v>
@@ -21032,10 +21030,10 @@
         <v>32</v>
       </c>
       <c r="L109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N109">
         <v>30</v>
@@ -21044,7 +21042,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>6</v>
       </c>
@@ -21066,9 +21064,9 @@
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>94</v>
-      </c>
-      <c r="H110" t="str">
+        <v>153</v>
+      </c>
+      <c r="H110">
         <f>IF(ISBLANK(G110),"",
 IF(ISERROR(FIND(",",G110)),
   IF(ISERROR(VLOOKUP(G110,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -21089,7 +21087,7 @@
     TRIM(MID(G110,FIND(",",G110,FIND(",",G110)+1)+1,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)-FIND(",",G110,FIND(",",G110)+1)-1)),VLOOKUP(TRIM(MID(G110,FIND(",",G110,FIND(",",G110)+1)+1,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)-FIND(",",G110,FIND(",",G110)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G110,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G110,FIND(",",G110,FIND(",",G110,FIND(",",G110)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I110" t="s">
         <v>28</v>
@@ -21098,10 +21096,10 @@
         <v>32</v>
       </c>
       <c r="L110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M110" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N110">
         <v>30</v>
@@ -21110,7 +21108,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>6</v>
       </c>
@@ -21132,9 +21130,9 @@
         <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>94</v>
-      </c>
-      <c r="H111" t="str">
+        <v>153</v>
+      </c>
+      <c r="H111">
         <f>IF(ISBLANK(G111),"",
 IF(ISERROR(FIND(",",G111)),
   IF(ISERROR(VLOOKUP(G111,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -21155,7 +21153,7 @@
     TRIM(MID(G111,FIND(",",G111,FIND(",",G111)+1)+1,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)-FIND(",",G111,FIND(",",G111)+1)-1)),VLOOKUP(TRIM(MID(G111,FIND(",",G111,FIND(",",G111)+1)+1,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)-FIND(",",G111,FIND(",",G111)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G111,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G111,FIND(",",G111,FIND(",",G111,FIND(",",G111)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
         <v>28</v>
@@ -21164,10 +21162,10 @@
         <v>32</v>
       </c>
       <c r="L111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M111" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N111">
         <v>30</v>
@@ -21176,7 +21174,7 @@
         <v>8.9990000000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>6</v>
       </c>
@@ -21198,9 +21196,9 @@
         <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>94</v>
-      </c>
-      <c r="H112" t="str">
+        <v>153</v>
+      </c>
+      <c r="H112">
         <f>IF(ISBLANK(G112),"",
 IF(ISERROR(FIND(",",G112)),
   IF(ISERROR(VLOOKUP(G112,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -21221,7 +21219,7 @@
     TRIM(MID(G112,FIND(",",G112,FIND(",",G112)+1)+1,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)-FIND(",",G112,FIND(",",G112)+1)-1)),VLOOKUP(TRIM(MID(G112,FIND(",",G112,FIND(",",G112)+1)+1,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)-FIND(",",G112,FIND(",",G112)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G112,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G112,FIND(",",G112,FIND(",",G112,FIND(",",G112)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I112" t="s">
         <v>28</v>
@@ -21230,10 +21228,10 @@
         <v>32</v>
       </c>
       <c r="L112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M112" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N112">
         <v>30</v>
@@ -21242,7 +21240,7 @@
         <v>10.999000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>6</v>
       </c>
@@ -21264,9 +21262,9 @@
         <v>16</v>
       </c>
       <c r="G113" t="s">
-        <v>94</v>
-      </c>
-      <c r="H113" t="str">
+        <v>153</v>
+      </c>
+      <c r="H113">
         <f>IF(ISBLANK(G113),"",
 IF(ISERROR(FIND(",",G113)),
   IF(ISERROR(VLOOKUP(G113,[1]ActorTable!$A:$A,1,0)),"액터없음",
@@ -21287,7 +21285,7 @@
     TRIM(MID(G113,FIND(",",G113,FIND(",",G113)+1)+1,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)-FIND(",",G113,FIND(",",G113)+1)-1)),VLOOKUP(TRIM(MID(G113,FIND(",",G113,FIND(",",G113)+1)+1,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)-FIND(",",G113,FIND(",",G113)+1)-1)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0)),
     TRIM(MID(G113,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)+1,999)),VLOOKUP(TRIM(MID(G113,FIND(",",G113,FIND(",",G113,FIND(",",G113)+1)+1)+1,999)),[1]ActorTable!$1:$1048576,MATCH("prefabAddress|String",[1]ActorTable!$1:$1,0),0))),
 )))))</f>
-        <v>BigBatSuccubus, SandWarrior, DualWarrior, Akai</v>
+        <v>0</v>
       </c>
       <c r="I113" t="s">
         <v>28</v>
@@ -21296,10 +21294,10 @@
         <v>32</v>
       </c>
       <c r="L113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M113" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N113">
         <v>30</v>
@@ -21309,7 +21307,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="O1:O113" xr:uid="{C242B5F0-CE81-45C6-A9B6-1B075F739F75}"/>
+  <autoFilter ref="O1:O113" xr:uid="{C242B5F0-CE81-45C6-A9B6-1B075F739F75}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D5173F-81C3-45CA-A2E1-75E3A0BAF5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD1751-16CC-4B1F-AC69-32EEE559705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -13758,7 +13758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>4</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5</v>
       </c>
@@ -20844,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>6</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>3.9990000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>6</v>
       </c>
@@ -21311,6 +21311,8 @@
     <filterColumn colId="0">
       <filters>
         <filter val="0"/>
+        <filter val="1.999"/>
+        <filter val="3.999"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Excel/작업Invasion.xlsx
+++ b/Excel/작업Invasion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD1751-16CC-4B1F-AC69-32EEE559705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85223CA-1222-431E-B69A-BE787C52BCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFCF69F8-309F-423C-B60A-AFF7EB6EF982}"/>
   </bookViews>
   <sheets>
     <sheet name="InvasionTable" sheetId="1" r:id="rId1"/>
@@ -337,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor1002, Actor3021, Actor0024, Actor0125, Actor2128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Actor0201, Actor2010, Actor1141, Actor0240</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +526,10 @@
   </si>
   <si>
     <t>Actor2103, Actor0030, Actor3022, Actor3114, Actor3212, Actor0236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1002, Actor3021, Actor0024, Actor0125, Actor2128, Actor0233</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13754,21 +13754,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F99DA2-EABB-4D74-8370-957E4E392B1E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" collapsed="1"/>
     <col min="7" max="7" width="51.5" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="8" max="8" width="22.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -13840,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <f>IF(ISBLANK(G2),"",
@@ -13909,7 +13911,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3">
         <f>IF(ISBLANK(G3),"",
@@ -13978,7 +13980,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4">
         <f>IF(ISBLANK(G4),"",
@@ -14047,7 +14049,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5">
         <f>IF(ISBLANK(G5),"",
@@ -14116,7 +14118,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6">
         <f>IF(ISBLANK(G6),"",
@@ -14185,7 +14187,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7">
         <f>IF(ISBLANK(G7),"",
@@ -14254,7 +14256,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8">
         <f>IF(ISBLANK(G8),"",
@@ -14323,7 +14325,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9">
         <f>IF(ISBLANK(G9),"",
@@ -14392,7 +14394,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10">
         <f>IF(ISBLANK(G10),"",
@@ -14430,7 +14432,7 @@
         <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N10">
         <v>40</v>
@@ -14461,7 +14463,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11">
         <f>IF(ISBLANK(G11),"",
@@ -14499,7 +14501,7 @@
         <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>40</v>
@@ -14530,7 +14532,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12">
         <f>IF(ISBLANK(G12),"",
@@ -14568,7 +14570,7 @@
         <v>33</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>40</v>
@@ -14599,7 +14601,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13">
         <f>IF(ISBLANK(G13),"",
@@ -14637,7 +14639,7 @@
         <v>33</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13">
         <v>40</v>
@@ -14668,7 +14670,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14">
         <f>IF(ISBLANK(G14),"",
@@ -14706,7 +14708,7 @@
         <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <v>40</v>
@@ -14737,7 +14739,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15">
         <f>IF(ISBLANK(G15),"",
@@ -14775,7 +14777,7 @@
         <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>40</v>
@@ -14806,7 +14808,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16">
         <f>IF(ISBLANK(G16),"",
@@ -14844,7 +14846,7 @@
         <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>40</v>
@@ -14875,7 +14877,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17">
         <f>IF(ISBLANK(G17),"",
@@ -14913,7 +14915,7 @@
         <v>33</v>
       </c>
       <c r="M17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N17">
         <v>40</v>
@@ -14944,7 +14946,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H18">
         <f>IF(ISBLANK(G18),"",
@@ -15010,7 +15012,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H19">
         <f>IF(ISBLANK(G19),"",
@@ -15076,7 +15078,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H20">
         <f>IF(ISBLANK(G20),"",
@@ -15142,7 +15144,7 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H21">
         <f>IF(ISBLANK(G21),"",
@@ -15208,7 +15210,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H22">
         <f>IF(ISBLANK(G22),"",
@@ -15274,7 +15276,7 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H23">
         <f>IF(ISBLANK(G23),"",
@@ -15340,7 +15342,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H24">
         <f>IF(ISBLANK(G24),"",
@@ -15406,7 +15408,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H25">
         <f>IF(ISBLANK(G25),"",
@@ -15472,7 +15474,7 @@
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H26">
         <f>IF(ISBLANK(G26),"",
@@ -15507,7 +15509,7 @@
         <v>33</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N26">
         <v>20</v>
@@ -15538,7 +15540,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H27">
         <f>IF(ISBLANK(G27),"",
@@ -15573,7 +15575,7 @@
         <v>33</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N27">
         <v>20</v>
@@ -15604,7 +15606,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H28">
         <f>IF(ISBLANK(G28),"",
@@ -15639,7 +15641,7 @@
         <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N28">
         <v>20</v>
@@ -15670,7 +15672,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H29">
         <f>IF(ISBLANK(G29),"",
@@ -15705,7 +15707,7 @@
         <v>33</v>
       </c>
       <c r="M29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N29">
         <v>20</v>
@@ -15736,7 +15738,7 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H30">
         <f>IF(ISBLANK(G30),"",
@@ -15771,7 +15773,7 @@
         <v>33</v>
       </c>
       <c r="M30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N30">
         <v>20</v>
@@ -15802,7 +15804,7 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H31">
         <f>IF(ISBLANK(G31),"",
@@ -15837,7 +15839,7 @@
         <v>33</v>
       </c>
       <c r="M31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N31">
         <v>20</v>
@@ -15868,7 +15870,7 @@
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H32">
         <f>IF(ISBLANK(G32),"",
@@ -15903,7 +15905,7 @@
         <v>33</v>
       </c>
       <c r="M32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N32">
         <v>20</v>
@@ -15934,7 +15936,7 @@
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="H33">
         <f>IF(ISBLANK(G33),"",
@@ -15969,7 +15971,7 @@
         <v>33</v>
       </c>
       <c r="M33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -16000,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H34">
         <f>IF(ISBLANK(G34),"",
@@ -16066,7 +16068,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H35">
         <f>IF(ISBLANK(G35),"",
@@ -16132,7 +16134,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36">
         <f>IF(ISBLANK(G36),"",
@@ -16198,7 +16200,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H37">
         <f>IF(ISBLANK(G37),"",
@@ -16264,7 +16266,7 @@
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H38">
         <f>IF(ISBLANK(G38),"",
@@ -16330,7 +16332,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H39">
         <f>IF(ISBLANK(G39),"",
@@ -16396,7 +16398,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40">
         <f>IF(ISBLANK(G40),"",
@@ -16462,7 +16464,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H41">
         <f>IF(ISBLANK(G41),"",
@@ -16528,7 +16530,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42">
         <f>IF(ISBLANK(G42),"",
@@ -16563,7 +16565,7 @@
         <v>33</v>
       </c>
       <c r="M42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N42">
         <v>30</v>
@@ -16594,7 +16596,7 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43">
         <f>IF(ISBLANK(G43),"",
@@ -16629,7 +16631,7 @@
         <v>33</v>
       </c>
       <c r="M43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N43">
         <v>30</v>
@@ -16660,7 +16662,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44">
         <f>IF(ISBLANK(G44),"",
@@ -16695,7 +16697,7 @@
         <v>33</v>
       </c>
       <c r="M44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N44">
         <v>30</v>
@@ -16726,7 +16728,7 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H45">
         <f>IF(ISBLANK(G45),"",
@@ -16761,7 +16763,7 @@
         <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N45">
         <v>30</v>
@@ -16792,7 +16794,7 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H46">
         <f>IF(ISBLANK(G46),"",
@@ -16827,7 +16829,7 @@
         <v>33</v>
       </c>
       <c r="M46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N46">
         <v>30</v>
@@ -16858,7 +16860,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47">
         <f>IF(ISBLANK(G47),"",
@@ -16893,7 +16895,7 @@
         <v>33</v>
       </c>
       <c r="M47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N47">
         <v>30</v>
@@ -16924,7 +16926,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H48">
         <f>IF(ISBLANK(G48),"",
@@ -16959,7 +16961,7 @@
         <v>33</v>
       </c>
       <c r="M48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N48">
         <v>30</v>
@@ -16990,7 +16992,7 @@
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49">
         <f>IF(ISBLANK(G49),"",
@@ -17025,7 +17027,7 @@
         <v>33</v>
       </c>
       <c r="M49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N49">
         <v>30</v>
@@ -17056,7 +17058,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H50">
         <f>IF(ISBLANK(G50),"",
@@ -17125,7 +17127,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H51">
         <f>IF(ISBLANK(G51),"",
@@ -17194,7 +17196,7 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H52">
         <f>IF(ISBLANK(G52),"",
@@ -17263,7 +17265,7 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H53">
         <f>IF(ISBLANK(G53),"",
@@ -17332,7 +17334,7 @@
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H54">
         <f>IF(ISBLANK(G54),"",
@@ -17401,7 +17403,7 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H55">
         <f>IF(ISBLANK(G55),"",
@@ -17470,7 +17472,7 @@
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H56">
         <f>IF(ISBLANK(G56),"",
@@ -17539,7 +17541,7 @@
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H57">
         <f>IF(ISBLANK(G57),"",
@@ -17608,7 +17610,7 @@
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H58">
         <f>IF(ISBLANK(G58),"",
@@ -17646,7 +17648,7 @@
         <v>33</v>
       </c>
       <c r="M58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N58">
         <v>40</v>
@@ -17677,7 +17679,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H59">
         <f>IF(ISBLANK(G59),"",
@@ -17715,7 +17717,7 @@
         <v>33</v>
       </c>
       <c r="M59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N59">
         <v>40</v>
@@ -17746,7 +17748,7 @@
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H60">
         <f>IF(ISBLANK(G60),"",
@@ -17784,7 +17786,7 @@
         <v>33</v>
       </c>
       <c r="M60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N60">
         <v>40</v>
@@ -17815,7 +17817,7 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H61">
         <f>IF(ISBLANK(G61),"",
@@ -17853,7 +17855,7 @@
         <v>33</v>
       </c>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N61">
         <v>40</v>
@@ -17884,7 +17886,7 @@
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H62">
         <f>IF(ISBLANK(G62),"",
@@ -17922,7 +17924,7 @@
         <v>33</v>
       </c>
       <c r="M62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N62">
         <v>40</v>
@@ -17953,7 +17955,7 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H63">
         <f>IF(ISBLANK(G63),"",
@@ -17991,7 +17993,7 @@
         <v>33</v>
       </c>
       <c r="M63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N63">
         <v>40</v>
@@ -18022,7 +18024,7 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H64">
         <f>IF(ISBLANK(G64),"",
@@ -18060,7 +18062,7 @@
         <v>33</v>
       </c>
       <c r="M64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N64">
         <v>40</v>
@@ -18091,7 +18093,7 @@
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65">
         <f>IF(ISBLANK(G65),"",
@@ -18129,7 +18131,7 @@
         <v>33</v>
       </c>
       <c r="M65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N65">
         <v>40</v>
@@ -18160,7 +18162,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H66">
         <f>IF(ISBLANK(G66),"",
@@ -18226,7 +18228,7 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H67">
         <f>IF(ISBLANK(G67),"",
@@ -18292,7 +18294,7 @@
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H68">
         <f>IF(ISBLANK(G68),"",
@@ -18358,7 +18360,7 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H69">
         <f>IF(ISBLANK(G69),"",
@@ -18424,7 +18426,7 @@
         <v>5</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H70">
         <f>IF(ISBLANK(G70),"",
@@ -18490,7 +18492,7 @@
         <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H71">
         <f>IF(ISBLANK(G71),"",
@@ -18556,7 +18558,7 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H72">
         <f>IF(ISBLANK(G72),"",
@@ -18622,7 +18624,7 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H73">
         <f>IF(ISBLANK(G73),"",
@@ -18688,7 +18690,7 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H74">
         <f>IF(ISBLANK(G74),"",
@@ -18723,7 +18725,7 @@
         <v>33</v>
       </c>
       <c r="M74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N74">
         <v>30</v>
@@ -18754,7 +18756,7 @@
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H75">
         <f>IF(ISBLANK(G75),"",
@@ -18789,7 +18791,7 @@
         <v>33</v>
       </c>
       <c r="M75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N75">
         <v>30</v>
@@ -18820,7 +18822,7 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H76">
         <f>IF(ISBLANK(G76),"",
@@ -18855,7 +18857,7 @@
         <v>33</v>
       </c>
       <c r="M76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N76">
         <v>30</v>
@@ -18886,7 +18888,7 @@
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H77">
         <f>IF(ISBLANK(G77),"",
@@ -18921,7 +18923,7 @@
         <v>33</v>
       </c>
       <c r="M77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N77">
         <v>30</v>
@@ -18952,7 +18954,7 @@
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H78">
         <f>IF(ISBLANK(G78),"",
@@ -18987,7 +18989,7 @@
         <v>33</v>
       </c>
       <c r="M78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N78">
         <v>30</v>
@@ -19018,7 +19020,7 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H79">
         <f>IF(ISBLANK(G79),"",
@@ -19053,7 +19055,7 @@
         <v>33</v>
       </c>
       <c r="M79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N79">
         <v>30</v>
@@ -19084,7 +19086,7 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H80">
         <f>IF(ISBLANK(G80),"",
@@ -19119,7 +19121,7 @@
         <v>33</v>
       </c>
       <c r="M80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N80">
         <v>30</v>
@@ -19150,7 +19152,7 @@
         <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H81">
         <f>IF(ISBLANK(G81),"",
@@ -19185,7 +19187,7 @@
         <v>33</v>
       </c>
       <c r="M81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N81">
         <v>30</v>
@@ -19216,7 +19218,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" t="str">
         <f>IF(ISBLANK(G82),"",
@@ -19282,7 +19284,7 @@
         <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" t="str">
         <f>IF(ISBLANK(G83),"",
@@ -19348,7 +19350,7 @@
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" t="str">
         <f>IF(ISBLANK(G84),"",
@@ -19414,7 +19416,7 @@
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" t="str">
         <f>IF(ISBLANK(G85),"",
@@ -19480,7 +19482,7 @@
         <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H86" t="str">
         <f>IF(ISBLANK(G86),"",
@@ -19546,7 +19548,7 @@
         <v>6</v>
       </c>
       <c r="G87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H87" t="str">
         <f>IF(ISBLANK(G87),"",
@@ -19612,7 +19614,7 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H88" t="str">
         <f>IF(ISBLANK(G88),"",
@@ -19678,7 +19680,7 @@
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H89" t="str">
         <f>IF(ISBLANK(G89),"",
@@ -19744,7 +19746,7 @@
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" t="str">
         <f>IF(ISBLANK(G90),"",
@@ -19779,7 +19781,7 @@
         <v>33</v>
       </c>
       <c r="M90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N90">
         <v>20</v>
@@ -19810,7 +19812,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" t="str">
         <f>IF(ISBLANK(G91),"",
@@ -19845,7 +19847,7 @@
         <v>33</v>
       </c>
       <c r="M91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N91">
         <v>20</v>
@@ -19876,7 +19878,7 @@
         <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" t="str">
         <f>IF(ISBLANK(G92),"",
@@ -19911,7 +19913,7 @@
         <v>33</v>
       </c>
       <c r="M92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N92">
         <v>20</v>
@@ -19942,7 +19944,7 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" t="str">
         <f>IF(ISBLANK(G93),"",
@@ -19977,7 +19979,7 @@
         <v>33</v>
       </c>
       <c r="M93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N93">
         <v>20</v>
@@ -20008,7 +20010,7 @@
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H94" t="str">
         <f>IF(ISBLANK(G94),"",
@@ -20043,7 +20045,7 @@
         <v>33</v>
       </c>
       <c r="M94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N94">
         <v>20</v>
@@ -20074,7 +20076,7 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" t="str">
         <f>IF(ISBLANK(G95),"",
@@ -20109,7 +20111,7 @@
         <v>33</v>
       </c>
       <c r="M95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N95">
         <v>20</v>
@@ -20140,7 +20142,7 @@
         <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" t="str">
         <f>IF(ISBLANK(G96),"",
@@ -20175,7 +20177,7 @@
         <v>33</v>
       </c>
       <c r="M96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N96">
         <v>20</v>
@@ -20206,7 +20208,7 @@
         <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" t="str">
         <f>IF(ISBLANK(G97),"",
@@ -20241,7 +20243,7 @@
         <v>33</v>
       </c>
       <c r="M97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N97">
         <v>20</v>
@@ -20272,7 +20274,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H98">
         <f>IF(ISBLANK(G98),"",
@@ -20338,7 +20340,7 @@
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H99">
         <f>IF(ISBLANK(G99),"",
@@ -20404,7 +20406,7 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H100">
         <f>IF(ISBLANK(G100),"",
@@ -20470,7 +20472,7 @@
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H101">
         <f>IF(ISBLANK(G101),"",
@@ -20536,7 +20538,7 @@
         <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H102">
         <f>IF(ISBLANK(G102),"",
@@ -20602,7 +20604,7 @@
         <v>6</v>
       </c>
       <c r="G103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H103">
         <f>IF(ISBLANK(G103),"",
@@ -20668,7 +20670,7 @@
         <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H104">
         <f>IF(ISBLANK(G104),"",
@@ -20734,7 +20736,7 @@
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H105">
         <f>IF(ISBLANK(G105),"",
@@ -20800,7 +20802,7 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H106">
         <f>IF(ISBLANK(G106),"",
@@ -20835,7 +20837,7 @@
         <v>33</v>
       </c>
       <c r="M106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N106">
         <v>30</v>
@@ -20866,7 +20868,7 @@
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H107">
         <f>IF(ISBLANK(G107),"",
@@ -20901,7 +20903,7 @@
         <v>33</v>
       </c>
       <c r="M107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N107">
         <v>30</v>
@@ -20932,7 +20934,7 @@
         <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H108">
         <f>IF(ISBLANK(G108),"",
@@ -20967,7 +20969,7 @@
         <v>33</v>
       </c>
       <c r="M108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N108">
         <v>30</v>
@@ -20998,7 +21000,7 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H109">
         <f>IF(ISBLANK(G109),"",
@@ -21033,7 +21035,7 @@
         <v>33</v>
       </c>
       <c r="M109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N109">
         <v>30</v>
@@ -21064,7 +21066,7 @@
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H110">
         <f>IF(ISBLANK(G110),"",
@@ -21099,7 +21101,7 @@
         <v>33</v>
       </c>
       <c r="M110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N110">
         <v>30</v>
@@ -21130,7 +21132,7 @@
         <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H111">
         <f>IF(ISBLANK(G111),"",
@@ -21165,7 +21167,7 @@
         <v>33</v>
       </c>
       <c r="M111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N111">
         <v>30</v>
@@ -21196,7 +21198,7 @@
         <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H112">
         <f>IF(ISBLANK(G112),"",
@@ -21231,7 +21233,7 @@
         <v>33</v>
       </c>
       <c r="M112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N112">
         <v>30</v>
@@ -21262,7 +21264,7 @@
         <v>16</v>
       </c>
       <c r="G113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H113">
         <f>IF(ISBLANK(G113),"",
@@ -21297,7 +21299,7 @@
         <v>33</v>
       </c>
       <c r="M113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N113">
         <v>30</v>
